--- a/reporte ventas.xlsx
+++ b/reporte ventas.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\programacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4069000-07B7-4253-9E1D-26A2A4A0BAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FA0882-712A-454B-9F70-BFEE0CC2945C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6E9F81BF-F4C9-49D2-A92D-33BB56F1006C}"/>
   </bookViews>
@@ -93,15 +93,19 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -112,6 +116,1066 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Febrero</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sebastian</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$6:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-53BE-4942-932F-5FA1E72C9A62}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>angelica</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$6:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-53BE-4942-932F-5FA1E72C9A62}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>alejandro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$E$6:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-53BE-4942-932F-5FA1E72C9A62}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="119127439"/>
+        <c:axId val="119128687"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="119127439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="119128687"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="119128687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="119127439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8075528B-8158-4569-8D35-06B6D769AD87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{32100464-531D-4702-91C3-0417DDB79319}" name="Tabla1" displayName="Tabla1" ref="B5:E13" totalsRowShown="0">
+  <autoFilter ref="B5:E13" xr:uid="{32100464-531D-4702-91C3-0417DDB79319}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{B2F220E4-5B4B-4845-A628-50366899A3CC}" name="fecha" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{FEA1EE43-0FB3-404A-98BE-D8507BB24BA1}" name="sebastian"/>
+    <tableColumn id="3" xr3:uid="{D94D2859-4215-46B3-949D-B8830293F0A0}" name="angelica"/>
+    <tableColumn id="4" xr3:uid="{B212303C-50AB-4C93-B165-300DB6D1233C}" name="alejandro"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -411,33 +1475,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA45CE1-5F09-4BED-BEB9-8E09BCADD704}">
-  <dimension ref="B2:E9"/>
+  <dimension ref="B2:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -454,7 +1522,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>44964</v>
       </c>
       <c r="E6">
@@ -462,7 +1530,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>44964</v>
       </c>
       <c r="E7">
@@ -470,7 +1538,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>44965</v>
       </c>
       <c r="D8">
@@ -478,10 +1546,42 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>44965</v>
       </c>
       <c r="D9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>44966</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>44967</v>
+      </c>
+      <c r="D11">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>44967</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>44967</v>
+      </c>
+      <c r="E13">
         <v>36</v>
       </c>
     </row>
@@ -491,5 +1591,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/reporte ventas.xlsx
+++ b/reporte ventas.xlsx
@@ -8,13 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\programacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FA0882-712A-454B-9F70-BFEE0CC2945C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7398B659-70C0-40FF-B23C-1E509D988145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6E9F81BF-F4C9-49D2-A92D-33BB56F1006C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Hoja1!$B$6:$B$15</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Hoja1!$C$5</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Hoja1!$C$6:$C$15</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Hoja1!$D$5</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Hoja1!$D$6:$D$15</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Hoja1!$E$5</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Hoja1!$E$6:$E$15</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Reporte de Ventas</t>
   </si>
@@ -49,6 +59,21 @@
   </si>
   <si>
     <t>fecha</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>total mes febrero</t>
+  </si>
+  <si>
+    <t>vendedor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ingreso </t>
+  </si>
+  <si>
+    <t>gasto</t>
   </si>
 </sst>
 </file>
@@ -79,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -87,16 +112,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -107,6 +152,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF2F2F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -125,10 +175,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="108"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="8"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -139,13 +189,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -153,8 +209,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-CO"/>
-              <a:t>Febrero</a:t>
+              <a:t>Mes</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" baseline="0"/>
+              <a:t> de Febrero</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -171,13 +232,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -190,192 +257,144 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF2F2F">
+                  <a:alpha val="30980"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-10C9-4DF4-B74D-5925780BD09A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-10C9-4DF4-B74D-5925780BD09A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$C$5</c:f>
+              <c:f>Hoja1!$H$3:$J$3</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>sebastian</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>angelica</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>alejandro</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$6:$C$13</c:f>
+              <c:f>Hoja1!$H$4:$J$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="6">
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-53BE-4942-932F-5FA1E72C9A62}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$D$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>angelica</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$D$6:$D$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="2">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>48</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-53BE-4942-932F-5FA1E72C9A62}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$E$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>alejandro</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$E$6:$E$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>36</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-53BE-4942-932F-5FA1E72C9A62}"/>
+              <c16:uniqueId val="{00000000-10C9-4DF4-B74D-5925780BD09A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -387,28 +406,29 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="119127439"/>
-        <c:axId val="119128687"/>
-      </c:lineChart>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="157042976"/>
+        <c:axId val="157040064"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="119127439"/>
+        <c:axId val="157042976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -422,9 +442,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -435,7 +454,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119128687"/>
+        <c:crossAx val="157040064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -443,7 +462,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119128687"/>
+        <c:axId val="157040064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -453,9 +472,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -481,9 +500,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -494,7 +512,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119127439"/>
+        <c:crossAx val="157042976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -506,39 +524,8 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -549,17 +536,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -582,75 +580,39 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="19">
   <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -658,26 +620,34 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -686,9 +656,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -707,14 +676,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -723,35 +684,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -763,30 +724,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -802,21 +764,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -826,20 +785,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -850,167 +809,167 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1018,14 +977,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1037,12 +996,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1051,14 +1017,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1067,9 +1032,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1079,7 +1043,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1087,9 +1051,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1100,9 +1064,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1112,14 +1075,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1128,23 +1085,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3">
+        <xdr:cNvPr id="11" name="Gráfico 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8075528B-8158-4569-8D35-06B6D769AD87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{795E7E86-5CED-4BF6-89E2-1911C5AB20B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1166,8 +1123,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{32100464-531D-4702-91C3-0417DDB79319}" name="Tabla1" displayName="Tabla1" ref="B5:E13" totalsRowShown="0">
-  <autoFilter ref="B5:E13" xr:uid="{32100464-531D-4702-91C3-0417DDB79319}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{32100464-531D-4702-91C3-0417DDB79319}" name="Tabla1" displayName="Tabla1" ref="B5:E15" totalsRowShown="0">
+  <autoFilter ref="B5:E15" xr:uid="{32100464-531D-4702-91C3-0417DDB79319}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B2F220E4-5B4B-4845-A628-50366899A3CC}" name="fecha" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{FEA1EE43-0FB3-404A-98BE-D8507BB24BA1}" name="sebastian"/>
@@ -1475,39 +1432,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA45CE1-5F09-4BED-BEB9-8E09BCADD704}">
-  <dimension ref="B2:E13"/>
+  <dimension ref="B2:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
+      <c r="G3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
+      <c r="G4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="4">
+        <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
+        <v>8</v>
+      </c>
+      <c r="I4" s="4">
+        <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
+        <v>178</v>
+      </c>
+      <c r="J4" s="4">
+        <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
+        <v>106</v>
+      </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -1520,16 +1511,20 @@
       <c r="E5" t="s">
         <v>3</v>
       </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>44964</v>
       </c>
       <c r="E6">
         <v>36</v>
       </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>44964</v>
       </c>
@@ -1537,7 +1532,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>44965</v>
       </c>
@@ -1545,7 +1540,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>44965</v>
       </c>
@@ -1553,7 +1548,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>44966</v>
       </c>
@@ -1561,7 +1556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>44967</v>
       </c>
@@ -1569,7 +1564,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>44967</v>
       </c>
@@ -1577,7 +1572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>44967</v>
       </c>
@@ -1585,9 +1580,22 @@
         <v>36</v>
       </c>
     </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>44968</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:E4"/>
+    <mergeCell ref="G2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1596,4 +1604,30 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B8D9061-219F-4424-8988-4A039D7CD0A1}">
+  <dimension ref="A4:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/reporte ventas.xlsx
+++ b/reporte ventas.xlsx
@@ -1,31 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\programacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DILZA RAMIREZ\sebastian carrero\programacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7398B659-70C0-40FF-B23C-1E509D988145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6E9F81BF-F4C9-49D2-A92D-33BB56F1006C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="reporte de ventas sublimado" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Hoja1!$B$6:$B$15</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Hoja1!$C$5</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Hoja1!$C$6:$C$15</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Hoja1!$D$5</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Hoja1!$D$6:$D$15</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Hoja1!$E$5</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Hoja1!$E$6:$E$15</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'reporte de ventas sublimado'!$B$6:$B$15</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'reporte de ventas sublimado'!$C$5</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'reporte de ventas sublimado'!$C$6:$C$15</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'reporte de ventas sublimado'!$D$5</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'reporte de ventas sublimado'!$D$6:$D$15</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'reporte de ventas sublimado'!$E$5</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'reporte de ventas sublimado'!$E$6:$E$15</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Reporte de Ventas</t>
   </si>
@@ -70,16 +69,22 @@
     <t>vendedor</t>
   </si>
   <si>
-    <t xml:space="preserve">ingreso </t>
+    <t>producto</t>
   </si>
   <si>
-    <t>gasto</t>
+    <t>valor compra</t>
+  </si>
+  <si>
+    <t>valor venta</t>
+  </si>
+  <si>
+    <t>ganacia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -134,14 +139,14 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -169,7 +174,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -219,6 +224,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -324,7 +330,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-10C9-4DF4-B74D-5925780BD09A}"/>
               </c:ext>
@@ -351,7 +357,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-10C9-4DF4-B74D-5925780BD09A}"/>
               </c:ext>
@@ -359,7 +365,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$H$3:$J$3</c:f>
+              <c:f>'reporte de ventas sublimado'!$H$3:$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -376,7 +382,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$H$4:$J$4</c:f>
+              <c:f>'reporte de ventas sublimado'!$H$4:$J$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -392,7 +398,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-10C9-4DF4-B74D-5925780BD09A}"/>
             </c:ext>
@@ -408,11 +414,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="157042976"/>
-        <c:axId val="157040064"/>
+        <c:axId val="254640960"/>
+        <c:axId val="254641504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="157042976"/>
+        <c:axId val="254640960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -454,7 +460,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157040064"/>
+        <c:crossAx val="254641504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -462,7 +468,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157040064"/>
+        <c:axId val="254641504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -512,7 +518,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157042976"/>
+        <c:crossAx val="254640960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -526,14 +532,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -1101,7 +1107,7 @@
         <xdr:cNvPr id="11" name="Gráfico 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{795E7E86-5CED-4BF6-89E2-1911C5AB20B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{795E7E86-5CED-4BF6-89E2-1911C5AB20B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1123,13 +1129,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{32100464-531D-4702-91C3-0417DDB79319}" name="Tabla1" displayName="Tabla1" ref="B5:E15" totalsRowShown="0">
-  <autoFilter ref="B5:E15" xr:uid="{32100464-531D-4702-91C3-0417DDB79319}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B5:E15" totalsRowShown="0">
+  <autoFilter ref="B5:E15"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B2F220E4-5B4B-4845-A628-50366899A3CC}" name="fecha" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{FEA1EE43-0FB3-404A-98BE-D8507BB24BA1}" name="sebastian"/>
-    <tableColumn id="3" xr3:uid="{D94D2859-4215-46B3-949D-B8830293F0A0}" name="angelica"/>
-    <tableColumn id="4" xr3:uid="{B212303C-50AB-4C93-B165-300DB6D1233C}" name="alejandro"/>
+    <tableColumn id="1" name="fecha" dataDxfId="0"/>
+    <tableColumn id="2" name="sebastian"/>
+    <tableColumn id="3" name="angelica"/>
+    <tableColumn id="4" name="alejandro"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="B4:G5" totalsRowShown="0">
+  <autoFilter ref="B4:G5"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="fecha"/>
+    <tableColumn id="2" name="producto"/>
+    <tableColumn id="3" name="valor compra"/>
+    <tableColumn id="4" name="valor venta"/>
+    <tableColumn id="5" name="ganacia"/>
+    <tableColumn id="6" name="vendedor"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1431,10 +1452,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA45CE1-5F09-4BED-BEB9-8E09BCADD704}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
@@ -1446,54 +1467,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="G2" s="3" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="G3" s="4" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="G4" s="4" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
         <v>8</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
         <v>178</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
         <v>106</v>
       </c>
@@ -1511,8 +1532,8 @@
       <c r="E5" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
@@ -1521,8 +1542,8 @@
       <c r="E6">
         <v>36</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
@@ -1607,27 +1628,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B8D9061-219F-4424-8988-4A039D7CD0A1}">
-  <dimension ref="A4:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/reporte ventas.xlsx
+++ b/reporte ventas.xlsx
@@ -1,30 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr hidePivotFieldList="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DILZA RAMIREZ\sebastian carrero\programacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\programacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9A3008-0330-473F-B7BF-FE85201BF73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="reporte de ventas sublimado" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Ventas varias" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'reporte de ventas sublimado'!$B$6:$B$15</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'reporte de ventas sublimado'!$C$5</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'reporte de ventas sublimado'!$C$6:$C$15</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'reporte de ventas sublimado'!$D$5</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'reporte de ventas sublimado'!$D$6:$D$15</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'reporte de ventas sublimado'!$E$5</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'reporte de ventas sublimado'!$E$6:$E$15</definedName>
-  </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Reporte de Ventas</t>
   </si>
@@ -80,11 +72,14 @@
   <si>
     <t>ganacia</t>
   </si>
+  <si>
+    <t>pocillos blancos</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -136,11 +131,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -174,7 +170,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -224,7 +220,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -330,7 +325,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-10C9-4DF4-B74D-5925780BD09A}"/>
               </c:ext>
@@ -357,7 +352,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-10C9-4DF4-B74D-5925780BD09A}"/>
               </c:ext>
@@ -387,18 +382,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>178</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>106</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-10C9-4DF4-B74D-5925780BD09A}"/>
             </c:ext>
@@ -532,14 +527,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -1107,7 +1102,7 @@
         <xdr:cNvPr id="11" name="Gráfico 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{795E7E86-5CED-4BF6-89E2-1911C5AB20B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{795E7E86-5CED-4BF6-89E2-1911C5AB20B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1129,28 +1124,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B5:E15" totalsRowShown="0">
-  <autoFilter ref="B5:E15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:E21" totalsRowShown="0">
+  <autoFilter ref="B5:E21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="fecha" dataDxfId="0"/>
-    <tableColumn id="2" name="sebastian"/>
-    <tableColumn id="3" name="angelica"/>
-    <tableColumn id="4" name="alejandro"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="fecha" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="sebastian"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="angelica"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="alejandro"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="B4:G5" totalsRowShown="0">
-  <autoFilter ref="B4:G5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla2" displayName="Tabla2" ref="B4:G5" totalsRowShown="0">
+  <autoFilter ref="B4:G5" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="fecha"/>
-    <tableColumn id="2" name="producto"/>
-    <tableColumn id="3" name="valor compra"/>
-    <tableColumn id="4" name="valor venta"/>
-    <tableColumn id="5" name="ganacia"/>
-    <tableColumn id="6" name="vendedor"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="fecha"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="producto"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="valor compra"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="valor venta"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="ganacia">
+      <calculatedColumnFormula>Tabla2[[#This Row],[valor venta]]-Tabla2[[#This Row],[valor compra]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="vendedor"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1452,11 +1449,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1466,25 +1463,26 @@
     <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="G2" s="5" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
       <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1497,29 +1495,36 @@
       <c r="J3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="K3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
       <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="I4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
-        <v>178</v>
+        <v>263</v>
       </c>
       <c r="J4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="K4" s="2">
+        <f>SUM(H4:J4)</f>
+        <v>493</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -1535,7 +1540,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>44964</v>
       </c>
@@ -1545,7 +1550,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>44964</v>
       </c>
@@ -1553,7 +1558,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>44965</v>
       </c>
@@ -1561,7 +1566,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>44965</v>
       </c>
@@ -1569,7 +1574,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>44966</v>
       </c>
@@ -1577,7 +1582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>44967</v>
       </c>
@@ -1585,7 +1590,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>44967</v>
       </c>
@@ -1593,7 +1598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>44967</v>
       </c>
@@ -1601,7 +1606,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>44968</v>
       </c>
@@ -1610,13 +1615,61 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>44971</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>44972</v>
+      </c>
+      <c r="D16">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>44972</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>44973</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>44974</v>
+      </c>
+      <c r="C19">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>44974</v>
+      </c>
+      <c r="E20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:E4"/>
-    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1628,15 +1681,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B4:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
@@ -1662,6 +1716,27 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>44973</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>40080</v>
+      </c>
+      <c r="E5">
+        <v>43800</v>
+      </c>
+      <c r="F5">
+        <f>Tabla2[[#This Row],[valor venta]]-Tabla2[[#This Row],[valor compra]]</f>
+        <v>3720</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/reporte ventas.xlsx
+++ b/reporte ventas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\programacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9A3008-0330-473F-B7BF-FE85201BF73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E1E74D-1577-4BAF-80AD-0A0CAF0C2EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,10 +382,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>81</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>263</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>149</c:v>
@@ -1124,8 +1124,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:E21" totalsRowShown="0">
-  <autoFilter ref="B5:E21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:E22" totalsRowShown="0">
+  <autoFilter ref="B5:E22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="fecha" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="sebastian"/>
@@ -1450,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K21"/>
+  <dimension ref="B2:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C15" sqref="C15:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,11 +1509,11 @@
       </c>
       <c r="H4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="J4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="K4" s="2">
         <f>SUM(H4:J4)</f>
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -1664,7 +1664,20 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
+      <c r="B21" s="1">
+        <v>44975</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>44975</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/reporte ventas.xlsx
+++ b/reporte ventas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\programacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E1E74D-1577-4BAF-80AD-0A0CAF0C2EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEF2718-B7A0-4EE9-8BAC-CDA61050EBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,10 +382,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>84</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>269</c:v>
+                  <c:v>276</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>149</c:v>
@@ -1124,8 +1124,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:E22" totalsRowShown="0">
-  <autoFilter ref="B5:E22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:E24" totalsRowShown="0">
+  <autoFilter ref="B5:E24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="fecha" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="sebastian"/>
@@ -1450,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K22"/>
+  <dimension ref="B2:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:E22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,11 +1509,11 @@
       </c>
       <c r="H4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="I4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="J4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="K4" s="2">
         <f>SUM(H4:J4)</f>
-        <v>502</v>
+        <v>545</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -1677,6 +1677,22 @@
       </c>
       <c r="C22">
         <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>44977</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>44977</v>
+      </c>
+      <c r="C24">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/reporte ventas.xlsx
+++ b/reporte ventas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\programacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEF2718-B7A0-4EE9-8BAC-CDA61050EBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B36FD3-EB09-48AE-B733-D01C16A1CD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,7 +385,7 @@
                   <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>276</c:v>
+                  <c:v>336</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>149</c:v>
@@ -1124,8 +1124,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:E24" totalsRowShown="0">
-  <autoFilter ref="B5:E24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:E25" totalsRowShown="0">
+  <autoFilter ref="B5:E25" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="fecha" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="sebastian"/>
@@ -1450,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K24"/>
+  <dimension ref="B2:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
-        <v>276</v>
+        <v>336</v>
       </c>
       <c r="J4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="K4" s="2">
         <f>SUM(H4:J4)</f>
-        <v>545</v>
+        <v>605</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -1693,6 +1693,14 @@
       </c>
       <c r="C24">
         <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>44978</v>
+      </c>
+      <c r="D25">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/reporte ventas.xlsx
+++ b/reporte ventas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\programacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B36FD3-EB09-48AE-B733-D01C16A1CD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC275BF-2CF9-4437-8CDE-94FAB4A9F271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,7 +382,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>120</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>336</c:v>
@@ -1124,8 +1124,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:E25" totalsRowShown="0">
-  <autoFilter ref="B5:E25" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:E26" totalsRowShown="0">
+  <autoFilter ref="B5:E26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="fecha" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="sebastian"/>
@@ -1450,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K25"/>
+  <dimension ref="B2:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="H4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="I4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="K4" s="2">
         <f>SUM(H4:J4)</f>
-        <v>605</v>
+        <v>641</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -1701,6 +1701,14 @@
       </c>
       <c r="D25">
         <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>44979</v>
+      </c>
+      <c r="C26">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/reporte ventas.xlsx
+++ b/reporte ventas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\programacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC275BF-2CF9-4437-8CDE-94FAB4A9F271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F77764E-3285-48DA-AE44-635229E2532A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,7 +382,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>156</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>336</c:v>
@@ -1124,8 +1124,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:E26" totalsRowShown="0">
-  <autoFilter ref="B5:E26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:E28" totalsRowShown="0">
+  <autoFilter ref="B5:E28" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="fecha" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="sebastian"/>
@@ -1450,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K26"/>
+  <dimension ref="B2:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="H4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>156</v>
+        <v>219</v>
       </c>
       <c r="I4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="K4" s="2">
         <f>SUM(H4:J4)</f>
-        <v>641</v>
+        <v>704</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -1709,6 +1709,22 @@
       </c>
       <c r="C26">
         <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>44980</v>
+      </c>
+      <c r="C27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>44980</v>
+      </c>
+      <c r="C28">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/reporte ventas.xlsx
+++ b/reporte ventas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\programacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F77764E-3285-48DA-AE44-635229E2532A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5DC3C8-E816-4C6C-9445-BB452D88247A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,7 +382,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>219</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>336</c:v>
@@ -1124,8 +1124,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:E28" totalsRowShown="0">
-  <autoFilter ref="B5:E28" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:E29" totalsRowShown="0">
+  <autoFilter ref="B5:E29" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="fecha" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="sebastian"/>
@@ -1450,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K28"/>
+  <dimension ref="B2:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C23" sqref="C23:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="H4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="I4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="K4" s="2">
         <f>SUM(H4:J4)</f>
-        <v>704</v>
+        <v>725</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -1725,6 +1725,14 @@
       </c>
       <c r="C28">
         <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>44982</v>
+      </c>
+      <c r="C29">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/reporte ventas.xlsx
+++ b/reporte ventas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\programacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5DC3C8-E816-4C6C-9445-BB452D88247A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9F0934-3DB4-4AC8-BB53-DE2094EC91C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,6 +80,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;\ #,##0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -96,12 +99,66 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDA68B9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA86ED4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC00CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -131,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -143,6 +200,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -155,6 +222,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC00CC"/>
+      <color rgb="FFA86ED4"/>
+      <color rgb="FF8A3CC4"/>
+      <color rgb="FFFFFFFF"/>
+      <color rgb="FFDA68B9"/>
       <color rgb="FFFF2F2F"/>
     </mruColors>
   </colors>
@@ -382,10 +454,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>240</c:v>
+                  <c:v>313</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>336</c:v>
+                  <c:v>393</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>149</c:v>
@@ -1124,8 +1196,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:E29" totalsRowShown="0">
-  <autoFilter ref="B5:E29" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:E33" totalsRowShown="0">
+  <autoFilter ref="B5:E33" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="fecha" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="sebastian"/>
@@ -1450,10 +1522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K29"/>
+  <dimension ref="B2:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,11 +1581,11 @@
       </c>
       <c r="H4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>240</v>
+        <v>313</v>
       </c>
       <c r="I4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
-        <v>336</v>
+        <v>393</v>
       </c>
       <c r="J4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
@@ -1521,7 +1593,7 @@
       </c>
       <c r="K4" s="2">
         <f>SUM(H4:J4)</f>
-        <v>725</v>
+        <v>855</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -1733,6 +1805,92 @@
       </c>
       <c r="C29">
         <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>44985</v>
+      </c>
+      <c r="D30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>44986</v>
+      </c>
+      <c r="C31">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <v>44986</v>
+      </c>
+      <c r="D32">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>44986</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F39" s="7"/>
+      <c r="G39" s="16">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F40" s="8"/>
+      <c r="G40" s="16">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F41" s="9"/>
+      <c r="G41" s="16">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F42" s="10"/>
+      <c r="G42" s="16">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F43" s="11"/>
+      <c r="G43" s="16">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F44" s="12"/>
+      <c r="G44" s="16">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F45" s="13"/>
+      <c r="G45" s="16">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F46" s="14"/>
+      <c r="G46" s="16">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F47" s="15"/>
+      <c r="G47" s="16">
+        <v>48000</v>
       </c>
     </row>
   </sheetData>

--- a/reporte ventas.xlsx
+++ b/reporte ventas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\programacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9F0934-3DB4-4AC8-BB53-DE2094EC91C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBF9DFD-CA67-46D0-BD5A-74239D344D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;\ #,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -194,12 +194,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -209,7 +203,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,7 +454,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>313</c:v>
+                  <c:v>388</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>393</c:v>
@@ -1196,8 +1196,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:E33" totalsRowShown="0">
-  <autoFilter ref="B5:E33" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:E34" totalsRowShown="0">
+  <autoFilter ref="B5:E34" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="fecha" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="sebastian"/>
@@ -1525,7 +1525,7 @@
   <dimension ref="B2:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1536,25 +1536,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="G2" s="6" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="G2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
     </row>
     <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
       <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1572,16 +1572,16 @@
       </c>
     </row>
     <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
       <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>313</v>
+        <v>388</v>
       </c>
       <c r="I4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="K4" s="2">
         <f>SUM(H4:J4)</f>
-        <v>855</v>
+        <v>930</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -1839,57 +1839,65 @@
         <v>7</v>
       </c>
     </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>44987</v>
+      </c>
+      <c r="C34">
+        <v>75</v>
+      </c>
+    </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F39" s="7"/>
-      <c r="G39" s="16">
+      <c r="F39" s="5"/>
+      <c r="G39" s="14">
         <v>75000</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F40" s="8"/>
-      <c r="G40" s="16">
+      <c r="F40" s="6"/>
+      <c r="G40" s="14">
         <v>70000</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F41" s="9"/>
-      <c r="G41" s="16">
+      <c r="F41" s="7"/>
+      <c r="G41" s="14">
         <v>65000</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F42" s="10"/>
-      <c r="G42" s="16">
+      <c r="F42" s="8"/>
+      <c r="G42" s="14">
         <v>60000</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F43" s="11"/>
-      <c r="G43" s="16">
+      <c r="F43" s="9"/>
+      <c r="G43" s="14">
         <v>58000</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F44" s="12"/>
-      <c r="G44" s="16">
+      <c r="F44" s="10"/>
+      <c r="G44" s="14">
         <v>55000</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F45" s="13"/>
-      <c r="G45" s="16">
+      <c r="F45" s="11"/>
+      <c r="G45" s="14">
         <v>52000</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F46" s="14"/>
-      <c r="G46" s="16">
+      <c r="F46" s="12"/>
+      <c r="G46" s="14">
         <v>40000</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F47" s="15"/>
-      <c r="G47" s="16">
+      <c r="F47" s="13"/>
+      <c r="G47" s="14">
         <v>48000</v>
       </c>
     </row>

--- a/reporte ventas.xlsx
+++ b/reporte ventas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\programacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBF9DFD-CA67-46D0-BD5A-74239D344D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EF6389-9966-44A2-8251-BFA7FB7EBD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
   <si>
     <t>Reporte de Ventas</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>pocillos blancos</t>
+  </si>
+  <si>
+    <t>total semana 27 febrero - 4 marzo</t>
+  </si>
+  <si>
+    <t>total mes Marzo</t>
   </si>
 </sst>
 </file>
@@ -454,10 +460,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>388</c:v>
+                  <c:v>401</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>393</c:v>
+                  <c:v>454</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>149</c:v>
@@ -1158,15 +1164,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1196,8 +1202,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:E34" totalsRowShown="0">
-  <autoFilter ref="B5:E34" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:E38" totalsRowShown="0">
+  <autoFilter ref="B5:E38" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="fecha" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="sebastian"/>
@@ -1522,10 +1528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K47"/>
+  <dimension ref="B2:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1535,7 +1541,7 @@
     <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
@@ -1550,7 +1556,7 @@
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -1571,7 +1577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -1581,11 +1587,11 @@
       </c>
       <c r="H4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="I4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
-        <v>393</v>
+        <v>454</v>
       </c>
       <c r="J4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
@@ -1593,10 +1599,10 @@
       </c>
       <c r="K4" s="2">
         <f>SUM(H4:J4)</f>
-        <v>930</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -1612,33 +1618,75 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>44964</v>
       </c>
       <c r="E6">
         <v>36</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>44964</v>
       </c>
       <c r="E7">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>44965</v>
       </c>
       <c r="D8">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2">
+        <f xml:space="preserve"> SUM(C30:C38)</f>
+        <v>161</v>
+      </c>
+      <c r="I8" s="2">
+        <f xml:space="preserve"> SUM(D30:D38)</f>
+        <v>118</v>
+      </c>
+      <c r="J8" s="2">
+        <f xml:space="preserve"> SUM(E30:E38)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <f>SUM(H8:J8)</f>
+        <v>279</v>
+      </c>
+      <c r="L8">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>44965</v>
       </c>
@@ -1646,31 +1694,72 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>44966</v>
       </c>
       <c r="D10">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>44967</v>
       </c>
       <c r="D11">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>44967</v>
       </c>
       <c r="C12">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2">
+        <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
+        <v>401</v>
+      </c>
+      <c r="I12" s="2">
+        <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
+        <v>454</v>
+      </c>
+      <c r="J12" s="2">
+        <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
+        <v>149</v>
+      </c>
+      <c r="K12" s="2">
+        <f>SUM(H12:J12)</f>
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>44967</v>
       </c>
@@ -1678,7 +1767,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>44968</v>
       </c>
@@ -1687,7 +1776,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>44971</v>
       </c>
@@ -1695,7 +1784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>44972</v>
       </c>
@@ -1845,6 +1934,38 @@
       </c>
       <c r="C34">
         <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <v>44988</v>
+      </c>
+      <c r="C35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <v>44988</v>
+      </c>
+      <c r="D36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <v>44989</v>
+      </c>
+      <c r="D37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <v>44989</v>
+      </c>
+      <c r="D38">
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
@@ -1902,9 +2023,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B2:E4"/>
     <mergeCell ref="G2:K2"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G10:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/reporte ventas.xlsx
+++ b/reporte ventas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\programacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EF6389-9966-44A2-8251-BFA7FB7EBD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E34B891-59B4-4B1B-A949-886F8BF70BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,13 +460,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>401</c:v>
+                  <c:v>503</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>454</c:v>
+                  <c:v>510</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>149</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1202,8 +1202,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:E38" totalsRowShown="0">
-  <autoFilter ref="B5:E38" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:E47" totalsRowShown="0">
+  <autoFilter ref="B5:E47" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="2023" month="3" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="fecha" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="sebastian"/>
@@ -1528,10 +1534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L47"/>
+  <dimension ref="B2:U47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1587,19 +1593,19 @@
       </c>
       <c r="H4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>401</v>
+        <v>503</v>
       </c>
       <c r="I4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
-        <v>454</v>
+        <v>510</v>
       </c>
       <c r="J4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
-        <v>149</v>
+        <v>241</v>
       </c>
       <c r="K4" s="2">
         <f>SUM(H4:J4)</f>
-        <v>1004</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
@@ -1618,7 +1624,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>44964</v>
       </c>
@@ -1633,7 +1639,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>44964</v>
       </c>
@@ -1656,7 +1662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>44965</v>
       </c>
@@ -1686,7 +1692,7 @@
         <v>46000</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>44965</v>
       </c>
@@ -1694,7 +1700,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>44966</v>
       </c>
@@ -1709,7 +1715,7 @@
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>44967</v>
       </c>
@@ -1732,7 +1738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>44967</v>
       </c>
@@ -1744,22 +1750,22 @@
       </c>
       <c r="H12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>401</v>
+        <v>503</v>
       </c>
       <c r="I12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
-        <v>454</v>
+        <v>510</v>
       </c>
       <c r="J12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
-        <v>149</v>
+        <v>241</v>
       </c>
       <c r="K12" s="2">
         <f>SUM(H12:J12)</f>
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>44967</v>
       </c>
@@ -1767,7 +1773,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>44968</v>
       </c>
@@ -1776,7 +1782,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>44971</v>
       </c>
@@ -1784,7 +1790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>44972</v>
       </c>
@@ -1792,7 +1798,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>44972</v>
       </c>
@@ -1800,7 +1806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>44973</v>
       </c>
@@ -1808,7 +1814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>44974</v>
       </c>
@@ -1816,7 +1822,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>44974</v>
       </c>
@@ -1824,7 +1830,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>44975</v>
       </c>
@@ -1832,7 +1838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>44975</v>
       </c>
@@ -1840,7 +1846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>44977</v>
       </c>
@@ -1848,7 +1854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>44977</v>
       </c>
@@ -1856,7 +1862,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>44978</v>
       </c>
@@ -1864,7 +1870,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>44979</v>
       </c>
@@ -1872,7 +1878,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>44980</v>
       </c>
@@ -1880,7 +1886,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>44980</v>
       </c>
@@ -1888,7 +1894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>44982</v>
       </c>
@@ -1896,7 +1902,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>44985</v>
       </c>
@@ -1920,106 +1926,160 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>44986</v>
       </c>
       <c r="C33">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="T33" s="5"/>
+      <c r="U33" s="14">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>44987</v>
       </c>
       <c r="C34">
         <v>75</v>
       </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="T34" s="6"/>
+      <c r="U34" s="14">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>44988</v>
       </c>
       <c r="C35">
         <v>13</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="T35" s="7"/>
+      <c r="U35" s="14">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>44988</v>
       </c>
       <c r="D36">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="T36" s="8"/>
+      <c r="U36" s="14">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>44989</v>
       </c>
       <c r="D37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="T37" s="9"/>
+      <c r="U37" s="14">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>44989</v>
       </c>
       <c r="D38">
         <v>13</v>
       </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F39" s="5"/>
-      <c r="G39" s="14">
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F40" s="6"/>
-      <c r="G40" s="14">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F41" s="7"/>
-      <c r="G41" s="14">
-        <v>65000</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F42" s="8"/>
-      <c r="G42" s="14">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F43" s="9"/>
-      <c r="G43" s="14">
-        <v>58000</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F44" s="10"/>
-      <c r="G44" s="14">
+      <c r="T38" s="10"/>
+      <c r="U38" s="14">
         <v>55000</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F45" s="11"/>
-      <c r="G45" s="14">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <v>44991</v>
+      </c>
+      <c r="C39">
+        <v>38</v>
+      </c>
+      <c r="T39" s="11"/>
+      <c r="U39" s="14">
         <v>52000</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F46" s="12"/>
-      <c r="G46" s="14">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <v>44991</v>
+      </c>
+      <c r="D40">
+        <v>24</v>
+      </c>
+      <c r="T40" s="12"/>
+      <c r="U40" s="14">
         <v>40000</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F47" s="13"/>
-      <c r="G47" s="14">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <v>44991</v>
+      </c>
+      <c r="E41">
+        <v>13</v>
+      </c>
+      <c r="T41" s="13"/>
+      <c r="U41" s="14">
         <v>48000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <v>44992</v>
+      </c>
+      <c r="C42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
+        <v>44992</v>
+      </c>
+      <c r="E43">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B44" s="1">
+        <v>44992</v>
+      </c>
+      <c r="E44">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B45" s="1">
+        <v>44992</v>
+      </c>
+      <c r="D45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B46" s="1">
+        <v>44992</v>
+      </c>
+      <c r="C46">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B47" s="1">
+        <v>44992</v>
+      </c>
+      <c r="D47">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/reporte ventas.xlsx
+++ b/reporte ventas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\programacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E34B891-59B4-4B1B-A949-886F8BF70BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAB25B6-DD55-4357-9A47-179D19BA4894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,10 +460,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>503</c:v>
+                  <c:v>515</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>510</c:v>
+                  <c:v>574</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>241</c:v>
@@ -1202,8 +1202,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:E47" totalsRowShown="0">
-  <autoFilter ref="B5:E47" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:E52" totalsRowShown="0">
+  <autoFilter ref="B5:E52" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0">
       <filters>
         <dateGroupItem year="2023" month="3" dateTimeGrouping="month"/>
@@ -1534,10 +1534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:U47"/>
+  <dimension ref="B2:U52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,11 +1593,11 @@
       </c>
       <c r="H4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="I4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
-        <v>510</v>
+        <v>574</v>
       </c>
       <c r="J4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="K4" s="2">
         <f>SUM(H4:J4)</f>
-        <v>1254</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
@@ -1750,11 +1750,11 @@
       </c>
       <c r="H12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="I12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
-        <v>510</v>
+        <v>574</v>
       </c>
       <c r="J12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="K12" s="2">
         <f>SUM(H12:J12)</f>
-        <v>1254</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="13" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
@@ -2080,6 +2080,46 @@
       </c>
       <c r="D47">
         <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B48" s="1">
+        <v>44993</v>
+      </c>
+      <c r="C48">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="1">
+        <v>44993</v>
+      </c>
+      <c r="D49">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="1">
+        <v>44993</v>
+      </c>
+      <c r="D50">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="1">
+        <v>44993</v>
+      </c>
+      <c r="D51">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="1">
+        <v>44993</v>
+      </c>
+      <c r="D52">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/reporte ventas.xlsx
+++ b/reporte ventas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\programacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAB25B6-DD55-4357-9A47-179D19BA4894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E0C8B4-2B76-4C07-8EF6-34BFC820E994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,10 +460,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>515</c:v>
+                  <c:v>557</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>574</c:v>
+                  <c:v>607</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>241</c:v>
@@ -1202,8 +1202,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:E52" totalsRowShown="0">
-  <autoFilter ref="B5:E52" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:E54" totalsRowShown="0">
+  <autoFilter ref="B5:E54" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0">
       <filters>
         <dateGroupItem year="2023" month="3" dateTimeGrouping="month"/>
@@ -1534,10 +1534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:U52"/>
+  <dimension ref="B2:U54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,11 +1593,11 @@
       </c>
       <c r="H4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>515</v>
+        <v>557</v>
       </c>
       <c r="I4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
-        <v>574</v>
+        <v>607</v>
       </c>
       <c r="J4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="K4" s="2">
         <f>SUM(H4:J4)</f>
-        <v>1330</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
@@ -1750,11 +1750,11 @@
       </c>
       <c r="H12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>515</v>
+        <v>557</v>
       </c>
       <c r="I12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
-        <v>574</v>
+        <v>607</v>
       </c>
       <c r="J12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="K12" s="2">
         <f>SUM(H12:J12)</f>
-        <v>1330</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="13" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
@@ -2120,6 +2120,22 @@
       </c>
       <c r="D52">
         <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="1">
+        <v>44994</v>
+      </c>
+      <c r="C53">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="1">
+        <v>44994</v>
+      </c>
+      <c r="D54">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/reporte ventas.xlsx
+++ b/reporte ventas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\programacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E0C8B4-2B76-4C07-8EF6-34BFC820E994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E88D86E-3F79-49EB-88DD-3501CF76869D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,10 +460,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>557</c:v>
+                  <c:v>565</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>607</c:v>
+                  <c:v>703</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>241</c:v>
@@ -1202,8 +1202,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:E54" totalsRowShown="0">
-  <autoFilter ref="B5:E54" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:E57" totalsRowShown="0">
+  <autoFilter ref="B5:E57" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0">
       <filters>
         <dateGroupItem year="2023" month="3" dateTimeGrouping="month"/>
@@ -1534,10 +1534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:U54"/>
+  <dimension ref="B2:U57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,11 +1593,11 @@
       </c>
       <c r="H4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="I4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
-        <v>607</v>
+        <v>703</v>
       </c>
       <c r="J4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="K4" s="2">
         <f>SUM(H4:J4)</f>
-        <v>1405</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
@@ -1750,11 +1750,11 @@
       </c>
       <c r="H12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="I12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
-        <v>607</v>
+        <v>703</v>
       </c>
       <c r="J12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="K12" s="2">
         <f>SUM(H12:J12)</f>
-        <v>1405</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="13" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
@@ -2136,6 +2136,30 @@
       </c>
       <c r="D54">
         <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="1">
+        <v>44995</v>
+      </c>
+      <c r="C55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="1">
+        <v>44995</v>
+      </c>
+      <c r="D56">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="1">
+        <v>44995</v>
+      </c>
+      <c r="D57">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/reporte ventas.xlsx
+++ b/reporte ventas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\programacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E88D86E-3F79-49EB-88DD-3501CF76869D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8D472A-61CC-489A-B6BE-96E5361588EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
   <si>
     <t>Reporte de Ventas</t>
   </si>
@@ -81,13 +81,26 @@
   <si>
     <t>total mes Marzo</t>
   </si>
+  <si>
+    <t>semana 6 de marzo - 11 de marzo</t>
+  </si>
+  <si>
+    <t>valor total</t>
+  </si>
+  <si>
+    <t>internet</t>
+  </si>
+  <si>
+    <t>pago individual</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0"/>
+    <numFmt numFmtId="167" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -194,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -216,6 +229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,7 +474,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>565</c:v>
+                  <c:v>602</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>703</c:v>
@@ -1202,8 +1216,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:E57" totalsRowShown="0">
-  <autoFilter ref="B5:E57" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:E58" totalsRowShown="0">
+  <autoFilter ref="B5:E58" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0">
       <filters>
         <dateGroupItem year="2023" month="3" dateTimeGrouping="month"/>
@@ -1534,17 +1548,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:U57"/>
+  <dimension ref="B2:U58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1593,7 +1610,7 @@
       </c>
       <c r="H4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>565</v>
+        <v>602</v>
       </c>
       <c r="I4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
@@ -1605,7 +1622,7 @@
       </c>
       <c r="K4" s="2">
         <f>SUM(H4:J4)</f>
-        <v>1509</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
@@ -1750,7 +1767,7 @@
       </c>
       <c r="H12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>565</v>
+        <v>602</v>
       </c>
       <c r="I12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
@@ -1762,7 +1779,7 @@
       </c>
       <c r="K12" s="2">
         <f>SUM(H12:J12)</f>
-        <v>1509</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="13" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
@@ -1798,7 +1815,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>44972</v>
       </c>
@@ -1806,7 +1823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>44973</v>
       </c>
@@ -1814,7 +1831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>44974</v>
       </c>
@@ -1822,7 +1839,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>44974</v>
       </c>
@@ -1830,7 +1847,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>44975</v>
       </c>
@@ -1838,7 +1855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>44975</v>
       </c>
@@ -1846,7 +1863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>44977</v>
       </c>
@@ -1854,7 +1871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>44977</v>
       </c>
@@ -1862,7 +1879,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>44978</v>
       </c>
@@ -1870,7 +1887,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>44979</v>
       </c>
@@ -1878,7 +1895,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>44980</v>
       </c>
@@ -1886,7 +1903,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>44980</v>
       </c>
@@ -1894,7 +1911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>44982</v>
       </c>
@@ -1902,7 +1919,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>44985</v>
       </c>
@@ -1910,20 +1927,54 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>44986</v>
       </c>
       <c r="C31">
         <v>66</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G31" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>44986</v>
       </c>
       <c r="D32">
         <v>36</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.25">
@@ -1933,6 +1984,36 @@
       <c r="C33">
         <v>7</v>
       </c>
+      <c r="G33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="2">
+        <f>SUM(C39:C58)</f>
+        <v>201</v>
+      </c>
+      <c r="I33" s="2">
+        <f>SUM(D39:D58)</f>
+        <v>249</v>
+      </c>
+      <c r="J33" s="2">
+        <f>SUM(E39:E58)</f>
+        <v>92</v>
+      </c>
+      <c r="K33" s="2">
+        <f>SUM(H33:J33)</f>
+        <v>542</v>
+      </c>
+      <c r="L33" s="17">
+        <f>K33*600</f>
+        <v>325200</v>
+      </c>
+      <c r="M33" s="17">
+        <v>28000</v>
+      </c>
+      <c r="N33" s="17">
+        <f>(L33-M33)/3</f>
+        <v>99066.666666666672</v>
+      </c>
       <c r="T33" s="5"/>
       <c r="U33" s="14">
         <v>75000</v>
@@ -2162,15 +2243,27 @@
         <v>48</v>
       </c>
     </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="1">
+        <v>44996</v>
+      </c>
+      <c r="C58">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B2:E4"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="G6:K6"/>
     <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G31:N31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="I33" formulaRange="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>

--- a/reporte ventas.xlsx
+++ b/reporte ventas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\programacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8D472A-61CC-489A-B6BE-96E5361588EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF40565C-307F-456D-B82A-FE89A100B421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0"/>
-    <numFmt numFmtId="167" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -223,13 +223,13 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,10 +474,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>602</c:v>
+                  <c:v>628</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>703</c:v>
+                  <c:v>751</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>241</c:v>
@@ -1216,8 +1216,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:E58" totalsRowShown="0">
-  <autoFilter ref="B5:E58" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:E60" totalsRowShown="0">
+  <autoFilter ref="B5:E60" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0">
       <filters>
         <dateGroupItem year="2023" month="3" dateTimeGrouping="month"/>
@@ -1548,10 +1548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:U58"/>
+  <dimension ref="B2:U60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,25 +1565,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="G2" s="16" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="G2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
       <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1601,20 +1601,20 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
       <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>602</v>
+        <v>628</v>
       </c>
       <c r="I4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
-        <v>703</v>
+        <v>751</v>
       </c>
       <c r="J4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="K4" s="2">
         <f>SUM(H4:J4)</f>
-        <v>1546</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
@@ -1648,13 +1648,13 @@
       <c r="E6">
         <v>36</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
     </row>
     <row r="7" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
@@ -1724,13 +1724,13 @@
       <c r="D10">
         <v>6</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
     </row>
     <row r="11" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
@@ -1767,11 +1767,11 @@
       </c>
       <c r="H12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>602</v>
+        <v>628</v>
       </c>
       <c r="I12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
-        <v>703</v>
+        <v>751</v>
       </c>
       <c r="J12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="K12" s="2">
         <f>SUM(H12:J12)</f>
-        <v>1546</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="13" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
@@ -1934,16 +1934,16 @@
       <c r="C31">
         <v>66</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="G31" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
@@ -2003,14 +2003,14 @@
         <f>SUM(H33:J33)</f>
         <v>542</v>
       </c>
-      <c r="L33" s="17">
+      <c r="L33" s="15">
         <f>K33*600</f>
         <v>325200</v>
       </c>
-      <c r="M33" s="17">
+      <c r="M33" s="15">
         <v>28000</v>
       </c>
-      <c r="N33" s="17">
+      <c r="N33" s="15">
         <f>(L33-M33)/3</f>
         <v>99066.666666666672</v>
       </c>
@@ -2249,6 +2249,22 @@
       </c>
       <c r="C58">
         <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="1">
+        <v>44999</v>
+      </c>
+      <c r="D59">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="1">
+        <v>44999</v>
+      </c>
+      <c r="C60">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/reporte ventas.xlsx
+++ b/reporte ventas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\programacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF40565C-307F-456D-B82A-FE89A100B421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819C7C36-D1ED-44D3-A349-2155345C8AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -474,10 +474,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>628</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>751</c:v>
+                  <c:v>826</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>241</c:v>
@@ -1216,8 +1216,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:E60" totalsRowShown="0">
-  <autoFilter ref="B5:E60" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:E64" totalsRowShown="0">
+  <autoFilter ref="B5:E64" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0">
       <filters>
         <dateGroupItem year="2023" month="3" dateTimeGrouping="month"/>
@@ -1548,10 +1548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:U60"/>
+  <dimension ref="B2:U64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1610,11 +1610,11 @@
       </c>
       <c r="H4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="I4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
-        <v>751</v>
+        <v>826</v>
       </c>
       <c r="J4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="K4" s="2">
         <f>SUM(H4:J4)</f>
-        <v>1620</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
@@ -1767,11 +1767,11 @@
       </c>
       <c r="H12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="I12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
-        <v>751</v>
+        <v>826</v>
       </c>
       <c r="J12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="K12" s="2">
         <f>SUM(H12:J12)</f>
-        <v>1620</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="13" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
@@ -2265,6 +2265,38 @@
       </c>
       <c r="C60">
         <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="1">
+        <v>45000</v>
+      </c>
+      <c r="C61">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="1">
+        <v>45001</v>
+      </c>
+      <c r="D62">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="1">
+        <v>45001</v>
+      </c>
+      <c r="D63">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="1">
+        <v>45000</v>
+      </c>
+      <c r="D64">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/reporte ventas.xlsx
+++ b/reporte ventas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\programacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819C7C36-D1ED-44D3-A349-2155345C8AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB0F556-A6E7-450E-8856-557761ED075B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
   <si>
     <t>Reporte de Ventas</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>pago individual</t>
+  </si>
+  <si>
+    <t>semana 13 de marzo - 18 de marzo</t>
   </si>
 </sst>
 </file>
@@ -474,10 +477,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>640</c:v>
+                  <c:v>904</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>826</c:v>
+                  <c:v>880</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>241</c:v>
@@ -1216,8 +1219,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:E64" totalsRowShown="0">
-  <autoFilter ref="B5:E64" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:E69" totalsRowShown="0">
+  <autoFilter ref="B5:E69" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0">
       <filters>
         <dateGroupItem year="2023" month="3" dateTimeGrouping="month"/>
@@ -1548,10 +1551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:U64"/>
+  <dimension ref="B2:U69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L76" sqref="L76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1610,11 +1613,11 @@
       </c>
       <c r="H4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>640</v>
+        <v>904</v>
       </c>
       <c r="I4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
-        <v>826</v>
+        <v>880</v>
       </c>
       <c r="J4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
@@ -1622,7 +1625,7 @@
       </c>
       <c r="K4" s="2">
         <f>SUM(H4:J4)</f>
-        <v>1707</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
@@ -1767,11 +1770,11 @@
       </c>
       <c r="H12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>640</v>
+        <v>904</v>
       </c>
       <c r="I12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
-        <v>826</v>
+        <v>880</v>
       </c>
       <c r="J12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
@@ -1779,7 +1782,7 @@
       </c>
       <c r="K12" s="2">
         <f>SUM(H12:J12)</f>
-        <v>1707</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="13" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
@@ -2038,6 +2041,16 @@
       <c r="C35">
         <v>13</v>
       </c>
+      <c r="G35" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
       <c r="T35" s="7"/>
       <c r="U35" s="14">
         <v>65000</v>
@@ -2050,6 +2063,30 @@
       <c r="D36">
         <v>12</v>
       </c>
+      <c r="G36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="T36" s="8"/>
       <c r="U36" s="14">
         <v>60000</v>
@@ -2062,6 +2099,36 @@
       <c r="D37">
         <v>36</v>
       </c>
+      <c r="G37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37" s="2">
+        <f>SUM(C59:C69)</f>
+        <v>302</v>
+      </c>
+      <c r="I37" s="2">
+        <f>SUM(D59:D69)</f>
+        <v>177</v>
+      </c>
+      <c r="J37" s="2">
+        <f>SUM(E59:E69)</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="2">
+        <f>SUM(H37:J37)</f>
+        <v>479</v>
+      </c>
+      <c r="L37" s="15">
+        <f>K37*600</f>
+        <v>287400</v>
+      </c>
+      <c r="M37" s="15">
+        <v>28000</v>
+      </c>
+      <c r="N37" s="15">
+        <f>(L37-M37)/3</f>
+        <v>86466.666666666672</v>
+      </c>
       <c r="T37" s="9"/>
       <c r="U37" s="14">
         <v>58000</v>
@@ -2299,8 +2366,49 @@
         <v>40</v>
       </c>
     </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="1">
+        <v>45002</v>
+      </c>
+      <c r="C65">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="1">
+        <v>45002</v>
+      </c>
+      <c r="C66">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="1">
+        <v>45003</v>
+      </c>
+      <c r="C67">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="1">
+        <v>45003</v>
+      </c>
+      <c r="C68">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="1">
+        <v>45003</v>
+      </c>
+      <c r="D69">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="G35:N35"/>
     <mergeCell ref="B2:E4"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="G6:K6"/>
@@ -2310,7 +2418,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="I33" formulaRange="1"/>
+    <ignoredError sqref="I33 H37" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <tableParts count="1">

--- a/reporte ventas.xlsx
+++ b/reporte ventas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\programacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB0F556-A6E7-450E-8856-557761ED075B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B646AC2-0AB6-4B1C-89A9-79C3947E0910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="21">
   <si>
     <t>Reporte de Ventas</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>semana 13 de marzo - 18 de marzo</t>
+  </si>
+  <si>
+    <t>semana 20 de marzo - 25 de marzo</t>
   </si>
 </sst>
 </file>
@@ -227,11 +230,11 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,13 +480,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>904</c:v>
+                  <c:v>1020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>880</c:v>
+                  <c:v>901</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>241</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1219,8 +1222,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:E69" totalsRowShown="0">
-  <autoFilter ref="B5:E69" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:E77" totalsRowShown="0">
+  <autoFilter ref="B5:E77" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0">
       <filters>
         <dateGroupItem year="2023" month="3" dateTimeGrouping="month"/>
@@ -1551,10 +1554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:U69"/>
+  <dimension ref="B2:U77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L76" sqref="L76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1568,25 +1571,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="G2" s="17" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="G2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
       <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1604,28 +1607,28 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
       <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>904</v>
+        <v>1020</v>
       </c>
       <c r="I4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
-        <v>880</v>
+        <v>901</v>
       </c>
       <c r="J4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="K4" s="2">
         <f>SUM(H4:J4)</f>
-        <v>2025</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
@@ -1651,13 +1654,13 @@
       <c r="E6">
         <v>36</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
     </row>
     <row r="7" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
@@ -1727,13 +1730,13 @@
       <c r="D10">
         <v>6</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
     </row>
     <row r="11" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
@@ -1770,19 +1773,19 @@
       </c>
       <c r="H12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>904</v>
+        <v>1020</v>
       </c>
       <c r="I12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
-        <v>880</v>
+        <v>901</v>
       </c>
       <c r="J12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="K12" s="2">
         <f>SUM(H12:J12)</f>
-        <v>2025</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="13" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
@@ -1937,16 +1940,16 @@
       <c r="C31">
         <v>66</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="G31" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
@@ -2041,16 +2044,16 @@
       <c r="C35">
         <v>13</v>
       </c>
-      <c r="G35" s="17" t="s">
+      <c r="G35" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
       <c r="T35" s="7"/>
       <c r="U35" s="14">
         <v>65000</v>
@@ -2153,6 +2156,16 @@
       <c r="C39">
         <v>38</v>
       </c>
+      <c r="G39" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
       <c r="T39" s="11"/>
       <c r="U39" s="14">
         <v>52000</v>
@@ -2165,6 +2178,30 @@
       <c r="D40">
         <v>24</v>
       </c>
+      <c r="G40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="T40" s="12"/>
       <c r="U40" s="14">
         <v>40000</v>
@@ -2177,6 +2214,36 @@
       <c r="E41">
         <v>13</v>
       </c>
+      <c r="G41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="2">
+        <f>SUM(C70:C77)</f>
+        <v>116</v>
+      </c>
+      <c r="I41" s="2">
+        <f>SUM(D70:D77)</f>
+        <v>21</v>
+      </c>
+      <c r="J41" s="2">
+        <f>SUM(E70:E77)</f>
+        <v>36</v>
+      </c>
+      <c r="K41" s="2">
+        <f>SUM(H41:J41)</f>
+        <v>173</v>
+      </c>
+      <c r="L41" s="15">
+        <f>K41*600</f>
+        <v>103800</v>
+      </c>
+      <c r="M41" s="15">
+        <v>28000</v>
+      </c>
+      <c r="N41" s="15">
+        <f>(L41-M41)/3</f>
+        <v>25266.666666666668</v>
+      </c>
       <c r="T41" s="13"/>
       <c r="U41" s="14">
         <v>48000</v>
@@ -2366,7 +2433,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>45002</v>
       </c>
@@ -2374,7 +2441,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>45002</v>
       </c>
@@ -2382,7 +2449,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>45003</v>
       </c>
@@ -2390,7 +2457,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>45003</v>
       </c>
@@ -2398,7 +2465,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>45003</v>
       </c>
@@ -2406,8 +2473,73 @@
         <v>54</v>
       </c>
     </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="1">
+        <v>45007</v>
+      </c>
+      <c r="C70">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="1">
+        <v>45007</v>
+      </c>
+      <c r="D71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" s="1">
+        <v>45008</v>
+      </c>
+      <c r="D72">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="1">
+        <v>45008</v>
+      </c>
+      <c r="E73">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="1">
+        <v>45009</v>
+      </c>
+      <c r="C74">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" s="1">
+        <v>45009</v>
+      </c>
+      <c r="C75">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="1">
+        <v>45009</v>
+      </c>
+      <c r="C76">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="1">
+        <v>45009</v>
+      </c>
+      <c r="C77">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="G39:N39"/>
     <mergeCell ref="G35:N35"/>
     <mergeCell ref="B2:E4"/>
     <mergeCell ref="G2:K2"/>
@@ -2418,7 +2550,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="I33 H37" formulaRange="1"/>
+    <ignoredError sqref="I33 H37 I41" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <tableParts count="1">

--- a/reporte ventas.xlsx
+++ b/reporte ventas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\programacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B646AC2-0AB6-4B1C-89A9-79C3947E0910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB10B74-F527-4CFF-BD56-436E167CFFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -480,10 +480,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1020</c:v>
+                  <c:v>1032</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>901</c:v>
+                  <c:v>1046</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>277</c:v>
@@ -1222,8 +1222,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:E77" totalsRowShown="0">
-  <autoFilter ref="B5:E77" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:E80" totalsRowShown="0">
+  <autoFilter ref="B5:E80" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0">
       <filters>
         <dateGroupItem year="2023" month="3" dateTimeGrouping="month"/>
@@ -1554,10 +1554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:U77"/>
+  <dimension ref="B2:U80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1616,11 +1616,11 @@
       </c>
       <c r="H4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>1020</v>
+        <v>1032</v>
       </c>
       <c r="I4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
-        <v>901</v>
+        <v>1046</v>
       </c>
       <c r="J4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="K4" s="2">
         <f>SUM(H4:J4)</f>
-        <v>2198</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
@@ -1773,11 +1773,11 @@
       </c>
       <c r="H12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>1020</v>
+        <v>1032</v>
       </c>
       <c r="I12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
-        <v>901</v>
+        <v>1046</v>
       </c>
       <c r="J12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="K12" s="2">
         <f>SUM(H12:J12)</f>
-        <v>2198</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="13" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
@@ -2535,6 +2535,30 @@
       </c>
       <c r="C77">
         <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="1">
+        <v>45013</v>
+      </c>
+      <c r="D78">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="1">
+        <v>45014</v>
+      </c>
+      <c r="C79">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D80">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/reporte ventas.xlsx
+++ b/reporte ventas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\programacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB10B74-F527-4CFF-BD56-436E167CFFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE3D018-9520-4555-A16F-EB68262169DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="21">
   <si>
     <t>Reporte de Ventas</t>
   </si>
@@ -108,7 +108,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0"/>
     <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +119,12 @@
     <font>
       <sz val="22"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -213,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -230,17 +236,24 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
@@ -458,7 +471,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'reporte de ventas sublimado'!$H$3:$J$3</c:f>
+              <c:f>'reporte de ventas sublimado'!$I$3:$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -475,12 +488,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'reporte de ventas sublimado'!$H$4:$J$4</c:f>
+              <c:f>'reporte de ventas sublimado'!$I$4:$K$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1032</c:v>
+                  <c:v>1034</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1046</c:v>
@@ -1184,13 +1197,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
@@ -1222,19 +1235,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:E80" totalsRowShown="0">
-  <autoFilter ref="B5:E80" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:F81" totalsRowShown="0">
+  <autoFilter ref="B5:F81" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0">
       <filters>
         <dateGroupItem year="2023" month="3" dateTimeGrouping="month"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="fecha" dataDxfId="0"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="fecha" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="sebastian"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="angelica"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="alejandro"/>
+    <tableColumn id="11" xr3:uid="{FB131883-0E90-4D94-A51A-8097721442E9}" name="valor venta" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1554,84 +1568,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:U80"/>
+  <dimension ref="B2:W81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="G2" s="16" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="16"/>
+      <c r="H2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-    </row>
-    <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="G3" s="2" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+    </row>
+    <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="16"/>
+      <c r="H3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="G4" s="2" t="s">
+    <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="16"/>
+      <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>1032</v>
-      </c>
-      <c r="I4" s="2">
+        <v>1034</v>
+      </c>
+      <c r="J4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
         <v>1046</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
         <v>277</v>
       </c>
-      <c r="K4" s="2">
-        <f>SUM(H4:J4)</f>
-        <v>2355</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L4" s="2">
+        <f>SUM(I4:K4)</f>
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -1644,159 +1662,186 @@
       <c r="E5" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>44964</v>
       </c>
       <c r="E6">
         <v>36</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="F6" s="19">
+        <v>147600</v>
+      </c>
+      <c r="I6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-    </row>
-    <row r="7" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+    </row>
+    <row r="7" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>44964</v>
       </c>
       <c r="E7">
         <v>34</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="F7" s="19">
+        <v>149600</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>44965</v>
       </c>
       <c r="D8">
         <v>36</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="F8" s="19">
+        <v>147600</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="2">
+      <c r="J8" s="2">
         <f xml:space="preserve"> SUM(C30:C38)</f>
         <v>161</v>
       </c>
-      <c r="I8" s="2">
+      <c r="K8" s="2">
         <f xml:space="preserve"> SUM(D30:D38)</f>
         <v>118</v>
       </c>
-      <c r="J8" s="2">
+      <c r="L8" s="2">
         <f xml:space="preserve"> SUM(E30:E38)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="2">
-        <f>SUM(H8:J8)</f>
+      <c r="M8" s="2">
+        <f>SUM(J8:L8)</f>
         <v>279</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>46000</v>
       </c>
     </row>
-    <row r="9" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>44965</v>
       </c>
       <c r="D9">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="19">
+        <v>147600</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>44966</v>
       </c>
       <c r="D10">
         <v>6</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="F10" s="19">
+        <v>26400</v>
+      </c>
+      <c r="I10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-    </row>
-    <row r="11" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+    </row>
+    <row r="11" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>44967</v>
       </c>
       <c r="D11">
         <v>48</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="F11" s="19">
+        <v>196800</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="M11" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>44967</v>
       </c>
       <c r="C12">
         <v>8</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="F12" s="19">
+        <v>35200</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="2">
+      <c r="J12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>1032</v>
-      </c>
-      <c r="I12" s="2">
+        <v>1034</v>
+      </c>
+      <c r="K12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
         <v>1046</v>
       </c>
-      <c r="J12" s="2">
+      <c r="L12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
         <v>277</v>
       </c>
-      <c r="K12" s="2">
-        <f>SUM(H12:J12)</f>
-        <v>2355</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M12" s="2">
+        <f>SUM(J12:L12)</f>
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>44967</v>
       </c>
       <c r="E13">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="19">
+        <v>147600</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>44968</v>
       </c>
@@ -1804,777 +1849,990 @@
       <c r="D14">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="19">
+        <v>213200</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>44971</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="19">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>44972</v>
       </c>
       <c r="D16">
         <v>85</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="19">
+        <v>348500</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>44972</v>
       </c>
       <c r="C17">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="19">
+        <v>35200</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>44973</v>
       </c>
       <c r="E18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="19">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>44974</v>
       </c>
       <c r="C19">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="19">
+        <v>262400</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>44974</v>
       </c>
       <c r="E20">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="19">
+        <v>164000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>44975</v>
       </c>
       <c r="D21">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="19">
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>44975</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="19">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>44977</v>
       </c>
       <c r="D23">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="19">
+        <v>30800</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>44977</v>
       </c>
       <c r="C24">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="19">
+        <v>147600</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>44978</v>
       </c>
       <c r="D25">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="19">
+        <v>246000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>44979</v>
       </c>
       <c r="C26">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="19">
+        <v>147600</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>44980</v>
       </c>
       <c r="C27">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F27" s="19">
+        <v>205000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>44980</v>
       </c>
       <c r="C28">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="19">
+        <v>57200</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>44982</v>
       </c>
       <c r="C29">
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="19">
+        <v>92400</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>44985</v>
       </c>
       <c r="D30">
         <v>21</v>
       </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F30" s="19">
+        <v>92400</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>44986</v>
       </c>
       <c r="C31">
         <v>66</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="F31" s="19">
+        <v>270600</v>
+      </c>
+      <c r="I31" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>44986</v>
       </c>
       <c r="D32">
         <v>36</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="F32" s="19">
+        <v>147600</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="J32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="K32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="L32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="M32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="N32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="O32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N32" s="2" t="s">
+      <c r="P32" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>44986</v>
       </c>
       <c r="C33">
         <v>7</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="F33" s="19">
+        <v>30800</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="2">
+      <c r="J33" s="2">
         <f>SUM(C39:C58)</f>
         <v>201</v>
       </c>
-      <c r="I33" s="2">
+      <c r="K33" s="2">
         <f>SUM(D39:D58)</f>
         <v>249</v>
       </c>
-      <c r="J33" s="2">
+      <c r="L33" s="2">
         <f>SUM(E39:E58)</f>
         <v>92</v>
       </c>
-      <c r="K33" s="2">
-        <f>SUM(H33:J33)</f>
+      <c r="M33" s="2">
+        <f>SUM(J33:L33)</f>
         <v>542</v>
       </c>
-      <c r="L33" s="15">
-        <f>K33*600</f>
+      <c r="N33" s="15">
+        <f>M33*600</f>
         <v>325200</v>
       </c>
-      <c r="M33" s="15">
+      <c r="O33" s="15">
         <v>28000</v>
       </c>
-      <c r="N33" s="15">
-        <f>(L33-M33)/3</f>
+      <c r="P33" s="15">
+        <f>(N33-O33)/3</f>
         <v>99066.666666666672</v>
       </c>
-      <c r="T33" s="5"/>
-      <c r="U33" s="14">
+      <c r="V33" s="5"/>
+      <c r="W33" s="14">
         <v>75000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>44987</v>
       </c>
       <c r="C34">
         <v>75</v>
       </c>
-      <c r="T34" s="6"/>
-      <c r="U34" s="14">
+      <c r="F34" s="19">
+        <v>307500</v>
+      </c>
+      <c r="V34" s="6"/>
+      <c r="W34" s="14">
         <v>70000</v>
       </c>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>44988</v>
       </c>
       <c r="C35">
         <v>13</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="F35" s="19">
+        <v>57200</v>
+      </c>
+      <c r="I35" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="14">
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="14">
         <v>65000</v>
       </c>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>44988</v>
       </c>
       <c r="D36">
         <v>12</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="F36" s="19">
+        <v>52800</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="J36" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="K36" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="L36" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="M36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="N36" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M36" s="2" t="s">
+      <c r="O36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N36" s="2" t="s">
+      <c r="P36" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T36" s="8"/>
-      <c r="U36" s="14">
+      <c r="V36" s="8"/>
+      <c r="W36" s="14">
         <v>60000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>44989</v>
       </c>
       <c r="D37">
         <v>36</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="F37" s="19">
+        <v>147600</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H37" s="2">
+      <c r="J37" s="2">
         <f>SUM(C59:C69)</f>
         <v>302</v>
       </c>
-      <c r="I37" s="2">
+      <c r="K37" s="2">
         <f>SUM(D59:D69)</f>
         <v>177</v>
       </c>
-      <c r="J37" s="2">
+      <c r="L37" s="2">
         <f>SUM(E59:E69)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="2">
-        <f>SUM(H37:J37)</f>
+      <c r="M37" s="2">
+        <f>SUM(J37:L37)</f>
         <v>479</v>
       </c>
-      <c r="L37" s="15">
-        <f>K37*600</f>
+      <c r="N37" s="15">
+        <f>M37*600</f>
         <v>287400</v>
       </c>
-      <c r="M37" s="15">
+      <c r="O37" s="15">
         <v>28000</v>
       </c>
-      <c r="N37" s="15">
-        <f>(L37-M37)/3</f>
+      <c r="P37" s="15">
+        <f>(N37-O37)/3</f>
         <v>86466.666666666672</v>
       </c>
-      <c r="T37" s="9"/>
-      <c r="U37" s="14">
+      <c r="V37" s="9"/>
+      <c r="W37" s="14">
         <v>58000</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>44989</v>
       </c>
       <c r="D38">
         <v>13</v>
       </c>
-      <c r="T38" s="10"/>
-      <c r="U38" s="14">
+      <c r="F38" s="19">
+        <v>57200</v>
+      </c>
+      <c r="V38" s="10"/>
+      <c r="W38" s="14">
         <v>55000</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>44991</v>
       </c>
       <c r="C39">
         <v>38</v>
       </c>
-      <c r="G39" s="16" t="s">
+      <c r="F39" s="19">
+        <v>155800</v>
+      </c>
+      <c r="I39" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="T39" s="11"/>
-      <c r="U39" s="14">
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="14">
         <v>52000</v>
       </c>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>44991</v>
       </c>
       <c r="D40">
         <v>24</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="F40" s="19">
+        <v>105600</v>
+      </c>
+      <c r="I40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="J40" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="K40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="L40" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="M40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="N40" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M40" s="2" t="s">
+      <c r="O40" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N40" s="2" t="s">
+      <c r="P40" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T40" s="12"/>
-      <c r="U40" s="14">
+      <c r="V40" s="12"/>
+      <c r="W40" s="14">
         <v>40000</v>
       </c>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>44991</v>
       </c>
       <c r="E41">
         <v>13</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="F41" s="19">
+        <v>57200</v>
+      </c>
+      <c r="I41" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H41" s="2">
+      <c r="J41" s="2">
         <f>SUM(C70:C77)</f>
         <v>116</v>
       </c>
-      <c r="I41" s="2">
+      <c r="K41" s="2">
         <f>SUM(D70:D77)</f>
         <v>21</v>
       </c>
-      <c r="J41" s="2">
+      <c r="L41" s="2">
         <f>SUM(E70:E77)</f>
         <v>36</v>
       </c>
-      <c r="K41" s="2">
-        <f>SUM(H41:J41)</f>
+      <c r="M41" s="2">
+        <f>SUM(J41:L41)</f>
         <v>173</v>
       </c>
-      <c r="L41" s="15">
-        <f>K41*600</f>
+      <c r="N41" s="15">
+        <f>M41*600</f>
         <v>103800</v>
       </c>
-      <c r="M41" s="15">
+      <c r="O41" s="15">
         <v>28000</v>
       </c>
-      <c r="N41" s="15">
-        <f>(L41-M41)/3</f>
+      <c r="P41" s="15">
+        <f>(N41-O41)/3</f>
         <v>25266.666666666668</v>
       </c>
-      <c r="T41" s="13"/>
-      <c r="U41" s="14">
+      <c r="V41" s="13"/>
+      <c r="W41" s="14">
         <v>48000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>44992</v>
       </c>
       <c r="C42">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="F42" s="19">
+        <v>52800</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>44992</v>
       </c>
       <c r="E43">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="F43" s="19">
+        <v>176300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>44992</v>
       </c>
       <c r="E44">
         <v>36</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="F44" s="19">
+        <v>147600</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>44992</v>
       </c>
       <c r="D45">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="F45" s="19">
+        <v>35200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>44992</v>
       </c>
       <c r="C46">
         <v>52</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="F46" s="19">
+        <v>213200</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>44992</v>
       </c>
       <c r="D47">
         <v>24</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="F47" s="19">
+        <v>105600</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>44993</v>
       </c>
       <c r="C48">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F48" s="19">
+        <v>52800</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>44993</v>
       </c>
       <c r="D49">
         <v>22</v>
       </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F49" s="19">
+        <v>96800</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>44993</v>
       </c>
       <c r="D50">
         <v>12</v>
       </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F50" s="19">
+        <v>52800</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>44993</v>
       </c>
       <c r="D51">
         <v>12</v>
       </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F51" s="19">
+        <v>52800</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>44993</v>
       </c>
       <c r="D52">
         <v>18</v>
       </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F52" s="19">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>44994</v>
       </c>
       <c r="C53">
         <v>42</v>
       </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F53" s="19">
+        <v>172200</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>44994</v>
       </c>
       <c r="D54">
         <v>33</v>
       </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F54" s="19">
+        <v>145200</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>44995</v>
       </c>
       <c r="C55">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F55" s="19">
+        <v>35200</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>44995</v>
       </c>
       <c r="D56">
         <v>48</v>
       </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F56" s="19">
+        <v>196800</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>44995</v>
       </c>
       <c r="D57">
         <v>48</v>
       </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F57" s="19">
+        <v>196800</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>44996</v>
       </c>
       <c r="C58">
         <v>37</v>
       </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F58" s="19">
+        <v>151700</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>44999</v>
       </c>
       <c r="D59">
         <v>48</v>
       </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F59" s="19">
+        <v>196800</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>44999</v>
       </c>
       <c r="C60">
         <v>26</v>
       </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F60" s="19">
+        <v>114400</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <v>45000</v>
       </c>
       <c r="C61">
         <v>12</v>
       </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F61" s="19">
+        <v>52800</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>45001</v>
       </c>
       <c r="D62">
         <v>23</v>
       </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F62" s="19">
+        <v>101200</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <v>45001</v>
       </c>
       <c r="D63">
         <v>12</v>
       </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F63" s="19">
+        <v>52800</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>45000</v>
       </c>
       <c r="D64">
         <v>40</v>
       </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F64" s="19">
+        <v>164000</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>45002</v>
       </c>
       <c r="C65">
         <v>144</v>
       </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F65" s="19">
+        <v>590400</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>45002</v>
       </c>
       <c r="C66">
         <v>36</v>
       </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F66" s="19">
+        <v>147600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>45003</v>
       </c>
       <c r="C67">
         <v>57</v>
       </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F67" s="19">
+        <v>233700</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>45003</v>
       </c>
       <c r="C68">
         <v>27</v>
       </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F68" s="19">
+        <v>118800</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>45003</v>
       </c>
       <c r="D69">
         <v>54</v>
       </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F69" s="19">
+        <v>221400</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>45007</v>
       </c>
       <c r="C70">
         <v>31</v>
       </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F70" s="19">
+        <v>136400</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>45007</v>
       </c>
       <c r="D71">
         <v>10</v>
       </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F71" s="19">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>45008</v>
       </c>
       <c r="D72">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F72" s="19">
+        <v>48400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <v>45008</v>
       </c>
       <c r="E73">
         <v>36</v>
       </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F73" s="19">
+        <v>147600</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <v>45009</v>
       </c>
       <c r="C74">
         <v>14</v>
       </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F74" s="19">
+        <v>61600</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <v>45009</v>
       </c>
       <c r="C75">
         <v>24</v>
       </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F75" s="19">
+        <v>105600</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
         <v>45009</v>
       </c>
       <c r="C76">
         <v>36</v>
       </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F76" s="19">
+        <v>147600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
         <v>45009</v>
       </c>
       <c r="C77">
         <v>11</v>
       </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F77" s="19">
+        <v>48400</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
         <v>45013</v>
       </c>
       <c r="D78">
         <v>100</v>
       </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F78" s="19">
+        <v>410000</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
         <v>45014</v>
       </c>
       <c r="C79">
         <v>12</v>
       </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F79" s="19">
+        <v>52800</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
         <v>45014</v>
       </c>
       <c r="D80">
         <v>45</v>
       </c>
+      <c r="F80" s="19">
+        <v>184500</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81" s="1">
+        <v>45014</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="F81" s="19">
+        <v>8800</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="G39:N39"/>
-    <mergeCell ref="G35:N35"/>
+    <mergeCell ref="I39:P39"/>
+    <mergeCell ref="I35:P35"/>
     <mergeCell ref="B2:E4"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G31:N31"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="I31:P31"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="I33 H37 I41" formulaRange="1"/>
+    <ignoredError sqref="K33 J37 K41" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <tableParts count="1">

--- a/reporte ventas.xlsx
+++ b/reporte ventas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\programacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE3D018-9520-4555-A16F-EB68262169DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE7F889-B32B-44AD-ADCA-D964C4D299D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -239,13 +239,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,7 +496,7 @@
                   <c:v>1034</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1046</c:v>
+                  <c:v>1214</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>277</c:v>
@@ -1235,8 +1235,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:F81" totalsRowShown="0">
-  <autoFilter ref="B5:F81" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:F82" totalsRowShown="0">
+  <autoFilter ref="B5:F82" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0">
       <filters>
         <dateGroupItem year="2023" month="3" dateTimeGrouping="month"/>
@@ -1568,10 +1568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:W81"/>
+  <dimension ref="B2:W82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1586,26 +1586,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
       <c r="F2" s="16"/>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
     </row>
     <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="16"/>
       <c r="H3" s="2" t="s">
         <v>7</v>
@@ -1624,10 +1624,10 @@
       </c>
     </row>
     <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="16"/>
       <c r="H4" s="2" t="s">
         <v>5</v>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="J4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
-        <v>1046</v>
+        <v>1214</v>
       </c>
       <c r="K4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="L4" s="2">
         <f>SUM(I4:K4)</f>
-        <v>2357</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -1675,16 +1675,16 @@
       <c r="E6">
         <v>36</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="17">
         <v>147600</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
     </row>
     <row r="7" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
@@ -1693,7 +1693,7 @@
       <c r="E7">
         <v>34</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="17">
         <v>149600</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -1719,7 +1719,7 @@
       <c r="D8">
         <v>36</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="17">
         <v>147600</v>
       </c>
       <c r="I8" s="2" t="s">
@@ -1752,7 +1752,7 @@
       <c r="D9">
         <v>36</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="17">
         <v>147600</v>
       </c>
     </row>
@@ -1763,16 +1763,16 @@
       <c r="D10">
         <v>6</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="17">
         <v>26400</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
     </row>
     <row r="11" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
@@ -1781,7 +1781,7 @@
       <c r="D11">
         <v>48</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="17">
         <v>196800</v>
       </c>
       <c r="I11" s="2" t="s">
@@ -1807,7 +1807,7 @@
       <c r="C12">
         <v>8</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="17">
         <v>35200</v>
       </c>
       <c r="I12" s="2" t="s">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="K12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
-        <v>1046</v>
+        <v>1214</v>
       </c>
       <c r="L12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="M12" s="2">
         <f>SUM(J12:L12)</f>
-        <v>2357</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="13" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
@@ -1837,7 +1837,7 @@
       <c r="E13">
         <v>36</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="17">
         <v>147600</v>
       </c>
     </row>
@@ -1849,7 +1849,7 @@
       <c r="D14">
         <v>52</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="17">
         <v>213200</v>
       </c>
     </row>
@@ -1860,7 +1860,7 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="17">
         <v>4400</v>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       <c r="D16">
         <v>85</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="17">
         <v>348500</v>
       </c>
     </row>
@@ -1882,7 +1882,7 @@
       <c r="C17">
         <v>8</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="17">
         <v>35200</v>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
       <c r="E18">
         <v>3</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="17">
         <v>13200</v>
       </c>
     </row>
@@ -1904,7 +1904,7 @@
       <c r="C19">
         <v>64</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="17">
         <v>262400</v>
       </c>
     </row>
@@ -1915,7 +1915,7 @@
       <c r="E20">
         <v>40</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="17">
         <v>164000</v>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       <c r="D21">
         <v>6</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="17">
         <v>26400</v>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       <c r="C22">
         <v>3</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="17">
         <v>13200</v>
       </c>
     </row>
@@ -1948,7 +1948,7 @@
       <c r="D23">
         <v>7</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="17">
         <v>30800</v>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       <c r="C24">
         <v>36</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="17">
         <v>147600</v>
       </c>
     </row>
@@ -1970,7 +1970,7 @@
       <c r="D25">
         <v>60</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="17">
         <v>246000</v>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
       <c r="C26">
         <v>36</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="17">
         <v>147600</v>
       </c>
     </row>
@@ -1992,7 +1992,7 @@
       <c r="C27">
         <v>50</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="17">
         <v>205000</v>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       <c r="C28">
         <v>13</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="17">
         <v>57200</v>
       </c>
     </row>
@@ -2014,7 +2014,7 @@
       <c r="C29">
         <v>21</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="17">
         <v>92400</v>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       <c r="D30">
         <v>21</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="17">
         <v>92400</v>
       </c>
     </row>
@@ -2036,19 +2036,19 @@
       <c r="C31">
         <v>66</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="17">
         <v>270600</v>
       </c>
-      <c r="I31" s="17" t="s">
+      <c r="I31" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
@@ -2057,7 +2057,7 @@
       <c r="D32">
         <v>36</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="17">
         <v>147600</v>
       </c>
       <c r="I32" s="2" t="s">
@@ -2092,7 +2092,7 @@
       <c r="C33">
         <v>7</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="17">
         <v>30800</v>
       </c>
       <c r="I33" s="2" t="s">
@@ -2137,7 +2137,7 @@
       <c r="C34">
         <v>75</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F34" s="17">
         <v>307500</v>
       </c>
       <c r="V34" s="6"/>
@@ -2152,19 +2152,19 @@
       <c r="C35">
         <v>13</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35" s="17">
         <v>57200</v>
       </c>
-      <c r="I35" s="17" t="s">
+      <c r="I35" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
       <c r="V35" s="7"/>
       <c r="W35" s="14">
         <v>65000</v>
@@ -2177,7 +2177,7 @@
       <c r="D36">
         <v>12</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F36" s="17">
         <v>52800</v>
       </c>
       <c r="I36" s="2" t="s">
@@ -2216,7 +2216,7 @@
       <c r="D37">
         <v>36</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F37" s="17">
         <v>147600</v>
       </c>
       <c r="I37" s="2" t="s">
@@ -2261,7 +2261,7 @@
       <c r="D38">
         <v>13</v>
       </c>
-      <c r="F38" s="19">
+      <c r="F38" s="17">
         <v>57200</v>
       </c>
       <c r="V38" s="10"/>
@@ -2276,19 +2276,19 @@
       <c r="C39">
         <v>38</v>
       </c>
-      <c r="F39" s="19">
+      <c r="F39" s="17">
         <v>155800</v>
       </c>
-      <c r="I39" s="17" t="s">
+      <c r="I39" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
       <c r="V39" s="11"/>
       <c r="W39" s="14">
         <v>52000</v>
@@ -2301,7 +2301,7 @@
       <c r="D40">
         <v>24</v>
       </c>
-      <c r="F40" s="19">
+      <c r="F40" s="17">
         <v>105600</v>
       </c>
       <c r="I40" s="2" t="s">
@@ -2340,7 +2340,7 @@
       <c r="E41">
         <v>13</v>
       </c>
-      <c r="F41" s="19">
+      <c r="F41" s="17">
         <v>57200</v>
       </c>
       <c r="I41" s="2" t="s">
@@ -2385,7 +2385,7 @@
       <c r="C42">
         <v>12</v>
       </c>
-      <c r="F42" s="19">
+      <c r="F42" s="17">
         <v>52800</v>
       </c>
     </row>
@@ -2396,7 +2396,7 @@
       <c r="E43">
         <v>43</v>
       </c>
-      <c r="F43" s="19">
+      <c r="F43" s="17">
         <v>176300</v>
       </c>
     </row>
@@ -2407,7 +2407,7 @@
       <c r="E44">
         <v>36</v>
       </c>
-      <c r="F44" s="19">
+      <c r="F44" s="17">
         <v>147600</v>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       <c r="D45">
         <v>8</v>
       </c>
-      <c r="F45" s="19">
+      <c r="F45" s="17">
         <v>35200</v>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       <c r="C46">
         <v>52</v>
       </c>
-      <c r="F46" s="19">
+      <c r="F46" s="17">
         <v>213200</v>
       </c>
     </row>
@@ -2440,7 +2440,7 @@
       <c r="D47">
         <v>24</v>
       </c>
-      <c r="F47" s="19">
+      <c r="F47" s="17">
         <v>105600</v>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       <c r="C48">
         <v>12</v>
       </c>
-      <c r="F48" s="19">
+      <c r="F48" s="17">
         <v>52800</v>
       </c>
     </row>
@@ -2462,7 +2462,7 @@
       <c r="D49">
         <v>22</v>
       </c>
-      <c r="F49" s="19">
+      <c r="F49" s="17">
         <v>96800</v>
       </c>
     </row>
@@ -2473,7 +2473,7 @@
       <c r="D50">
         <v>12</v>
       </c>
-      <c r="F50" s="19">
+      <c r="F50" s="17">
         <v>52800</v>
       </c>
     </row>
@@ -2484,7 +2484,7 @@
       <c r="D51">
         <v>12</v>
       </c>
-      <c r="F51" s="19">
+      <c r="F51" s="17">
         <v>52800</v>
       </c>
     </row>
@@ -2495,7 +2495,7 @@
       <c r="D52">
         <v>18</v>
       </c>
-      <c r="F52" s="19">
+      <c r="F52" s="17">
         <v>79200</v>
       </c>
     </row>
@@ -2506,7 +2506,7 @@
       <c r="C53">
         <v>42</v>
       </c>
-      <c r="F53" s="19">
+      <c r="F53" s="17">
         <v>172200</v>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       <c r="D54">
         <v>33</v>
       </c>
-      <c r="F54" s="19">
+      <c r="F54" s="17">
         <v>145200</v>
       </c>
     </row>
@@ -2528,7 +2528,7 @@
       <c r="C55">
         <v>8</v>
       </c>
-      <c r="F55" s="19">
+      <c r="F55" s="17">
         <v>35200</v>
       </c>
     </row>
@@ -2539,7 +2539,7 @@
       <c r="D56">
         <v>48</v>
       </c>
-      <c r="F56" s="19">
+      <c r="F56" s="17">
         <v>196800</v>
       </c>
     </row>
@@ -2550,7 +2550,7 @@
       <c r="D57">
         <v>48</v>
       </c>
-      <c r="F57" s="19">
+      <c r="F57" s="17">
         <v>196800</v>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       <c r="C58">
         <v>37</v>
       </c>
-      <c r="F58" s="19">
+      <c r="F58" s="17">
         <v>151700</v>
       </c>
     </row>
@@ -2572,7 +2572,7 @@
       <c r="D59">
         <v>48</v>
       </c>
-      <c r="F59" s="19">
+      <c r="F59" s="17">
         <v>196800</v>
       </c>
     </row>
@@ -2583,7 +2583,7 @@
       <c r="C60">
         <v>26</v>
       </c>
-      <c r="F60" s="19">
+      <c r="F60" s="17">
         <v>114400</v>
       </c>
     </row>
@@ -2594,7 +2594,7 @@
       <c r="C61">
         <v>12</v>
       </c>
-      <c r="F61" s="19">
+      <c r="F61" s="17">
         <v>52800</v>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       <c r="D62">
         <v>23</v>
       </c>
-      <c r="F62" s="19">
+      <c r="F62" s="17">
         <v>101200</v>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       <c r="D63">
         <v>12</v>
       </c>
-      <c r="F63" s="19">
+      <c r="F63" s="17">
         <v>52800</v>
       </c>
     </row>
@@ -2627,7 +2627,7 @@
       <c r="D64">
         <v>40</v>
       </c>
-      <c r="F64" s="19">
+      <c r="F64" s="17">
         <v>164000</v>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       <c r="C65">
         <v>144</v>
       </c>
-      <c r="F65" s="19">
+      <c r="F65" s="17">
         <v>590400</v>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       <c r="C66">
         <v>36</v>
       </c>
-      <c r="F66" s="19">
+      <c r="F66" s="17">
         <v>147600</v>
       </c>
     </row>
@@ -2660,7 +2660,7 @@
       <c r="C67">
         <v>57</v>
       </c>
-      <c r="F67" s="19">
+      <c r="F67" s="17">
         <v>233700</v>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       <c r="C68">
         <v>27</v>
       </c>
-      <c r="F68" s="19">
+      <c r="F68" s="17">
         <v>118800</v>
       </c>
     </row>
@@ -2682,7 +2682,7 @@
       <c r="D69">
         <v>54</v>
       </c>
-      <c r="F69" s="19">
+      <c r="F69" s="17">
         <v>221400</v>
       </c>
     </row>
@@ -2693,7 +2693,7 @@
       <c r="C70">
         <v>31</v>
       </c>
-      <c r="F70" s="19">
+      <c r="F70" s="17">
         <v>136400</v>
       </c>
     </row>
@@ -2704,7 +2704,7 @@
       <c r="D71">
         <v>10</v>
       </c>
-      <c r="F71" s="19">
+      <c r="F71" s="17">
         <v>44000</v>
       </c>
     </row>
@@ -2715,7 +2715,7 @@
       <c r="D72">
         <v>11</v>
       </c>
-      <c r="F72" s="19">
+      <c r="F72" s="17">
         <v>48400</v>
       </c>
     </row>
@@ -2726,7 +2726,7 @@
       <c r="E73">
         <v>36</v>
       </c>
-      <c r="F73" s="19">
+      <c r="F73" s="17">
         <v>147600</v>
       </c>
     </row>
@@ -2737,7 +2737,7 @@
       <c r="C74">
         <v>14</v>
       </c>
-      <c r="F74" s="19">
+      <c r="F74" s="17">
         <v>61600</v>
       </c>
     </row>
@@ -2748,7 +2748,7 @@
       <c r="C75">
         <v>24</v>
       </c>
-      <c r="F75" s="19">
+      <c r="F75" s="17">
         <v>105600</v>
       </c>
     </row>
@@ -2759,7 +2759,7 @@
       <c r="C76">
         <v>36</v>
       </c>
-      <c r="F76" s="19">
+      <c r="F76" s="17">
         <v>147600</v>
       </c>
     </row>
@@ -2770,7 +2770,7 @@
       <c r="C77">
         <v>11</v>
       </c>
-      <c r="F77" s="19">
+      <c r="F77" s="17">
         <v>48400</v>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       <c r="D78">
         <v>100</v>
       </c>
-      <c r="F78" s="19">
+      <c r="F78" s="17">
         <v>410000</v>
       </c>
     </row>
@@ -2792,7 +2792,7 @@
       <c r="C79">
         <v>12</v>
       </c>
-      <c r="F79" s="19">
+      <c r="F79" s="17">
         <v>52800</v>
       </c>
     </row>
@@ -2803,7 +2803,7 @@
       <c r="D80">
         <v>45</v>
       </c>
-      <c r="F80" s="19">
+      <c r="F80" s="17">
         <v>184500</v>
       </c>
     </row>
@@ -2814,8 +2814,19 @@
       <c r="C81">
         <v>2</v>
       </c>
-      <c r="F81" s="19">
+      <c r="F81" s="17">
         <v>8800</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="1">
+        <v>45016</v>
+      </c>
+      <c r="D82">
+        <v>168</v>
+      </c>
+      <c r="F82" s="17">
+        <v>759600</v>
       </c>
     </row>
   </sheetData>

--- a/reporte ventas.xlsx
+++ b/reporte ventas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\programacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE7F889-B32B-44AD-ADCA-D964C4D299D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20863F54-856A-4CE8-B0D3-1AA0697C1687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="30">
   <si>
     <t>Reporte de Ventas</t>
   </si>
@@ -99,6 +99,33 @@
   <si>
     <t>semana 20 de marzo - 25 de marzo</t>
   </si>
+  <si>
+    <t>Semana 27 de Marzo - 1 de Abril</t>
+  </si>
+  <si>
+    <t>Total Mes Marzo</t>
+  </si>
+  <si>
+    <t>Vendedor</t>
+  </si>
+  <si>
+    <t>Sebastian</t>
+  </si>
+  <si>
+    <t>Angelica</t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t>total venta</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Total Mes Febrero</t>
+  </si>
 </sst>
 </file>
 
@@ -130,7 +157,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,6 +218,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -219,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -236,14 +269,11 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -261,12 +291,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF2F2F"/>
       <color rgb="FFCC00CC"/>
       <color rgb="FFA86ED4"/>
       <color rgb="FF8A3CC4"/>
       <color rgb="FFFFFFFF"/>
       <color rgb="FFDA68B9"/>
-      <color rgb="FFFF2F2F"/>
     </mruColors>
   </colors>
   <extLst>
@@ -321,13 +351,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-CO"/>
-              <a:t>Mes</a:t>
+              <a:t>Total</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="es-CO" baseline="0"/>
-              <a:t> de Febrero</a:t>
+              <a:t> año 2023</a:t>
             </a:r>
-            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -493,13 +522,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1034</c:v>
+                  <c:v>1162</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1214</c:v>
+                  <c:v>1250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>277</c:v>
+                  <c:v>279</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -691,13 +720,1759 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total ventas Marzo</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'reporte de ventas sublimado'!$I$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'reporte de ventas sublimado'!$J$49:$L$49</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'reporte de ventas sublimado'!$J$48:$L$48</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E6A4-42B9-8099-9EC90EFA2A8C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="201553472"/>
+        <c:axId val="201553888"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="201553472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="201553888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="201553888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="201553472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total ventas</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>febrero</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'reporte de ventas sublimado'!$I$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'reporte de ventas sublimado'!$J$20:$L$20</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'reporte de ventas sublimado'!$J$19:$L$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1998-4EAA-A37E-333F57E9A78B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="268301888"/>
+        <c:axId val="268317696"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="268301888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="268317696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="268317696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="268301888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="19">
   <a:schemeClr val="accent6"/>
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="294">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1231,15 +3006,87 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C73BC5DB-D790-4B79-90E4-C218AFA7584E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F070627-EEE6-4D62-A01A-3EEFB2F422D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:F82" totalsRowShown="0">
-  <autoFilter ref="B5:F82" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:F86" totalsRowShown="0">
+  <autoFilter ref="B5:F86" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0">
       <filters>
-        <dateGroupItem year="2023" month="3" dateTimeGrouping="month"/>
+        <dateGroupItem year="2023" month="4" dateTimeGrouping="month"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1568,10 +3415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:W82"/>
+  <dimension ref="B2:W86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1579,6 +3426,7 @@
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="5" max="6" width="11.5703125" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
@@ -1586,27 +3434,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="16"/>
-      <c r="H2" s="18" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="H2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
     </row>
     <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="16"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
       <c r="H3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1624,29 +3472,29 @@
       </c>
     </row>
     <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="16"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
       <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>1034</v>
+        <v>1162</v>
       </c>
       <c r="J4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
-        <v>1214</v>
+        <v>1250</v>
       </c>
       <c r="K4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
-        <v>277</v>
-      </c>
-      <c r="L4" s="2">
-        <f>SUM(I4:K4)</f>
-        <v>2525</v>
+        <v>279</v>
+      </c>
+      <c r="L4" s="14">
+        <f xml:space="preserve"> SUM(Tabla1[valor venta])</f>
+        <v>11281200</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -1675,16 +3523,16 @@
       <c r="E6">
         <v>36</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <v>147600</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
@@ -1693,7 +3541,7 @@
       <c r="E7">
         <v>34</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16">
         <v>149600</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -1719,7 +3567,7 @@
       <c r="D8">
         <v>36</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <v>147600</v>
       </c>
       <c r="I8" s="2" t="s">
@@ -1752,7 +3600,7 @@
       <c r="D9">
         <v>36</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="16">
         <v>147600</v>
       </c>
     </row>
@@ -1763,16 +3611,16 @@
       <c r="D10">
         <v>6</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <v>26400</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
     </row>
     <row r="11" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
@@ -1781,7 +3629,7 @@
       <c r="D11">
         <v>48</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="16">
         <v>196800</v>
       </c>
       <c r="I11" s="2" t="s">
@@ -1807,7 +3655,7 @@
       <c r="C12">
         <v>8</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="16">
         <v>35200</v>
       </c>
       <c r="I12" s="2" t="s">
@@ -1815,19 +3663,19 @@
       </c>
       <c r="J12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>1034</v>
+        <v>1162</v>
       </c>
       <c r="K12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
-        <v>1214</v>
+        <v>1250</v>
       </c>
       <c r="L12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M12" s="2">
         <f>SUM(J12:L12)</f>
-        <v>2525</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="13" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
@@ -1837,7 +3685,7 @@
       <c r="E13">
         <v>36</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="16">
         <v>147600</v>
       </c>
     </row>
@@ -1849,7 +3697,7 @@
       <c r="D14">
         <v>52</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="16">
         <v>213200</v>
       </c>
     </row>
@@ -1860,7 +3708,7 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="16">
         <v>4400</v>
       </c>
     </row>
@@ -1871,7 +3719,7 @@
       <c r="D16">
         <v>85</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="16">
         <v>348500</v>
       </c>
     </row>
@@ -1882,7 +3730,7 @@
       <c r="C17">
         <v>8</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="16">
         <v>35200</v>
       </c>
     </row>
@@ -1893,9 +3741,16 @@
       <c r="E18">
         <v>3</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="16">
         <v>13200</v>
       </c>
+      <c r="I18" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
     </row>
     <row r="19" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
@@ -1904,8 +3759,23 @@
       <c r="C19">
         <v>64</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="16">
         <v>262400</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
@@ -1915,8 +3785,27 @@
       <c r="E20">
         <v>40</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="16">
         <v>164000</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="2">
+        <f>SUM(C6:C30)</f>
+        <v>240</v>
+      </c>
+      <c r="K20" s="2">
+        <f>SUM(D6:D30)</f>
+        <v>357</v>
+      </c>
+      <c r="L20" s="2">
+        <f>SUM(E6:E30)</f>
+        <v>149</v>
+      </c>
+      <c r="M20" s="14">
+        <f>SUM(F6:F30)</f>
+        <v>3097900</v>
       </c>
     </row>
     <row r="21" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
@@ -1926,7 +3815,7 @@
       <c r="D21">
         <v>6</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="16">
         <v>26400</v>
       </c>
     </row>
@@ -1937,7 +3826,7 @@
       <c r="C22">
         <v>3</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="16">
         <v>13200</v>
       </c>
     </row>
@@ -1948,7 +3837,7 @@
       <c r="D23">
         <v>7</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="16">
         <v>30800</v>
       </c>
     </row>
@@ -1959,7 +3848,7 @@
       <c r="C24">
         <v>36</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="16">
         <v>147600</v>
       </c>
     </row>
@@ -1970,7 +3859,7 @@
       <c r="D25">
         <v>60</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="16">
         <v>246000</v>
       </c>
     </row>
@@ -1981,7 +3870,7 @@
       <c r="C26">
         <v>36</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="16">
         <v>147600</v>
       </c>
     </row>
@@ -1992,7 +3881,7 @@
       <c r="C27">
         <v>50</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="16">
         <v>205000</v>
       </c>
     </row>
@@ -2003,7 +3892,7 @@
       <c r="C28">
         <v>13</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="16">
         <v>57200</v>
       </c>
     </row>
@@ -2014,7 +3903,7 @@
       <c r="C29">
         <v>21</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="16">
         <v>92400</v>
       </c>
     </row>
@@ -2025,39 +3914,39 @@
       <c r="D30">
         <v>21</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="16">
         <v>92400</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>44986</v>
       </c>
       <c r="C31">
         <v>66</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="16">
         <v>270600</v>
       </c>
-      <c r="I31" s="18" t="s">
+      <c r="I31" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+    </row>
+    <row r="32" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>44986</v>
       </c>
       <c r="D32">
         <v>36</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="16">
         <v>147600</v>
       </c>
       <c r="I32" s="2" t="s">
@@ -2085,14 +3974,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>44986</v>
       </c>
       <c r="C33">
         <v>7</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="16">
         <v>30800</v>
       </c>
       <c r="I33" s="2" t="s">
@@ -2130,14 +4019,14 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>44987</v>
       </c>
       <c r="C34">
         <v>75</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="16">
         <v>307500</v>
       </c>
       <c r="V34" s="6"/>
@@ -2145,39 +4034,39 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>44988</v>
       </c>
       <c r="C35">
         <v>13</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F35" s="16">
         <v>57200</v>
       </c>
-      <c r="I35" s="18" t="s">
+      <c r="I35" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="18"/>
-      <c r="P35" s="18"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
       <c r="V35" s="7"/>
       <c r="W35" s="14">
         <v>65000</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>44988</v>
       </c>
       <c r="D36">
         <v>12</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="16">
         <v>52800</v>
       </c>
       <c r="I36" s="2" t="s">
@@ -2209,14 +4098,14 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>44989</v>
       </c>
       <c r="D37">
         <v>36</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F37" s="16">
         <v>147600</v>
       </c>
       <c r="I37" s="2" t="s">
@@ -2254,14 +4143,14 @@
         <v>58000</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>44989</v>
       </c>
       <c r="D38">
         <v>13</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="16">
         <v>57200</v>
       </c>
       <c r="V38" s="10"/>
@@ -2269,39 +4158,39 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>44991</v>
       </c>
       <c r="C39">
         <v>38</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F39" s="16">
         <v>155800</v>
       </c>
-      <c r="I39" s="18" t="s">
+      <c r="I39" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
       <c r="V39" s="11"/>
       <c r="W39" s="14">
         <v>52000</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>44991</v>
       </c>
       <c r="D40">
         <v>24</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F40" s="16">
         <v>105600</v>
       </c>
       <c r="I40" s="2" t="s">
@@ -2333,14 +4222,14 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>44991</v>
       </c>
       <c r="E41">
         <v>13</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F41" s="16">
         <v>57200</v>
       </c>
       <c r="I41" s="2" t="s">
@@ -2378,462 +4267,614 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>44992</v>
       </c>
       <c r="C42">
         <v>12</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F42" s="16">
         <v>52800</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>44992</v>
       </c>
       <c r="E43">
         <v>43</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F43" s="16">
         <v>176300</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="I43" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+    </row>
+    <row r="44" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>44992</v>
       </c>
       <c r="E44">
         <v>36</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F44" s="16">
         <v>147600</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="I44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>44992</v>
       </c>
       <c r="D45">
         <v>8</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F45" s="16">
         <v>35200</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="I45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" s="2">
+        <f>SUM(C78:C84)</f>
+        <v>29</v>
+      </c>
+      <c r="K45" s="2">
+        <f>SUM(D78:D84)</f>
+        <v>349</v>
+      </c>
+      <c r="L45" s="2">
+        <f>SUM(E78:E85)</f>
+        <v>2</v>
+      </c>
+      <c r="M45" s="2">
+        <f>SUM(J45:L45)</f>
+        <v>380</v>
+      </c>
+      <c r="N45" s="15">
+        <f>M45*600</f>
+        <v>228000</v>
+      </c>
+      <c r="O45" s="15">
+        <v>28000</v>
+      </c>
+      <c r="P45" s="15">
+        <f>(N45-O45)/3</f>
+        <v>66666.666666666672</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>44992</v>
       </c>
       <c r="C46">
         <v>52</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F46" s="16">
         <v>213200</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>44992</v>
       </c>
       <c r="D47">
         <v>24</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F47" s="16">
         <v>105600</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="I47" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+    </row>
+    <row r="48" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>44993</v>
       </c>
       <c r="C48">
         <v>12</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F48" s="16">
         <v>52800</v>
       </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>44993</v>
       </c>
       <c r="D49">
         <v>22</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F49" s="16">
         <v>96800</v>
       </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I49" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J49" s="2">
+        <f>SUM(C31:C85)</f>
+        <v>809</v>
+      </c>
+      <c r="K49" s="2">
+        <f>SUM(D31:D85)</f>
+        <v>893</v>
+      </c>
+      <c r="L49" s="2">
+        <f>SUM(E31:E85)</f>
+        <v>130</v>
+      </c>
+      <c r="M49" s="14">
+        <f>SUM(F31:F85)</f>
+        <v>7720000</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>44993</v>
       </c>
       <c r="D50">
         <v>12</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F50" s="16">
         <v>52800</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>44993</v>
       </c>
       <c r="D51">
         <v>12</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F51" s="16">
         <v>52800</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>44993</v>
       </c>
       <c r="D52">
         <v>18</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F52" s="16">
         <v>79200</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>44994</v>
       </c>
       <c r="C53">
         <v>42</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F53" s="16">
         <v>172200</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>44994</v>
       </c>
       <c r="D54">
         <v>33</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F54" s="16">
         <v>145200</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>44995</v>
       </c>
       <c r="C55">
         <v>8</v>
       </c>
-      <c r="F55" s="17">
+      <c r="F55" s="16">
         <v>35200</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>44995</v>
       </c>
       <c r="D56">
         <v>48</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F56" s="16">
         <v>196800</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>44995</v>
       </c>
       <c r="D57">
         <v>48</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F57" s="16">
         <v>196800</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>44996</v>
       </c>
       <c r="C58">
         <v>37</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F58" s="16">
         <v>151700</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>44999</v>
       </c>
       <c r="D59">
         <v>48</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F59" s="16">
         <v>196800</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>44999</v>
       </c>
       <c r="C60">
         <v>26</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F60" s="16">
         <v>114400</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <v>45000</v>
       </c>
       <c r="C61">
         <v>12</v>
       </c>
-      <c r="F61" s="17">
+      <c r="F61" s="16">
         <v>52800</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>45001</v>
       </c>
       <c r="D62">
         <v>23</v>
       </c>
-      <c r="F62" s="17">
+      <c r="F62" s="16">
         <v>101200</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <v>45001</v>
       </c>
       <c r="D63">
         <v>12</v>
       </c>
-      <c r="F63" s="17">
+      <c r="F63" s="16">
         <v>52800</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>45000</v>
       </c>
       <c r="D64">
         <v>40</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F64" s="16">
         <v>164000</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>45002</v>
       </c>
       <c r="C65">
         <v>144</v>
       </c>
-      <c r="F65" s="17">
+      <c r="F65" s="16">
         <v>590400</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>45002</v>
       </c>
       <c r="C66">
         <v>36</v>
       </c>
-      <c r="F66" s="17">
+      <c r="F66" s="16">
         <v>147600</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>45003</v>
       </c>
       <c r="C67">
         <v>57</v>
       </c>
-      <c r="F67" s="17">
+      <c r="F67" s="16">
         <v>233700</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>45003</v>
       </c>
       <c r="C68">
         <v>27</v>
       </c>
-      <c r="F68" s="17">
+      <c r="F68" s="16">
         <v>118800</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>45003</v>
       </c>
       <c r="D69">
         <v>54</v>
       </c>
-      <c r="F69" s="17">
+      <c r="F69" s="16">
         <v>221400</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>45007</v>
       </c>
       <c r="C70">
         <v>31</v>
       </c>
-      <c r="F70" s="17">
+      <c r="F70" s="16">
         <v>136400</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>45007</v>
       </c>
       <c r="D71">
         <v>10</v>
       </c>
-      <c r="F71" s="17">
+      <c r="F71" s="16">
         <v>44000</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>45008</v>
       </c>
       <c r="D72">
         <v>11</v>
       </c>
-      <c r="F72" s="17">
+      <c r="F72" s="16">
         <v>48400</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <v>45008</v>
       </c>
       <c r="E73">
         <v>36</v>
       </c>
-      <c r="F73" s="17">
+      <c r="F73" s="16">
         <v>147600</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <v>45009</v>
       </c>
       <c r="C74">
         <v>14</v>
       </c>
-      <c r="F74" s="17">
+      <c r="F74" s="16">
         <v>61600</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <v>45009</v>
       </c>
       <c r="C75">
         <v>24</v>
       </c>
-      <c r="F75" s="17">
+      <c r="F75" s="16">
         <v>105600</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
         <v>45009</v>
       </c>
       <c r="C76">
         <v>36</v>
       </c>
-      <c r="F76" s="17">
+      <c r="F76" s="16">
         <v>147600</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
         <v>45009</v>
       </c>
       <c r="C77">
         <v>11</v>
       </c>
-      <c r="F77" s="17">
+      <c r="F77" s="16">
         <v>48400</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
         <v>45013</v>
       </c>
       <c r="D78">
         <v>100</v>
       </c>
-      <c r="F78" s="17">
+      <c r="F78" s="16">
         <v>410000</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
         <v>45014</v>
       </c>
       <c r="C79">
         <v>12</v>
       </c>
-      <c r="F79" s="17">
+      <c r="F79" s="16">
         <v>52800</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
         <v>45014</v>
       </c>
       <c r="D80">
         <v>45</v>
       </c>
-      <c r="F80" s="17">
+      <c r="F80" s="16">
         <v>184500</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <v>45014</v>
       </c>
       <c r="C81">
         <v>2</v>
       </c>
-      <c r="F81" s="17">
+      <c r="F81" s="16">
         <v>8800</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
         <v>45016</v>
       </c>
       <c r="D82">
         <v>168</v>
       </c>
-      <c r="F82" s="17">
+      <c r="F82" s="16">
         <v>759600</v>
       </c>
     </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="1">
+        <v>45017</v>
+      </c>
+      <c r="D83">
+        <v>36</v>
+      </c>
+      <c r="F83" s="16">
+        <v>147600</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="1">
+        <v>45017</v>
+      </c>
+      <c r="C84">
+        <v>15</v>
+      </c>
+      <c r="F84" s="16">
+        <v>61500</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="1">
+        <v>45017</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="F85" s="16">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="1">
+        <v>45019</v>
+      </c>
+      <c r="C86">
+        <v>113</v>
+      </c>
+      <c r="F86" s="16">
+        <v>463300</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="I43:P43"/>
+    <mergeCell ref="I47:M47"/>
+    <mergeCell ref="I18:M18"/>
+    <mergeCell ref="B2:F4"/>
     <mergeCell ref="I39:P39"/>
     <mergeCell ref="I35:P35"/>
-    <mergeCell ref="B2:E4"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="I6:M6"/>
     <mergeCell ref="I10:M10"/>
@@ -2843,7 +4884,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="K33 J37 K41" formulaRange="1"/>
+    <ignoredError sqref="K33 J37 K41 J45 K49 M49 J8 J20 M20" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <tableParts count="1">

--- a/reporte ventas.xlsx
+++ b/reporte ventas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\programacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20863F54-856A-4CE8-B0D3-1AA0697C1687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB4FD66-3CA5-41B9-A1A4-54D655531B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -522,7 +522,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1162</c:v>
+                  <c:v>1190</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1250</c:v>
@@ -870,7 +870,7 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:strRef>
+                  <c:multiLvlStrRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -878,7 +878,7 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:strRef>
+                  </c:multiLvlStrRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
             </c:ext>
@@ -1219,7 +1219,7 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:strRef>
+                  <c:multiLvlStrRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -1227,7 +1227,7 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:strRef>
+                  </c:multiLvlStrRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
             </c:ext>
@@ -3082,8 +3082,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:F86" totalsRowShown="0">
-  <autoFilter ref="B5:F86" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:F87" totalsRowShown="0">
+  <autoFilter ref="B5:F87" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0">
       <filters>
         <dateGroupItem year="2023" month="4" dateTimeGrouping="month"/>
@@ -3415,10 +3415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:W86"/>
+  <dimension ref="B2:W87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3482,7 +3482,7 @@
       </c>
       <c r="I4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>1162</v>
+        <v>1190</v>
       </c>
       <c r="J4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
@@ -3494,7 +3494,7 @@
       </c>
       <c r="L4" s="14">
         <f xml:space="preserve"> SUM(Tabla1[valor venta])</f>
-        <v>11281200</v>
+        <v>11396000</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="J12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>1162</v>
+        <v>1190</v>
       </c>
       <c r="K12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="M12" s="2">
         <f>SUM(J12:L12)</f>
-        <v>2691</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="13" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
@@ -4865,6 +4865,17 @@
       </c>
       <c r="F86" s="16">
         <v>463300</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="1">
+        <v>44990</v>
+      </c>
+      <c r="C87">
+        <v>28</v>
+      </c>
+      <c r="F87" s="16">
+        <v>114800</v>
       </c>
     </row>
   </sheetData>

--- a/reporte ventas.xlsx
+++ b/reporte ventas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\programacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB4FD66-3CA5-41B9-A1A4-54D655531B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98062B75-3A2F-4AEE-A25C-7CE6A71C081C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="31">
   <si>
     <t>Reporte de Ventas</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>Total Mes Febrero</t>
+  </si>
+  <si>
+    <t>Semana 4 de Abril - 8 de Abril</t>
   </si>
 </sst>
 </file>
@@ -525,7 +528,7 @@
                   <c:v>1190</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1250</c:v>
+                  <c:v>1274</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>279</c:v>
@@ -870,7 +873,7 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:multiLvlStrRef>
+                  <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -878,7 +881,7 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:multiLvlStrRef>
+                  </c:strRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
             </c:ext>
@@ -3082,8 +3085,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:F87" totalsRowShown="0">
-  <autoFilter ref="B5:F87" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:F88" totalsRowShown="0">
+  <autoFilter ref="B5:F88" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0">
       <filters>
         <dateGroupItem year="2023" month="4" dateTimeGrouping="month"/>
@@ -3415,10 +3418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:W87"/>
+  <dimension ref="B2:W88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+      <selection activeCell="L93" sqref="L93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3486,7 +3489,7 @@
       </c>
       <c r="J4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
-        <v>1250</v>
+        <v>1274</v>
       </c>
       <c r="K4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
@@ -3494,7 +3497,7 @@
       </c>
       <c r="L4" s="14">
         <f xml:space="preserve"> SUM(Tabla1[valor venta])</f>
-        <v>11396000</v>
+        <v>11501600</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -3667,7 +3670,7 @@
       </c>
       <c r="K12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
-        <v>1250</v>
+        <v>1274</v>
       </c>
       <c r="L12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
@@ -3675,7 +3678,7 @@
       </c>
       <c r="M12" s="2">
         <f>SUM(J12:L12)</f>
-        <v>2719</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="13" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
@@ -4801,7 +4804,7 @@
         <v>184500</v>
       </c>
     </row>
-    <row r="81" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <v>45014</v>
       </c>
@@ -4812,7 +4815,7 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="82" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
         <v>45016</v>
       </c>
@@ -4823,7 +4826,7 @@
         <v>759600</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <v>45017</v>
       </c>
@@ -4834,7 +4837,7 @@
         <v>147600</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <v>45017</v>
       </c>
@@ -4845,7 +4848,7 @@
         <v>61500</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>45017</v>
       </c>
@@ -4856,7 +4859,7 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>45019</v>
       </c>
@@ -4866,10 +4869,20 @@
       <c r="F86" s="16">
         <v>463300</v>
       </c>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H86" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I86" s="17"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="17"/>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
-        <v>44990</v>
+        <v>45021</v>
       </c>
       <c r="C87">
         <v>28</v>
@@ -4877,9 +4890,75 @@
       <c r="F87" s="16">
         <v>114800</v>
       </c>
+      <c r="H87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N87" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O87" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B88" s="1">
+        <v>45026</v>
+      </c>
+      <c r="D88">
+        <v>24</v>
+      </c>
+      <c r="F88" s="16">
+        <v>105600</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I88" s="2">
+        <f>SUM(C86:C87)</f>
+        <v>141</v>
+      </c>
+      <c r="J88" s="2">
+        <f>SUM(D86:D87)</f>
+        <v>0</v>
+      </c>
+      <c r="K88" s="2">
+        <f>SUM(E86:E87)</f>
+        <v>0</v>
+      </c>
+      <c r="L88" s="2">
+        <f>SUM(I88:K88)</f>
+        <v>141</v>
+      </c>
+      <c r="M88" s="15">
+        <f>L88*600</f>
+        <v>84600</v>
+      </c>
+      <c r="N88" s="15">
+        <v>28000</v>
+      </c>
+      <c r="O88" s="15">
+        <f>(M88-N88)/3</f>
+        <v>18866.666666666668</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="H86:O86"/>
     <mergeCell ref="I43:P43"/>
     <mergeCell ref="I47:M47"/>
     <mergeCell ref="I18:M18"/>
@@ -4895,7 +4974,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="K33 J37 K41 J45 K49 M49 J8 J20 M20" formulaRange="1"/>
+    <ignoredError sqref="K33 J37 K41 J45 K49 M49 J8 J20 M20 J88:K88" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <tableParts count="1">

--- a/reporte ventas.xlsx
+++ b/reporte ventas.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\programacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98062B75-3A2F-4AEE-A25C-7CE6A71C081C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13E607C-E4BC-4C93-9107-F5D9D6CB7881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="reporte de ventas sublimado" sheetId="1" r:id="rId1"/>
-    <sheet name="Ventas varias" sheetId="2" r:id="rId2"/>
+    <sheet name="informe" sheetId="3" r:id="rId2"/>
+    <sheet name="Ventas varias" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="51">
   <si>
     <t>Reporte de Ventas</t>
   </si>
@@ -129,6 +130,66 @@
   <si>
     <t>Semana 4 de Abril - 8 de Abril</t>
   </si>
+  <si>
+    <t>Semana 10 de Abril - 15 de Abril</t>
+  </si>
+  <si>
+    <t>ingreso</t>
+  </si>
+  <si>
+    <t>gasto</t>
+  </si>
+  <si>
+    <t>concepto</t>
+  </si>
+  <si>
+    <t>INFORME DE RESULTADOS</t>
+  </si>
+  <si>
+    <t>caja de pocillos</t>
+  </si>
+  <si>
+    <t>resma de papel</t>
+  </si>
+  <si>
+    <t>transporte</t>
+  </si>
+  <si>
+    <t>3 cajas de pocillos</t>
+  </si>
+  <si>
+    <t>cinta termica</t>
+  </si>
+  <si>
+    <t>mano de obra Sebastian</t>
+  </si>
+  <si>
+    <t>2 cajas de picillos</t>
+  </si>
+  <si>
+    <t>gasto familiar</t>
+  </si>
+  <si>
+    <t>ventas semana 19 - 22</t>
+  </si>
+  <si>
+    <t>Semana 17 de Abril - 22 de Abril</t>
+  </si>
+  <si>
+    <t>mano de obra angelica y alejandro</t>
+  </si>
+  <si>
+    <t>REPORTE ANUAL</t>
+  </si>
+  <si>
+    <t>INGRESOS</t>
+  </si>
+  <si>
+    <t>GASTOS</t>
+  </si>
+  <si>
+    <t>RESULTADO</t>
+  </si>
 </sst>
 </file>
 
@@ -138,7 +199,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0"/>
     <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,8 +220,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,6 +302,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -255,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -273,17 +354,33 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0"/>
     </dxf>
@@ -525,13 +622,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1190</c:v>
+                  <c:v>1435</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1274</c:v>
+                  <c:v>1428</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>279</c:v>
+                  <c:v>363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1222,7 +1319,7 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:multiLvlStrRef>
+                  <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -1230,7 +1327,7 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:multiLvlStrRef>
+                  </c:strRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
             </c:ext>
@@ -3085,8 +3182,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:F88" totalsRowShown="0">
-  <autoFilter ref="B5:F88" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:F103" totalsRowShown="0">
+  <autoFilter ref="B5:F103" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0">
       <filters>
         <dateGroupItem year="2023" month="4" dateTimeGrouping="month"/>
@@ -3094,17 +3191,30 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="fecha" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="fecha" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="sebastian"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="angelica"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="alejandro"/>
-    <tableColumn id="11" xr3:uid="{FB131883-0E90-4D94-A51A-8097721442E9}" name="valor venta" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{FB131883-0E90-4D94-A51A-8097721442E9}" name="valor venta" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{31A84280-BA8B-4E1F-9878-F80BF817D5C3}" name="Tabla3" displayName="Tabla3" ref="B6:E22" totalsRowShown="0">
+  <autoFilter ref="B6:E22" xr:uid="{31A84280-BA8B-4E1F-9878-F80BF817D5C3}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{3AC06AB7-9541-4528-BB39-57BCD8AEBF6A}" name="fecha"/>
+    <tableColumn id="2" xr3:uid="{B818FDDB-7480-4EB0-BC58-4D3C261CD676}" name="concepto"/>
+    <tableColumn id="3" xr3:uid="{5125B404-B6F0-4E62-BBE0-933B2AB14514}" name="ingreso" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{EB0812C2-2FEC-4B22-9B26-453B5E359DDA}" name="gasto" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla2" displayName="Tabla2" ref="B4:G5" totalsRowShown="0">
   <autoFilter ref="B4:G5" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
@@ -3418,10 +3528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:W88"/>
+  <dimension ref="B2:W103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L93" sqref="L93"/>
+      <selection activeCell="J83" sqref="J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3444,13 +3554,13 @@
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
     </row>
     <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="18"/>
@@ -3485,19 +3595,19 @@
       </c>
       <c r="I4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>1190</v>
+        <v>1435</v>
       </c>
       <c r="J4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
-        <v>1274</v>
+        <v>1428</v>
       </c>
       <c r="K4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
-        <v>279</v>
+        <v>363</v>
       </c>
       <c r="L4" s="14">
         <f xml:space="preserve"> SUM(Tabla1[valor venta])</f>
-        <v>11501600</v>
+        <v>13511000</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -3529,13 +3639,13 @@
       <c r="F6" s="16">
         <v>147600</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
     </row>
     <row r="7" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
@@ -3617,13 +3727,13 @@
       <c r="F10" s="16">
         <v>26400</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
@@ -3666,19 +3776,19 @@
       </c>
       <c r="J12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>1190</v>
+        <v>1435</v>
       </c>
       <c r="K12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
-        <v>1274</v>
+        <v>1428</v>
       </c>
       <c r="L12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
-        <v>279</v>
+        <v>363</v>
       </c>
       <c r="M12" s="2">
         <f>SUM(J12:L12)</f>
-        <v>2743</v>
+        <v>3226</v>
       </c>
     </row>
     <row r="13" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
@@ -3747,13 +3857,13 @@
       <c r="F18" s="16">
         <v>13200</v>
       </c>
-      <c r="I18" s="17" t="s">
+      <c r="I18" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
     </row>
     <row r="19" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
@@ -3931,16 +4041,16 @@
       <c r="F31" s="16">
         <v>270600</v>
       </c>
-      <c r="I31" s="17" t="s">
+      <c r="I31" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
     </row>
     <row r="32" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
@@ -4047,16 +4157,16 @@
       <c r="F35" s="16">
         <v>57200</v>
       </c>
-      <c r="I35" s="17" t="s">
+      <c r="I35" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
       <c r="V35" s="7"/>
       <c r="W35" s="14">
         <v>65000</v>
@@ -4171,16 +4281,16 @@
       <c r="F39" s="16">
         <v>155800</v>
       </c>
-      <c r="I39" s="17" t="s">
+      <c r="I39" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
       <c r="V39" s="11"/>
       <c r="W39" s="14">
         <v>52000</v>
@@ -4291,16 +4401,16 @@
       <c r="F43" s="16">
         <v>176300</v>
       </c>
-      <c r="I43" s="17" t="s">
+      <c r="I43" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
     </row>
     <row r="44" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
@@ -4399,13 +4509,13 @@
       <c r="F47" s="16">
         <v>105600</v>
       </c>
-      <c r="I47" s="17" t="s">
+      <c r="I47" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
     </row>
     <row r="48" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
@@ -4869,16 +4979,16 @@
       <c r="F86" s="16">
         <v>463300</v>
       </c>
-      <c r="H86" s="17" t="s">
+      <c r="H86" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="I86" s="17"/>
-      <c r="J86" s="17"/>
-      <c r="K86" s="17"/>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="19"/>
+      <c r="K86" s="19"/>
+      <c r="L86" s="19"/>
+      <c r="M86" s="19"/>
+      <c r="N86" s="19"/>
+      <c r="O86" s="19"/>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
@@ -4956,8 +5066,303 @@
         <v>18866.666666666668</v>
       </c>
     </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B89" s="1">
+        <v>45027</v>
+      </c>
+      <c r="C89">
+        <v>8</v>
+      </c>
+      <c r="F89" s="16">
+        <v>29300</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B90" s="1">
+        <v>45028</v>
+      </c>
+      <c r="D90">
+        <v>36</v>
+      </c>
+      <c r="F90" s="16">
+        <v>147600</v>
+      </c>
+      <c r="H90" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I90" s="19"/>
+      <c r="J90" s="19"/>
+      <c r="K90" s="19"/>
+      <c r="L90" s="19"/>
+      <c r="M90" s="19"/>
+      <c r="N90" s="19"/>
+      <c r="O90" s="19"/>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B91" s="1">
+        <v>45029</v>
+      </c>
+      <c r="D91">
+        <v>36</v>
+      </c>
+      <c r="F91" s="16">
+        <v>147600</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N91" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O91" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B92" s="1">
+        <v>45030</v>
+      </c>
+      <c r="C92">
+        <v>50</v>
+      </c>
+      <c r="F92" s="16">
+        <v>205000</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I92" s="2">
+        <f>SUM(C88:C94)</f>
+        <v>58</v>
+      </c>
+      <c r="J92" s="2">
+        <f>SUM(D88:D94)</f>
+        <v>118</v>
+      </c>
+      <c r="K92" s="2">
+        <f>SUM(E88:E94)</f>
+        <v>24</v>
+      </c>
+      <c r="L92" s="2">
+        <f>SUM(I92:K92)</f>
+        <v>200</v>
+      </c>
+      <c r="M92" s="15">
+        <f>L92*600</f>
+        <v>120000</v>
+      </c>
+      <c r="N92" s="15">
+        <v>28000</v>
+      </c>
+      <c r="O92" s="15">
+        <f>(M92-N92)/3</f>
+        <v>30666.666666666668</v>
+      </c>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B93" s="1">
+        <v>45031</v>
+      </c>
+      <c r="E93">
+        <v>24</v>
+      </c>
+      <c r="F93" s="16">
+        <v>100800</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B94" s="1">
+        <v>45031</v>
+      </c>
+      <c r="D94">
+        <v>22</v>
+      </c>
+      <c r="F94" s="16">
+        <v>101200</v>
+      </c>
+      <c r="H94" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I94" s="19"/>
+      <c r="J94" s="19"/>
+      <c r="K94" s="19"/>
+      <c r="L94" s="19"/>
+      <c r="M94" s="19"/>
+      <c r="N94" s="19"/>
+      <c r="O94" s="19"/>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B95" s="1">
+        <v>45034</v>
+      </c>
+      <c r="E95">
+        <v>36</v>
+      </c>
+      <c r="F95" s="16">
+        <v>147600</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N95" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O95" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B96" s="1">
+        <v>45035</v>
+      </c>
+      <c r="C96">
+        <v>31</v>
+      </c>
+      <c r="F96" s="16">
+        <v>127100</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I96" s="2">
+        <f>SUM(C95:C103)</f>
+        <v>187</v>
+      </c>
+      <c r="J96" s="2">
+        <f>SUM(D95:D103)</f>
+        <v>60</v>
+      </c>
+      <c r="K96" s="2">
+        <f>SUM(E95:E103)</f>
+        <v>60</v>
+      </c>
+      <c r="L96" s="2">
+        <f>SUM(I96:K96)</f>
+        <v>307</v>
+      </c>
+      <c r="M96" s="15">
+        <f>L96*600</f>
+        <v>184200</v>
+      </c>
+      <c r="N96" s="15">
+        <v>28000</v>
+      </c>
+      <c r="O96" s="15">
+        <f>(M96-N96)/3</f>
+        <v>52066.666666666664</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="1">
+        <v>45036</v>
+      </c>
+      <c r="D97">
+        <v>12</v>
+      </c>
+      <c r="F97" s="16">
+        <v>52800</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="1">
+        <v>45036</v>
+      </c>
+      <c r="C98">
+        <v>60</v>
+      </c>
+      <c r="F98" s="16">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="1">
+        <v>45036</v>
+      </c>
+      <c r="D99">
+        <v>24</v>
+      </c>
+      <c r="F99" s="16">
+        <v>105600</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="1">
+        <v>45037</v>
+      </c>
+      <c r="C100">
+        <v>60</v>
+      </c>
+      <c r="F100" s="16">
+        <v>246000</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B101" s="1">
+        <v>45038</v>
+      </c>
+      <c r="E101">
+        <v>24</v>
+      </c>
+      <c r="F101" s="16">
+        <v>105600</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="1">
+        <v>45038</v>
+      </c>
+      <c r="D102">
+        <v>24</v>
+      </c>
+      <c r="F102" s="16">
+        <v>105600</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B103" s="1">
+        <v>45038</v>
+      </c>
+      <c r="C103">
+        <v>36</v>
+      </c>
+      <c r="F103" s="16">
+        <v>147600</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="H94:O94"/>
+    <mergeCell ref="H90:O90"/>
     <mergeCell ref="H86:O86"/>
     <mergeCell ref="I43:P43"/>
     <mergeCell ref="I47:M47"/>
@@ -4974,7 +5379,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="K33 J37 K41 J45 K49 M49 J8 J20 M20 J88:K88" formulaRange="1"/>
+    <ignoredError sqref="K33 J37 K41 J45 K49 M49 J8 J20 M20 J88:K88 I92 J96 K92" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <tableParts count="1">
@@ -4984,6 +5389,288 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FA757A-E6E3-4165-BA61-DC68D430AF7F}">
+  <dimension ref="B3:I22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="G3" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="G4" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="G5" s="15">
+        <f>SUM(Tabla3[ingreso])</f>
+        <v>1130300</v>
+      </c>
+      <c r="H5" s="15">
+        <f>SUM(Tabla3[gasto])</f>
+        <v>1316100</v>
+      </c>
+      <c r="I5" s="15">
+        <f>G5-H5</f>
+        <v>-185800</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>45035</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17">
+        <v>112000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>45035</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>45035</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>45036</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17">
+        <v>336000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>45036</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>45036</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>45037</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17">
+        <v>336000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>45037</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>45037</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>45038</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>45038</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17">
+        <v>224000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>45038</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17">
+        <v>127000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>45038</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>45038</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>45038</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="17">
+        <v>1130300</v>
+      </c>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>45038</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17">
+        <v>104000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:E5"/>
+    <mergeCell ref="G3:I3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B4:G5"/>
   <sheetViews>

--- a/reporte ventas.xlsx
+++ b/reporte ventas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\programacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13E607C-E4BC-4C93-9107-F5D9D6CB7881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CDA31B-E944-4A66-B6D8-1C671F6365AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="72">
   <si>
     <t>Reporte de Ventas</t>
   </si>
@@ -56,9 +56,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>total mes febrero</t>
-  </si>
-  <si>
     <t>vendedor</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
   </si>
   <si>
     <t>ganacia</t>
-  </si>
-  <si>
-    <t>pocillos blancos</t>
   </si>
   <si>
     <t>total semana 27 febrero - 4 marzo</t>
@@ -189,6 +183,75 @@
   </si>
   <si>
     <t>RESULTADO</t>
+  </si>
+  <si>
+    <t>tinta amarilla</t>
+  </si>
+  <si>
+    <t>cinta transparente</t>
+  </si>
+  <si>
+    <t>chaqueta dama</t>
+  </si>
+  <si>
+    <t>porcentaje reinversion</t>
+  </si>
+  <si>
+    <t>mano de obra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 cajas de pocillos </t>
+  </si>
+  <si>
+    <t>recibo de la luz</t>
+  </si>
+  <si>
+    <t>pocillo magico y pocillo color interno</t>
+  </si>
+  <si>
+    <t>Semana 24 de Abril - 29 de Abril</t>
+  </si>
+  <si>
+    <t>Total Mes Abril</t>
+  </si>
+  <si>
+    <t>ventas semana 24 - 29</t>
+  </si>
+  <si>
+    <t>ventas semana 1- 6 de mayo</t>
+  </si>
+  <si>
+    <t>tinta magenta</t>
+  </si>
+  <si>
+    <t>Semana 22 de Mayo - 27 de Mayo</t>
+  </si>
+  <si>
+    <t>Semana 15 de Mayo - 20 de Mayo</t>
+  </si>
+  <si>
+    <t>Semana 8 de Mayo - 13 de Mayo</t>
+  </si>
+  <si>
+    <t>total anual</t>
+  </si>
+  <si>
+    <t>Semana 1 de Mayo - 6 de Mayo</t>
+  </si>
+  <si>
+    <t>Total Mes Mayo</t>
+  </si>
+  <si>
+    <t>Semana 29 de Mayo - 3 de Junio</t>
+  </si>
+  <si>
+    <t>Semana 5 Junio - 10 de Junio</t>
+  </si>
+  <si>
+    <t>Semana 12 Junio - 17 de Junio</t>
+  </si>
+  <si>
+    <t>Semana 19 Junio - 24 de Junio</t>
   </si>
 </sst>
 </file>
@@ -355,11 +418,14 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -367,14 +433,26 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -622,13 +700,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1435</c:v>
+                  <c:v>3164</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1428</c:v>
+                  <c:v>4029</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>363</c:v>
+                  <c:v>656</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -970,7 +1048,7 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:strRef>
+                  <c:multiLvlStrRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -978,7 +1056,7 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:strRef>
+                  </c:multiLvlStrRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
             </c:ext>
@@ -1319,7 +1397,7 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:strRef>
+                  <c:multiLvlStrRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -1327,7 +1405,7 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:strRef>
+                  </c:multiLvlStrRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
             </c:ext>
@@ -1517,6 +1595,777 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> mes Abril</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'reporte de ventas sublimado'!$H$104</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'reporte de ventas sublimado'!$I$104:$K$104</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'reporte de ventas sublimado'!$I$103:$K$103</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7A46-4298-97EF-5CD4CE81DB36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1293226384"/>
+        <c:axId val="1293222224"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1293226384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1293222224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1293222224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1293226384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total Mes Mayo</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'reporte de ventas sublimado'!$H$136</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'reporte de ventas sublimado'!$I$136:$K$136</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'reporte de ventas sublimado'!$I$135:$K$135</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E32C-4790-B7FD-1B25F50C65AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="699765664"/>
+        <c:axId val="699766912"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="699765664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="699766912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="699766912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="699765664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="19">
   <a:schemeClr val="accent6"/>
@@ -1600,6 +2449,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
@@ -3063,6 +3992,958 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="294">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="294">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -3178,52 +5059,130 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B22D4903-0D4F-48B0-A9CF-DDA43688907E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F1C7443-61C6-47D9-9B47-A46C2CE95E69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:F103" totalsRowShown="0">
-  <autoFilter ref="B5:F103" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:F223" totalsRowShown="0">
+  <autoFilter ref="B5:F223" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0">
       <filters>
-        <dateGroupItem year="2023" month="4" dateTimeGrouping="month"/>
+        <dateGroupItem year="2023" month="6" dateTimeGrouping="month"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="fecha" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="fecha" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="sebastian"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="angelica"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="alejandro"/>
-    <tableColumn id="11" xr3:uid="{FB131883-0E90-4D94-A51A-8097721442E9}" name="valor venta" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{FB131883-0E90-4D94-A51A-8097721442E9}" name="valor venta" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{31A84280-BA8B-4E1F-9878-F80BF817D5C3}" name="Tabla3" displayName="Tabla3" ref="B6:E22" totalsRowShown="0">
-  <autoFilter ref="B6:E22" xr:uid="{31A84280-BA8B-4E1F-9878-F80BF817D5C3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{31A84280-BA8B-4E1F-9878-F80BF817D5C3}" name="Tabla3" displayName="Tabla3" ref="B6:E70" totalsRowShown="0">
+  <autoFilter ref="B6:E70" xr:uid="{31A84280-BA8B-4E1F-9878-F80BF817D5C3}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{3AC06AB7-9541-4528-BB39-57BCD8AEBF6A}" name="fecha"/>
     <tableColumn id="2" xr3:uid="{B818FDDB-7480-4EB0-BC58-4D3C261CD676}" name="concepto"/>
-    <tableColumn id="3" xr3:uid="{5125B404-B6F0-4E62-BBE0-933B2AB14514}" name="ingreso" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{EB0812C2-2FEC-4B22-9B26-453B5E359DDA}" name="gasto" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{5125B404-B6F0-4E62-BBE0-933B2AB14514}" name="ingreso" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{EB0812C2-2FEC-4B22-9B26-453B5E359DDA}" name="gasto" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla2" displayName="Tabla2" ref="B4:G5" totalsRowShown="0">
-  <autoFilter ref="B4:G5" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla2" displayName="Tabla2" ref="B4:I5" totalsRowShown="0">
+  <autoFilter ref="B4:I5" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="fecha"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="producto"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="valor compra"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="valor venta"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="ganacia">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="valor compra" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="valor venta" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="ganacia" dataDxfId="2">
       <calculatedColumnFormula>Tabla2[[#This Row],[valor venta]]-Tabla2[[#This Row],[valor compra]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{152DC3E8-99C4-4499-9827-8720DD7F6218}" name="porcentaje reinversion" dataDxfId="1">
+      <calculatedColumnFormula>(Tabla2[[#This Row],[ganacia]]*15)/100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{31848A63-FD0A-4048-BA7D-0FF1C87D6101}" name="mano de obra" dataDxfId="0">
+      <calculatedColumnFormula>Tabla2[[#This Row],[ganacia]]-Tabla2[[#This Row],[porcentaje reinversion]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="vendedor"/>
   </tableColumns>
@@ -3528,10 +5487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:W103"/>
+  <dimension ref="B2:W223"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J83" sqref="J83"/>
+    <sheetView tabSelected="1" topLeftCell="A203" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B220" sqref="B220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3547,15 +5506,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
       <c r="H2" s="19" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="I2" s="19"/>
       <c r="J2" s="19"/>
@@ -3563,13 +5522,13 @@
       <c r="L2" s="19"/>
     </row>
     <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
       <c r="H3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>1</v>
@@ -3585,29 +5544,29 @@
       </c>
     </row>
     <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
       <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>1435</v>
+        <v>3164</v>
       </c>
       <c r="J4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
-        <v>1428</v>
+        <v>4029</v>
       </c>
       <c r="K4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
-        <v>363</v>
+        <v>656</v>
       </c>
       <c r="L4" s="14">
         <f xml:space="preserve"> SUM(Tabla1[valor venta])</f>
-        <v>13511000</v>
+        <v>32579300</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -3624,7 +5583,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -3640,7 +5599,7 @@
         <v>147600</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
@@ -3658,7 +5617,7 @@
         <v>149600</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>1</v>
@@ -3728,7 +5687,7 @@
         <v>26400</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
@@ -3746,7 +5705,7 @@
         <v>196800</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>1</v>
@@ -3776,19 +5735,19 @@
       </c>
       <c r="J12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>1435</v>
+        <v>3164</v>
       </c>
       <c r="K12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
-        <v>1428</v>
+        <v>4029</v>
       </c>
       <c r="L12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
-        <v>363</v>
+        <v>656</v>
       </c>
       <c r="M12" s="2">
         <f>SUM(J12:L12)</f>
-        <v>3226</v>
+        <v>7849</v>
       </c>
     </row>
     <row r="13" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
@@ -3858,7 +5817,7 @@
         <v>13200</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
@@ -3876,19 +5835,19 @@
         <v>262400</v>
       </c>
       <c r="I19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="M19" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
@@ -3902,7 +5861,7 @@
         <v>164000</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J20" s="2">
         <f>SUM(C6:C30)</f>
@@ -4042,7 +6001,7 @@
         <v>270600</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
@@ -4063,7 +6022,7 @@
         <v>147600</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>1</v>
@@ -4078,13 +6037,13 @@
         <v>5</v>
       </c>
       <c r="N32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P32" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="33" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
@@ -4158,7 +6117,7 @@
         <v>57200</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J35" s="19"/>
       <c r="K35" s="19"/>
@@ -4183,7 +6142,7 @@
         <v>52800</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>1</v>
@@ -4198,13 +6157,13 @@
         <v>5</v>
       </c>
       <c r="N36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P36" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="V36" s="8"/>
       <c r="W36" s="14">
@@ -4282,7 +6241,7 @@
         <v>155800</v>
       </c>
       <c r="I39" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J39" s="19"/>
       <c r="K39" s="19"/>
@@ -4307,7 +6266,7 @@
         <v>105600</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>1</v>
@@ -4322,13 +6281,13 @@
         <v>5</v>
       </c>
       <c r="N40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P40" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="V40" s="12"/>
       <c r="W40" s="14">
@@ -4402,7 +6361,7 @@
         <v>176300</v>
       </c>
       <c r="I43" s="19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J43" s="19"/>
       <c r="K43" s="19"/>
@@ -4423,7 +6382,7 @@
         <v>147600</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>1</v>
@@ -4438,13 +6397,13 @@
         <v>5</v>
       </c>
       <c r="N44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P44" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="O44" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P44" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="45" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
@@ -4510,7 +6469,7 @@
         <v>105600</v>
       </c>
       <c r="I47" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J47" s="19"/>
       <c r="K47" s="19"/>
@@ -4528,19 +6487,19 @@
         <v>52800</v>
       </c>
       <c r="I48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K48" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="L48" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="M48" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="49" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
@@ -4554,7 +6513,7 @@
         <v>96800</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J49" s="2">
         <f>SUM(C31:C85)</f>
@@ -4936,7 +6895,7 @@
         <v>759600</v>
       </c>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <v>45017</v>
       </c>
@@ -4947,7 +6906,7 @@
         <v>147600</v>
       </c>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <v>45017</v>
       </c>
@@ -4958,7 +6917,7 @@
         <v>61500</v>
       </c>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>45017</v>
       </c>
@@ -4969,7 +6928,7 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>45019</v>
       </c>
@@ -4980,7 +6939,7 @@
         <v>463300</v>
       </c>
       <c r="H86" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I86" s="19"/>
       <c r="J86" s="19"/>
@@ -4990,7 +6949,7 @@
       <c r="N86" s="19"/>
       <c r="O86" s="19"/>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
         <v>45021</v>
       </c>
@@ -5001,7 +6960,7 @@
         <v>114800</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>1</v>
@@ -5016,16 +6975,16 @@
         <v>5</v>
       </c>
       <c r="M87" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N87" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O87" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N87" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O87" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
         <v>45026</v>
       </c>
@@ -5066,7 +7025,7 @@
         <v>18866.666666666668</v>
       </c>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B89" s="1">
         <v>45027</v>
       </c>
@@ -5077,7 +7036,7 @@
         <v>29300</v>
       </c>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B90" s="1">
         <v>45028</v>
       </c>
@@ -5088,7 +7047,7 @@
         <v>147600</v>
       </c>
       <c r="H90" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I90" s="19"/>
       <c r="J90" s="19"/>
@@ -5098,7 +7057,7 @@
       <c r="N90" s="19"/>
       <c r="O90" s="19"/>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B91" s="1">
         <v>45029</v>
       </c>
@@ -5109,7 +7068,7 @@
         <v>147600</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I91" s="2" t="s">
         <v>1</v>
@@ -5124,16 +7083,16 @@
         <v>5</v>
       </c>
       <c r="M91" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N91" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O91" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N91" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O91" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B92" s="1">
         <v>45030</v>
       </c>
@@ -5174,7 +7133,7 @@
         <v>30666.666666666668</v>
       </c>
     </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B93" s="1">
         <v>45031</v>
       </c>
@@ -5185,7 +7144,7 @@
         <v>100800</v>
       </c>
     </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B94" s="1">
         <v>45031</v>
       </c>
@@ -5196,7 +7155,7 @@
         <v>101200</v>
       </c>
       <c r="H94" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I94" s="19"/>
       <c r="J94" s="19"/>
@@ -5206,7 +7165,7 @@
       <c r="N94" s="19"/>
       <c r="O94" s="19"/>
     </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1">
         <v>45034</v>
       </c>
@@ -5217,7 +7176,7 @@
         <v>147600</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I95" s="2" t="s">
         <v>1</v>
@@ -5232,16 +7191,16 @@
         <v>5</v>
       </c>
       <c r="M95" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N95" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O95" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N95" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O95" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1">
         <v>45035</v>
       </c>
@@ -5282,7 +7241,7 @@
         <v>52066.666666666664</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1">
         <v>45036</v>
       </c>
@@ -5293,7 +7252,7 @@
         <v>52800</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B98" s="1">
         <v>45036</v>
       </c>
@@ -5303,8 +7262,18 @@
       <c r="F98" s="16">
         <v>240000</v>
       </c>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H98" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="I98" s="19"/>
+      <c r="J98" s="19"/>
+      <c r="K98" s="19"/>
+      <c r="L98" s="19"/>
+      <c r="M98" s="19"/>
+      <c r="N98" s="19"/>
+      <c r="O98" s="19"/>
+    </row>
+    <row r="99" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B99" s="1">
         <v>45036</v>
       </c>
@@ -5314,8 +7283,32 @@
       <c r="F99" s="16">
         <v>105600</v>
       </c>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H99" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N99" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O99" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B100" s="1">
         <v>45037</v>
       </c>
@@ -5325,8 +7318,38 @@
       <c r="F100" s="16">
         <v>246000</v>
       </c>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H100" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="2">
+        <f>SUM(C104:C116)</f>
+        <v>405</v>
+      </c>
+      <c r="J100" s="2">
+        <f>SUM(D104:D116)</f>
+        <v>171</v>
+      </c>
+      <c r="K100" s="2">
+        <f>SUM(E104:E116)</f>
+        <v>86</v>
+      </c>
+      <c r="L100" s="2">
+        <f>SUM(I100:K100)</f>
+        <v>662</v>
+      </c>
+      <c r="M100" s="15">
+        <f>L100*600</f>
+        <v>397200</v>
+      </c>
+      <c r="N100" s="15">
+        <v>28000</v>
+      </c>
+      <c r="O100" s="15">
+        <f>(M100-N100)/3</f>
+        <v>123066.66666666667</v>
+      </c>
+    </row>
+    <row r="101" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B101" s="1">
         <v>45038</v>
       </c>
@@ -5337,7 +7360,7 @@
         <v>105600</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B102" s="1">
         <v>45038</v>
       </c>
@@ -5347,8 +7370,15 @@
       <c r="F102" s="16">
         <v>105600</v>
       </c>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H102" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="I102" s="19"/>
+      <c r="J102" s="19"/>
+      <c r="K102" s="19"/>
+      <c r="L102" s="19"/>
+    </row>
+    <row r="103" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1">
         <v>45038</v>
       </c>
@@ -5358,15 +7388,1921 @@
       <c r="F103" s="16">
         <v>147600</v>
       </c>
+      <c r="H103" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="1">
+        <v>45040</v>
+      </c>
+      <c r="C104">
+        <v>27</v>
+      </c>
+      <c r="F104" s="16">
+        <v>118800</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I104" s="2">
+        <f>SUM(C83:C116)</f>
+        <v>806</v>
+      </c>
+      <c r="J104" s="2">
+        <f>SUM(D83:D116)</f>
+        <v>385</v>
+      </c>
+      <c r="K104" s="2">
+        <f>SUM(E83:E116)</f>
+        <v>172</v>
+      </c>
+      <c r="L104" s="14">
+        <f>SUM(F83:F116)</f>
+        <v>5636400</v>
+      </c>
+    </row>
+    <row r="105" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="1">
+        <v>45040</v>
+      </c>
+      <c r="D105">
+        <v>36</v>
+      </c>
+      <c r="F105" s="16">
+        <v>147600</v>
+      </c>
+    </row>
+    <row r="106" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="1">
+        <v>45041</v>
+      </c>
+      <c r="E106">
+        <v>86</v>
+      </c>
+      <c r="F106" s="16">
+        <v>352600</v>
+      </c>
+    </row>
+    <row r="107" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="1">
+        <v>45041</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="F107" s="16">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="108" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="1">
+        <v>45042</v>
+      </c>
+      <c r="D108">
+        <v>26</v>
+      </c>
+      <c r="F108" s="16">
+        <v>114400</v>
+      </c>
+    </row>
+    <row r="109" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="1">
+        <v>45042</v>
+      </c>
+      <c r="D109">
+        <v>30</v>
+      </c>
+      <c r="F109" s="16">
+        <v>132000</v>
+      </c>
+    </row>
+    <row r="110" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="1">
+        <v>45043</v>
+      </c>
+      <c r="D110">
+        <v>16</v>
+      </c>
+      <c r="F110" s="16">
+        <v>70400</v>
+      </c>
+    </row>
+    <row r="111" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="1">
+        <v>45043</v>
+      </c>
+      <c r="C111">
+        <v>48</v>
+      </c>
+      <c r="F111" s="16">
+        <v>196800</v>
+      </c>
+    </row>
+    <row r="112" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="1">
+        <v>45044</v>
+      </c>
+      <c r="C112">
+        <v>56</v>
+      </c>
+      <c r="F112" s="16">
+        <v>229600</v>
+      </c>
+    </row>
+    <row r="113" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="1">
+        <v>45044</v>
+      </c>
+      <c r="D113">
+        <v>25</v>
+      </c>
+      <c r="F113" s="16">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="114" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="1">
+        <v>45045</v>
+      </c>
+      <c r="C114">
+        <v>272</v>
+      </c>
+      <c r="F114" s="16">
+        <v>1088000</v>
+      </c>
+    </row>
+    <row r="115" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="1">
+        <v>45045</v>
+      </c>
+      <c r="D115">
+        <v>36</v>
+      </c>
+      <c r="F115" s="16">
+        <v>147600</v>
+      </c>
+    </row>
+    <row r="116" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="1">
+        <v>45045</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+      <c r="F116" s="16">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="117" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="1">
+        <v>45048</v>
+      </c>
+      <c r="D117">
+        <v>12</v>
+      </c>
+      <c r="F117" s="16">
+        <v>52800</v>
+      </c>
+    </row>
+    <row r="118" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="1">
+        <v>45048</v>
+      </c>
+      <c r="C118">
+        <v>24</v>
+      </c>
+      <c r="F118" s="16">
+        <v>107200</v>
+      </c>
+      <c r="H118" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I118" s="19"/>
+      <c r="J118" s="19"/>
+      <c r="K118" s="19"/>
+      <c r="L118" s="19"/>
+      <c r="M118" s="19"/>
+      <c r="N118" s="19"/>
+      <c r="O118" s="19"/>
+    </row>
+    <row r="119" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="1">
+        <v>45048</v>
+      </c>
+      <c r="D119">
+        <v>36</v>
+      </c>
+      <c r="F119" s="16">
+        <v>147600</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L119" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M119" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N119" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O119" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="1">
+        <v>45049</v>
+      </c>
+      <c r="D120">
+        <v>36</v>
+      </c>
+      <c r="F120" s="16">
+        <v>147600</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I120" s="2">
+        <f>SUM(C117:C138)</f>
+        <v>169</v>
+      </c>
+      <c r="J120" s="2">
+        <f>SUM(D117:D138)</f>
+        <v>542</v>
+      </c>
+      <c r="K120" s="2">
+        <f>SUM(E117:E138)</f>
+        <v>62</v>
+      </c>
+      <c r="L120" s="2">
+        <f>SUM(I120:K120)</f>
+        <v>773</v>
+      </c>
+      <c r="M120" s="15">
+        <f>L120*600</f>
+        <v>463800</v>
+      </c>
+      <c r="N120" s="15">
+        <v>29000</v>
+      </c>
+      <c r="O120" s="15">
+        <f>(M120-N120)/3</f>
+        <v>144933.33333333334</v>
+      </c>
+    </row>
+    <row r="121" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="1">
+        <v>45049</v>
+      </c>
+      <c r="D121">
+        <v>24</v>
+      </c>
+      <c r="F121" s="16">
+        <v>105600</v>
+      </c>
+    </row>
+    <row r="122" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="1">
+        <v>45049</v>
+      </c>
+      <c r="D122">
+        <v>36</v>
+      </c>
+      <c r="F122" s="16">
+        <v>147600</v>
+      </c>
+      <c r="H122" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I122" s="19"/>
+      <c r="J122" s="19"/>
+      <c r="K122" s="19"/>
+      <c r="L122" s="19"/>
+      <c r="M122" s="19"/>
+      <c r="N122" s="19"/>
+      <c r="O122" s="19"/>
+    </row>
+    <row r="123" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="1">
+        <v>45049</v>
+      </c>
+      <c r="D123">
+        <v>50</v>
+      </c>
+      <c r="F123" s="16">
+        <v>205000</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K123" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L123" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M123" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N123" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O123" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="1">
+        <v>45050</v>
+      </c>
+      <c r="D124">
+        <v>12</v>
+      </c>
+      <c r="F124" s="16">
+        <v>52800</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I124" s="2">
+        <f>SUM(C139:C174)</f>
+        <v>300</v>
+      </c>
+      <c r="J124" s="2">
+        <f>SUM(D139:D174)</f>
+        <v>913</v>
+      </c>
+      <c r="K124" s="2">
+        <f>SUM(E139:E174)</f>
+        <v>25</v>
+      </c>
+      <c r="L124" s="2">
+        <f>SUM(I124:K124)</f>
+        <v>1238</v>
+      </c>
+      <c r="M124" s="15">
+        <f>L124*600</f>
+        <v>742800</v>
+      </c>
+      <c r="N124" s="15">
+        <v>30000</v>
+      </c>
+      <c r="O124" s="15">
+        <f>(M124-N124)/3</f>
+        <v>237600</v>
+      </c>
+    </row>
+    <row r="125" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="1">
+        <v>45050</v>
+      </c>
+      <c r="E125">
+        <v>62</v>
+      </c>
+      <c r="F125" s="16">
+        <v>254200</v>
+      </c>
+    </row>
+    <row r="126" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="1">
+        <v>45050</v>
+      </c>
+      <c r="D126">
+        <v>28</v>
+      </c>
+      <c r="F126" s="16">
+        <v>123200</v>
+      </c>
+      <c r="H126" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I126" s="19"/>
+      <c r="J126" s="19"/>
+      <c r="K126" s="19"/>
+      <c r="L126" s="19"/>
+      <c r="M126" s="19"/>
+      <c r="N126" s="19"/>
+      <c r="O126" s="19"/>
+    </row>
+    <row r="127" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="1">
+        <v>45050</v>
+      </c>
+      <c r="D127">
+        <v>36</v>
+      </c>
+      <c r="F127" s="16">
+        <v>147600</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L127" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M127" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N127" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O127" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="1">
+        <v>45050</v>
+      </c>
+      <c r="D128">
+        <v>36</v>
+      </c>
+      <c r="F128" s="16">
+        <v>147600</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I128" s="2">
+        <f>SUM(C175:C182)</f>
+        <v>75</v>
+      </c>
+      <c r="J128" s="2">
+        <f>SUM(D175:D182)</f>
+        <v>229</v>
+      </c>
+      <c r="K128" s="2">
+        <f>SUM(E175:E182)</f>
+        <v>0</v>
+      </c>
+      <c r="L128" s="2">
+        <f>SUM(I128:K128)</f>
+        <v>304</v>
+      </c>
+      <c r="M128" s="15">
+        <f>L128*600</f>
+        <v>182400</v>
+      </c>
+      <c r="N128" s="15">
+        <v>30000</v>
+      </c>
+      <c r="O128" s="15">
+        <f>(M128-N128)/3</f>
+        <v>50800</v>
+      </c>
+    </row>
+    <row r="129" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="1">
+        <v>45051</v>
+      </c>
+      <c r="C129">
+        <v>7</v>
+      </c>
+      <c r="F129" s="16">
+        <v>28700</v>
+      </c>
+    </row>
+    <row r="130" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="1">
+        <v>45051</v>
+      </c>
+      <c r="C130">
+        <v>48</v>
+      </c>
+      <c r="F130" s="16">
+        <v>192000</v>
+      </c>
+      <c r="H130" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="I130" s="19"/>
+      <c r="J130" s="19"/>
+      <c r="K130" s="19"/>
+      <c r="L130" s="19"/>
+      <c r="M130" s="19"/>
+      <c r="N130" s="19"/>
+      <c r="O130" s="19"/>
+    </row>
+    <row r="131" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="1">
+        <v>45051</v>
+      </c>
+      <c r="D131">
+        <v>12</v>
+      </c>
+      <c r="F131" s="16">
+        <v>52800</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K131" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L131" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M131" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N131" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O131" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="1">
+        <v>45051</v>
+      </c>
+      <c r="D132">
+        <v>36</v>
+      </c>
+      <c r="F132" s="16">
+        <v>147600</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I132" s="2">
+        <f>SUM(C183:C188)</f>
+        <v>50</v>
+      </c>
+      <c r="J132" s="2">
+        <f>SUM(D183:D188)</f>
+        <v>437</v>
+      </c>
+      <c r="K132" s="2">
+        <f>SUM(E183:E188)</f>
+        <v>0</v>
+      </c>
+      <c r="L132" s="2">
+        <f>SUM(I132:K132)</f>
+        <v>487</v>
+      </c>
+      <c r="M132" s="15">
+        <f>L132*600</f>
+        <v>292200</v>
+      </c>
+      <c r="N132" s="15">
+        <v>30000</v>
+      </c>
+      <c r="O132" s="15">
+        <f>(M132-N132)/3</f>
+        <v>87400</v>
+      </c>
+    </row>
+    <row r="133" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="1">
+        <v>45051</v>
+      </c>
+      <c r="D133">
+        <v>36</v>
+      </c>
+      <c r="F133" s="16">
+        <v>147600</v>
+      </c>
+    </row>
+    <row r="134" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="1">
+        <v>45052</v>
+      </c>
+      <c r="D134">
+        <v>36</v>
+      </c>
+      <c r="F134" s="16">
+        <v>147600</v>
+      </c>
+      <c r="H134" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="I134" s="19"/>
+      <c r="J134" s="19"/>
+      <c r="K134" s="19"/>
+      <c r="L134" s="19"/>
+    </row>
+    <row r="135" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="1">
+        <v>45052</v>
+      </c>
+      <c r="D135">
+        <v>80</v>
+      </c>
+      <c r="F135" s="16">
+        <v>328000</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J135" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K135" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L135" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="136" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="1">
+        <v>45052</v>
+      </c>
+      <c r="C136">
+        <v>36</v>
+      </c>
+      <c r="F136" s="16">
+        <v>147600</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I136" s="2">
+        <f>SUM(C117:C188)</f>
+        <v>594</v>
+      </c>
+      <c r="J136" s="2">
+        <f>SUM(D117:D188)</f>
+        <v>2121</v>
+      </c>
+      <c r="K136" s="2">
+        <f>SUM(E117:E188)</f>
+        <v>87</v>
+      </c>
+      <c r="L136" s="14">
+        <f>SUM(F117:F188)</f>
+        <v>11604000</v>
+      </c>
+    </row>
+    <row r="137" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="1">
+        <v>45052</v>
+      </c>
+      <c r="C137">
+        <v>54</v>
+      </c>
+      <c r="F137" s="16">
+        <v>221400</v>
+      </c>
+    </row>
+    <row r="138" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="1">
+        <v>45052</v>
+      </c>
+      <c r="D138">
+        <v>36</v>
+      </c>
+      <c r="F138" s="16">
+        <v>147600</v>
+      </c>
+    </row>
+    <row r="139" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="1">
+        <v>45054</v>
+      </c>
+      <c r="D139">
+        <v>80</v>
+      </c>
+      <c r="F139" s="16">
+        <v>328000</v>
+      </c>
+    </row>
+    <row r="140" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="1">
+        <v>45054</v>
+      </c>
+      <c r="C140">
+        <v>7</v>
+      </c>
+      <c r="F140" s="16">
+        <v>30800</v>
+      </c>
+    </row>
+    <row r="141" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="1">
+        <v>45054</v>
+      </c>
+      <c r="D141">
+        <v>13</v>
+      </c>
+      <c r="F141" s="16">
+        <v>57200</v>
+      </c>
+    </row>
+    <row r="142" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="1">
+        <v>45055</v>
+      </c>
+      <c r="C142">
+        <v>12</v>
+      </c>
+      <c r="F142" s="16">
+        <v>52800</v>
+      </c>
+    </row>
+    <row r="143" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="1">
+        <v>45055</v>
+      </c>
+      <c r="C143">
+        <v>17</v>
+      </c>
+      <c r="F143" s="16">
+        <v>69700</v>
+      </c>
+    </row>
+    <row r="144" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="1">
+        <v>45055</v>
+      </c>
+      <c r="E144">
+        <v>13</v>
+      </c>
+      <c r="F144" s="16">
+        <v>57200</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="1">
+        <v>45055</v>
+      </c>
+      <c r="D145">
+        <v>3</v>
+      </c>
+      <c r="F145" s="16">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D146">
+        <v>37</v>
+      </c>
+      <c r="F146" s="16">
+        <v>151700</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D147">
+        <v>36</v>
+      </c>
+      <c r="F147" s="16">
+        <v>147600</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="1">
+        <v>45056</v>
+      </c>
+      <c r="C148">
+        <v>36</v>
+      </c>
+      <c r="F148" s="16">
+        <v>147600</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="1">
+        <v>45056</v>
+      </c>
+      <c r="C149">
+        <v>10</v>
+      </c>
+      <c r="F149" s="16">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D150">
+        <v>10</v>
+      </c>
+      <c r="F150" s="16">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="1">
+        <v>45057</v>
+      </c>
+      <c r="D151">
+        <v>404</v>
+      </c>
+      <c r="F151" s="16">
+        <v>1656400</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="1">
+        <v>45057</v>
+      </c>
+      <c r="C152">
+        <v>27</v>
+      </c>
+      <c r="F152" s="16">
+        <v>118800</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="1">
+        <v>45058</v>
+      </c>
+      <c r="D153">
+        <v>14</v>
+      </c>
+      <c r="F153" s="16">
+        <v>61600</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="1">
+        <v>45058</v>
+      </c>
+      <c r="D154">
+        <v>92</v>
+      </c>
+      <c r="F154" s="16">
+        <v>377200</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="1">
+        <v>45058</v>
+      </c>
+      <c r="D155">
+        <v>52</v>
+      </c>
+      <c r="F155" s="16">
+        <v>213200</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="1">
+        <v>45058</v>
+      </c>
+      <c r="C156">
+        <v>25</v>
+      </c>
+      <c r="F156" s="16">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="1">
+        <v>45058</v>
+      </c>
+      <c r="E157">
+        <v>12</v>
+      </c>
+      <c r="F157" s="16">
+        <v>52800</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="1">
+        <v>45058</v>
+      </c>
+      <c r="C158">
+        <v>18</v>
+      </c>
+      <c r="F158" s="16">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="1">
+        <v>45058</v>
+      </c>
+      <c r="D159">
+        <v>18</v>
+      </c>
+      <c r="F159" s="16">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="1">
+        <v>45059</v>
+      </c>
+      <c r="C160">
+        <v>12</v>
+      </c>
+      <c r="F160" s="16">
+        <v>52800</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="1">
+        <v>45059</v>
+      </c>
+      <c r="D161">
+        <v>15</v>
+      </c>
+      <c r="F161" s="16">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="1">
+        <v>45059</v>
+      </c>
+      <c r="C162">
+        <v>30</v>
+      </c>
+      <c r="F162" s="16">
+        <v>132000</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="1">
+        <v>45059</v>
+      </c>
+      <c r="C163">
+        <v>14</v>
+      </c>
+      <c r="F163" s="16">
+        <v>61600</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="1">
+        <v>45059</v>
+      </c>
+      <c r="D164">
+        <v>20</v>
+      </c>
+      <c r="F164" s="16">
+        <v>88000</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="1">
+        <v>45059</v>
+      </c>
+      <c r="D165">
+        <v>12</v>
+      </c>
+      <c r="F165" s="16">
+        <v>52800</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="1">
+        <v>45059</v>
+      </c>
+      <c r="D166">
+        <v>48</v>
+      </c>
+      <c r="F166" s="16">
+        <v>196800</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="1">
+        <v>45059</v>
+      </c>
+      <c r="D167">
+        <v>29</v>
+      </c>
+      <c r="F167" s="16">
+        <v>127600</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="1">
+        <v>45059</v>
+      </c>
+      <c r="D168">
+        <v>12</v>
+      </c>
+      <c r="F168" s="16">
+        <v>52800</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="1">
+        <v>45059</v>
+      </c>
+      <c r="C169">
+        <v>7</v>
+      </c>
+      <c r="F169" s="16">
+        <v>30800</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="1">
+        <v>45059</v>
+      </c>
+      <c r="C170">
+        <v>6</v>
+      </c>
+      <c r="F170" s="16">
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="1">
+        <v>45059</v>
+      </c>
+      <c r="C171">
+        <v>33</v>
+      </c>
+      <c r="F171" s="16">
+        <v>145200</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="1">
+        <v>45059</v>
+      </c>
+      <c r="C172">
+        <v>10</v>
+      </c>
+      <c r="F172" s="16">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="1">
+        <v>45059</v>
+      </c>
+      <c r="C173">
+        <v>36</v>
+      </c>
+      <c r="F173" s="16">
+        <v>147600</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="1">
+        <v>45059</v>
+      </c>
+      <c r="D174">
+        <v>18</v>
+      </c>
+      <c r="F174" s="16">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="1">
+        <v>45062</v>
+      </c>
+      <c r="D175">
+        <v>200</v>
+      </c>
+      <c r="F175" s="16">
+        <v>820000</v>
+      </c>
+    </row>
+    <row r="176" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="1">
+        <v>45062</v>
+      </c>
+      <c r="C176">
+        <v>19</v>
+      </c>
+      <c r="F176" s="16">
+        <v>77900</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="1">
+        <v>45062</v>
+      </c>
+      <c r="C177">
+        <v>2</v>
+      </c>
+      <c r="F177" s="16">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="1">
+        <v>45064</v>
+      </c>
+      <c r="C178">
+        <v>15</v>
+      </c>
+      <c r="F178" s="16">
+        <v>61500</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B179" s="1">
+        <v>45064</v>
+      </c>
+      <c r="D179">
+        <v>17</v>
+      </c>
+      <c r="F179" s="16">
+        <v>74800</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="1">
+        <v>45065</v>
+      </c>
+      <c r="D180">
+        <v>12</v>
+      </c>
+      <c r="F180" s="16">
+        <v>52800</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="1">
+        <v>45065</v>
+      </c>
+      <c r="C181">
+        <v>33</v>
+      </c>
+      <c r="F181" s="16">
+        <v>135300</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B182" s="1">
+        <v>45066</v>
+      </c>
+      <c r="C182">
+        <v>6</v>
+      </c>
+      <c r="F182" s="16">
+        <v>25800</v>
+      </c>
+    </row>
+    <row r="183" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="1">
+        <v>45069</v>
+      </c>
+      <c r="D183">
+        <v>36</v>
+      </c>
+      <c r="F183" s="16">
+        <v>147600</v>
+      </c>
+    </row>
+    <row r="184" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="1">
+        <v>45070</v>
+      </c>
+      <c r="D184">
+        <v>130</v>
+      </c>
+      <c r="F184" s="16">
+        <v>520000</v>
+      </c>
+    </row>
+    <row r="185" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="1">
+        <v>45071</v>
+      </c>
+      <c r="D185">
+        <v>130</v>
+      </c>
+      <c r="F185" s="16">
+        <v>520000</v>
+      </c>
+    </row>
+    <row r="186" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B186" s="1">
+        <v>45071</v>
+      </c>
+      <c r="D186">
+        <v>100</v>
+      </c>
+      <c r="F186" s="16">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="187" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="1">
+        <v>45072</v>
+      </c>
+      <c r="C187">
+        <v>50</v>
+      </c>
+      <c r="F187" s="16">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="188" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="1">
+        <v>45073</v>
+      </c>
+      <c r="D188">
+        <v>41</v>
+      </c>
+      <c r="F188" s="16">
+        <v>164000</v>
+      </c>
+    </row>
+    <row r="189" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B189" s="1">
+        <v>45075</v>
+      </c>
+      <c r="C189">
+        <v>36</v>
+      </c>
+      <c r="F189" s="16">
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="190" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B190" s="1">
+        <v>45075</v>
+      </c>
+      <c r="C190">
+        <v>24</v>
+      </c>
+      <c r="F190" s="16">
+        <v>103200</v>
+      </c>
+    </row>
+    <row r="191" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="1">
+        <v>45076</v>
+      </c>
+      <c r="C191">
+        <v>35</v>
+      </c>
+      <c r="F191" s="16">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="192" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="1">
+        <v>45077</v>
+      </c>
+      <c r="C192">
+        <v>21</v>
+      </c>
+      <c r="F192" s="16">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="193" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B193" s="1">
+        <v>45077</v>
+      </c>
+      <c r="C193">
+        <v>8</v>
+      </c>
+      <c r="F193" s="16">
+        <v>34400</v>
+      </c>
+    </row>
+    <row r="194" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B194" s="1">
+        <v>45079</v>
+      </c>
+      <c r="E194">
+        <v>72</v>
+      </c>
+      <c r="F194" s="16">
+        <v>288000</v>
+      </c>
+      <c r="H194" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I194" s="19"/>
+      <c r="J194" s="19"/>
+      <c r="K194" s="19"/>
+      <c r="L194" s="19"/>
+      <c r="M194" s="19"/>
+      <c r="N194" s="19"/>
+      <c r="O194" s="19"/>
+    </row>
+    <row r="195" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B195" s="1">
+        <v>45080</v>
+      </c>
+      <c r="C195">
+        <v>28</v>
+      </c>
+      <c r="F195" s="16">
+        <v>117600</v>
+      </c>
+      <c r="H195" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I195" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J195" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K195" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L195" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M195" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N195" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O195" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B196" s="1">
+        <v>45082</v>
+      </c>
+      <c r="C196">
+        <v>24</v>
+      </c>
+      <c r="F196" s="16">
+        <v>103200</v>
+      </c>
+      <c r="H196" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I196" s="2">
+        <f>SUM($C189:$C195)</f>
+        <v>152</v>
+      </c>
+      <c r="J196" s="2">
+        <f>SUM(D189:D195)</f>
+        <v>0</v>
+      </c>
+      <c r="K196" s="2">
+        <f>SUM(E189:E195)</f>
+        <v>72</v>
+      </c>
+      <c r="L196" s="2">
+        <f>SUM(I196:K196)</f>
+        <v>224</v>
+      </c>
+      <c r="M196" s="15">
+        <f>L196*600</f>
+        <v>134400</v>
+      </c>
+      <c r="N196" s="15">
+        <v>30000</v>
+      </c>
+      <c r="O196" s="15">
+        <f>(M196-N196)/3</f>
+        <v>34800</v>
+      </c>
+    </row>
+    <row r="197" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B197" s="1">
+        <v>45082</v>
+      </c>
+      <c r="D197">
+        <v>34</v>
+      </c>
+      <c r="F197" s="16">
+        <v>139400</v>
+      </c>
+    </row>
+    <row r="198" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B198" s="1">
+        <v>45082</v>
+      </c>
+      <c r="C198">
+        <v>18</v>
+      </c>
+      <c r="F198" s="16">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="199" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B199" s="1">
+        <v>45083</v>
+      </c>
+      <c r="C199">
+        <v>96</v>
+      </c>
+      <c r="F199" s="16">
+        <v>384000</v>
+      </c>
+      <c r="H199" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I199" s="19"/>
+      <c r="J199" s="19"/>
+      <c r="K199" s="19"/>
+      <c r="L199" s="19"/>
+      <c r="M199" s="19"/>
+      <c r="N199" s="19"/>
+      <c r="O199" s="19"/>
+    </row>
+    <row r="200" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B200" s="1">
+        <v>45083</v>
+      </c>
+      <c r="D200">
+        <v>36</v>
+      </c>
+      <c r="F200" s="16">
+        <v>144000</v>
+      </c>
+      <c r="H200" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I200" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J200" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K200" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L200" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M200" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N200" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O200" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="201" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B201" s="1">
+        <v>45084</v>
+      </c>
+      <c r="C201">
+        <v>18</v>
+      </c>
+      <c r="F201" s="16">
+        <v>77400</v>
+      </c>
+      <c r="H201" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I201" s="2">
+        <f>SUM($C196:$C206)</f>
+        <v>309</v>
+      </c>
+      <c r="J201" s="2">
+        <f>SUM(D196:D206)</f>
+        <v>91</v>
+      </c>
+      <c r="K201" s="2">
+        <f>SUM(E196:E206)</f>
+        <v>0</v>
+      </c>
+      <c r="L201" s="2">
+        <f>SUM(I201:K201)</f>
+        <v>400</v>
+      </c>
+      <c r="M201" s="15">
+        <f>L201*600</f>
+        <v>240000</v>
+      </c>
+      <c r="N201" s="15">
+        <v>30000</v>
+      </c>
+      <c r="O201" s="15">
+        <f>(M201-N201)/3</f>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="202" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B202" s="1">
+        <v>45085</v>
+      </c>
+      <c r="C202">
+        <v>48</v>
+      </c>
+      <c r="F202" s="16">
+        <v>192000</v>
+      </c>
+    </row>
+    <row r="203" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B203" s="1">
+        <v>45085</v>
+      </c>
+      <c r="C203">
+        <v>36</v>
+      </c>
+      <c r="F203" s="16">
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="204" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B204" s="1">
+        <v>45086</v>
+      </c>
+      <c r="C204">
+        <v>36</v>
+      </c>
+      <c r="F204" s="16">
+        <v>144000</v>
+      </c>
+      <c r="H204" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I204" s="19"/>
+      <c r="J204" s="19"/>
+      <c r="K204" s="19"/>
+      <c r="L204" s="19"/>
+      <c r="M204" s="19"/>
+      <c r="N204" s="19"/>
+      <c r="O204" s="19"/>
+    </row>
+    <row r="205" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B205" s="1">
+        <v>45086</v>
+      </c>
+      <c r="C205">
+        <v>33</v>
+      </c>
+      <c r="F205" s="16">
+        <v>132000</v>
+      </c>
+      <c r="H205" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I205" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J205" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K205" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L205" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M205" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N205" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O205" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="206" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B206" s="1">
+        <v>45086</v>
+      </c>
+      <c r="D206">
+        <v>21</v>
+      </c>
+      <c r="F206" s="16">
+        <v>90300</v>
+      </c>
+      <c r="H206" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I206" s="2">
+        <f>SUM($C207:$C218)</f>
+        <v>97</v>
+      </c>
+      <c r="J206" s="2">
+        <f>SUM(D207:D218)</f>
+        <v>195</v>
+      </c>
+      <c r="K206" s="2">
+        <f>SUM(E207:E218)</f>
+        <v>48</v>
+      </c>
+      <c r="L206" s="2">
+        <f>SUM(I206:K206)</f>
+        <v>340</v>
+      </c>
+      <c r="M206" s="15">
+        <f>L206*600</f>
+        <v>204000</v>
+      </c>
+      <c r="N206" s="15">
+        <v>30000</v>
+      </c>
+      <c r="O206" s="15">
+        <f>(M206-N206)/3</f>
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="207" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B207" s="1">
+        <v>45091</v>
+      </c>
+      <c r="E207">
+        <v>48</v>
+      </c>
+      <c r="F207" s="16">
+        <v>192000</v>
+      </c>
+    </row>
+    <row r="208" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B208" s="1">
+        <v>45092</v>
+      </c>
+      <c r="C208">
+        <v>14</v>
+      </c>
+      <c r="F208" s="16">
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="209" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B209" s="1">
+        <v>45092</v>
+      </c>
+      <c r="C209">
+        <v>17</v>
+      </c>
+      <c r="F209" s="16">
+        <v>74000</v>
+      </c>
+      <c r="H209" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I209" s="19"/>
+      <c r="J209" s="19"/>
+      <c r="K209" s="19"/>
+      <c r="L209" s="19"/>
+      <c r="M209" s="19"/>
+      <c r="N209" s="19"/>
+      <c r="O209" s="19"/>
+    </row>
+    <row r="210" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B210" s="1">
+        <v>45092</v>
+      </c>
+      <c r="D210">
+        <v>32</v>
+      </c>
+      <c r="F210" s="16">
+        <v>137600</v>
+      </c>
+      <c r="H210" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I210" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J210" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K210" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L210" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M210" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N210" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O210" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="211" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B211" s="1">
+        <v>45093</v>
+      </c>
+      <c r="C211">
+        <v>25</v>
+      </c>
+      <c r="F211" s="16">
+        <v>107500</v>
+      </c>
+      <c r="H211" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I211" s="2">
+        <f>SUM($C219:$C223)</f>
+        <v>172</v>
+      </c>
+      <c r="J211" s="2">
+        <f>SUM(D219:D223)</f>
+        <v>23</v>
+      </c>
+      <c r="K211" s="2">
+        <f>SUM(E212:E223)</f>
+        <v>0</v>
+      </c>
+      <c r="L211" s="2">
+        <f>SUM(I211:K211)</f>
+        <v>195</v>
+      </c>
+      <c r="M211" s="15">
+        <f>L211*600</f>
+        <v>117000</v>
+      </c>
+      <c r="N211" s="15">
+        <v>30000</v>
+      </c>
+      <c r="O211" s="15">
+        <f>(M211-N211)/3</f>
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="212" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B212" s="1">
+        <v>45093</v>
+      </c>
+      <c r="C212">
+        <v>33</v>
+      </c>
+      <c r="F212" s="16">
+        <v>132000</v>
+      </c>
+    </row>
+    <row r="213" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B213" s="1">
+        <v>45093</v>
+      </c>
+      <c r="D213">
+        <v>37</v>
+      </c>
+      <c r="F213" s="16">
+        <v>154000</v>
+      </c>
+    </row>
+    <row r="214" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B214" s="1">
+        <v>45093</v>
+      </c>
+      <c r="D214">
+        <v>36</v>
+      </c>
+      <c r="F214" s="16">
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="215" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B215" s="1">
+        <v>45093</v>
+      </c>
+      <c r="D215">
+        <v>18</v>
+      </c>
+      <c r="F215" s="16">
+        <v>77400</v>
+      </c>
+    </row>
+    <row r="216" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B216" s="1">
+        <v>45094</v>
+      </c>
+      <c r="D216">
+        <v>36</v>
+      </c>
+      <c r="F216" s="16">
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="217" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B217" s="1">
+        <v>45094</v>
+      </c>
+      <c r="D217">
+        <v>36</v>
+      </c>
+      <c r="F217" s="16">
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="218" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B218" s="1">
+        <v>45094</v>
+      </c>
+      <c r="C218">
+        <v>8</v>
+      </c>
+      <c r="F218" s="16">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="219" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B219" s="1">
+        <v>45098</v>
+      </c>
+      <c r="C219">
+        <v>15</v>
+      </c>
+      <c r="F219" s="16">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="220" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B220" s="1">
+        <v>45098</v>
+      </c>
+      <c r="C220">
+        <v>138</v>
+      </c>
+      <c r="F220" s="16">
+        <v>561000</v>
+      </c>
+    </row>
+    <row r="221" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B221" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C221">
+        <v>17</v>
+      </c>
+      <c r="F221" s="16">
+        <v>68000</v>
+      </c>
+    </row>
+    <row r="222" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B222" s="1">
+        <v>45100</v>
+      </c>
+      <c r="D222">
+        <v>23</v>
+      </c>
+      <c r="F222" s="16">
+        <v>98900</v>
+      </c>
+    </row>
+    <row r="223" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B223" s="1">
+        <v>45101</v>
+      </c>
+      <c r="C223">
+        <v>2</v>
+      </c>
+      <c r="F223" s="16">
+        <v>20000</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="H94:O94"/>
+  <mergeCells count="24">
+    <mergeCell ref="H209:O209"/>
     <mergeCell ref="H90:O90"/>
     <mergeCell ref="H86:O86"/>
     <mergeCell ref="I43:P43"/>
     <mergeCell ref="I47:M47"/>
-    <mergeCell ref="I18:M18"/>
     <mergeCell ref="B2:F4"/>
     <mergeCell ref="I39:P39"/>
     <mergeCell ref="I35:P35"/>
@@ -5374,12 +9310,24 @@
     <mergeCell ref="I6:M6"/>
     <mergeCell ref="I10:M10"/>
     <mergeCell ref="I31:P31"/>
+    <mergeCell ref="I18:M18"/>
+    <mergeCell ref="H204:O204"/>
+    <mergeCell ref="H94:O94"/>
+    <mergeCell ref="H126:O126"/>
+    <mergeCell ref="H122:O122"/>
+    <mergeCell ref="H118:O118"/>
+    <mergeCell ref="H98:O98"/>
+    <mergeCell ref="H102:L102"/>
+    <mergeCell ref="H199:O199"/>
+    <mergeCell ref="H134:L134"/>
+    <mergeCell ref="H194:O194"/>
+    <mergeCell ref="H130:O130"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="K33 J37 K41 J45 K49 M49 J8 J20 M20 J88:K88 I92 J96 K92" formulaRange="1"/>
+    <ignoredError sqref="K33 J37 K41 J45 J49:K49 M49 J8 J20 M20 J88:K88 I92 I96:J96 K92 I100:J100 J104 L104 I120:J120 J124 J128 I132 I136 L136 I196:J196 I201 K201 I206:J206 I211" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <tableParts count="1">
@@ -5390,65 +9338,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FA757A-E6E3-4165-BA61-DC68D430AF7F}">
-  <dimension ref="B3:I22"/>
+  <dimension ref="B3:I70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="G3" s="21" t="s">
+      <c r="B3" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="G3" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+    </row>
+    <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="G4" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="G4" s="22" t="s">
+      <c r="I4" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="5" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
       <c r="G5" s="15">
         <f>SUM(Tabla3[ingreso])</f>
-        <v>1130300</v>
+        <v>7055400</v>
       </c>
       <c r="H5" s="15">
         <f>SUM(Tabla3[gasto])</f>
-        <v>1316100</v>
+        <v>7530100</v>
       </c>
       <c r="I5" s="15">
         <f>G5-H5</f>
-        <v>-185800</v>
+        <v>-474700</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -5456,13 +9404,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -5470,7 +9418,7 @@
         <v>45035</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17">
@@ -5482,7 +9430,7 @@
         <v>45035</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17">
@@ -5494,7 +9442,7 @@
         <v>45035</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17">
@@ -5506,7 +9454,7 @@
         <v>45036</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17">
@@ -5518,7 +9466,7 @@
         <v>45036</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17">
@@ -5530,7 +9478,7 @@
         <v>45036</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17">
@@ -5542,7 +9490,7 @@
         <v>45037</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17">
@@ -5554,7 +9502,7 @@
         <v>45037</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17">
@@ -5566,7 +9514,7 @@
         <v>45037</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17">
@@ -5578,7 +9526,7 @@
         <v>45038</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17">
@@ -5590,7 +9538,7 @@
         <v>45038</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17">
@@ -5602,7 +9550,7 @@
         <v>45038</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17">
@@ -5614,7 +9562,7 @@
         <v>45038</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17">
@@ -5626,7 +9574,7 @@
         <v>45038</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17">
@@ -5638,7 +9586,7 @@
         <v>45038</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D21" s="17">
         <v>1130300</v>
@@ -5650,11 +9598,587 @@
         <v>45038</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="17">
         <v>104000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>45040</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>45040</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>45040</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17">
+        <v>224000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>45040</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>45040</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>45041</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>45041</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>45041</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17">
+        <v>336000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>45042</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <v>45042</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>45042</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17">
+        <v>336000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>45043</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17">
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <v>45043</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <v>45043</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <v>45043</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <v>45044</v>
+      </c>
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <v>45044</v>
+      </c>
+      <c r="C39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17">
+        <v>336000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <v>45044</v>
+      </c>
+      <c r="C40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <v>45045</v>
+      </c>
+      <c r="C41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17">
+        <v>672000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <v>45045</v>
+      </c>
+      <c r="C42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
+        <v>45042</v>
+      </c>
+      <c r="C43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="1">
+        <v>45045</v>
+      </c>
+      <c r="C44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="1">
+        <v>45045</v>
+      </c>
+      <c r="C45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17">
+        <v>246000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="1">
+        <v>45045</v>
+      </c>
+      <c r="C46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="17">
+        <v>2725400</v>
+      </c>
+      <c r="E46" s="17"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="1">
+        <v>45048</v>
+      </c>
+      <c r="C47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17">
+        <v>336000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="1">
+        <v>45048</v>
+      </c>
+      <c r="C48" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="1">
+        <v>45049</v>
+      </c>
+      <c r="C49" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17">
+        <v>336000</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="1">
+        <v>45049</v>
+      </c>
+      <c r="C50" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="1">
+        <v>45049</v>
+      </c>
+      <c r="C51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="1">
+        <v>45049</v>
+      </c>
+      <c r="C52" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="1">
+        <v>45049</v>
+      </c>
+      <c r="C53" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17">
+        <v>336000</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="1">
+        <v>45049</v>
+      </c>
+      <c r="C54" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="1">
+        <v>45050</v>
+      </c>
+      <c r="C55" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17">
+        <v>336000</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="1">
+        <v>45050</v>
+      </c>
+      <c r="C56" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="1">
+        <v>45050</v>
+      </c>
+      <c r="C57" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="1">
+        <v>45051</v>
+      </c>
+      <c r="C58" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="1">
+        <v>45051</v>
+      </c>
+      <c r="C59" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17">
+        <v>672000</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="1">
+        <v>45051</v>
+      </c>
+      <c r="C60" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="1">
+        <v>45051</v>
+      </c>
+      <c r="C61" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="1">
+        <v>45052</v>
+      </c>
+      <c r="C62" t="s">
+        <v>54</v>
+      </c>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17">
+        <v>672000</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="1">
+        <v>45052</v>
+      </c>
+      <c r="C63" t="s">
+        <v>44</v>
+      </c>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17">
+        <v>288000</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="1">
+        <v>45052</v>
+      </c>
+      <c r="C64" t="s">
+        <v>60</v>
+      </c>
+      <c r="D64" s="17">
+        <v>3199700</v>
+      </c>
+      <c r="E64" s="17"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="1">
+        <v>45053</v>
+      </c>
+      <c r="C65" t="s">
+        <v>39</v>
+      </c>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="1">
+        <v>45054</v>
+      </c>
+      <c r="C66" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17">
+        <v>336000</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="1">
+        <v>45054</v>
+      </c>
+      <c r="C67" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="1">
+        <v>45055</v>
+      </c>
+      <c r="C68" t="s">
+        <v>40</v>
+      </c>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="1">
+        <v>45055</v>
+      </c>
+      <c r="C69" t="s">
+        <v>61</v>
+      </c>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="1">
+        <v>45055</v>
+      </c>
+      <c r="C70" t="s">
+        <v>38</v>
+      </c>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17">
+        <v>8000</v>
       </c>
     </row>
   </sheetData>
@@ -5672,10 +10196,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B4:G5"/>
+  <dimension ref="B4:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5683,48 +10207,65 @@
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
       <c r="G4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="H4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
-        <v>44973</v>
+        <v>45044</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>40080</v>
-      </c>
-      <c r="E5">
-        <v>43800</v>
-      </c>
-      <c r="F5">
+        <v>51</v>
+      </c>
+      <c r="D5" s="17">
+        <v>50000</v>
+      </c>
+      <c r="E5" s="17">
+        <v>60000</v>
+      </c>
+      <c r="F5" s="17">
         <f>Tabla2[[#This Row],[valor venta]]-Tabla2[[#This Row],[valor compra]]</f>
-        <v>3720</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1</v>
+        <v>10000</v>
+      </c>
+      <c r="G5" s="17">
+        <f>(Tabla2[[#This Row],[ganacia]]*15)/100</f>
+        <v>1500</v>
+      </c>
+      <c r="H5" s="17">
+        <f>Tabla2[[#This Row],[ganacia]]-Tabla2[[#This Row],[porcentaje reinversion]]</f>
+        <v>8500</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/reporte ventas.xlsx
+++ b/reporte ventas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\programacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\programacion22-23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CDA31B-E944-4A66-B6D8-1C671F6365AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B053711A-E7BE-4A61-A48F-C08CBA5911F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -700,7 +700,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3164</c:v>
+                  <c:v>3167</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4029</c:v>
@@ -5135,8 +5135,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:F223" totalsRowShown="0">
-  <autoFilter ref="B5:F223" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:F224" totalsRowShown="0">
+  <autoFilter ref="B5:F224" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0">
       <filters>
         <dateGroupItem year="2023" month="6" dateTimeGrouping="month"/>
@@ -5487,10 +5487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:W223"/>
+  <dimension ref="B2:W224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B220" sqref="B220"/>
+    <sheetView tabSelected="1" topLeftCell="A209" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B225" sqref="B225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5554,7 +5554,7 @@
       </c>
       <c r="I4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>3164</v>
+        <v>3167</v>
       </c>
       <c r="J4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
@@ -5566,7 +5566,7 @@
       </c>
       <c r="L4" s="14">
         <f xml:space="preserve"> SUM(Tabla1[valor venta])</f>
-        <v>32579300</v>
+        <v>32592200</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -5735,7 +5735,7 @@
       </c>
       <c r="J12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>3164</v>
+        <v>3167</v>
       </c>
       <c r="K12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
@@ -5747,7 +5747,7 @@
       </c>
       <c r="M12" s="2">
         <f>SUM(J12:L12)</f>
-        <v>7849</v>
+        <v>7852</v>
       </c>
     </row>
     <row r="13" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
@@ -9296,13 +9296,19 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="224" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B224" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C224">
+        <v>3</v>
+      </c>
+      <c r="F224" s="16">
+        <v>12900</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="H209:O209"/>
-    <mergeCell ref="H90:O90"/>
-    <mergeCell ref="H86:O86"/>
-    <mergeCell ref="I43:P43"/>
-    <mergeCell ref="I47:M47"/>
     <mergeCell ref="B2:F4"/>
     <mergeCell ref="I39:P39"/>
     <mergeCell ref="I35:P35"/>
@@ -9311,6 +9317,11 @@
     <mergeCell ref="I10:M10"/>
     <mergeCell ref="I31:P31"/>
     <mergeCell ref="I18:M18"/>
+    <mergeCell ref="H209:O209"/>
+    <mergeCell ref="H90:O90"/>
+    <mergeCell ref="H86:O86"/>
+    <mergeCell ref="I43:P43"/>
+    <mergeCell ref="I47:M47"/>
     <mergeCell ref="H204:O204"/>
     <mergeCell ref="H94:O94"/>
     <mergeCell ref="H126:O126"/>

--- a/reporte ventas.xlsx
+++ b/reporte ventas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\programacion22-23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B053711A-E7BE-4A61-A48F-C08CBA5911F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008B69EB-E81A-49AD-86F9-2B53E738E603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -421,11 +421,11 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -700,10 +700,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3167</c:v>
+                  <c:v>3168</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4029</c:v>
+                  <c:v>4033</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>656</c:v>
@@ -5135,8 +5135,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:F224" totalsRowShown="0">
-  <autoFilter ref="B5:F224" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:F226" totalsRowShown="0">
+  <autoFilter ref="B5:F226" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0">
       <filters>
         <dateGroupItem year="2023" month="6" dateTimeGrouping="month"/>
@@ -5487,10 +5487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:W224"/>
+  <dimension ref="B2:W226"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A209" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B225" sqref="B225"/>
+      <selection activeCell="B227" sqref="B227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5506,27 +5506,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="H2" s="19" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="H2" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
       <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
@@ -5544,21 +5544,21 @@
       </c>
     </row>
     <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
       <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>3167</v>
+        <v>3168</v>
       </c>
       <c r="J4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
-        <v>4029</v>
+        <v>4033</v>
       </c>
       <c r="K4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
@@ -5566,7 +5566,7 @@
       </c>
       <c r="L4" s="14">
         <f xml:space="preserve"> SUM(Tabla1[valor venta])</f>
-        <v>32592200</v>
+        <v>32613600</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -5598,13 +5598,13 @@
       <c r="F6" s="16">
         <v>147600</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
     </row>
     <row r="7" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
@@ -5686,13 +5686,13 @@
       <c r="F10" s="16">
         <v>26400</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
     </row>
     <row r="11" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
@@ -5735,11 +5735,11 @@
       </c>
       <c r="J12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>3167</v>
+        <v>3168</v>
       </c>
       <c r="K12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
-        <v>4029</v>
+        <v>4033</v>
       </c>
       <c r="L12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
@@ -5747,7 +5747,7 @@
       </c>
       <c r="M12" s="2">
         <f>SUM(J12:L12)</f>
-        <v>7852</v>
+        <v>7857</v>
       </c>
     </row>
     <row r="13" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
@@ -5816,13 +5816,13 @@
       <c r="F18" s="16">
         <v>13200</v>
       </c>
-      <c r="I18" s="19" t="s">
+      <c r="I18" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
     </row>
     <row r="19" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
@@ -6000,16 +6000,16 @@
       <c r="F31" s="16">
         <v>270600</v>
       </c>
-      <c r="I31" s="19" t="s">
+      <c r="I31" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
     </row>
     <row r="32" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
@@ -6116,16 +6116,16 @@
       <c r="F35" s="16">
         <v>57200</v>
       </c>
-      <c r="I35" s="19" t="s">
+      <c r="I35" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
       <c r="V35" s="7"/>
       <c r="W35" s="14">
         <v>65000</v>
@@ -6240,16 +6240,16 @@
       <c r="F39" s="16">
         <v>155800</v>
       </c>
-      <c r="I39" s="19" t="s">
+      <c r="I39" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
       <c r="V39" s="11"/>
       <c r="W39" s="14">
         <v>52000</v>
@@ -6360,16 +6360,16 @@
       <c r="F43" s="16">
         <v>176300</v>
       </c>
-      <c r="I43" s="19" t="s">
+      <c r="I43" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
     </row>
     <row r="44" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
@@ -6468,13 +6468,13 @@
       <c r="F47" s="16">
         <v>105600</v>
       </c>
-      <c r="I47" s="19" t="s">
+      <c r="I47" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
     </row>
     <row r="48" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
@@ -6938,16 +6938,16 @@
       <c r="F86" s="16">
         <v>463300</v>
       </c>
-      <c r="H86" s="19" t="s">
+      <c r="H86" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I86" s="19"/>
-      <c r="J86" s="19"/>
-      <c r="K86" s="19"/>
-      <c r="L86" s="19"/>
-      <c r="M86" s="19"/>
-      <c r="N86" s="19"/>
-      <c r="O86" s="19"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="20"/>
+      <c r="K86" s="20"/>
+      <c r="L86" s="20"/>
+      <c r="M86" s="20"/>
+      <c r="N86" s="20"/>
+      <c r="O86" s="20"/>
     </row>
     <row r="87" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
@@ -7046,16 +7046,16 @@
       <c r="F90" s="16">
         <v>147600</v>
       </c>
-      <c r="H90" s="19" t="s">
+      <c r="H90" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="I90" s="19"/>
-      <c r="J90" s="19"/>
-      <c r="K90" s="19"/>
-      <c r="L90" s="19"/>
-      <c r="M90" s="19"/>
-      <c r="N90" s="19"/>
-      <c r="O90" s="19"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="20"/>
+      <c r="K90" s="20"/>
+      <c r="L90" s="20"/>
+      <c r="M90" s="20"/>
+      <c r="N90" s="20"/>
+      <c r="O90" s="20"/>
     </row>
     <row r="91" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B91" s="1">
@@ -7154,16 +7154,16 @@
       <c r="F94" s="16">
         <v>101200</v>
       </c>
-      <c r="H94" s="19" t="s">
+      <c r="H94" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="I94" s="19"/>
-      <c r="J94" s="19"/>
-      <c r="K94" s="19"/>
-      <c r="L94" s="19"/>
-      <c r="M94" s="19"/>
-      <c r="N94" s="19"/>
-      <c r="O94" s="19"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="20"/>
+      <c r="K94" s="20"/>
+      <c r="L94" s="20"/>
+      <c r="M94" s="20"/>
+      <c r="N94" s="20"/>
+      <c r="O94" s="20"/>
     </row>
     <row r="95" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1">
@@ -7262,16 +7262,16 @@
       <c r="F98" s="16">
         <v>240000</v>
       </c>
-      <c r="H98" s="19" t="s">
+      <c r="H98" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="I98" s="19"/>
-      <c r="J98" s="19"/>
-      <c r="K98" s="19"/>
-      <c r="L98" s="19"/>
-      <c r="M98" s="19"/>
-      <c r="N98" s="19"/>
-      <c r="O98" s="19"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="20"/>
+      <c r="K98" s="20"/>
+      <c r="L98" s="20"/>
+      <c r="M98" s="20"/>
+      <c r="N98" s="20"/>
+      <c r="O98" s="20"/>
     </row>
     <row r="99" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B99" s="1">
@@ -7370,13 +7370,13 @@
       <c r="F102" s="16">
         <v>105600</v>
       </c>
-      <c r="H102" s="19" t="s">
+      <c r="H102" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="I102" s="19"/>
-      <c r="J102" s="19"/>
-      <c r="K102" s="19"/>
-      <c r="L102" s="19"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="20"/>
+      <c r="K102" s="20"/>
+      <c r="L102" s="20"/>
     </row>
     <row r="103" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1">
@@ -7587,16 +7587,16 @@
       <c r="F118" s="16">
         <v>107200</v>
       </c>
-      <c r="H118" s="19" t="s">
+      <c r="H118" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="I118" s="19"/>
-      <c r="J118" s="19"/>
-      <c r="K118" s="19"/>
-      <c r="L118" s="19"/>
-      <c r="M118" s="19"/>
-      <c r="N118" s="19"/>
-      <c r="O118" s="19"/>
+      <c r="I118" s="20"/>
+      <c r="J118" s="20"/>
+      <c r="K118" s="20"/>
+      <c r="L118" s="20"/>
+      <c r="M118" s="20"/>
+      <c r="N118" s="20"/>
+      <c r="O118" s="20"/>
     </row>
     <row r="119" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B119" s="1">
@@ -7695,16 +7695,16 @@
       <c r="F122" s="16">
         <v>147600</v>
       </c>
-      <c r="H122" s="19" t="s">
+      <c r="H122" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="I122" s="19"/>
-      <c r="J122" s="19"/>
-      <c r="K122" s="19"/>
-      <c r="L122" s="19"/>
-      <c r="M122" s="19"/>
-      <c r="N122" s="19"/>
-      <c r="O122" s="19"/>
+      <c r="I122" s="20"/>
+      <c r="J122" s="20"/>
+      <c r="K122" s="20"/>
+      <c r="L122" s="20"/>
+      <c r="M122" s="20"/>
+      <c r="N122" s="20"/>
+      <c r="O122" s="20"/>
     </row>
     <row r="123" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B123" s="1">
@@ -7803,16 +7803,16 @@
       <c r="F126" s="16">
         <v>123200</v>
       </c>
-      <c r="H126" s="19" t="s">
+      <c r="H126" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="I126" s="19"/>
-      <c r="J126" s="19"/>
-      <c r="K126" s="19"/>
-      <c r="L126" s="19"/>
-      <c r="M126" s="19"/>
-      <c r="N126" s="19"/>
-      <c r="O126" s="19"/>
+      <c r="I126" s="20"/>
+      <c r="J126" s="20"/>
+      <c r="K126" s="20"/>
+      <c r="L126" s="20"/>
+      <c r="M126" s="20"/>
+      <c r="N126" s="20"/>
+      <c r="O126" s="20"/>
     </row>
     <row r="127" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B127" s="1">
@@ -7911,16 +7911,16 @@
       <c r="F130" s="16">
         <v>192000</v>
       </c>
-      <c r="H130" s="19" t="s">
+      <c r="H130" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="I130" s="19"/>
-      <c r="J130" s="19"/>
-      <c r="K130" s="19"/>
-      <c r="L130" s="19"/>
-      <c r="M130" s="19"/>
-      <c r="N130" s="19"/>
-      <c r="O130" s="19"/>
+      <c r="I130" s="20"/>
+      <c r="J130" s="20"/>
+      <c r="K130" s="20"/>
+      <c r="L130" s="20"/>
+      <c r="M130" s="20"/>
+      <c r="N130" s="20"/>
+      <c r="O130" s="20"/>
     </row>
     <row r="131" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B131" s="1">
@@ -8019,13 +8019,13 @@
       <c r="F134" s="16">
         <v>147600</v>
       </c>
-      <c r="H134" s="19" t="s">
+      <c r="H134" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I134" s="19"/>
-      <c r="J134" s="19"/>
-      <c r="K134" s="19"/>
-      <c r="L134" s="19"/>
+      <c r="I134" s="20"/>
+      <c r="J134" s="20"/>
+      <c r="K134" s="20"/>
+      <c r="L134" s="20"/>
     </row>
     <row r="135" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B135" s="1">
@@ -8720,16 +8720,16 @@
       <c r="F194" s="16">
         <v>288000</v>
       </c>
-      <c r="H194" s="19" t="s">
+      <c r="H194" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="I194" s="19"/>
-      <c r="J194" s="19"/>
-      <c r="K194" s="19"/>
-      <c r="L194" s="19"/>
-      <c r="M194" s="19"/>
-      <c r="N194" s="19"/>
-      <c r="O194" s="19"/>
+      <c r="I194" s="20"/>
+      <c r="J194" s="20"/>
+      <c r="K194" s="20"/>
+      <c r="L194" s="20"/>
+      <c r="M194" s="20"/>
+      <c r="N194" s="20"/>
+      <c r="O194" s="20"/>
     </row>
     <row r="195" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B195" s="1">
@@ -8839,16 +8839,16 @@
       <c r="F199" s="16">
         <v>384000</v>
       </c>
-      <c r="H199" s="19" t="s">
+      <c r="H199" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="I199" s="19"/>
-      <c r="J199" s="19"/>
-      <c r="K199" s="19"/>
-      <c r="L199" s="19"/>
-      <c r="M199" s="19"/>
-      <c r="N199" s="19"/>
-      <c r="O199" s="19"/>
+      <c r="I199" s="20"/>
+      <c r="J199" s="20"/>
+      <c r="K199" s="20"/>
+      <c r="L199" s="20"/>
+      <c r="M199" s="20"/>
+      <c r="N199" s="20"/>
+      <c r="O199" s="20"/>
     </row>
     <row r="200" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B200" s="1">
@@ -8958,16 +8958,16 @@
       <c r="F204" s="16">
         <v>144000</v>
       </c>
-      <c r="H204" s="19" t="s">
+      <c r="H204" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="I204" s="19"/>
-      <c r="J204" s="19"/>
-      <c r="K204" s="19"/>
-      <c r="L204" s="19"/>
-      <c r="M204" s="19"/>
-      <c r="N204" s="19"/>
-      <c r="O204" s="19"/>
+      <c r="I204" s="20"/>
+      <c r="J204" s="20"/>
+      <c r="K204" s="20"/>
+      <c r="L204" s="20"/>
+      <c r="M204" s="20"/>
+      <c r="N204" s="20"/>
+      <c r="O204" s="20"/>
     </row>
     <row r="205" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B205" s="1">
@@ -9077,16 +9077,16 @@
       <c r="F209" s="16">
         <v>74000</v>
       </c>
-      <c r="H209" s="19" t="s">
+      <c r="H209" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="I209" s="19"/>
-      <c r="J209" s="19"/>
-      <c r="K209" s="19"/>
-      <c r="L209" s="19"/>
-      <c r="M209" s="19"/>
-      <c r="N209" s="19"/>
-      <c r="O209" s="19"/>
+      <c r="I209" s="20"/>
+      <c r="J209" s="20"/>
+      <c r="K209" s="20"/>
+      <c r="L209" s="20"/>
+      <c r="M209" s="20"/>
+      <c r="N209" s="20"/>
+      <c r="O209" s="20"/>
     </row>
     <row r="210" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B210" s="1">
@@ -9307,16 +9307,30 @@
         <v>12900</v>
       </c>
     </row>
+    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B225" s="1">
+        <v>45103</v>
+      </c>
+      <c r="D225">
+        <v>4</v>
+      </c>
+      <c r="F225" s="16">
+        <v>17200</v>
+      </c>
+    </row>
+    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B226" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="F226" s="16">
+        <v>4200</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:F4"/>
-    <mergeCell ref="I39:P39"/>
-    <mergeCell ref="I35:P35"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="I31:P31"/>
-    <mergeCell ref="I18:M18"/>
     <mergeCell ref="H209:O209"/>
     <mergeCell ref="H90:O90"/>
     <mergeCell ref="H86:O86"/>
@@ -9333,6 +9347,14 @@
     <mergeCell ref="H134:L134"/>
     <mergeCell ref="H194:O194"/>
     <mergeCell ref="H130:O130"/>
+    <mergeCell ref="B2:F4"/>
+    <mergeCell ref="I39:P39"/>
+    <mergeCell ref="I35:P35"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="I31:P31"/>
+    <mergeCell ref="I18:M18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reporte ventas.xlsx
+++ b/reporte ventas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\programacion22-23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008B69EB-E81A-49AD-86F9-2B53E738E603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100B278B-41E2-470D-9F80-5CDDEAA2F90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="73">
   <si>
     <t>Reporte de Ventas</t>
   </si>
@@ -253,6 +253,9 @@
   <si>
     <t>Semana 19 Junio - 24 de Junio</t>
   </si>
+  <si>
+    <t>Semana 26 Junio - 1 de Julio</t>
+  </si>
 </sst>
 </file>
 
@@ -421,11 +424,11 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -700,10 +703,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3168</c:v>
+                  <c:v>3213</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4033</c:v>
+                  <c:v>4057</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>656</c:v>
@@ -5135,8 +5138,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:F226" totalsRowShown="0">
-  <autoFilter ref="B5:F226" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:F229" totalsRowShown="0">
+  <autoFilter ref="B5:F229" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0">
       <filters>
         <dateGroupItem year="2023" month="6" dateTimeGrouping="month"/>
@@ -5487,10 +5490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:W226"/>
+  <dimension ref="B2:W229"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A209" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B227" sqref="B227"/>
+      <selection activeCell="O216" sqref="O216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5506,27 +5509,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="H2" s="20" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="H2" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
     </row>
     <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
       <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
@@ -5544,21 +5547,21 @@
       </c>
     </row>
     <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
       <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>3168</v>
+        <v>3213</v>
       </c>
       <c r="J4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
-        <v>4033</v>
+        <v>4057</v>
       </c>
       <c r="K4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
@@ -5566,7 +5569,7 @@
       </c>
       <c r="L4" s="14">
         <f xml:space="preserve"> SUM(Tabla1[valor venta])</f>
-        <v>32613600</v>
+        <v>32899500</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -5598,13 +5601,13 @@
       <c r="F6" s="16">
         <v>147600</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
     </row>
     <row r="7" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
@@ -5686,13 +5689,13 @@
       <c r="F10" s="16">
         <v>26400</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
@@ -5735,11 +5738,11 @@
       </c>
       <c r="J12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>3168</v>
+        <v>3213</v>
       </c>
       <c r="K12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
-        <v>4033</v>
+        <v>4057</v>
       </c>
       <c r="L12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
@@ -5747,7 +5750,7 @@
       </c>
       <c r="M12" s="2">
         <f>SUM(J12:L12)</f>
-        <v>7857</v>
+        <v>7926</v>
       </c>
     </row>
     <row r="13" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
@@ -5816,13 +5819,13 @@
       <c r="F18" s="16">
         <v>13200</v>
       </c>
-      <c r="I18" s="20" t="s">
+      <c r="I18" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
     </row>
     <row r="19" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
@@ -6000,16 +6003,16 @@
       <c r="F31" s="16">
         <v>270600</v>
       </c>
-      <c r="I31" s="20" t="s">
+      <c r="I31" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
     </row>
     <row r="32" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
@@ -6116,16 +6119,16 @@
       <c r="F35" s="16">
         <v>57200</v>
       </c>
-      <c r="I35" s="20" t="s">
+      <c r="I35" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
       <c r="V35" s="7"/>
       <c r="W35" s="14">
         <v>65000</v>
@@ -6240,16 +6243,16 @@
       <c r="F39" s="16">
         <v>155800</v>
       </c>
-      <c r="I39" s="20" t="s">
+      <c r="I39" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
       <c r="V39" s="11"/>
       <c r="W39" s="14">
         <v>52000</v>
@@ -6360,16 +6363,16 @@
       <c r="F43" s="16">
         <v>176300</v>
       </c>
-      <c r="I43" s="20" t="s">
+      <c r="I43" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
     </row>
     <row r="44" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
@@ -6468,13 +6471,13 @@
       <c r="F47" s="16">
         <v>105600</v>
       </c>
-      <c r="I47" s="20" t="s">
+      <c r="I47" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
     </row>
     <row r="48" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
@@ -6938,16 +6941,16 @@
       <c r="F86" s="16">
         <v>463300</v>
       </c>
-      <c r="H86" s="20" t="s">
+      <c r="H86" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I86" s="20"/>
-      <c r="J86" s="20"/>
-      <c r="K86" s="20"/>
-      <c r="L86" s="20"/>
-      <c r="M86" s="20"/>
-      <c r="N86" s="20"/>
-      <c r="O86" s="20"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="19"/>
+      <c r="K86" s="19"/>
+      <c r="L86" s="19"/>
+      <c r="M86" s="19"/>
+      <c r="N86" s="19"/>
+      <c r="O86" s="19"/>
     </row>
     <row r="87" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
@@ -7046,16 +7049,16 @@
       <c r="F90" s="16">
         <v>147600</v>
       </c>
-      <c r="H90" s="20" t="s">
+      <c r="H90" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I90" s="20"/>
-      <c r="J90" s="20"/>
-      <c r="K90" s="20"/>
-      <c r="L90" s="20"/>
-      <c r="M90" s="20"/>
-      <c r="N90" s="20"/>
-      <c r="O90" s="20"/>
+      <c r="I90" s="19"/>
+      <c r="J90" s="19"/>
+      <c r="K90" s="19"/>
+      <c r="L90" s="19"/>
+      <c r="M90" s="19"/>
+      <c r="N90" s="19"/>
+      <c r="O90" s="19"/>
     </row>
     <row r="91" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B91" s="1">
@@ -7154,16 +7157,16 @@
       <c r="F94" s="16">
         <v>101200</v>
       </c>
-      <c r="H94" s="20" t="s">
+      <c r="H94" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="I94" s="20"/>
-      <c r="J94" s="20"/>
-      <c r="K94" s="20"/>
-      <c r="L94" s="20"/>
-      <c r="M94" s="20"/>
-      <c r="N94" s="20"/>
-      <c r="O94" s="20"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="19"/>
+      <c r="K94" s="19"/>
+      <c r="L94" s="19"/>
+      <c r="M94" s="19"/>
+      <c r="N94" s="19"/>
+      <c r="O94" s="19"/>
     </row>
     <row r="95" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1">
@@ -7262,16 +7265,16 @@
       <c r="F98" s="16">
         <v>240000</v>
       </c>
-      <c r="H98" s="20" t="s">
+      <c r="H98" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="I98" s="20"/>
-      <c r="J98" s="20"/>
-      <c r="K98" s="20"/>
-      <c r="L98" s="20"/>
-      <c r="M98" s="20"/>
-      <c r="N98" s="20"/>
-      <c r="O98" s="20"/>
+      <c r="I98" s="19"/>
+      <c r="J98" s="19"/>
+      <c r="K98" s="19"/>
+      <c r="L98" s="19"/>
+      <c r="M98" s="19"/>
+      <c r="N98" s="19"/>
+      <c r="O98" s="19"/>
     </row>
     <row r="99" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B99" s="1">
@@ -7370,13 +7373,13 @@
       <c r="F102" s="16">
         <v>105600</v>
       </c>
-      <c r="H102" s="20" t="s">
+      <c r="H102" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="I102" s="20"/>
-      <c r="J102" s="20"/>
-      <c r="K102" s="20"/>
-      <c r="L102" s="20"/>
+      <c r="I102" s="19"/>
+      <c r="J102" s="19"/>
+      <c r="K102" s="19"/>
+      <c r="L102" s="19"/>
     </row>
     <row r="103" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1">
@@ -7587,16 +7590,16 @@
       <c r="F118" s="16">
         <v>107200</v>
       </c>
-      <c r="H118" s="20" t="s">
+      <c r="H118" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="I118" s="20"/>
-      <c r="J118" s="20"/>
-      <c r="K118" s="20"/>
-      <c r="L118" s="20"/>
-      <c r="M118" s="20"/>
-      <c r="N118" s="20"/>
-      <c r="O118" s="20"/>
+      <c r="I118" s="19"/>
+      <c r="J118" s="19"/>
+      <c r="K118" s="19"/>
+      <c r="L118" s="19"/>
+      <c r="M118" s="19"/>
+      <c r="N118" s="19"/>
+      <c r="O118" s="19"/>
     </row>
     <row r="119" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B119" s="1">
@@ -7695,16 +7698,16 @@
       <c r="F122" s="16">
         <v>147600</v>
       </c>
-      <c r="H122" s="20" t="s">
+      <c r="H122" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="I122" s="20"/>
-      <c r="J122" s="20"/>
-      <c r="K122" s="20"/>
-      <c r="L122" s="20"/>
-      <c r="M122" s="20"/>
-      <c r="N122" s="20"/>
-      <c r="O122" s="20"/>
+      <c r="I122" s="19"/>
+      <c r="J122" s="19"/>
+      <c r="K122" s="19"/>
+      <c r="L122" s="19"/>
+      <c r="M122" s="19"/>
+      <c r="N122" s="19"/>
+      <c r="O122" s="19"/>
     </row>
     <row r="123" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B123" s="1">
@@ -7803,16 +7806,16 @@
       <c r="F126" s="16">
         <v>123200</v>
       </c>
-      <c r="H126" s="20" t="s">
+      <c r="H126" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="I126" s="20"/>
-      <c r="J126" s="20"/>
-      <c r="K126" s="20"/>
-      <c r="L126" s="20"/>
-      <c r="M126" s="20"/>
-      <c r="N126" s="20"/>
-      <c r="O126" s="20"/>
+      <c r="I126" s="19"/>
+      <c r="J126" s="19"/>
+      <c r="K126" s="19"/>
+      <c r="L126" s="19"/>
+      <c r="M126" s="19"/>
+      <c r="N126" s="19"/>
+      <c r="O126" s="19"/>
     </row>
     <row r="127" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B127" s="1">
@@ -7911,16 +7914,16 @@
       <c r="F130" s="16">
         <v>192000</v>
       </c>
-      <c r="H130" s="20" t="s">
+      <c r="H130" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="I130" s="20"/>
-      <c r="J130" s="20"/>
-      <c r="K130" s="20"/>
-      <c r="L130" s="20"/>
-      <c r="M130" s="20"/>
-      <c r="N130" s="20"/>
-      <c r="O130" s="20"/>
+      <c r="I130" s="19"/>
+      <c r="J130" s="19"/>
+      <c r="K130" s="19"/>
+      <c r="L130" s="19"/>
+      <c r="M130" s="19"/>
+      <c r="N130" s="19"/>
+      <c r="O130" s="19"/>
     </row>
     <row r="131" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B131" s="1">
@@ -8019,13 +8022,13 @@
       <c r="F134" s="16">
         <v>147600</v>
       </c>
-      <c r="H134" s="20" t="s">
+      <c r="H134" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="I134" s="20"/>
-      <c r="J134" s="20"/>
-      <c r="K134" s="20"/>
-      <c r="L134" s="20"/>
+      <c r="I134" s="19"/>
+      <c r="J134" s="19"/>
+      <c r="K134" s="19"/>
+      <c r="L134" s="19"/>
     </row>
     <row r="135" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B135" s="1">
@@ -8720,16 +8723,16 @@
       <c r="F194" s="16">
         <v>288000</v>
       </c>
-      <c r="H194" s="20" t="s">
+      <c r="H194" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="I194" s="20"/>
-      <c r="J194" s="20"/>
-      <c r="K194" s="20"/>
-      <c r="L194" s="20"/>
-      <c r="M194" s="20"/>
-      <c r="N194" s="20"/>
-      <c r="O194" s="20"/>
+      <c r="I194" s="19"/>
+      <c r="J194" s="19"/>
+      <c r="K194" s="19"/>
+      <c r="L194" s="19"/>
+      <c r="M194" s="19"/>
+      <c r="N194" s="19"/>
+      <c r="O194" s="19"/>
     </row>
     <row r="195" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B195" s="1">
@@ -8839,16 +8842,16 @@
       <c r="F199" s="16">
         <v>384000</v>
       </c>
-      <c r="H199" s="20" t="s">
+      <c r="H199" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="I199" s="20"/>
-      <c r="J199" s="20"/>
-      <c r="K199" s="20"/>
-      <c r="L199" s="20"/>
-      <c r="M199" s="20"/>
-      <c r="N199" s="20"/>
-      <c r="O199" s="20"/>
+      <c r="I199" s="19"/>
+      <c r="J199" s="19"/>
+      <c r="K199" s="19"/>
+      <c r="L199" s="19"/>
+      <c r="M199" s="19"/>
+      <c r="N199" s="19"/>
+      <c r="O199" s="19"/>
     </row>
     <row r="200" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B200" s="1">
@@ -8958,16 +8961,16 @@
       <c r="F204" s="16">
         <v>144000</v>
       </c>
-      <c r="H204" s="20" t="s">
+      <c r="H204" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I204" s="20"/>
-      <c r="J204" s="20"/>
-      <c r="K204" s="20"/>
-      <c r="L204" s="20"/>
-      <c r="M204" s="20"/>
-      <c r="N204" s="20"/>
-      <c r="O204" s="20"/>
+      <c r="I204" s="19"/>
+      <c r="J204" s="19"/>
+      <c r="K204" s="19"/>
+      <c r="L204" s="19"/>
+      <c r="M204" s="19"/>
+      <c r="N204" s="19"/>
+      <c r="O204" s="19"/>
     </row>
     <row r="205" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B205" s="1">
@@ -9077,16 +9080,16 @@
       <c r="F209" s="16">
         <v>74000</v>
       </c>
-      <c r="H209" s="20" t="s">
+      <c r="H209" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="I209" s="20"/>
-      <c r="J209" s="20"/>
-      <c r="K209" s="20"/>
-      <c r="L209" s="20"/>
-      <c r="M209" s="20"/>
-      <c r="N209" s="20"/>
-      <c r="O209" s="20"/>
+      <c r="I209" s="19"/>
+      <c r="J209" s="19"/>
+      <c r="K209" s="19"/>
+      <c r="L209" s="19"/>
+      <c r="M209" s="19"/>
+      <c r="N209" s="19"/>
+      <c r="O209" s="19"/>
     </row>
     <row r="210" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B210" s="1">
@@ -9196,6 +9199,16 @@
       <c r="F214" s="16">
         <v>144000</v>
       </c>
+      <c r="H214" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I214" s="19"/>
+      <c r="J214" s="19"/>
+      <c r="K214" s="19"/>
+      <c r="L214" s="19"/>
+      <c r="M214" s="19"/>
+      <c r="N214" s="19"/>
+      <c r="O214" s="19"/>
     </row>
     <row r="215" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B215" s="1">
@@ -9207,6 +9220,30 @@
       <c r="F215" s="16">
         <v>77400</v>
       </c>
+      <c r="H215" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I215" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J215" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K215" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L215" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M215" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N215" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O215" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="216" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B216" s="1">
@@ -9218,6 +9255,36 @@
       <c r="F216" s="16">
         <v>144000</v>
       </c>
+      <c r="H216" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I216" s="2">
+        <f>SUM($C224:$C229)</f>
+        <v>49</v>
+      </c>
+      <c r="J216" s="2">
+        <f>SUM(D224:D229)</f>
+        <v>28</v>
+      </c>
+      <c r="K216" s="2">
+        <f>SUM(E217:E228)</f>
+        <v>0</v>
+      </c>
+      <c r="L216" s="2">
+        <f>SUM(I216:K216)</f>
+        <v>77</v>
+      </c>
+      <c r="M216" s="15">
+        <f>L216*600</f>
+        <v>46200</v>
+      </c>
+      <c r="N216" s="15">
+        <v>30000</v>
+      </c>
+      <c r="O216" s="15">
+        <f>(M216-N216)/3</f>
+        <v>5400</v>
+      </c>
     </row>
     <row r="217" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B217" s="1">
@@ -9329,8 +9396,50 @@
         <v>4200</v>
       </c>
     </row>
+    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B227" s="1">
+        <v>45105</v>
+      </c>
+      <c r="C227">
+        <v>36</v>
+      </c>
+      <c r="F227" s="16">
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="228" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B228" s="1">
+        <v>45106</v>
+      </c>
+      <c r="D228">
+        <v>24</v>
+      </c>
+      <c r="F228" s="16">
+        <v>103200</v>
+      </c>
+    </row>
+    <row r="229" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B229" s="1">
+        <v>45108</v>
+      </c>
+      <c r="C229">
+        <v>9</v>
+      </c>
+      <c r="F229" s="16">
+        <v>38700</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
+    <mergeCell ref="H214:O214"/>
+    <mergeCell ref="B2:F4"/>
+    <mergeCell ref="I39:P39"/>
+    <mergeCell ref="I35:P35"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="I31:P31"/>
+    <mergeCell ref="I18:M18"/>
     <mergeCell ref="H209:O209"/>
     <mergeCell ref="H90:O90"/>
     <mergeCell ref="H86:O86"/>
@@ -9347,20 +9456,12 @@
     <mergeCell ref="H134:L134"/>
     <mergeCell ref="H194:O194"/>
     <mergeCell ref="H130:O130"/>
-    <mergeCell ref="B2:F4"/>
-    <mergeCell ref="I39:P39"/>
-    <mergeCell ref="I35:P35"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="I31:P31"/>
-    <mergeCell ref="I18:M18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="K33 J37 K41 J45 J49:K49 M49 J8 J20 M20 J88:K88 I92 I96:J96 K92 I100:J100 J104 L104 I120:J120 J124 J128 I132 I136 L136 I196:J196 I201 K201 I206:J206 I211" formulaRange="1"/>
+    <ignoredError sqref="K33 J37 K41 J45 J49:K49 M49 J8 J20 M20 J88:K88 I92 I96:J96 K92 I100:J100 J104 L104 I120:J120 J124 J128 I132 I136 L136 I196:J196 I201 K201 I206:J206 I211 I216" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <tableParts count="1">

--- a/reporte ventas.xlsx
+++ b/reporte ventas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26704"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\programacion22-23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100B278B-41E2-470D-9F80-5CDDEAA2F90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A032D37-B0D4-47D4-91EF-A2A8718DD768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="informe" sheetId="3" r:id="rId2"/>
     <sheet name="Ventas varias" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,6 +29,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,9 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="75">
   <si>
     <t>Reporte de Ventas</t>
+  </si>
+  <si>
+    <t>total anual</t>
+  </si>
+  <si>
+    <t>vendedor</t>
   </si>
   <si>
     <t>sebastian</t>
@@ -50,31 +58,40 @@
     <t>alejandro</t>
   </si>
   <si>
+    <t>total</t>
+  </si>
+  <si>
     <t>fecha</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>vendedor</t>
-  </si>
-  <si>
-    <t>producto</t>
-  </si>
-  <si>
-    <t>valor compra</t>
-  </si>
-  <si>
     <t>valor venta</t>
-  </si>
-  <si>
-    <t>ganacia</t>
   </si>
   <si>
     <t>total semana 27 febrero - 4 marzo</t>
   </si>
   <si>
     <t>total mes Marzo</t>
+  </si>
+  <si>
+    <t>Total Mes Febrero</t>
+  </si>
+  <si>
+    <t>Vendedor</t>
+  </si>
+  <si>
+    <t>Sebastian</t>
+  </si>
+  <si>
+    <t>Angelica</t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t>total venta</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
   <si>
     <t>semana 6 de marzo - 11 de marzo</t>
@@ -101,43 +118,79 @@
     <t>Total Mes Marzo</t>
   </si>
   <si>
-    <t>Vendedor</t>
-  </si>
-  <si>
-    <t>Sebastian</t>
-  </si>
-  <si>
-    <t>Angelica</t>
-  </si>
-  <si>
-    <t>Alejandro</t>
-  </si>
-  <si>
-    <t>total venta</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Total Mes Febrero</t>
-  </si>
-  <si>
     <t>Semana 4 de Abril - 8 de Abril</t>
   </si>
   <si>
     <t>Semana 10 de Abril - 15 de Abril</t>
   </si>
   <si>
-    <t>ingreso</t>
+    <t>Semana 17 de Abril - 22 de Abril</t>
   </si>
   <si>
-    <t>gasto</t>
+    <t>Semana 24 de Abril - 29 de Abril</t>
+  </si>
+  <si>
+    <t>Total Mes Abril</t>
+  </si>
+  <si>
+    <t>Semana 1 de Mayo - 6 de Mayo</t>
+  </si>
+  <si>
+    <t>Semana 8 de Mayo - 13 de Mayo</t>
+  </si>
+  <si>
+    <t>Semana 15 de Mayo - 20 de Mayo</t>
+  </si>
+  <si>
+    <t>Semana 22 de Mayo - 27 de Mayo</t>
+  </si>
+  <si>
+    <t>Total Mes Mayo</t>
+  </si>
+  <si>
+    <t>Semana 29 de Mayo - 3 de Junio</t>
+  </si>
+  <si>
+    <t>Semana 5 Junio - 10 de Junio</t>
+  </si>
+  <si>
+    <t>Semana 12 Junio - 17 de Junio</t>
+  </si>
+  <si>
+    <t>Semana 19 Junio - 24 de Junio</t>
+  </si>
+  <si>
+    <t>Semana 26 Junio - 1 de Julio</t>
+  </si>
+  <si>
+    <t>Total Mes Junio</t>
+  </si>
+  <si>
+    <t>Semana 3 Junlio - 8 de Julio</t>
+  </si>
+  <si>
+    <t>INFORME DE RESULTADOS</t>
+  </si>
+  <si>
+    <t>REPORTE ANUAL</t>
+  </si>
+  <si>
+    <t>INGRESOS</t>
+  </si>
+  <si>
+    <t>GASTOS</t>
+  </si>
+  <si>
+    <t>RESULTADO</t>
   </si>
   <si>
     <t>concepto</t>
   </si>
   <si>
-    <t>INFORME DE RESULTADOS</t>
+    <t>ingreso</t>
+  </si>
+  <si>
+    <t>gasto</t>
   </si>
   <si>
     <t>caja de pocillos</t>
@@ -167,22 +220,7 @@
     <t>ventas semana 19 - 22</t>
   </si>
   <si>
-    <t>Semana 17 de Abril - 22 de Abril</t>
-  </si>
-  <si>
     <t>mano de obra angelica y alejandro</t>
-  </si>
-  <si>
-    <t>REPORTE ANUAL</t>
-  </si>
-  <si>
-    <t>INGRESOS</t>
-  </si>
-  <si>
-    <t>GASTOS</t>
-  </si>
-  <si>
-    <t>RESULTADO</t>
   </si>
   <si>
     <t>tinta amarilla</t>
@@ -191,7 +229,31 @@
     <t>cinta transparente</t>
   </si>
   <si>
-    <t>chaqueta dama</t>
+    <t xml:space="preserve">6 cajas de pocillos </t>
+  </si>
+  <si>
+    <t>recibo de la luz</t>
+  </si>
+  <si>
+    <t>ventas semana 24 - 29</t>
+  </si>
+  <si>
+    <t>pocillo magico y pocillo color interno</t>
+  </si>
+  <si>
+    <t>ventas semana 1- 6 de mayo</t>
+  </si>
+  <si>
+    <t>tinta magenta</t>
+  </si>
+  <si>
+    <t>producto</t>
+  </si>
+  <si>
+    <t>valor compra</t>
+  </si>
+  <si>
+    <t>ganacia</t>
   </si>
   <si>
     <t>porcentaje reinversion</t>
@@ -200,72 +262,19 @@
     <t>mano de obra</t>
   </si>
   <si>
-    <t xml:space="preserve">6 cajas de pocillos </t>
-  </si>
-  <si>
-    <t>recibo de la luz</t>
-  </si>
-  <si>
-    <t>pocillo magico y pocillo color interno</t>
-  </si>
-  <si>
-    <t>Semana 24 de Abril - 29 de Abril</t>
-  </si>
-  <si>
-    <t>Total Mes Abril</t>
-  </si>
-  <si>
-    <t>ventas semana 24 - 29</t>
-  </si>
-  <si>
-    <t>ventas semana 1- 6 de mayo</t>
-  </si>
-  <si>
-    <t>tinta magenta</t>
-  </si>
-  <si>
-    <t>Semana 22 de Mayo - 27 de Mayo</t>
-  </si>
-  <si>
-    <t>Semana 15 de Mayo - 20 de Mayo</t>
-  </si>
-  <si>
-    <t>Semana 8 de Mayo - 13 de Mayo</t>
-  </si>
-  <si>
-    <t>total anual</t>
-  </si>
-  <si>
-    <t>Semana 1 de Mayo - 6 de Mayo</t>
-  </si>
-  <si>
-    <t>Total Mes Mayo</t>
-  </si>
-  <si>
-    <t>Semana 29 de Mayo - 3 de Junio</t>
-  </si>
-  <si>
-    <t>Semana 5 Junio - 10 de Junio</t>
-  </si>
-  <si>
-    <t>Semana 12 Junio - 17 de Junio</t>
-  </si>
-  <si>
-    <t>Semana 19 Junio - 24 de Junio</t>
-  </si>
-  <si>
-    <t>Semana 26 Junio - 1 de Julio</t>
+    <t>chaqueta dama</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0"/>
     <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,12 +411,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -436,6 +443,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,7 +474,7 @@
       <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -572,7 +580,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -703,10 +711,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3213</c:v>
+                  <c:v>3252</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4057</c:v>
+                  <c:v>4231</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>656</c:v>
@@ -773,7 +781,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="254641504"/>
@@ -831,7 +839,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="254640960"/>
@@ -890,7 +898,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -978,7 +986,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -995,12 +1003,6 @@
           <c:tx>
             <c:strRef>
               <c:f>'reporte de ventas sublimado'!$I$49</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1051,7 +1053,7 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:multiLvlStrRef>
+                  <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -1059,7 +1061,7 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:multiLvlStrRef>
+                  </c:strRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
             </c:ext>
@@ -1114,7 +1116,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="201553888"/>
@@ -1172,7 +1174,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="201553472"/>
@@ -1231,7 +1233,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1327,7 +1329,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1344,12 +1346,6 @@
           <c:tx>
             <c:strRef>
               <c:f>'reporte de ventas sublimado'!$I$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1400,7 +1396,7 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:multiLvlStrRef>
+                  <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -1408,7 +1404,7 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:multiLvlStrRef>
+                  </c:strRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
             </c:ext>
@@ -1470,7 +1466,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="268317696"/>
@@ -1528,7 +1524,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="268301888"/>
@@ -1587,7 +1583,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1680,7 +1676,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1736,12 +1732,6 @@
           <c:tx>
             <c:strRef>
               <c:f>'reporte de ventas sublimado'!$H$104</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1793,7 +1783,7 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:multiLvlStrRef>
+                  <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -1801,7 +1791,7 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:multiLvlStrRef>
+                  </c:strRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
             </c:ext>
@@ -1858,7 +1848,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1293222224"/>
@@ -1916,7 +1906,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1293226384"/>
@@ -1975,7 +1965,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2063,7 +2053,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2119,12 +2109,6 @@
           <c:tx>
             <c:strRef>
               <c:f>'reporte de ventas sublimado'!$H$136</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -2176,7 +2160,7 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:multiLvlStrRef>
+                  <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -2184,7 +2168,7 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:multiLvlStrRef>
+                  </c:strRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
             </c:ext>
@@ -2241,7 +2225,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="699766912"/>
@@ -2299,7 +2283,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="699765664"/>
@@ -2358,7 +2342,415 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total Mes Julio</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'reporte de ventas sublimado'!$H$222</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'reporte de ventas sublimado'!$I$222:$K$222</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>655</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'reporte de ventas sublimado'!$I$221:$K$221</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Sebastian</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Angelica</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Alejandro</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3D0B-45EC-BAD9-F59BABE02DC5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="482517664"/>
+        <c:axId val="482518080"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="482517664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="482518080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="482518080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="482517664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2532,6 +2924,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
@@ -4477,6 +4909,482 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="294">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="294">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5134,15 +6042,52 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17CD59A9-A9BB-4E28-8233-7DF6CCBBECC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:F229" totalsRowShown="0">
-  <autoFilter ref="B5:F229" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:F233" totalsRowShown="0">
+  <autoFilter ref="B5:F233" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0">
       <filters>
         <dateGroupItem year="2023" month="6" dateTimeGrouping="month"/>
+        <dateGroupItem year="2023" month="7" dateTimeGrouping="month"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -5194,7 +6139,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5490,13 +6435,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:W229"/>
+  <dimension ref="B2:W238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O216" sqref="O216"/>
+    <sheetView tabSelected="1" topLeftCell="A223" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J239" sqref="J239"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="5" max="6" width="11.5703125" customWidth="1"/>
@@ -5508,145 +6453,143 @@
     <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+    <row r="2" spans="2:14" ht="15" customHeight="1">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="H2" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-    </row>
-    <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="H2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+    </row>
+    <row r="3" spans="2:14" ht="15" customHeight="1">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
       <c r="H3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+    </row>
+    <row r="4" spans="2:14" ht="15" customHeight="1">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
       <c r="H4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>3213</v>
+        <v>3252</v>
       </c>
       <c r="J4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
-        <v>4057</v>
+        <v>4231</v>
       </c>
       <c r="K4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
         <v>656</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="12">
         <f xml:space="preserve"> SUM(Tabla1[valor venta])</f>
-        <v>32899500</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+        <v>33766800</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" hidden="1">
       <c r="B6" s="1">
         <v>44964</v>
       </c>
       <c r="E6">
         <v>36</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="14">
         <v>147600</v>
       </c>
-      <c r="I6" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-    </row>
-    <row r="7" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+    </row>
+    <row r="7" spans="2:14" hidden="1">
       <c r="B7" s="1">
         <v>44964</v>
       </c>
       <c r="E7">
         <v>34</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="14">
         <v>149600</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:14" hidden="1">
       <c r="B8" s="1">
         <v>44965</v>
       </c>
       <c r="D8">
         <v>36</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="14">
         <v>147600</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J8" s="2">
         <f xml:space="preserve"> SUM(C30:C38)</f>
@@ -5668,81 +6611,81 @@
         <v>46000</v>
       </c>
     </row>
-    <row r="9" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" hidden="1">
       <c r="B9" s="1">
         <v>44965</v>
       </c>
       <c r="D9">
         <v>36</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="14">
         <v>147600</v>
       </c>
     </row>
-    <row r="10" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" hidden="1">
       <c r="B10" s="1">
         <v>44966</v>
       </c>
       <c r="D10">
         <v>6</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="14">
         <v>26400</v>
       </c>
-      <c r="I10" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-    </row>
-    <row r="11" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+    </row>
+    <row r="11" spans="2:14" hidden="1">
       <c r="B11" s="1">
         <v>44967</v>
       </c>
       <c r="D11">
         <v>48</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="14">
         <v>196800</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:14" hidden="1">
       <c r="B12" s="1">
         <v>44967</v>
       </c>
       <c r="C12">
         <v>8</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="14">
         <v>35200</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>3213</v>
+        <v>3252</v>
       </c>
       <c r="K12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
-        <v>4057</v>
+        <v>4231</v>
       </c>
       <c r="L12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
@@ -5750,21 +6693,21 @@
       </c>
       <c r="M12" s="2">
         <f>SUM(J12:L12)</f>
-        <v>7926</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>8139</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" hidden="1">
       <c r="B13" s="1">
         <v>44967</v>
       </c>
       <c r="E13">
         <v>36</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="14">
         <v>147600</v>
       </c>
     </row>
-    <row r="14" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" hidden="1">
       <c r="B14" s="1">
         <v>44968</v>
       </c>
@@ -5772,99 +6715,99 @@
       <c r="D14">
         <v>52</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="14">
         <v>213200</v>
       </c>
     </row>
-    <row r="15" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" hidden="1">
       <c r="B15" s="1">
         <v>44971</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="14">
         <v>4400</v>
       </c>
     </row>
-    <row r="16" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" hidden="1">
       <c r="B16" s="1">
         <v>44972</v>
       </c>
       <c r="D16">
         <v>85</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="14">
         <v>348500</v>
       </c>
     </row>
-    <row r="17" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" hidden="1">
       <c r="B17" s="1">
         <v>44972</v>
       </c>
       <c r="C17">
         <v>8</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="14">
         <v>35200</v>
       </c>
     </row>
-    <row r="18" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" hidden="1">
       <c r="B18" s="1">
         <v>44973</v>
       </c>
       <c r="E18">
         <v>3</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="14">
         <v>13200</v>
       </c>
-      <c r="I18" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-    </row>
-    <row r="19" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+    </row>
+    <row r="19" spans="2:16" hidden="1">
       <c r="B19" s="1">
         <v>44974</v>
       </c>
       <c r="C19">
         <v>64</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="14">
         <v>262400</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" hidden="1">
       <c r="B20" s="1">
         <v>44974</v>
       </c>
       <c r="E20">
         <v>40</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="14">
         <v>164000</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J20" s="2">
         <f>SUM(C6:C30)</f>
@@ -5878,189 +6821,189 @@
         <f>SUM(E6:E30)</f>
         <v>149</v>
       </c>
-      <c r="M20" s="14">
+      <c r="M20" s="12">
         <f>SUM(F6:F30)</f>
         <v>3097900</v>
       </c>
     </row>
-    <row r="21" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" hidden="1">
       <c r="B21" s="1">
         <v>44975</v>
       </c>
       <c r="D21">
         <v>6</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="14">
         <v>26400</v>
       </c>
     </row>
-    <row r="22" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" hidden="1">
       <c r="B22" s="1">
         <v>44975</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="14">
         <v>13200</v>
       </c>
     </row>
-    <row r="23" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" hidden="1">
       <c r="B23" s="1">
         <v>44977</v>
       </c>
       <c r="D23">
         <v>7</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="14">
         <v>30800</v>
       </c>
     </row>
-    <row r="24" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" hidden="1">
       <c r="B24" s="1">
         <v>44977</v>
       </c>
       <c r="C24">
         <v>36</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="14">
         <v>147600</v>
       </c>
     </row>
-    <row r="25" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" hidden="1">
       <c r="B25" s="1">
         <v>44978</v>
       </c>
       <c r="D25">
         <v>60</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="14">
         <v>246000</v>
       </c>
     </row>
-    <row r="26" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" hidden="1">
       <c r="B26" s="1">
         <v>44979</v>
       </c>
       <c r="C26">
         <v>36</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="14">
         <v>147600</v>
       </c>
     </row>
-    <row r="27" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" hidden="1">
       <c r="B27" s="1">
         <v>44980</v>
       </c>
       <c r="C27">
         <v>50</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="14">
         <v>205000</v>
       </c>
     </row>
-    <row r="28" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" hidden="1">
       <c r="B28" s="1">
         <v>44980</v>
       </c>
       <c r="C28">
         <v>13</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="14">
         <v>57200</v>
       </c>
     </row>
-    <row r="29" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" hidden="1">
       <c r="B29" s="1">
         <v>44982</v>
       </c>
       <c r="C29">
         <v>21</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="14">
         <v>92400</v>
       </c>
     </row>
-    <row r="30" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" hidden="1">
       <c r="B30" s="1">
         <v>44985</v>
       </c>
       <c r="D30">
         <v>21</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="14">
         <v>92400</v>
       </c>
     </row>
-    <row r="31" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" hidden="1">
       <c r="B31" s="1">
         <v>44986</v>
       </c>
       <c r="C31">
         <v>66</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="14">
         <v>270600</v>
       </c>
-      <c r="I31" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-    </row>
-    <row r="32" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+    </row>
+    <row r="32" spans="2:16" hidden="1">
       <c r="B32" s="1">
         <v>44986</v>
       </c>
       <c r="D32">
         <v>36</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="14">
         <v>147600</v>
       </c>
       <c r="I32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="N32" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" hidden="1">
       <c r="B33" s="1">
         <v>44986</v>
       </c>
       <c r="C33">
         <v>7</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F33" s="14">
         <v>30800</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J33" s="2">
         <f>SUM(C39:C58)</f>
@@ -6078,113 +7021,113 @@
         <f>SUM(J33:L33)</f>
         <v>542</v>
       </c>
-      <c r="N33" s="15">
+      <c r="N33" s="13">
         <f>M33*600</f>
         <v>325200</v>
       </c>
-      <c r="O33" s="15">
+      <c r="O33" s="13">
         <v>28000</v>
       </c>
-      <c r="P33" s="15">
+      <c r="P33" s="13">
         <f>(N33-O33)/3</f>
         <v>99066.666666666672</v>
       </c>
-      <c r="V33" s="5"/>
-      <c r="W33" s="14">
+      <c r="V33" s="3"/>
+      <c r="W33" s="12">
         <v>75000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:23" hidden="1">
       <c r="B34" s="1">
         <v>44987</v>
       </c>
       <c r="C34">
         <v>75</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="14">
         <v>307500</v>
       </c>
-      <c r="V34" s="6"/>
-      <c r="W34" s="14">
+      <c r="V34" s="4"/>
+      <c r="W34" s="12">
         <v>70000</v>
       </c>
     </row>
-    <row r="35" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:23" hidden="1">
       <c r="B35" s="1">
         <v>44988</v>
       </c>
       <c r="C35">
         <v>13</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="14">
         <v>57200</v>
       </c>
-      <c r="I35" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="V35" s="7"/>
-      <c r="W35" s="14">
+      <c r="I35" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="12">
         <v>65000</v>
       </c>
     </row>
-    <row r="36" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:23" hidden="1">
       <c r="B36" s="1">
         <v>44988</v>
       </c>
       <c r="D36">
         <v>12</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="14">
         <v>52800</v>
       </c>
       <c r="I36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="N36" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="V36" s="8"/>
-      <c r="W36" s="14">
+        <v>21</v>
+      </c>
+      <c r="V36" s="6"/>
+      <c r="W36" s="12">
         <v>60000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:23" hidden="1">
       <c r="B37" s="1">
         <v>44989</v>
       </c>
       <c r="D37">
         <v>36</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F37" s="14">
         <v>147600</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J37" s="2">
         <f>SUM(C59:C69)</f>
@@ -6202,113 +7145,113 @@
         <f>SUM(J37:L37)</f>
         <v>479</v>
       </c>
-      <c r="N37" s="15">
+      <c r="N37" s="13">
         <f>M37*600</f>
         <v>287400</v>
       </c>
-      <c r="O37" s="15">
+      <c r="O37" s="13">
         <v>28000</v>
       </c>
-      <c r="P37" s="15">
+      <c r="P37" s="13">
         <f>(N37-O37)/3</f>
         <v>86466.666666666672</v>
       </c>
-      <c r="V37" s="9"/>
-      <c r="W37" s="14">
+      <c r="V37" s="7"/>
+      <c r="W37" s="12">
         <v>58000</v>
       </c>
     </row>
-    <row r="38" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:23" hidden="1">
       <c r="B38" s="1">
         <v>44989</v>
       </c>
       <c r="D38">
         <v>13</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F38" s="14">
         <v>57200</v>
       </c>
-      <c r="V38" s="10"/>
-      <c r="W38" s="14">
+      <c r="V38" s="8"/>
+      <c r="W38" s="12">
         <v>55000</v>
       </c>
     </row>
-    <row r="39" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:23" hidden="1">
       <c r="B39" s="1">
         <v>44991</v>
       </c>
       <c r="C39">
         <v>38</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F39" s="14">
         <v>155800</v>
       </c>
-      <c r="I39" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="V39" s="11"/>
-      <c r="W39" s="14">
+      <c r="I39" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="12">
         <v>52000</v>
       </c>
     </row>
-    <row r="40" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:23" hidden="1">
       <c r="B40" s="1">
         <v>44991</v>
       </c>
       <c r="D40">
         <v>24</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F40" s="14">
         <v>105600</v>
       </c>
       <c r="I40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="N40" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="V40" s="12"/>
-      <c r="W40" s="14">
+        <v>21</v>
+      </c>
+      <c r="V40" s="10"/>
+      <c r="W40" s="12">
         <v>40000</v>
       </c>
     </row>
-    <row r="41" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:23" hidden="1">
       <c r="B41" s="1">
         <v>44991</v>
       </c>
       <c r="E41">
         <v>13</v>
       </c>
-      <c r="F41" s="16">
+      <c r="F41" s="14">
         <v>57200</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J41" s="2">
         <f>SUM(C70:C77)</f>
@@ -6326,101 +7269,101 @@
         <f>SUM(J41:L41)</f>
         <v>173</v>
       </c>
-      <c r="N41" s="15">
+      <c r="N41" s="13">
         <f>M41*600</f>
         <v>103800</v>
       </c>
-      <c r="O41" s="15">
+      <c r="O41" s="13">
         <v>28000</v>
       </c>
-      <c r="P41" s="15">
+      <c r="P41" s="13">
         <f>(N41-O41)/3</f>
         <v>25266.666666666668</v>
       </c>
-      <c r="V41" s="13"/>
-      <c r="W41" s="14">
+      <c r="V41" s="11"/>
+      <c r="W41" s="12">
         <v>48000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:23" hidden="1">
       <c r="B42" s="1">
         <v>44992</v>
       </c>
       <c r="C42">
         <v>12</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F42" s="14">
         <v>52800</v>
       </c>
     </row>
-    <row r="43" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:23" hidden="1">
       <c r="B43" s="1">
         <v>44992</v>
       </c>
       <c r="E43">
         <v>43</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F43" s="14">
         <v>176300</v>
       </c>
-      <c r="I43" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
-    </row>
-    <row r="44" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I43" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+    </row>
+    <row r="44" spans="2:23" hidden="1">
       <c r="B44" s="1">
         <v>44992</v>
       </c>
       <c r="E44">
         <v>36</v>
       </c>
-      <c r="F44" s="16">
+      <c r="F44" s="14">
         <v>147600</v>
       </c>
       <c r="I44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="N44" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" hidden="1">
       <c r="B45" s="1">
         <v>44992</v>
       </c>
       <c r="D45">
         <v>8</v>
       </c>
-      <c r="F45" s="16">
+      <c r="F45" s="14">
         <v>35200</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J45" s="2">
         <f>SUM(C78:C84)</f>
@@ -6438,85 +7381,85 @@
         <f>SUM(J45:L45)</f>
         <v>380</v>
       </c>
-      <c r="N45" s="15">
+      <c r="N45" s="13">
         <f>M45*600</f>
         <v>228000</v>
       </c>
-      <c r="O45" s="15">
+      <c r="O45" s="13">
         <v>28000</v>
       </c>
-      <c r="P45" s="15">
+      <c r="P45" s="13">
         <f>(N45-O45)/3</f>
         <v>66666.666666666672</v>
       </c>
     </row>
-    <row r="46" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:23" hidden="1">
       <c r="B46" s="1">
         <v>44992</v>
       </c>
       <c r="C46">
         <v>52</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F46" s="14">
         <v>213200</v>
       </c>
     </row>
-    <row r="47" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:23" hidden="1">
       <c r="B47" s="1">
         <v>44992</v>
       </c>
       <c r="D47">
         <v>24</v>
       </c>
-      <c r="F47" s="16">
+      <c r="F47" s="14">
         <v>105600</v>
       </c>
-      <c r="I47" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-    </row>
-    <row r="48" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I47" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+    </row>
+    <row r="48" spans="2:23" hidden="1">
       <c r="B48" s="1">
         <v>44993</v>
       </c>
       <c r="C48">
         <v>12</v>
       </c>
-      <c r="F48" s="16">
+      <c r="F48" s="14">
         <v>52800</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" hidden="1">
       <c r="B49" s="1">
         <v>44993</v>
       </c>
       <c r="D49">
         <v>22</v>
       </c>
-      <c r="F49" s="16">
+      <c r="F49" s="14">
         <v>96800</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J49" s="2">
         <f>SUM(C31:C85)</f>
@@ -6530,475 +7473,475 @@
         <f>SUM(E31:E85)</f>
         <v>130</v>
       </c>
-      <c r="M49" s="14">
+      <c r="M49" s="12">
         <f>SUM(F31:F85)</f>
         <v>7720000</v>
       </c>
     </row>
-    <row r="50" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" hidden="1">
       <c r="B50" s="1">
         <v>44993</v>
       </c>
       <c r="D50">
         <v>12</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F50" s="14">
         <v>52800</v>
       </c>
     </row>
-    <row r="51" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" hidden="1">
       <c r="B51" s="1">
         <v>44993</v>
       </c>
       <c r="D51">
         <v>12</v>
       </c>
-      <c r="F51" s="16">
+      <c r="F51" s="14">
         <v>52800</v>
       </c>
     </row>
-    <row r="52" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" hidden="1">
       <c r="B52" s="1">
         <v>44993</v>
       </c>
       <c r="D52">
         <v>18</v>
       </c>
-      <c r="F52" s="16">
+      <c r="F52" s="14">
         <v>79200</v>
       </c>
     </row>
-    <row r="53" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" hidden="1">
       <c r="B53" s="1">
         <v>44994</v>
       </c>
       <c r="C53">
         <v>42</v>
       </c>
-      <c r="F53" s="16">
+      <c r="F53" s="14">
         <v>172200</v>
       </c>
     </row>
-    <row r="54" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" hidden="1">
       <c r="B54" s="1">
         <v>44994</v>
       </c>
       <c r="D54">
         <v>33</v>
       </c>
-      <c r="F54" s="16">
+      <c r="F54" s="14">
         <v>145200</v>
       </c>
     </row>
-    <row r="55" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" hidden="1">
       <c r="B55" s="1">
         <v>44995</v>
       </c>
       <c r="C55">
         <v>8</v>
       </c>
-      <c r="F55" s="16">
+      <c r="F55" s="14">
         <v>35200</v>
       </c>
     </row>
-    <row r="56" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" hidden="1">
       <c r="B56" s="1">
         <v>44995</v>
       </c>
       <c r="D56">
         <v>48</v>
       </c>
-      <c r="F56" s="16">
+      <c r="F56" s="14">
         <v>196800</v>
       </c>
     </row>
-    <row r="57" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" hidden="1">
       <c r="B57" s="1">
         <v>44995</v>
       </c>
       <c r="D57">
         <v>48</v>
       </c>
-      <c r="F57" s="16">
+      <c r="F57" s="14">
         <v>196800</v>
       </c>
     </row>
-    <row r="58" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" hidden="1">
       <c r="B58" s="1">
         <v>44996</v>
       </c>
       <c r="C58">
         <v>37</v>
       </c>
-      <c r="F58" s="16">
+      <c r="F58" s="14">
         <v>151700</v>
       </c>
     </row>
-    <row r="59" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13" hidden="1">
       <c r="B59" s="1">
         <v>44999</v>
       </c>
       <c r="D59">
         <v>48</v>
       </c>
-      <c r="F59" s="16">
+      <c r="F59" s="14">
         <v>196800</v>
       </c>
     </row>
-    <row r="60" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:13" hidden="1">
       <c r="B60" s="1">
         <v>44999</v>
       </c>
       <c r="C60">
         <v>26</v>
       </c>
-      <c r="F60" s="16">
+      <c r="F60" s="14">
         <v>114400</v>
       </c>
     </row>
-    <row r="61" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:13" hidden="1">
       <c r="B61" s="1">
         <v>45000</v>
       </c>
       <c r="C61">
         <v>12</v>
       </c>
-      <c r="F61" s="16">
+      <c r="F61" s="14">
         <v>52800</v>
       </c>
     </row>
-    <row r="62" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:13" hidden="1">
       <c r="B62" s="1">
         <v>45001</v>
       </c>
       <c r="D62">
         <v>23</v>
       </c>
-      <c r="F62" s="16">
+      <c r="F62" s="14">
         <v>101200</v>
       </c>
     </row>
-    <row r="63" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:13" hidden="1">
       <c r="B63" s="1">
         <v>45001</v>
       </c>
       <c r="D63">
         <v>12</v>
       </c>
-      <c r="F63" s="16">
+      <c r="F63" s="14">
         <v>52800</v>
       </c>
     </row>
-    <row r="64" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:13" hidden="1">
       <c r="B64" s="1">
         <v>45000</v>
       </c>
       <c r="D64">
         <v>40</v>
       </c>
-      <c r="F64" s="16">
+      <c r="F64" s="14">
         <v>164000</v>
       </c>
     </row>
-    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6" hidden="1">
       <c r="B65" s="1">
         <v>45002</v>
       </c>
       <c r="C65">
         <v>144</v>
       </c>
-      <c r="F65" s="16">
+      <c r="F65" s="14">
         <v>590400</v>
       </c>
     </row>
-    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6" hidden="1">
       <c r="B66" s="1">
         <v>45002</v>
       </c>
       <c r="C66">
         <v>36</v>
       </c>
-      <c r="F66" s="16">
+      <c r="F66" s="14">
         <v>147600</v>
       </c>
     </row>
-    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6" hidden="1">
       <c r="B67" s="1">
         <v>45003</v>
       </c>
       <c r="C67">
         <v>57</v>
       </c>
-      <c r="F67" s="16">
+      <c r="F67" s="14">
         <v>233700</v>
       </c>
     </row>
-    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6" hidden="1">
       <c r="B68" s="1">
         <v>45003</v>
       </c>
       <c r="C68">
         <v>27</v>
       </c>
-      <c r="F68" s="16">
+      <c r="F68" s="14">
         <v>118800</v>
       </c>
     </row>
-    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:6" hidden="1">
       <c r="B69" s="1">
         <v>45003</v>
       </c>
       <c r="D69">
         <v>54</v>
       </c>
-      <c r="F69" s="16">
+      <c r="F69" s="14">
         <v>221400</v>
       </c>
     </row>
-    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:6" hidden="1">
       <c r="B70" s="1">
         <v>45007</v>
       </c>
       <c r="C70">
         <v>31</v>
       </c>
-      <c r="F70" s="16">
+      <c r="F70" s="14">
         <v>136400</v>
       </c>
     </row>
-    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:6" hidden="1">
       <c r="B71" s="1">
         <v>45007</v>
       </c>
       <c r="D71">
         <v>10</v>
       </c>
-      <c r="F71" s="16">
+      <c r="F71" s="14">
         <v>44000</v>
       </c>
     </row>
-    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:6" hidden="1">
       <c r="B72" s="1">
         <v>45008</v>
       </c>
       <c r="D72">
         <v>11</v>
       </c>
-      <c r="F72" s="16">
+      <c r="F72" s="14">
         <v>48400</v>
       </c>
     </row>
-    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:6" hidden="1">
       <c r="B73" s="1">
         <v>45008</v>
       </c>
       <c r="E73">
         <v>36</v>
       </c>
-      <c r="F73" s="16">
+      <c r="F73" s="14">
         <v>147600</v>
       </c>
     </row>
-    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:6" hidden="1">
       <c r="B74" s="1">
         <v>45009</v>
       </c>
       <c r="C74">
         <v>14</v>
       </c>
-      <c r="F74" s="16">
+      <c r="F74" s="14">
         <v>61600</v>
       </c>
     </row>
-    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:6" hidden="1">
       <c r="B75" s="1">
         <v>45009</v>
       </c>
       <c r="C75">
         <v>24</v>
       </c>
-      <c r="F75" s="16">
+      <c r="F75" s="14">
         <v>105600</v>
       </c>
     </row>
-    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:6" hidden="1">
       <c r="B76" s="1">
         <v>45009</v>
       </c>
       <c r="C76">
         <v>36</v>
       </c>
-      <c r="F76" s="16">
+      <c r="F76" s="14">
         <v>147600</v>
       </c>
     </row>
-    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:6" hidden="1">
       <c r="B77" s="1">
         <v>45009</v>
       </c>
       <c r="C77">
         <v>11</v>
       </c>
-      <c r="F77" s="16">
+      <c r="F77" s="14">
         <v>48400</v>
       </c>
     </row>
-    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:6" hidden="1">
       <c r="B78" s="1">
         <v>45013</v>
       </c>
       <c r="D78">
         <v>100</v>
       </c>
-      <c r="F78" s="16">
+      <c r="F78" s="14">
         <v>410000</v>
       </c>
     </row>
-    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:6" hidden="1">
       <c r="B79" s="1">
         <v>45014</v>
       </c>
       <c r="C79">
         <v>12</v>
       </c>
-      <c r="F79" s="16">
+      <c r="F79" s="14">
         <v>52800</v>
       </c>
     </row>
-    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:6" hidden="1">
       <c r="B80" s="1">
         <v>45014</v>
       </c>
       <c r="D80">
         <v>45</v>
       </c>
-      <c r="F80" s="16">
+      <c r="F80" s="14">
         <v>184500</v>
       </c>
     </row>
-    <row r="81" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:15" hidden="1">
       <c r="B81" s="1">
         <v>45014</v>
       </c>
       <c r="C81">
         <v>2</v>
       </c>
-      <c r="F81" s="16">
+      <c r="F81" s="14">
         <v>8800</v>
       </c>
     </row>
-    <row r="82" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:15" hidden="1">
       <c r="B82" s="1">
         <v>45016</v>
       </c>
       <c r="D82">
         <v>168</v>
       </c>
-      <c r="F82" s="16">
+      <c r="F82" s="14">
         <v>759600</v>
       </c>
     </row>
-    <row r="83" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:15" hidden="1">
       <c r="B83" s="1">
         <v>45017</v>
       </c>
       <c r="D83">
         <v>36</v>
       </c>
-      <c r="F83" s="16">
+      <c r="F83" s="14">
         <v>147600</v>
       </c>
     </row>
-    <row r="84" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:15" hidden="1">
       <c r="B84" s="1">
         <v>45017</v>
       </c>
       <c r="C84">
         <v>15</v>
       </c>
-      <c r="F84" s="16">
+      <c r="F84" s="14">
         <v>61500</v>
       </c>
     </row>
-    <row r="85" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:15" hidden="1">
       <c r="B85" s="1">
         <v>45017</v>
       </c>
       <c r="E85">
         <v>2</v>
       </c>
-      <c r="F85" s="16">
+      <c r="F85" s="14">
         <v>8800</v>
       </c>
     </row>
-    <row r="86" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:15" hidden="1">
       <c r="B86" s="1">
         <v>45019</v>
       </c>
       <c r="C86">
         <v>113</v>
       </c>
-      <c r="F86" s="16">
+      <c r="F86" s="14">
         <v>463300</v>
       </c>
-      <c r="H86" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I86" s="19"/>
-      <c r="J86" s="19"/>
-      <c r="K86" s="19"/>
-      <c r="L86" s="19"/>
-      <c r="M86" s="19"/>
-      <c r="N86" s="19"/>
-      <c r="O86" s="19"/>
-    </row>
-    <row r="87" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H86" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I86" s="17"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="17"/>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+    </row>
+    <row r="87" spans="2:15" hidden="1">
       <c r="B87" s="1">
         <v>45021</v>
       </c>
       <c r="C87">
         <v>28</v>
       </c>
-      <c r="F87" s="16">
+      <c r="F87" s="14">
         <v>114800</v>
       </c>
       <c r="H87" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L87" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I87" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K87" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L87" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="M87" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="88" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" hidden="1">
       <c r="B88" s="1">
         <v>45026</v>
       </c>
       <c r="D88">
         <v>24</v>
       </c>
-      <c r="F88" s="16">
+      <c r="F88" s="14">
         <v>105600</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I88" s="2">
         <f>SUM(C86:C87)</f>
@@ -7016,97 +7959,97 @@
         <f>SUM(I88:K88)</f>
         <v>141</v>
       </c>
-      <c r="M88" s="15">
+      <c r="M88" s="13">
         <f>L88*600</f>
         <v>84600</v>
       </c>
-      <c r="N88" s="15">
+      <c r="N88" s="13">
         <v>28000</v>
       </c>
-      <c r="O88" s="15">
+      <c r="O88" s="13">
         <f>(M88-N88)/3</f>
         <v>18866.666666666668</v>
       </c>
     </row>
-    <row r="89" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:15" hidden="1">
       <c r="B89" s="1">
         <v>45027</v>
       </c>
       <c r="C89">
         <v>8</v>
       </c>
-      <c r="F89" s="16">
+      <c r="F89" s="14">
         <v>29300</v>
       </c>
     </row>
-    <row r="90" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:15" hidden="1">
       <c r="B90" s="1">
         <v>45028</v>
       </c>
       <c r="D90">
         <v>36</v>
       </c>
-      <c r="F90" s="16">
+      <c r="F90" s="14">
         <v>147600</v>
       </c>
-      <c r="H90" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="I90" s="19"/>
-      <c r="J90" s="19"/>
-      <c r="K90" s="19"/>
-      <c r="L90" s="19"/>
-      <c r="M90" s="19"/>
-      <c r="N90" s="19"/>
-      <c r="O90" s="19"/>
-    </row>
-    <row r="91" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H90" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="17"/>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+    </row>
+    <row r="91" spans="2:15" hidden="1">
       <c r="B91" s="1">
         <v>45029</v>
       </c>
       <c r="D91">
         <v>36</v>
       </c>
-      <c r="F91" s="16">
+      <c r="F91" s="14">
         <v>147600</v>
       </c>
       <c r="H91" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I91" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J91" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K91" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="M91" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="92" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15" hidden="1">
       <c r="B92" s="1">
         <v>45030</v>
       </c>
       <c r="C92">
         <v>50</v>
       </c>
-      <c r="F92" s="16">
+      <c r="F92" s="14">
         <v>205000</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I92" s="2">
         <f>SUM(C88:C94)</f>
@@ -7124,97 +8067,97 @@
         <f>SUM(I92:K92)</f>
         <v>200</v>
       </c>
-      <c r="M92" s="15">
+      <c r="M92" s="13">
         <f>L92*600</f>
         <v>120000</v>
       </c>
-      <c r="N92" s="15">
+      <c r="N92" s="13">
         <v>28000</v>
       </c>
-      <c r="O92" s="15">
+      <c r="O92" s="13">
         <f>(M92-N92)/3</f>
         <v>30666.666666666668</v>
       </c>
     </row>
-    <row r="93" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:15" hidden="1">
       <c r="B93" s="1">
         <v>45031</v>
       </c>
       <c r="E93">
         <v>24</v>
       </c>
-      <c r="F93" s="16">
+      <c r="F93" s="14">
         <v>100800</v>
       </c>
     </row>
-    <row r="94" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:15" hidden="1">
       <c r="B94" s="1">
         <v>45031</v>
       </c>
       <c r="D94">
         <v>22</v>
       </c>
-      <c r="F94" s="16">
+      <c r="F94" s="14">
         <v>101200</v>
       </c>
-      <c r="H94" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="I94" s="19"/>
-      <c r="J94" s="19"/>
-      <c r="K94" s="19"/>
-      <c r="L94" s="19"/>
-      <c r="M94" s="19"/>
-      <c r="N94" s="19"/>
-      <c r="O94" s="19"/>
-    </row>
-    <row r="95" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H94" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I94" s="17"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="17"/>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+    </row>
+    <row r="95" spans="2:15" hidden="1">
       <c r="B95" s="1">
         <v>45034</v>
       </c>
       <c r="E95">
         <v>36</v>
       </c>
-      <c r="F95" s="16">
+      <c r="F95" s="14">
         <v>147600</v>
       </c>
       <c r="H95" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L95" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I95" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J95" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K95" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L95" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="M95" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="96" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15" hidden="1">
       <c r="B96" s="1">
         <v>45035</v>
       </c>
       <c r="C96">
         <v>31</v>
       </c>
-      <c r="F96" s="16">
+      <c r="F96" s="14">
         <v>127100</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I96" s="2">
         <f>SUM(C95:C103)</f>
@@ -7232,97 +8175,97 @@
         <f>SUM(I96:K96)</f>
         <v>307</v>
       </c>
-      <c r="M96" s="15">
+      <c r="M96" s="13">
         <f>L96*600</f>
         <v>184200</v>
       </c>
-      <c r="N96" s="15">
+      <c r="N96" s="13">
         <v>28000</v>
       </c>
-      <c r="O96" s="15">
+      <c r="O96" s="13">
         <f>(M96-N96)/3</f>
         <v>52066.666666666664</v>
       </c>
     </row>
-    <row r="97" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:15" hidden="1">
       <c r="B97" s="1">
         <v>45036</v>
       </c>
       <c r="D97">
         <v>12</v>
       </c>
-      <c r="F97" s="16">
+      <c r="F97" s="14">
         <v>52800</v>
       </c>
     </row>
-    <row r="98" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:15" hidden="1">
       <c r="B98" s="1">
         <v>45036</v>
       </c>
       <c r="C98">
         <v>60</v>
       </c>
-      <c r="F98" s="16">
+      <c r="F98" s="14">
         <v>240000</v>
       </c>
-      <c r="H98" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="I98" s="19"/>
-      <c r="J98" s="19"/>
-      <c r="K98" s="19"/>
-      <c r="L98" s="19"/>
-      <c r="M98" s="19"/>
-      <c r="N98" s="19"/>
-      <c r="O98" s="19"/>
-    </row>
-    <row r="99" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H98" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I98" s="17"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="17"/>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+    </row>
+    <row r="99" spans="2:15" hidden="1">
       <c r="B99" s="1">
         <v>45036</v>
       </c>
       <c r="D99">
         <v>24</v>
       </c>
-      <c r="F99" s="16">
+      <c r="F99" s="14">
         <v>105600</v>
       </c>
       <c r="H99" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L99" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I99" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J99" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K99" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L99" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="M99" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="100" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="2:15" hidden="1">
       <c r="B100" s="1">
         <v>45037</v>
       </c>
       <c r="C100">
         <v>60</v>
       </c>
-      <c r="F100" s="16">
+      <c r="F100" s="14">
         <v>246000</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I100" s="2">
         <f>SUM(C104:C116)</f>
@@ -7340,85 +8283,85 @@
         <f>SUM(I100:K100)</f>
         <v>662</v>
       </c>
-      <c r="M100" s="15">
+      <c r="M100" s="13">
         <f>L100*600</f>
         <v>397200</v>
       </c>
-      <c r="N100" s="15">
+      <c r="N100" s="13">
         <v>28000</v>
       </c>
-      <c r="O100" s="15">
+      <c r="O100" s="13">
         <f>(M100-N100)/3</f>
         <v>123066.66666666667</v>
       </c>
     </row>
-    <row r="101" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:15" hidden="1">
       <c r="B101" s="1">
         <v>45038</v>
       </c>
       <c r="E101">
         <v>24</v>
       </c>
-      <c r="F101" s="16">
+      <c r="F101" s="14">
         <v>105600</v>
       </c>
     </row>
-    <row r="102" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:15" hidden="1">
       <c r="B102" s="1">
         <v>45038</v>
       </c>
       <c r="D102">
         <v>24</v>
       </c>
-      <c r="F102" s="16">
+      <c r="F102" s="14">
         <v>105600</v>
       </c>
-      <c r="H102" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="I102" s="19"/>
-      <c r="J102" s="19"/>
-      <c r="K102" s="19"/>
-      <c r="L102" s="19"/>
-    </row>
-    <row r="103" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H102" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I102" s="17"/>
+      <c r="J102" s="17"/>
+      <c r="K102" s="17"/>
+      <c r="L102" s="17"/>
+    </row>
+    <row r="103" spans="2:15" hidden="1">
       <c r="B103" s="1">
         <v>45038</v>
       </c>
       <c r="C103">
         <v>36</v>
       </c>
-      <c r="F103" s="16">
+      <c r="F103" s="14">
         <v>147600</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="104" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="2:15" hidden="1">
       <c r="B104" s="1">
         <v>45040</v>
       </c>
       <c r="C104">
         <v>27</v>
       </c>
-      <c r="F104" s="16">
+      <c r="F104" s="14">
         <v>118800</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I104" s="2">
         <f>SUM(C83:C116)</f>
@@ -7432,222 +8375,222 @@
         <f>SUM(E83:E116)</f>
         <v>172</v>
       </c>
-      <c r="L104" s="14">
+      <c r="L104" s="12">
         <f>SUM(F83:F116)</f>
         <v>5636400</v>
       </c>
     </row>
-    <row r="105" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:15" hidden="1">
       <c r="B105" s="1">
         <v>45040</v>
       </c>
       <c r="D105">
         <v>36</v>
       </c>
-      <c r="F105" s="16">
+      <c r="F105" s="14">
         <v>147600</v>
       </c>
     </row>
-    <row r="106" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:15" hidden="1">
       <c r="B106" s="1">
         <v>45041</v>
       </c>
       <c r="E106">
         <v>86</v>
       </c>
-      <c r="F106" s="16">
+      <c r="F106" s="14">
         <v>352600</v>
       </c>
     </row>
-    <row r="107" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:15" hidden="1">
       <c r="B107" s="1">
         <v>45041</v>
       </c>
       <c r="D107">
         <v>2</v>
       </c>
-      <c r="F107" s="16">
+      <c r="F107" s="14">
         <v>8800</v>
       </c>
     </row>
-    <row r="108" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:15" hidden="1">
       <c r="B108" s="1">
         <v>45042</v>
       </c>
       <c r="D108">
         <v>26</v>
       </c>
-      <c r="F108" s="16">
+      <c r="F108" s="14">
         <v>114400</v>
       </c>
     </row>
-    <row r="109" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:15" hidden="1">
       <c r="B109" s="1">
         <v>45042</v>
       </c>
       <c r="D109">
         <v>30</v>
       </c>
-      <c r="F109" s="16">
+      <c r="F109" s="14">
         <v>132000</v>
       </c>
     </row>
-    <row r="110" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:15" hidden="1">
       <c r="B110" s="1">
         <v>45043</v>
       </c>
       <c r="D110">
         <v>16</v>
       </c>
-      <c r="F110" s="16">
+      <c r="F110" s="14">
         <v>70400</v>
       </c>
     </row>
-    <row r="111" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:15" hidden="1">
       <c r="B111" s="1">
         <v>45043</v>
       </c>
       <c r="C111">
         <v>48</v>
       </c>
-      <c r="F111" s="16">
+      <c r="F111" s="14">
         <v>196800</v>
       </c>
     </row>
-    <row r="112" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:15" hidden="1">
       <c r="B112" s="1">
         <v>45044</v>
       </c>
       <c r="C112">
         <v>56</v>
       </c>
-      <c r="F112" s="16">
+      <c r="F112" s="14">
         <v>229600</v>
       </c>
     </row>
-    <row r="113" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:15" hidden="1">
       <c r="B113" s="1">
         <v>45044</v>
       </c>
       <c r="D113">
         <v>25</v>
       </c>
-      <c r="F113" s="16">
+      <c r="F113" s="14">
         <v>110000</v>
       </c>
     </row>
-    <row r="114" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:15" hidden="1">
       <c r="B114" s="1">
         <v>45045</v>
       </c>
       <c r="C114">
         <v>272</v>
       </c>
-      <c r="F114" s="16">
+      <c r="F114" s="14">
         <v>1088000</v>
       </c>
     </row>
-    <row r="115" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:15" hidden="1">
       <c r="B115" s="1">
         <v>45045</v>
       </c>
       <c r="D115">
         <v>36</v>
       </c>
-      <c r="F115" s="16">
+      <c r="F115" s="14">
         <v>147600</v>
       </c>
     </row>
-    <row r="116" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:15" hidden="1">
       <c r="B116" s="1">
         <v>45045</v>
       </c>
       <c r="C116">
         <v>2</v>
       </c>
-      <c r="F116" s="16">
+      <c r="F116" s="14">
         <v>8800</v>
       </c>
     </row>
-    <row r="117" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:15" hidden="1">
       <c r="B117" s="1">
         <v>45048</v>
       </c>
       <c r="D117">
         <v>12</v>
       </c>
-      <c r="F117" s="16">
+      <c r="F117" s="14">
         <v>52800</v>
       </c>
     </row>
-    <row r="118" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:15" hidden="1">
       <c r="B118" s="1">
         <v>45048</v>
       </c>
       <c r="C118">
         <v>24</v>
       </c>
-      <c r="F118" s="16">
+      <c r="F118" s="14">
         <v>107200</v>
       </c>
-      <c r="H118" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="I118" s="19"/>
-      <c r="J118" s="19"/>
-      <c r="K118" s="19"/>
-      <c r="L118" s="19"/>
-      <c r="M118" s="19"/>
-      <c r="N118" s="19"/>
-      <c r="O118" s="19"/>
-    </row>
-    <row r="119" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H118" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I118" s="17"/>
+      <c r="J118" s="17"/>
+      <c r="K118" s="17"/>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+    </row>
+    <row r="119" spans="2:15" hidden="1">
       <c r="B119" s="1">
         <v>45048</v>
       </c>
       <c r="D119">
         <v>36</v>
       </c>
-      <c r="F119" s="16">
+      <c r="F119" s="14">
         <v>147600</v>
       </c>
       <c r="H119" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L119" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I119" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J119" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K119" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L119" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="M119" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O119" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="120" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120" spans="2:15" hidden="1">
       <c r="B120" s="1">
         <v>45049</v>
       </c>
       <c r="D120">
         <v>36</v>
       </c>
-      <c r="F120" s="16">
+      <c r="F120" s="14">
         <v>147600</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I120" s="2">
         <f>SUM(C117:C138)</f>
@@ -7665,97 +8608,97 @@
         <f>SUM(I120:K120)</f>
         <v>773</v>
       </c>
-      <c r="M120" s="15">
+      <c r="M120" s="13">
         <f>L120*600</f>
         <v>463800</v>
       </c>
-      <c r="N120" s="15">
+      <c r="N120" s="13">
         <v>29000</v>
       </c>
-      <c r="O120" s="15">
+      <c r="O120" s="13">
         <f>(M120-N120)/3</f>
         <v>144933.33333333334</v>
       </c>
     </row>
-    <row r="121" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:15" hidden="1">
       <c r="B121" s="1">
         <v>45049</v>
       </c>
       <c r="D121">
         <v>24</v>
       </c>
-      <c r="F121" s="16">
+      <c r="F121" s="14">
         <v>105600</v>
       </c>
     </row>
-    <row r="122" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:15" hidden="1">
       <c r="B122" s="1">
         <v>45049</v>
       </c>
       <c r="D122">
         <v>36</v>
       </c>
-      <c r="F122" s="16">
+      <c r="F122" s="14">
         <v>147600</v>
       </c>
-      <c r="H122" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="I122" s="19"/>
-      <c r="J122" s="19"/>
-      <c r="K122" s="19"/>
-      <c r="L122" s="19"/>
-      <c r="M122" s="19"/>
-      <c r="N122" s="19"/>
-      <c r="O122" s="19"/>
-    </row>
-    <row r="123" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H122" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I122" s="17"/>
+      <c r="J122" s="17"/>
+      <c r="K122" s="17"/>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+    </row>
+    <row r="123" spans="2:15" hidden="1">
       <c r="B123" s="1">
         <v>45049</v>
       </c>
       <c r="D123">
         <v>50</v>
       </c>
-      <c r="F123" s="16">
+      <c r="F123" s="14">
         <v>205000</v>
       </c>
       <c r="H123" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K123" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L123" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I123" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J123" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K123" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L123" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="M123" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O123" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="124" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124" spans="2:15" hidden="1">
       <c r="B124" s="1">
         <v>45050</v>
       </c>
       <c r="D124">
         <v>12</v>
       </c>
-      <c r="F124" s="16">
+      <c r="F124" s="14">
         <v>52800</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I124" s="2">
         <f>SUM(C139:C174)</f>
@@ -7773,97 +8716,97 @@
         <f>SUM(I124:K124)</f>
         <v>1238</v>
       </c>
-      <c r="M124" s="15">
+      <c r="M124" s="13">
         <f>L124*600</f>
         <v>742800</v>
       </c>
-      <c r="N124" s="15">
+      <c r="N124" s="13">
         <v>30000</v>
       </c>
-      <c r="O124" s="15">
+      <c r="O124" s="13">
         <f>(M124-N124)/3</f>
         <v>237600</v>
       </c>
     </row>
-    <row r="125" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:15" hidden="1">
       <c r="B125" s="1">
         <v>45050</v>
       </c>
       <c r="E125">
         <v>62</v>
       </c>
-      <c r="F125" s="16">
+      <c r="F125" s="14">
         <v>254200</v>
       </c>
     </row>
-    <row r="126" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:15" hidden="1">
       <c r="B126" s="1">
         <v>45050</v>
       </c>
       <c r="D126">
         <v>28</v>
       </c>
-      <c r="F126" s="16">
+      <c r="F126" s="14">
         <v>123200</v>
       </c>
-      <c r="H126" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="I126" s="19"/>
-      <c r="J126" s="19"/>
-      <c r="K126" s="19"/>
-      <c r="L126" s="19"/>
-      <c r="M126" s="19"/>
-      <c r="N126" s="19"/>
-      <c r="O126" s="19"/>
-    </row>
-    <row r="127" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H126" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I126" s="17"/>
+      <c r="J126" s="17"/>
+      <c r="K126" s="17"/>
+      <c r="L126" s="17"/>
+      <c r="M126" s="17"/>
+      <c r="N126" s="17"/>
+      <c r="O126" s="17"/>
+    </row>
+    <row r="127" spans="2:15" hidden="1">
       <c r="B127" s="1">
         <v>45050</v>
       </c>
       <c r="D127">
         <v>36</v>
       </c>
-      <c r="F127" s="16">
+      <c r="F127" s="14">
         <v>147600</v>
       </c>
       <c r="H127" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L127" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I127" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J127" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K127" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L127" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="M127" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O127" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="128" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="128" spans="2:15" hidden="1">
       <c r="B128" s="1">
         <v>45050</v>
       </c>
       <c r="D128">
         <v>36</v>
       </c>
-      <c r="F128" s="16">
+      <c r="F128" s="14">
         <v>147600</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I128" s="2">
         <f>SUM(C175:C182)</f>
@@ -7881,97 +8824,97 @@
         <f>SUM(I128:K128)</f>
         <v>304</v>
       </c>
-      <c r="M128" s="15">
+      <c r="M128" s="13">
         <f>L128*600</f>
         <v>182400</v>
       </c>
-      <c r="N128" s="15">
+      <c r="N128" s="13">
         <v>30000</v>
       </c>
-      <c r="O128" s="15">
+      <c r="O128" s="13">
         <f>(M128-N128)/3</f>
         <v>50800</v>
       </c>
     </row>
-    <row r="129" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:15" hidden="1">
       <c r="B129" s="1">
         <v>45051</v>
       </c>
       <c r="C129">
         <v>7</v>
       </c>
-      <c r="F129" s="16">
+      <c r="F129" s="14">
         <v>28700</v>
       </c>
     </row>
-    <row r="130" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:15" hidden="1">
       <c r="B130" s="1">
         <v>45051</v>
       </c>
       <c r="C130">
         <v>48</v>
       </c>
-      <c r="F130" s="16">
+      <c r="F130" s="14">
         <v>192000</v>
       </c>
-      <c r="H130" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="I130" s="19"/>
-      <c r="J130" s="19"/>
-      <c r="K130" s="19"/>
-      <c r="L130" s="19"/>
-      <c r="M130" s="19"/>
-      <c r="N130" s="19"/>
-      <c r="O130" s="19"/>
-    </row>
-    <row r="131" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H130" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I130" s="17"/>
+      <c r="J130" s="17"/>
+      <c r="K130" s="17"/>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="17"/>
+    </row>
+    <row r="131" spans="2:15" hidden="1">
       <c r="B131" s="1">
         <v>45051</v>
       </c>
       <c r="D131">
         <v>12</v>
       </c>
-      <c r="F131" s="16">
+      <c r="F131" s="14">
         <v>52800</v>
       </c>
       <c r="H131" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K131" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L131" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I131" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J131" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K131" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L131" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="M131" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O131" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="132" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132" spans="2:15" hidden="1">
       <c r="B132" s="1">
         <v>45051</v>
       </c>
       <c r="D132">
         <v>36</v>
       </c>
-      <c r="F132" s="16">
+      <c r="F132" s="14">
         <v>147600</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I132" s="2">
         <f>SUM(C183:C188)</f>
@@ -7989,85 +8932,85 @@
         <f>SUM(I132:K132)</f>
         <v>487</v>
       </c>
-      <c r="M132" s="15">
+      <c r="M132" s="13">
         <f>L132*600</f>
         <v>292200</v>
       </c>
-      <c r="N132" s="15">
+      <c r="N132" s="13">
         <v>30000</v>
       </c>
-      <c r="O132" s="15">
+      <c r="O132" s="13">
         <f>(M132-N132)/3</f>
         <v>87400</v>
       </c>
     </row>
-    <row r="133" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:15" hidden="1">
       <c r="B133" s="1">
         <v>45051</v>
       </c>
       <c r="D133">
         <v>36</v>
       </c>
-      <c r="F133" s="16">
+      <c r="F133" s="14">
         <v>147600</v>
       </c>
     </row>
-    <row r="134" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:15" hidden="1">
       <c r="B134" s="1">
         <v>45052</v>
       </c>
       <c r="D134">
         <v>36</v>
       </c>
-      <c r="F134" s="16">
+      <c r="F134" s="14">
         <v>147600</v>
       </c>
-      <c r="H134" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="I134" s="19"/>
-      <c r="J134" s="19"/>
-      <c r="K134" s="19"/>
-      <c r="L134" s="19"/>
-    </row>
-    <row r="135" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H134" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I134" s="17"/>
+      <c r="J134" s="17"/>
+      <c r="K134" s="17"/>
+      <c r="L134" s="17"/>
+    </row>
+    <row r="135" spans="2:15" hidden="1">
       <c r="B135" s="1">
         <v>45052</v>
       </c>
       <c r="D135">
         <v>80</v>
       </c>
-      <c r="F135" s="16">
+      <c r="F135" s="14">
         <v>328000</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="136" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="2:15" hidden="1">
       <c r="B136" s="1">
         <v>45052</v>
       </c>
       <c r="C136">
         <v>36</v>
       </c>
-      <c r="F136" s="16">
+      <c r="F136" s="14">
         <v>147600</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I136" s="2">
         <f>SUM(C117:C188)</f>
@@ -8081,706 +9024,706 @@
         <f>SUM(E117:E188)</f>
         <v>87</v>
       </c>
-      <c r="L136" s="14">
+      <c r="L136" s="12">
         <f>SUM(F117:F188)</f>
         <v>11604000</v>
       </c>
     </row>
-    <row r="137" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:15" hidden="1">
       <c r="B137" s="1">
         <v>45052</v>
       </c>
       <c r="C137">
         <v>54</v>
       </c>
-      <c r="F137" s="16">
+      <c r="F137" s="14">
         <v>221400</v>
       </c>
     </row>
-    <row r="138" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:15" hidden="1">
       <c r="B138" s="1">
         <v>45052</v>
       </c>
       <c r="D138">
         <v>36</v>
       </c>
-      <c r="F138" s="16">
+      <c r="F138" s="14">
         <v>147600</v>
       </c>
     </row>
-    <row r="139" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:15" hidden="1">
       <c r="B139" s="1">
         <v>45054</v>
       </c>
       <c r="D139">
         <v>80</v>
       </c>
-      <c r="F139" s="16">
+      <c r="F139" s="14">
         <v>328000</v>
       </c>
     </row>
-    <row r="140" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:15" hidden="1">
       <c r="B140" s="1">
         <v>45054</v>
       </c>
       <c r="C140">
         <v>7</v>
       </c>
-      <c r="F140" s="16">
+      <c r="F140" s="14">
         <v>30800</v>
       </c>
     </row>
-    <row r="141" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:15" hidden="1">
       <c r="B141" s="1">
         <v>45054</v>
       </c>
       <c r="D141">
         <v>13</v>
       </c>
-      <c r="F141" s="16">
+      <c r="F141" s="14">
         <v>57200</v>
       </c>
     </row>
-    <row r="142" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:15" hidden="1">
       <c r="B142" s="1">
         <v>45055</v>
       </c>
       <c r="C142">
         <v>12</v>
       </c>
-      <c r="F142" s="16">
+      <c r="F142" s="14">
         <v>52800</v>
       </c>
     </row>
-    <row r="143" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:15" hidden="1">
       <c r="B143" s="1">
         <v>45055</v>
       </c>
       <c r="C143">
         <v>17</v>
       </c>
-      <c r="F143" s="16">
+      <c r="F143" s="14">
         <v>69700</v>
       </c>
     </row>
-    <row r="144" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:15" hidden="1">
       <c r="B144" s="1">
         <v>45055</v>
       </c>
       <c r="E144">
         <v>13</v>
       </c>
-      <c r="F144" s="16">
+      <c r="F144" s="14">
         <v>57200</v>
       </c>
     </row>
-    <row r="145" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:6" hidden="1">
       <c r="B145" s="1">
         <v>45055</v>
       </c>
       <c r="D145">
         <v>3</v>
       </c>
-      <c r="F145" s="16">
+      <c r="F145" s="14">
         <v>13200</v>
       </c>
     </row>
-    <row r="146" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:6" hidden="1">
       <c r="B146" s="1">
         <v>45056</v>
       </c>
       <c r="D146">
         <v>37</v>
       </c>
-      <c r="F146" s="16">
+      <c r="F146" s="14">
         <v>151700</v>
       </c>
     </row>
-    <row r="147" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:6" hidden="1">
       <c r="B147" s="1">
         <v>45056</v>
       </c>
       <c r="D147">
         <v>36</v>
       </c>
-      <c r="F147" s="16">
+      <c r="F147" s="14">
         <v>147600</v>
       </c>
     </row>
-    <row r="148" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:6" hidden="1">
       <c r="B148" s="1">
         <v>45056</v>
       </c>
       <c r="C148">
         <v>36</v>
       </c>
-      <c r="F148" s="16">
+      <c r="F148" s="14">
         <v>147600</v>
       </c>
     </row>
-    <row r="149" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:6" hidden="1">
       <c r="B149" s="1">
         <v>45056</v>
       </c>
       <c r="C149">
         <v>10</v>
       </c>
-      <c r="F149" s="16">
+      <c r="F149" s="14">
         <v>44000</v>
       </c>
     </row>
-    <row r="150" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:6" hidden="1">
       <c r="B150" s="1">
         <v>45056</v>
       </c>
       <c r="D150">
         <v>10</v>
       </c>
-      <c r="F150" s="16">
+      <c r="F150" s="14">
         <v>44000</v>
       </c>
     </row>
-    <row r="151" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:6" hidden="1">
       <c r="B151" s="1">
         <v>45057</v>
       </c>
       <c r="D151">
         <v>404</v>
       </c>
-      <c r="F151" s="16">
+      <c r="F151" s="14">
         <v>1656400</v>
       </c>
     </row>
-    <row r="152" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:6" hidden="1">
       <c r="B152" s="1">
         <v>45057</v>
       </c>
       <c r="C152">
         <v>27</v>
       </c>
-      <c r="F152" s="16">
+      <c r="F152" s="14">
         <v>118800</v>
       </c>
     </row>
-    <row r="153" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:6" hidden="1">
       <c r="B153" s="1">
         <v>45058</v>
       </c>
       <c r="D153">
         <v>14</v>
       </c>
-      <c r="F153" s="16">
+      <c r="F153" s="14">
         <v>61600</v>
       </c>
     </row>
-    <row r="154" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:6" hidden="1">
       <c r="B154" s="1">
         <v>45058</v>
       </c>
       <c r="D154">
         <v>92</v>
       </c>
-      <c r="F154" s="16">
+      <c r="F154" s="14">
         <v>377200</v>
       </c>
     </row>
-    <row r="155" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:6" hidden="1">
       <c r="B155" s="1">
         <v>45058</v>
       </c>
       <c r="D155">
         <v>52</v>
       </c>
-      <c r="F155" s="16">
+      <c r="F155" s="14">
         <v>213200</v>
       </c>
     </row>
-    <row r="156" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:6" hidden="1">
       <c r="B156" s="1">
         <v>45058</v>
       </c>
       <c r="C156">
         <v>25</v>
       </c>
-      <c r="F156" s="16">
+      <c r="F156" s="14">
         <v>110000</v>
       </c>
     </row>
-    <row r="157" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:6" hidden="1">
       <c r="B157" s="1">
         <v>45058</v>
       </c>
       <c r="E157">
         <v>12</v>
       </c>
-      <c r="F157" s="16">
+      <c r="F157" s="14">
         <v>52800</v>
       </c>
     </row>
-    <row r="158" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:6" hidden="1">
       <c r="B158" s="1">
         <v>45058</v>
       </c>
       <c r="C158">
         <v>18</v>
       </c>
-      <c r="F158" s="16">
+      <c r="F158" s="14">
         <v>79200</v>
       </c>
     </row>
-    <row r="159" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:6" hidden="1">
       <c r="B159" s="1">
         <v>45058</v>
       </c>
       <c r="D159">
         <v>18</v>
       </c>
-      <c r="F159" s="16">
+      <c r="F159" s="14">
         <v>79200</v>
       </c>
     </row>
-    <row r="160" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:6" hidden="1">
       <c r="B160" s="1">
         <v>45059</v>
       </c>
       <c r="C160">
         <v>12</v>
       </c>
-      <c r="F160" s="16">
+      <c r="F160" s="14">
         <v>52800</v>
       </c>
     </row>
-    <row r="161" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:6" hidden="1">
       <c r="B161" s="1">
         <v>45059</v>
       </c>
       <c r="D161">
         <v>15</v>
       </c>
-      <c r="F161" s="16">
+      <c r="F161" s="14">
         <v>66000</v>
       </c>
     </row>
-    <row r="162" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:6" hidden="1">
       <c r="B162" s="1">
         <v>45059</v>
       </c>
       <c r="C162">
         <v>30</v>
       </c>
-      <c r="F162" s="16">
+      <c r="F162" s="14">
         <v>132000</v>
       </c>
     </row>
-    <row r="163" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:6" hidden="1">
       <c r="B163" s="1">
         <v>45059</v>
       </c>
       <c r="C163">
         <v>14</v>
       </c>
-      <c r="F163" s="16">
+      <c r="F163" s="14">
         <v>61600</v>
       </c>
     </row>
-    <row r="164" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:6" hidden="1">
       <c r="B164" s="1">
         <v>45059</v>
       </c>
       <c r="D164">
         <v>20</v>
       </c>
-      <c r="F164" s="16">
+      <c r="F164" s="14">
         <v>88000</v>
       </c>
     </row>
-    <row r="165" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:6" hidden="1">
       <c r="B165" s="1">
         <v>45059</v>
       </c>
       <c r="D165">
         <v>12</v>
       </c>
-      <c r="F165" s="16">
+      <c r="F165" s="14">
         <v>52800</v>
       </c>
     </row>
-    <row r="166" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:6" hidden="1">
       <c r="B166" s="1">
         <v>45059</v>
       </c>
       <c r="D166">
         <v>48</v>
       </c>
-      <c r="F166" s="16">
+      <c r="F166" s="14">
         <v>196800</v>
       </c>
     </row>
-    <row r="167" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:6" hidden="1">
       <c r="B167" s="1">
         <v>45059</v>
       </c>
       <c r="D167">
         <v>29</v>
       </c>
-      <c r="F167" s="16">
+      <c r="F167" s="14">
         <v>127600</v>
       </c>
     </row>
-    <row r="168" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:6" hidden="1">
       <c r="B168" s="1">
         <v>45059</v>
       </c>
       <c r="D168">
         <v>12</v>
       </c>
-      <c r="F168" s="16">
+      <c r="F168" s="14">
         <v>52800</v>
       </c>
     </row>
-    <row r="169" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:6" hidden="1">
       <c r="B169" s="1">
         <v>45059</v>
       </c>
       <c r="C169">
         <v>7</v>
       </c>
-      <c r="F169" s="16">
+      <c r="F169" s="14">
         <v>30800</v>
       </c>
     </row>
-    <row r="170" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:6" hidden="1">
       <c r="B170" s="1">
         <v>45059</v>
       </c>
       <c r="C170">
         <v>6</v>
       </c>
-      <c r="F170" s="16">
+      <c r="F170" s="14">
         <v>26400</v>
       </c>
     </row>
-    <row r="171" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:6" hidden="1">
       <c r="B171" s="1">
         <v>45059</v>
       </c>
       <c r="C171">
         <v>33</v>
       </c>
-      <c r="F171" s="16">
+      <c r="F171" s="14">
         <v>145200</v>
       </c>
     </row>
-    <row r="172" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:6" hidden="1">
       <c r="B172" s="1">
         <v>45059</v>
       </c>
       <c r="C172">
         <v>10</v>
       </c>
-      <c r="F172" s="16">
+      <c r="F172" s="14">
         <v>44000</v>
       </c>
     </row>
-    <row r="173" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:6" hidden="1">
       <c r="B173" s="1">
         <v>45059</v>
       </c>
       <c r="C173">
         <v>36</v>
       </c>
-      <c r="F173" s="16">
+      <c r="F173" s="14">
         <v>147600</v>
       </c>
     </row>
-    <row r="174" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:6" hidden="1">
       <c r="B174" s="1">
         <v>45059</v>
       </c>
       <c r="D174">
         <v>18</v>
       </c>
-      <c r="F174" s="16">
+      <c r="F174" s="14">
         <v>79200</v>
       </c>
     </row>
-    <row r="175" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:6" hidden="1">
       <c r="B175" s="1">
         <v>45062</v>
       </c>
       <c r="D175">
         <v>200</v>
       </c>
-      <c r="F175" s="16">
+      <c r="F175" s="14">
         <v>820000</v>
       </c>
     </row>
-    <row r="176" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:6" hidden="1">
       <c r="B176" s="1">
         <v>45062</v>
       </c>
       <c r="C176">
         <v>19</v>
       </c>
-      <c r="F176" s="16">
+      <c r="F176" s="14">
         <v>77900</v>
       </c>
     </row>
-    <row r="177" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:6" hidden="1">
       <c r="B177" s="1">
         <v>45062</v>
       </c>
       <c r="C177">
         <v>2</v>
       </c>
-      <c r="F177" s="16">
+      <c r="F177" s="14">
         <v>8800</v>
       </c>
     </row>
-    <row r="178" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:6" hidden="1">
       <c r="B178" s="1">
         <v>45064</v>
       </c>
       <c r="C178">
         <v>15</v>
       </c>
-      <c r="F178" s="16">
+      <c r="F178" s="14">
         <v>61500</v>
       </c>
     </row>
-    <row r="179" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:6" hidden="1">
       <c r="B179" s="1">
         <v>45064</v>
       </c>
       <c r="D179">
         <v>17</v>
       </c>
-      <c r="F179" s="16">
+      <c r="F179" s="14">
         <v>74800</v>
       </c>
     </row>
-    <row r="180" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:6" hidden="1">
       <c r="B180" s="1">
         <v>45065</v>
       </c>
       <c r="D180">
         <v>12</v>
       </c>
-      <c r="F180" s="16">
+      <c r="F180" s="14">
         <v>52800</v>
       </c>
     </row>
-    <row r="181" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:6" hidden="1">
       <c r="B181" s="1">
         <v>45065</v>
       </c>
       <c r="C181">
         <v>33</v>
       </c>
-      <c r="F181" s="16">
+      <c r="F181" s="14">
         <v>135300</v>
       </c>
     </row>
-    <row r="182" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:6" hidden="1">
       <c r="B182" s="1">
         <v>45066</v>
       </c>
       <c r="C182">
         <v>6</v>
       </c>
-      <c r="F182" s="16">
+      <c r="F182" s="14">
         <v>25800</v>
       </c>
     </row>
-    <row r="183" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:6" hidden="1">
       <c r="B183" s="1">
         <v>45069</v>
       </c>
       <c r="D183">
         <v>36</v>
       </c>
-      <c r="F183" s="16">
+      <c r="F183" s="14">
         <v>147600</v>
       </c>
     </row>
-    <row r="184" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:6" hidden="1">
       <c r="B184" s="1">
         <v>45070</v>
       </c>
       <c r="D184">
         <v>130</v>
       </c>
-      <c r="F184" s="16">
+      <c r="F184" s="14">
         <v>520000</v>
       </c>
     </row>
-    <row r="185" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:6" hidden="1">
       <c r="B185" s="1">
         <v>45071</v>
       </c>
       <c r="D185">
         <v>130</v>
       </c>
-      <c r="F185" s="16">
+      <c r="F185" s="14">
         <v>520000</v>
       </c>
     </row>
-    <row r="186" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:6" hidden="1">
       <c r="B186" s="1">
         <v>45071</v>
       </c>
       <c r="D186">
         <v>100</v>
       </c>
-      <c r="F186" s="16">
+      <c r="F186" s="14">
         <v>400000</v>
       </c>
     </row>
-    <row r="187" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:6" hidden="1">
       <c r="B187" s="1">
         <v>45072</v>
       </c>
       <c r="C187">
         <v>50</v>
       </c>
-      <c r="F187" s="16">
+      <c r="F187" s="14">
         <v>200000</v>
       </c>
     </row>
-    <row r="188" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:6" hidden="1">
       <c r="B188" s="1">
         <v>45073</v>
       </c>
       <c r="D188">
         <v>41</v>
       </c>
-      <c r="F188" s="16">
+      <c r="F188" s="14">
         <v>164000</v>
       </c>
     </row>
-    <row r="189" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:6" hidden="1">
       <c r="B189" s="1">
         <v>45075</v>
       </c>
       <c r="C189">
         <v>36</v>
       </c>
-      <c r="F189" s="16">
+      <c r="F189" s="14">
         <v>144000</v>
       </c>
     </row>
-    <row r="190" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:6" hidden="1">
       <c r="B190" s="1">
         <v>45075</v>
       </c>
       <c r="C190">
         <v>24</v>
       </c>
-      <c r="F190" s="16">
+      <c r="F190" s="14">
         <v>103200</v>
       </c>
     </row>
-    <row r="191" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:6" hidden="1">
       <c r="B191" s="1">
         <v>45076</v>
       </c>
       <c r="C191">
         <v>35</v>
       </c>
-      <c r="F191" s="16">
+      <c r="F191" s="14">
         <v>140000</v>
       </c>
     </row>
-    <row r="192" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:6" hidden="1">
       <c r="B192" s="1">
         <v>45077</v>
       </c>
       <c r="C192">
         <v>21</v>
       </c>
-      <c r="F192" s="16">
+      <c r="F192" s="14">
         <v>84000</v>
       </c>
     </row>
-    <row r="193" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:15" hidden="1">
       <c r="B193" s="1">
         <v>45077</v>
       </c>
       <c r="C193">
         <v>8</v>
       </c>
-      <c r="F193" s="16">
+      <c r="F193" s="14">
         <v>34400</v>
       </c>
     </row>
-    <row r="194" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:15">
       <c r="B194" s="1">
         <v>45079</v>
       </c>
       <c r="E194">
         <v>72</v>
       </c>
-      <c r="F194" s="16">
+      <c r="F194" s="14">
         <v>288000</v>
       </c>
-      <c r="H194" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="I194" s="19"/>
-      <c r="J194" s="19"/>
-      <c r="K194" s="19"/>
-      <c r="L194" s="19"/>
-      <c r="M194" s="19"/>
-      <c r="N194" s="19"/>
-      <c r="O194" s="19"/>
-    </row>
-    <row r="195" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H194" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I194" s="17"/>
+      <c r="J194" s="17"/>
+      <c r="K194" s="17"/>
+      <c r="L194" s="17"/>
+      <c r="M194" s="17"/>
+      <c r="N194" s="17"/>
+      <c r="O194" s="17"/>
+    </row>
+    <row r="195" spans="2:15">
       <c r="B195" s="1">
         <v>45080</v>
       </c>
       <c r="C195">
         <v>28</v>
       </c>
-      <c r="F195" s="16">
+      <c r="F195" s="14">
         <v>117600</v>
       </c>
       <c r="H195" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I195" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J195" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K195" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L195" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I195" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J195" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K195" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L195" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="M195" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N195" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O195" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="196" spans="2:15" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="196" spans="2:15">
       <c r="B196" s="1">
         <v>45082</v>
       </c>
       <c r="C196">
         <v>24</v>
       </c>
-      <c r="F196" s="16">
+      <c r="F196" s="14">
         <v>103200</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I196" s="2">
         <f>SUM($C189:$C195)</f>
@@ -8798,108 +9741,108 @@
         <f>SUM(I196:K196)</f>
         <v>224</v>
       </c>
-      <c r="M196" s="15">
+      <c r="M196" s="13">
         <f>L196*600</f>
         <v>134400</v>
       </c>
-      <c r="N196" s="15">
+      <c r="N196" s="13">
         <v>30000</v>
       </c>
-      <c r="O196" s="15">
+      <c r="O196" s="13">
         <f>(M196-N196)/3</f>
         <v>34800</v>
       </c>
     </row>
-    <row r="197" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:15">
       <c r="B197" s="1">
         <v>45082</v>
       </c>
       <c r="D197">
         <v>34</v>
       </c>
-      <c r="F197" s="16">
+      <c r="F197" s="14">
         <v>139400</v>
       </c>
     </row>
-    <row r="198" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:15">
       <c r="B198" s="1">
         <v>45082</v>
       </c>
       <c r="C198">
         <v>18</v>
       </c>
-      <c r="F198" s="16">
+      <c r="F198" s="14">
         <v>72000</v>
       </c>
     </row>
-    <row r="199" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:15">
       <c r="B199" s="1">
         <v>45083</v>
       </c>
       <c r="C199">
         <v>96</v>
       </c>
-      <c r="F199" s="16">
+      <c r="F199" s="14">
         <v>384000</v>
       </c>
-      <c r="H199" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="I199" s="19"/>
-      <c r="J199" s="19"/>
-      <c r="K199" s="19"/>
-      <c r="L199" s="19"/>
-      <c r="M199" s="19"/>
-      <c r="N199" s="19"/>
-      <c r="O199" s="19"/>
-    </row>
-    <row r="200" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H199" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I199" s="17"/>
+      <c r="J199" s="17"/>
+      <c r="K199" s="17"/>
+      <c r="L199" s="17"/>
+      <c r="M199" s="17"/>
+      <c r="N199" s="17"/>
+      <c r="O199" s="17"/>
+    </row>
+    <row r="200" spans="2:15">
       <c r="B200" s="1">
         <v>45083</v>
       </c>
       <c r="D200">
         <v>36</v>
       </c>
-      <c r="F200" s="16">
+      <c r="F200" s="14">
         <v>144000</v>
       </c>
       <c r="H200" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I200" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J200" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K200" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L200" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I200" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J200" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K200" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L200" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="M200" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N200" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O200" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="201" spans="2:15" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="201" spans="2:15">
       <c r="B201" s="1">
         <v>45084</v>
       </c>
       <c r="C201">
         <v>18</v>
       </c>
-      <c r="F201" s="16">
+      <c r="F201" s="14">
         <v>77400</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I201" s="2">
         <f>SUM($C196:$C206)</f>
@@ -8917,108 +9860,108 @@
         <f>SUM(I201:K201)</f>
         <v>400</v>
       </c>
-      <c r="M201" s="15">
+      <c r="M201" s="13">
         <f>L201*600</f>
         <v>240000</v>
       </c>
-      <c r="N201" s="15">
+      <c r="N201" s="13">
         <v>30000</v>
       </c>
-      <c r="O201" s="15">
+      <c r="O201" s="13">
         <f>(M201-N201)/3</f>
         <v>70000</v>
       </c>
     </row>
-    <row r="202" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:15">
       <c r="B202" s="1">
         <v>45085</v>
       </c>
       <c r="C202">
         <v>48</v>
       </c>
-      <c r="F202" s="16">
+      <c r="F202" s="14">
         <v>192000</v>
       </c>
     </row>
-    <row r="203" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:15">
       <c r="B203" s="1">
         <v>45085</v>
       </c>
       <c r="C203">
         <v>36</v>
       </c>
-      <c r="F203" s="16">
+      <c r="F203" s="14">
         <v>144000</v>
       </c>
     </row>
-    <row r="204" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:15">
       <c r="B204" s="1">
         <v>45086</v>
       </c>
       <c r="C204">
         <v>36</v>
       </c>
-      <c r="F204" s="16">
+      <c r="F204" s="14">
         <v>144000</v>
       </c>
-      <c r="H204" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="I204" s="19"/>
-      <c r="J204" s="19"/>
-      <c r="K204" s="19"/>
-      <c r="L204" s="19"/>
-      <c r="M204" s="19"/>
-      <c r="N204" s="19"/>
-      <c r="O204" s="19"/>
-    </row>
-    <row r="205" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H204" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I204" s="17"/>
+      <c r="J204" s="17"/>
+      <c r="K204" s="17"/>
+      <c r="L204" s="17"/>
+      <c r="M204" s="17"/>
+      <c r="N204" s="17"/>
+      <c r="O204" s="17"/>
+    </row>
+    <row r="205" spans="2:15">
       <c r="B205" s="1">
         <v>45086</v>
       </c>
       <c r="C205">
         <v>33</v>
       </c>
-      <c r="F205" s="16">
+      <c r="F205" s="14">
         <v>132000</v>
       </c>
       <c r="H205" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I205" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J205" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K205" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L205" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I205" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J205" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K205" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L205" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="M205" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N205" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O205" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="206" spans="2:15" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="206" spans="2:15">
       <c r="B206" s="1">
         <v>45086</v>
       </c>
       <c r="D206">
         <v>21</v>
       </c>
-      <c r="F206" s="16">
+      <c r="F206" s="14">
         <v>90300</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I206" s="2">
         <f>SUM($C207:$C218)</f>
@@ -9036,108 +9979,108 @@
         <f>SUM(I206:K206)</f>
         <v>340</v>
       </c>
-      <c r="M206" s="15">
+      <c r="M206" s="13">
         <f>L206*600</f>
         <v>204000</v>
       </c>
-      <c r="N206" s="15">
+      <c r="N206" s="13">
         <v>30000</v>
       </c>
-      <c r="O206" s="15">
+      <c r="O206" s="13">
         <f>(M206-N206)/3</f>
         <v>58000</v>
       </c>
     </row>
-    <row r="207" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:15">
       <c r="B207" s="1">
         <v>45091</v>
       </c>
       <c r="E207">
         <v>48</v>
       </c>
-      <c r="F207" s="16">
+      <c r="F207" s="14">
         <v>192000</v>
       </c>
     </row>
-    <row r="208" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:15">
       <c r="B208" s="1">
         <v>45092</v>
       </c>
       <c r="C208">
         <v>14</v>
       </c>
-      <c r="F208" s="16">
+      <c r="F208" s="14">
         <v>56000</v>
       </c>
     </row>
-    <row r="209" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:15">
       <c r="B209" s="1">
         <v>45092</v>
       </c>
       <c r="C209">
         <v>17</v>
       </c>
-      <c r="F209" s="16">
+      <c r="F209" s="14">
         <v>74000</v>
       </c>
-      <c r="H209" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="I209" s="19"/>
-      <c r="J209" s="19"/>
-      <c r="K209" s="19"/>
-      <c r="L209" s="19"/>
-      <c r="M209" s="19"/>
-      <c r="N209" s="19"/>
-      <c r="O209" s="19"/>
-    </row>
-    <row r="210" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H209" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I209" s="17"/>
+      <c r="J209" s="17"/>
+      <c r="K209" s="17"/>
+      <c r="L209" s="17"/>
+      <c r="M209" s="17"/>
+      <c r="N209" s="17"/>
+      <c r="O209" s="17"/>
+    </row>
+    <row r="210" spans="2:15">
       <c r="B210" s="1">
         <v>45092</v>
       </c>
       <c r="D210">
         <v>32</v>
       </c>
-      <c r="F210" s="16">
+      <c r="F210" s="14">
         <v>137600</v>
       </c>
       <c r="H210" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I210" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J210" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K210" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L210" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I210" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J210" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K210" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L210" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="M210" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N210" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O210" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="211" spans="2:15" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="211" spans="2:15">
       <c r="B211" s="1">
         <v>45093</v>
       </c>
       <c r="C211">
         <v>25</v>
       </c>
-      <c r="F211" s="16">
+      <c r="F211" s="14">
         <v>107500</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I211" s="2">
         <f>SUM($C219:$C223)</f>
@@ -9155,108 +10098,108 @@
         <f>SUM(I211:K211)</f>
         <v>195</v>
       </c>
-      <c r="M211" s="15">
+      <c r="M211" s="13">
         <f>L211*600</f>
         <v>117000</v>
       </c>
-      <c r="N211" s="15">
+      <c r="N211" s="13">
         <v>30000</v>
       </c>
-      <c r="O211" s="15">
+      <c r="O211" s="13">
         <f>(M211-N211)/3</f>
         <v>29000</v>
       </c>
     </row>
-    <row r="212" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:15">
       <c r="B212" s="1">
         <v>45093</v>
       </c>
       <c r="C212">
         <v>33</v>
       </c>
-      <c r="F212" s="16">
+      <c r="F212" s="14">
         <v>132000</v>
       </c>
     </row>
-    <row r="213" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:15">
       <c r="B213" s="1">
         <v>45093</v>
       </c>
       <c r="D213">
         <v>37</v>
       </c>
-      <c r="F213" s="16">
+      <c r="F213" s="14">
         <v>154000</v>
       </c>
     </row>
-    <row r="214" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:15">
       <c r="B214" s="1">
         <v>45093</v>
       </c>
       <c r="D214">
         <v>36</v>
       </c>
-      <c r="F214" s="16">
+      <c r="F214" s="14">
         <v>144000</v>
       </c>
-      <c r="H214" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="I214" s="19"/>
-      <c r="J214" s="19"/>
-      <c r="K214" s="19"/>
-      <c r="L214" s="19"/>
-      <c r="M214" s="19"/>
-      <c r="N214" s="19"/>
-      <c r="O214" s="19"/>
-    </row>
-    <row r="215" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H214" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I214" s="17"/>
+      <c r="J214" s="17"/>
+      <c r="K214" s="17"/>
+      <c r="L214" s="17"/>
+      <c r="M214" s="17"/>
+      <c r="N214" s="17"/>
+      <c r="O214" s="17"/>
+    </row>
+    <row r="215" spans="2:15">
       <c r="B215" s="1">
         <v>45093</v>
       </c>
       <c r="D215">
         <v>18</v>
       </c>
-      <c r="F215" s="16">
+      <c r="F215" s="14">
         <v>77400</v>
       </c>
       <c r="H215" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I215" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J215" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K215" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L215" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I215" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J215" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K215" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L215" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="M215" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N215" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O215" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="216" spans="2:15" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="216" spans="2:15">
       <c r="B216" s="1">
         <v>45094</v>
       </c>
       <c r="D216">
         <v>36</v>
       </c>
-      <c r="F216" s="16">
+      <c r="F216" s="14">
         <v>144000</v>
       </c>
       <c r="H216" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I216" s="2">
         <f>SUM($C224:$C229)</f>
@@ -9274,164 +10217,325 @@
         <f>SUM(I216:K216)</f>
         <v>77</v>
       </c>
-      <c r="M216" s="15">
+      <c r="M216" s="13">
         <f>L216*600</f>
         <v>46200</v>
       </c>
-      <c r="N216" s="15">
+      <c r="N216" s="13">
         <v>30000</v>
       </c>
-      <c r="O216" s="15">
+      <c r="O216" s="13">
         <f>(M216-N216)/3</f>
         <v>5400</v>
       </c>
     </row>
-    <row r="217" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:15">
       <c r="B217" s="1">
         <v>45094</v>
       </c>
       <c r="D217">
         <v>36</v>
       </c>
-      <c r="F217" s="16">
+      <c r="F217" s="14">
         <v>144000</v>
       </c>
     </row>
-    <row r="218" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:15">
       <c r="B218" s="1">
         <v>45094</v>
       </c>
       <c r="C218">
         <v>8</v>
       </c>
-      <c r="F218" s="16">
+      <c r="F218" s="14">
         <v>32000</v>
       </c>
     </row>
-    <row r="219" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:15">
       <c r="B219" s="1">
         <v>45098</v>
       </c>
       <c r="C219">
         <v>15</v>
       </c>
-      <c r="F219" s="16">
+      <c r="F219" s="14">
         <v>63000</v>
       </c>
     </row>
-    <row r="220" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:15">
       <c r="B220" s="1">
         <v>45098</v>
       </c>
       <c r="C220">
         <v>138</v>
       </c>
-      <c r="F220" s="16">
+      <c r="F220" s="14">
         <v>561000</v>
       </c>
-    </row>
-    <row r="221" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H220" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I220" s="17"/>
+      <c r="J220" s="17"/>
+      <c r="K220" s="17"/>
+      <c r="L220" s="17"/>
+    </row>
+    <row r="221" spans="2:15">
       <c r="B221" s="1">
         <v>45099</v>
       </c>
       <c r="C221">
         <v>17</v>
       </c>
-      <c r="F221" s="16">
+      <c r="F221" s="14">
         <v>68000</v>
       </c>
-    </row>
-    <row r="222" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H221" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I221" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J221" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K221" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L221" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="222" spans="2:15">
       <c r="B222" s="1">
         <v>45100</v>
       </c>
       <c r="D222">
         <v>23</v>
       </c>
-      <c r="F222" s="16">
+      <c r="F222" s="14">
         <v>98900</v>
       </c>
-    </row>
-    <row r="223" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H222" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I222" s="2">
+        <f>SUM(C194:C229)</f>
+        <v>655</v>
+      </c>
+      <c r="J222" s="2">
+        <f>SUM(D194:D229)</f>
+        <v>337</v>
+      </c>
+      <c r="K222" s="2">
+        <f>SUM(E194:E229)</f>
+        <v>120</v>
+      </c>
+      <c r="L222" s="12">
+        <f>SUM(F194:F229)</f>
+        <v>4553500</v>
+      </c>
+    </row>
+    <row r="223" spans="2:15">
       <c r="B223" s="1">
         <v>45101</v>
       </c>
       <c r="C223">
         <v>2</v>
       </c>
-      <c r="F223" s="16">
+      <c r="F223" s="14">
         <v>20000</v>
       </c>
     </row>
-    <row r="224" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:15">
       <c r="B224" s="1">
         <v>45103</v>
       </c>
       <c r="C224">
         <v>3</v>
       </c>
-      <c r="F224" s="16">
+      <c r="F224" s="14">
         <v>12900</v>
       </c>
     </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:15">
       <c r="B225" s="1">
         <v>45103</v>
       </c>
       <c r="D225">
         <v>4</v>
       </c>
-      <c r="F225" s="16">
+      <c r="F225" s="14">
         <v>17200</v>
       </c>
     </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:15">
       <c r="B226" s="1">
         <v>45104</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
-      <c r="F226" s="16">
+      <c r="F226" s="14">
         <v>4200</v>
       </c>
     </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:15">
       <c r="B227" s="1">
         <v>45105</v>
       </c>
       <c r="C227">
         <v>36</v>
       </c>
-      <c r="F227" s="16">
+      <c r="F227" s="14">
         <v>144000</v>
       </c>
     </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:15">
       <c r="B228" s="1">
         <v>45106</v>
       </c>
       <c r="D228">
         <v>24</v>
       </c>
-      <c r="F228" s="16">
+      <c r="F228" s="14">
         <v>103200</v>
       </c>
     </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:15">
       <c r="B229" s="1">
         <v>45108</v>
       </c>
       <c r="C229">
         <v>9</v>
       </c>
-      <c r="F229" s="16">
+      <c r="F229" s="14">
         <v>38700</v>
       </c>
     </row>
+    <row r="230" spans="2:15">
+      <c r="B230" s="21">
+        <v>45111</v>
+      </c>
+      <c r="C230">
+        <v>27</v>
+      </c>
+      <c r="F230" s="14">
+        <v>116100</v>
+      </c>
+    </row>
+    <row r="231" spans="2:15">
+      <c r="B231" s="21">
+        <v>45112</v>
+      </c>
+      <c r="C231">
+        <v>12</v>
+      </c>
+      <c r="F231" s="14">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="232" spans="2:15">
+      <c r="B232" s="21">
+        <v>45115</v>
+      </c>
+      <c r="D232">
+        <v>24</v>
+      </c>
+      <c r="F232" s="14">
+        <v>103200</v>
+      </c>
+    </row>
+    <row r="233" spans="2:15">
+      <c r="B233" s="21">
+        <v>45115</v>
+      </c>
+      <c r="D233">
+        <v>150</v>
+      </c>
+      <c r="F233" s="14">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="236" spans="2:15">
+      <c r="H236" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I236" s="17"/>
+      <c r="J236" s="17"/>
+      <c r="K236" s="17"/>
+      <c r="L236" s="17"/>
+      <c r="M236" s="17"/>
+      <c r="N236" s="17"/>
+      <c r="O236" s="17"/>
+    </row>
+    <row r="237" spans="2:15">
+      <c r="H237" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I237" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J237" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K237" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L237" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M237" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N237" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O237" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="238" spans="2:15">
+      <c r="H238" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I238" s="2">
+        <f>SUM($C230:$C233)</f>
+        <v>39</v>
+      </c>
+      <c r="J238" s="2">
+        <f>SUM(D230:D233)</f>
+        <v>174</v>
+      </c>
+      <c r="K238" s="2">
+        <f>SUM(E239:E250)</f>
+        <v>0</v>
+      </c>
+      <c r="L238" s="2">
+        <f>SUM(I238:K238)</f>
+        <v>213</v>
+      </c>
+      <c r="M238" s="13">
+        <f>L238*600</f>
+        <v>127800</v>
+      </c>
+      <c r="N238" s="13">
+        <v>30000</v>
+      </c>
+      <c r="O238" s="13">
+        <f>(M238-N238)/3</f>
+        <v>32600</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="H214:O214"/>
+  <mergeCells count="27">
+    <mergeCell ref="H236:O236"/>
+    <mergeCell ref="H90:O90"/>
+    <mergeCell ref="H86:O86"/>
+    <mergeCell ref="I43:P43"/>
+    <mergeCell ref="I47:M47"/>
+    <mergeCell ref="H204:O204"/>
+    <mergeCell ref="H94:O94"/>
     <mergeCell ref="B2:F4"/>
     <mergeCell ref="I39:P39"/>
     <mergeCell ref="I35:P35"/>
@@ -9440,28 +10544,24 @@
     <mergeCell ref="I10:M10"/>
     <mergeCell ref="I31:P31"/>
     <mergeCell ref="I18:M18"/>
-    <mergeCell ref="H209:O209"/>
-    <mergeCell ref="H90:O90"/>
-    <mergeCell ref="H86:O86"/>
-    <mergeCell ref="I43:P43"/>
-    <mergeCell ref="I47:M47"/>
-    <mergeCell ref="H204:O204"/>
-    <mergeCell ref="H94:O94"/>
     <mergeCell ref="H126:O126"/>
     <mergeCell ref="H122:O122"/>
     <mergeCell ref="H118:O118"/>
     <mergeCell ref="H98:O98"/>
     <mergeCell ref="H102:L102"/>
+    <mergeCell ref="H220:L220"/>
     <mergeCell ref="H199:O199"/>
     <mergeCell ref="H134:L134"/>
     <mergeCell ref="H194:O194"/>
     <mergeCell ref="H130:O130"/>
+    <mergeCell ref="H214:O214"/>
+    <mergeCell ref="H209:O209"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="K33 J37 K41 J45 J49:K49 M49 J8 J20 M20 J88:K88 I92 I96:J96 K92 I100:J100 J104 L104 I120:J120 J124 J128 I132 I136 L136 I196:J196 I201 K201 I206:J206 I211 I216" formulaRange="1"/>
+    <ignoredError sqref="K33 J37 K41 J45 J49:K49 M49 J8 J20 M20 J88:K88 I92 I96:J96 K92 I100:J100 J104 L104 I120:J120 J124 J128 I132 I136 L136 I196:J196 I201 K201 I206:J206 I211 I216 I222 L222" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <tableParts count="1">
@@ -9478,7 +10578,7 @@
       <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
@@ -9487,831 +10587,831 @@
     <col min="7" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="G3" s="22" t="s">
+    <row r="3" spans="2:9" ht="15" customHeight="1">
+      <c r="B3" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="G3" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+    </row>
+    <row r="4" spans="2:9" ht="15" customHeight="1">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="G4" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-    </row>
-    <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="G4" s="18" t="s">
+      <c r="H4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="I4" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="G5" s="15">
+    </row>
+    <row r="5" spans="2:9" ht="15" customHeight="1">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="G5" s="13">
         <f>SUM(Tabla3[ingreso])</f>
         <v>7055400</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="13">
         <f>SUM(Tabla3[gasto])</f>
         <v>7530100</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="13">
         <f>G5-H5</f>
         <v>-474700</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9">
       <c r="B6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
       <c r="B7" s="1">
         <v>45035</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17">
+        <v>51</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15">
         <v>112000</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9">
       <c r="B8" s="1">
         <v>45035</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17">
+        <v>52</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15">
         <v>18000</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9">
       <c r="B9" s="1">
         <v>45035</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17">
+        <v>53</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15">
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9">
       <c r="B10" s="1">
         <v>45036</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17">
+        <v>54</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15">
         <v>336000</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9">
       <c r="B11" s="1">
         <v>45036</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17">
+        <v>55</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15">
         <v>8000</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9">
       <c r="B12" s="1">
         <v>45036</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17">
+        <v>53</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9">
       <c r="B13" s="1">
         <v>45037</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17">
+        <v>54</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15">
         <v>336000</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9">
       <c r="B14" s="1">
         <v>45037</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17">
+        <v>53</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15">
         <v>16000</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9">
       <c r="B15" s="1">
         <v>45037</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17">
+        <v>56</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15">
         <v>4100</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9">
       <c r="B16" s="1">
         <v>45038</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17">
+        <v>53</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15">
         <v>3000</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5">
       <c r="B17" s="1">
         <v>45038</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17">
+        <v>57</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15">
         <v>224000</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5">
       <c r="B18" s="1">
         <v>45038</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17">
+        <v>20</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15">
         <v>127000</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5">
       <c r="B19" s="1">
         <v>45038</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17">
+        <v>58</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15">
         <v>7000</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5">
       <c r="B20" s="1">
         <v>45038</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17">
+        <v>56</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15">
         <v>12000</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5">
       <c r="B21" s="1">
         <v>45038</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="17">
+        <v>59</v>
+      </c>
+      <c r="D21" s="15">
         <v>1130300</v>
       </c>
-      <c r="E21" s="17"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="2:5">
       <c r="B22" s="1">
         <v>45038</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17">
+        <v>60</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15">
         <v>104000</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5">
       <c r="B23" s="1">
         <v>45040</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17">
+        <v>56</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15">
         <v>10000</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5">
       <c r="B24" s="1">
         <v>45040</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17">
+        <v>53</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15">
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5">
       <c r="B25" s="1">
         <v>45040</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17">
+        <v>57</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15">
         <v>224000</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5">
       <c r="B26" s="1">
         <v>45040</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17">
+        <v>52</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15">
         <v>20000</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5">
       <c r="B27" s="1">
         <v>45040</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17">
+        <v>55</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15">
         <v>8000</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5">
       <c r="B28" s="1">
         <v>45041</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17">
+        <v>53</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15">
         <v>6000</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5">
       <c r="B29" s="1">
         <v>45041</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17">
+        <v>56</v>
+      </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15">
         <v>3000</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5">
       <c r="B30" s="1">
         <v>45041</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17">
+        <v>54</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15">
         <v>336000</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5">
       <c r="B31" s="1">
         <v>45042</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17">
+        <v>56</v>
+      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15">
         <v>5000</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5">
       <c r="B32" s="1">
         <v>45042</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17">
+        <v>61</v>
+      </c>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15">
         <v>20000</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5">
       <c r="B33" s="1">
         <v>45042</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17">
+        <v>54</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15">
         <v>336000</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5">
       <c r="B34" s="1">
         <v>45043</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17">
+        <v>54</v>
+      </c>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15">
         <v>115000</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5">
       <c r="B35" s="1">
         <v>45043</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17">
+        <v>52</v>
+      </c>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15">
         <v>18000</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5">
       <c r="B36" s="1">
         <v>45043</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17">
+        <v>62</v>
+      </c>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15">
         <v>6500</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5">
       <c r="B37" s="1">
         <v>45043</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17">
+        <v>53</v>
+      </c>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15">
         <v>6000</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5">
       <c r="B38" s="1">
         <v>45044</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17">
+        <v>53</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15">
         <v>3000</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5">
       <c r="B39" s="1">
         <v>45044</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17">
+        <v>54</v>
+      </c>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15">
         <v>336000</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5">
       <c r="B40" s="1">
         <v>45044</v>
       </c>
       <c r="C40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17">
+        <v>55</v>
+      </c>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15">
         <v>5000</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5">
       <c r="B41" s="1">
         <v>45045</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17">
+        <v>63</v>
+      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15">
         <v>672000</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5">
       <c r="B42" s="1">
         <v>45045</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
-      </c>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17">
+        <v>55</v>
+      </c>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15">
         <v>5000</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5">
       <c r="B43" s="1">
         <v>45042</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
-      </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17">
+        <v>52</v>
+      </c>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15">
         <v>19000</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5">
       <c r="B44" s="1">
         <v>45045</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
-      </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17">
+        <v>64</v>
+      </c>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15">
         <v>70000</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5">
       <c r="B45" s="1">
         <v>45045</v>
       </c>
       <c r="C45" t="s">
-        <v>44</v>
-      </c>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17">
+        <v>60</v>
+      </c>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15">
         <v>246000</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5">
       <c r="B46" s="1">
         <v>45045</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
-      </c>
-      <c r="D46" s="17">
+        <v>65</v>
+      </c>
+      <c r="D46" s="15">
         <v>2725400</v>
       </c>
-      <c r="E46" s="17"/>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E46" s="15"/>
+    </row>
+    <row r="47" spans="2:5">
       <c r="B47" s="1">
         <v>45048</v>
       </c>
       <c r="C47" t="s">
-        <v>37</v>
-      </c>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17">
+        <v>54</v>
+      </c>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15">
         <v>336000</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5">
       <c r="B48" s="1">
         <v>45048</v>
       </c>
       <c r="C48" t="s">
-        <v>56</v>
-      </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17">
+        <v>66</v>
+      </c>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15">
         <v>13000</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5">
       <c r="B49" s="1">
         <v>45049</v>
       </c>
       <c r="C49" t="s">
-        <v>37</v>
-      </c>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17">
+        <v>54</v>
+      </c>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15">
         <v>336000</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5">
       <c r="B50" s="1">
         <v>45049</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
-      </c>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17">
+        <v>52</v>
+      </c>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15">
         <v>20000</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5">
       <c r="B51" s="1">
         <v>45049</v>
       </c>
       <c r="C51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17">
+        <v>55</v>
+      </c>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15">
         <v>5000</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5">
       <c r="B52" s="1">
         <v>45049</v>
       </c>
       <c r="C52" t="s">
-        <v>36</v>
-      </c>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17">
+        <v>53</v>
+      </c>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15">
         <v>6000</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5">
       <c r="B53" s="1">
         <v>45049</v>
       </c>
       <c r="C53" t="s">
-        <v>37</v>
-      </c>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17">
+        <v>54</v>
+      </c>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15">
         <v>336000</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5">
       <c r="B54" s="1">
         <v>45049</v>
       </c>
       <c r="C54" t="s">
-        <v>39</v>
-      </c>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17">
+        <v>56</v>
+      </c>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15">
         <v>14000</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5">
       <c r="B55" s="1">
         <v>45050</v>
       </c>
       <c r="C55" t="s">
-        <v>37</v>
-      </c>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17">
+        <v>54</v>
+      </c>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15">
         <v>336000</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5">
       <c r="B56" s="1">
         <v>45050</v>
       </c>
       <c r="C56" t="s">
-        <v>36</v>
-      </c>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17">
+        <v>53</v>
+      </c>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15">
         <v>3000</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5">
       <c r="B57" s="1">
         <v>45050</v>
       </c>
       <c r="C57" t="s">
-        <v>39</v>
-      </c>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17">
+        <v>56</v>
+      </c>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15">
         <v>7500</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5">
       <c r="B58" s="1">
         <v>45051</v>
       </c>
       <c r="C58" t="s">
-        <v>39</v>
-      </c>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17">
+        <v>56</v>
+      </c>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15">
         <v>32000</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5">
       <c r="B59" s="1">
         <v>45051</v>
       </c>
       <c r="C59" t="s">
-        <v>54</v>
-      </c>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17">
+        <v>63</v>
+      </c>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15">
         <v>672000</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5">
       <c r="B60" s="1">
         <v>45051</v>
       </c>
       <c r="C60" t="s">
-        <v>35</v>
-      </c>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17">
+        <v>52</v>
+      </c>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15">
         <v>20000</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5">
       <c r="B61" s="1">
         <v>45051</v>
       </c>
       <c r="C61" t="s">
-        <v>38</v>
-      </c>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17">
+        <v>55</v>
+      </c>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15">
         <v>10000</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5">
       <c r="B62" s="1">
         <v>45052</v>
       </c>
       <c r="C62" t="s">
-        <v>54</v>
-      </c>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17">
+        <v>63</v>
+      </c>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15">
         <v>672000</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5">
       <c r="B63" s="1">
         <v>45052</v>
       </c>
       <c r="C63" t="s">
-        <v>44</v>
-      </c>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17">
+        <v>60</v>
+      </c>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15">
         <v>288000</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5">
       <c r="B64" s="1">
         <v>45052</v>
       </c>
       <c r="C64" t="s">
-        <v>60</v>
-      </c>
-      <c r="D64" s="17">
+        <v>67</v>
+      </c>
+      <c r="D64" s="15">
         <v>3199700</v>
       </c>
-      <c r="E64" s="17"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E64" s="15"/>
+    </row>
+    <row r="65" spans="2:5">
       <c r="B65" s="1">
         <v>45053</v>
       </c>
       <c r="C65" t="s">
-        <v>39</v>
-      </c>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17">
+        <v>56</v>
+      </c>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15">
         <v>41000</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:5">
       <c r="B66" s="1">
         <v>45054</v>
       </c>
       <c r="C66" t="s">
-        <v>37</v>
-      </c>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17">
+        <v>54</v>
+      </c>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15">
         <v>336000</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5">
       <c r="B67" s="1">
         <v>45054</v>
       </c>
       <c r="C67" t="s">
-        <v>35</v>
-      </c>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17">
+        <v>52</v>
+      </c>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15">
         <v>20000</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:5">
       <c r="B68" s="1">
         <v>45055</v>
       </c>
       <c r="C68" t="s">
-        <v>40</v>
-      </c>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17">
+        <v>57</v>
+      </c>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15">
         <v>210000</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:5">
       <c r="B69" s="1">
         <v>45055</v>
       </c>
       <c r="C69" t="s">
-        <v>61</v>
-      </c>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17">
+        <v>68</v>
+      </c>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15">
         <v>20000</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:5">
       <c r="B70" s="1">
         <v>45055</v>
       </c>
       <c r="C70" t="s">
-        <v>38</v>
-      </c>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17">
+        <v>55</v>
+      </c>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15">
         <v>8000</v>
       </c>
     </row>
@@ -10336,7 +11436,7 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
@@ -10347,59 +11447,59 @@
     <col min="9" max="9" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9">
       <c r="B4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5" s="1">
         <v>45044</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="17">
+        <v>74</v>
+      </c>
+      <c r="D5" s="15">
         <v>50000</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="15">
         <v>60000</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="15">
         <f>Tabla2[[#This Row],[valor venta]]-Tabla2[[#This Row],[valor compra]]</f>
         <v>10000</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="15">
         <f>(Tabla2[[#This Row],[ganacia]]*15)/100</f>
         <v>1500</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="15">
         <f>Tabla2[[#This Row],[ganacia]]-Tabla2[[#This Row],[porcentaje reinversion]]</f>
         <v>8500</v>
       </c>
       <c r="I5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/reporte ventas.xlsx
+++ b/reporte ventas.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\programacion22-23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D1A1BC-BBFB-49C0-9C02-75B5CDBFBAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFF5677-B0F7-443D-9168-077BFA7FEC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="reporte de ventas sublimado" sheetId="1" r:id="rId1"/>
+    <sheet name="Reporte Sublimado 2023" sheetId="1" r:id="rId1"/>
     <sheet name="Comparativo mensual" sheetId="5" r:id="rId2"/>
     <sheet name="contabilidad" sheetId="3" r:id="rId3"/>
     <sheet name="Resultados" sheetId="4" r:id="rId4"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="175">
   <si>
     <t>Reporte de Ventas</t>
   </si>
@@ -559,6 +559,12 @@
   </si>
   <si>
     <t>chaqueta dama</t>
+  </si>
+  <si>
+    <t>Semana 11 de Diciembre -  16 de Diciembre</t>
+  </si>
+  <si>
+    <t>Semana 18 de Diciembre - 23 de Diciembre</t>
   </si>
 </sst>
 </file>
@@ -1160,7 +1166,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'reporte de ventas sublimado'!$I$3:$K$3</c:f>
+              <c:f>'Reporte Sublimado 2023'!$I$3:$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1177,18 +1183,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'reporte de ventas sublimado'!$I$4:$K$4</c:f>
+              <c:f>'Reporte Sublimado 2023'!$I$4:$K$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6732</c:v>
+                  <c:v>7279</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10232</c:v>
+                  <c:v>11948</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1599</c:v>
+                  <c:v>1794</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1436,7 +1442,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'reporte de ventas sublimado'!$H$336</c:f>
+              <c:f>'Reporte Sublimado 2023'!$H$336</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1457,7 +1463,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'reporte de ventas sublimado'!$I$336:$K$336</c:f>
+              <c:f>'Reporte Sublimado 2023'!$I$336:$K$336</c:f>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -1468,7 +1474,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'reporte de ventas sublimado'!$I$335:$K$335</c15:sqref>
+                          <c15:sqref>'Reporte Sublimado 2023'!$I$335:$K$335</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1758,7 +1764,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'reporte de ventas sublimado'!$H$409</c:f>
+              <c:f>'Reporte Sublimado 2023'!$H$409</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1779,7 +1785,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'reporte de ventas sublimado'!$I$409:$K$409</c:f>
+              <c:f>'Reporte Sublimado 2023'!$I$409:$K$409</c:f>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -1790,7 +1796,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'reporte de ventas sublimado'!$I$408:$K$408</c15:sqref>
+                          <c15:sqref>'Reporte Sublimado 2023'!$I$408:$K$408</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2092,7 +2098,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'reporte de ventas sublimado'!$H$456</c:f>
+              <c:f>'Reporte Sublimado 2023'!$H$456</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2140,92 +2146,27 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-722D-4D32-A139-80E8D55E3D66}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-722D-4D32-A139-80E8D55E3D66}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>'reporte de ventas sublimado'!$I$455:$K$455</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Sebastian</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Angelica</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Alejandro</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'reporte de ventas sublimado'!$I$456:$K$456</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1085</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2251</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>137</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>'Reporte Sublimado 2023'!$I$456:$K$456</c:f>
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Reporte Sublimado 2023'!$I$455:$K$455</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-722D-4D32-A139-80E8D55E3D66}"/>
             </c:ext>
@@ -2924,7 +2865,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'reporte de ventas sublimado'!$I$49</c:f>
+              <c:f>'Reporte Sublimado 2023'!$I$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2974,7 +2915,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'reporte de ventas sublimado'!$J$49:$L$49</c:f>
+              <c:f>'Reporte Sublimado 2023'!$J$49:$L$49</c:f>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -2985,7 +2926,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'reporte de ventas sublimado'!$J$48:$L$48</c15:sqref>
+                          <c15:sqref>'Reporte Sublimado 2023'!$J$48:$L$48</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3273,7 +3214,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'reporte de ventas sublimado'!$I$20</c:f>
+              <c:f>'Reporte Sublimado 2023'!$I$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3323,7 +3264,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'reporte de ventas sublimado'!$J$20:$L$20</c:f>
+              <c:f>'Reporte Sublimado 2023'!$J$20:$L$20</c:f>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -3334,7 +3275,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'reporte de ventas sublimado'!$J$19:$L$19</c15:sqref>
+                          <c15:sqref>'Reporte Sublimado 2023'!$J$19:$L$19</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3665,7 +3606,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'reporte de ventas sublimado'!$H$104</c:f>
+              <c:f>'Reporte Sublimado 2023'!$H$104</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3716,7 +3657,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'reporte de ventas sublimado'!$I$104:$K$104</c:f>
+              <c:f>'Reporte Sublimado 2023'!$I$104:$K$104</c:f>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -3727,7 +3668,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'reporte de ventas sublimado'!$I$103:$K$103</c15:sqref>
+                          <c15:sqref>'Reporte Sublimado 2023'!$I$103:$K$103</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4048,7 +3989,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'reporte de ventas sublimado'!$H$136</c:f>
+              <c:f>'Reporte Sublimado 2023'!$H$136</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4099,7 +4040,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'reporte de ventas sublimado'!$I$136:$K$136</c:f>
+              <c:f>'Reporte Sublimado 2023'!$I$136:$K$136</c:f>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -4110,7 +4051,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'reporte de ventas sublimado'!$I$135:$K$135</c15:sqref>
+                          <c15:sqref>'Reporte Sublimado 2023'!$I$135:$K$135</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4431,7 +4372,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'reporte de ventas sublimado'!$H$222</c:f>
+              <c:f>'Reporte Sublimado 2023'!$H$222</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4482,7 +4423,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'reporte de ventas sublimado'!$I$222:$K$222</c:f>
+              <c:f>'Reporte Sublimado 2023'!$I$222:$K$222</c:f>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -4493,7 +4434,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'reporte de ventas sublimado'!$I$221:$K$221</c15:sqref>
+                          <c15:sqref>'Reporte Sublimado 2023'!$I$221:$K$221</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4763,7 +4704,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'reporte de ventas sublimado'!$H$259</c:f>
+              <c:f>'Reporte Sublimado 2023'!$H$259</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4803,7 +4744,7 @@
           </c:dPt>
           <c:val>
             <c:numRef>
-              <c:f>'reporte de ventas sublimado'!$I$259:$K$259</c:f>
+              <c:f>'Reporte Sublimado 2023'!$I$259:$K$259</c:f>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -4814,7 +4755,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'reporte de ventas sublimado'!$I$258:$K$258</c15:sqref>
+                          <c15:sqref>'Reporte Sublimado 2023'!$I$258:$K$258</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5119,7 +5060,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'reporte de ventas sublimado'!$V$3:$AF$3</c:f>
+              <c:f>'Reporte Sublimado 2023'!$V$3:$AF$3</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -5160,7 +5101,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'reporte de ventas sublimado'!$V$4:$AF$4</c:f>
+              <c:f>'Reporte Sublimado 2023'!$V$4:$AF$4</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * "-"_-;_-@_-</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5470,7 +5411,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'reporte de ventas sublimado'!$H$299</c:f>
+              <c:f>'Reporte Sublimado 2023'!$H$299</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5548,7 +5489,7 @@
           </c:dPt>
           <c:val>
             <c:numRef>
-              <c:f>'reporte de ventas sublimado'!$I$299:$K$299</c:f>
+              <c:f>'Reporte Sublimado 2023'!$I$299:$K$299</c:f>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -5559,7 +5500,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'reporte de ventas sublimado'!$I$298:$K$298</c15:sqref>
+                          <c15:sqref>'Reporte Sublimado 2023'!$I$298:$K$298</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -13173,11 +13114,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:F541" totalsRowShown="0">
-  <autoFilter ref="B5:F541" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:F608" totalsRowShown="0">
+  <autoFilter ref="B5:F608" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0">
       <filters>
-        <dateGroupItem year="2023" month="11" dateTimeGrouping="month"/>
         <dateGroupItem year="2023" month="12" dateTimeGrouping="month"/>
       </filters>
     </filterColumn>
@@ -13535,10 +13475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AF541"/>
+  <dimension ref="B2:AF608"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A451" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I468" sqref="I468"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O517" sqref="O517"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13654,19 +13594,19 @@
       </c>
       <c r="I4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>6732</v>
+        <v>7279</v>
       </c>
       <c r="J4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
-        <v>10232</v>
+        <v>11948</v>
       </c>
       <c r="K4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
-        <v>1599</v>
+        <v>1794</v>
       </c>
       <c r="L4" s="12">
         <f xml:space="preserve"> SUM(Tabla1[valor venta])</f>
-        <v>71353600</v>
+        <v>80270800</v>
       </c>
       <c r="U4" s="17" t="s">
         <v>20</v>
@@ -13859,19 +13799,19 @@
       </c>
       <c r="J12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>6732</v>
+        <v>7279</v>
       </c>
       <c r="K12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
-        <v>10232</v>
+        <v>11948</v>
       </c>
       <c r="L12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
-        <v>1599</v>
+        <v>1794</v>
       </c>
       <c r="M12" s="2">
         <f>SUM(J12:L12)</f>
-        <v>18563</v>
+        <v>21021</v>
       </c>
     </row>
     <row r="13" spans="2:32" hidden="1" x14ac:dyDescent="0.25">
@@ -19370,23 +19310,23 @@
         <v>546</v>
       </c>
       <c r="K321" s="16">
-        <f>SUM(E318:E2346)</f>
-        <v>448</v>
+        <f>SUM(E318:E2347)</f>
+        <v>643</v>
       </c>
       <c r="L321" s="16">
         <f>SUM(I321:K321)</f>
-        <v>1488</v>
+        <v>1683</v>
       </c>
       <c r="M321" s="24">
         <f>L321*600</f>
-        <v>892800</v>
+        <v>1009800</v>
       </c>
       <c r="N321" s="24">
         <v>30000</v>
       </c>
       <c r="O321" s="24">
         <f>(M321-N321)/3</f>
-        <v>287600</v>
+        <v>326600</v>
       </c>
     </row>
     <row r="322" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
@@ -21032,7 +20972,7 @@
         <v>231000</v>
       </c>
     </row>
-    <row r="429" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B429" s="1">
         <v>45231</v>
       </c>
@@ -21053,7 +20993,7 @@
       <c r="N429" s="26"/>
       <c r="O429" s="26"/>
     </row>
-    <row r="430" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B430" s="1">
         <v>45231</v>
       </c>
@@ -21088,7 +21028,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="431" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B431" s="1">
         <v>45232</v>
       </c>
@@ -21129,7 +21069,7 @@
         <v>80200</v>
       </c>
     </row>
-    <row r="432" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B432" s="1">
         <v>45233</v>
       </c>
@@ -21140,7 +21080,7 @@
         <v>45600</v>
       </c>
     </row>
-    <row r="433" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B433" s="1">
         <v>45234</v>
       </c>
@@ -21151,7 +21091,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="434" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B434" s="1">
         <v>45234</v>
       </c>
@@ -21172,7 +21112,7 @@
       <c r="N434" s="26"/>
       <c r="O434" s="26"/>
     </row>
-    <row r="435" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B435" s="1">
         <v>45234</v>
       </c>
@@ -21207,7 +21147,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="436" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B436" s="1">
         <v>45238</v>
       </c>
@@ -21248,7 +21188,7 @@
         <v>106600</v>
       </c>
     </row>
-    <row r="437" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B437" s="1">
         <v>45238</v>
       </c>
@@ -21259,7 +21199,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="438" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B438" s="1">
         <v>45238</v>
       </c>
@@ -21270,7 +21210,7 @@
         <v>98800</v>
       </c>
     </row>
-    <row r="439" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B439" s="1">
         <v>45238</v>
       </c>
@@ -21291,7 +21231,7 @@
       <c r="N439" s="26"/>
       <c r="O439" s="26"/>
     </row>
-    <row r="440" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B440" s="1">
         <v>45238</v>
       </c>
@@ -21326,7 +21266,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="441" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B441" s="1">
         <v>45240</v>
       </c>
@@ -21367,7 +21307,7 @@
         <v>171400</v>
       </c>
     </row>
-    <row r="442" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B442" s="1">
         <v>45240</v>
       </c>
@@ -21378,7 +21318,7 @@
         <v>168000</v>
       </c>
     </row>
-    <row r="443" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B443" s="1">
         <v>45240</v>
       </c>
@@ -21389,7 +21329,7 @@
         <v>57000</v>
       </c>
     </row>
-    <row r="444" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B444" s="1">
         <v>45240</v>
       </c>
@@ -21410,7 +21350,7 @@
       <c r="N444" s="26"/>
       <c r="O444" s="26"/>
     </row>
-    <row r="445" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B445" s="1">
         <v>45240</v>
       </c>
@@ -21445,7 +21385,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="446" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B446" s="1">
         <v>45240</v>
       </c>
@@ -21486,7 +21426,7 @@
         <v>140400</v>
       </c>
     </row>
-    <row r="447" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B447" s="1">
         <v>45241</v>
       </c>
@@ -21497,7 +21437,7 @@
         <v>510000</v>
       </c>
     </row>
-    <row r="448" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B448" s="1">
         <v>45241</v>
       </c>
@@ -21508,7 +21448,7 @@
         <v>532000</v>
       </c>
     </row>
-    <row r="449" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B449" s="1">
         <v>45241</v>
       </c>
@@ -21529,7 +21469,7 @@
       <c r="N449" s="26"/>
       <c r="O449" s="26"/>
     </row>
-    <row r="450" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B450" s="1">
         <v>45241</v>
       </c>
@@ -21564,7 +21504,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="451" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B451" s="1">
         <v>45244</v>
       </c>
@@ -21605,7 +21545,7 @@
         <v>276200</v>
       </c>
     </row>
-    <row r="452" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B452" s="1">
         <v>45245</v>
       </c>
@@ -21616,7 +21556,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="453" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B453" s="1">
         <v>45245</v>
       </c>
@@ -21627,7 +21567,7 @@
         <v>98800</v>
       </c>
     </row>
-    <row r="454" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B454" s="1">
         <v>45245</v>
       </c>
@@ -21645,7 +21585,7 @@
       <c r="K454" s="27"/>
       <c r="L454" s="27"/>
     </row>
-    <row r="455" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B455" s="1">
         <v>45247</v>
       </c>
@@ -21671,7 +21611,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="456" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B456" s="1">
         <v>45247</v>
       </c>
@@ -21701,7 +21641,7 @@
         <v>12284300</v>
       </c>
     </row>
-    <row r="457" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B457" s="1">
         <v>45248</v>
       </c>
@@ -21712,7 +21652,7 @@
         <v>49400</v>
       </c>
     </row>
-    <row r="458" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B458" s="1">
         <v>45248</v>
       </c>
@@ -21723,7 +21663,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="459" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B459" s="1">
         <v>45248</v>
       </c>
@@ -21734,7 +21674,7 @@
         <v>15200</v>
       </c>
     </row>
-    <row r="460" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B460" s="1">
         <v>45250</v>
       </c>
@@ -21745,7 +21685,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="461" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B461" s="1">
         <v>45250</v>
       </c>
@@ -21756,7 +21696,7 @@
         <v>52500</v>
       </c>
     </row>
-    <row r="462" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B462" s="1">
         <v>45250</v>
       </c>
@@ -21767,7 +21707,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="463" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B463" s="1">
         <v>45250</v>
       </c>
@@ -21778,7 +21718,7 @@
         <v>126000</v>
       </c>
     </row>
-    <row r="464" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B464" s="1">
         <v>45251</v>
       </c>
@@ -21789,7 +21729,7 @@
         <v>168000</v>
       </c>
     </row>
-    <row r="465" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B465" s="1">
         <v>45251</v>
       </c>
@@ -21800,7 +21740,7 @@
         <v>60800</v>
       </c>
     </row>
-    <row r="466" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B466" s="1">
         <v>45252</v>
       </c>
@@ -21811,7 +21751,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="467" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B467" s="1">
         <v>45252</v>
       </c>
@@ -21822,7 +21762,7 @@
         <v>49400</v>
       </c>
     </row>
-    <row r="468" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B468" s="1">
         <v>45252</v>
       </c>
@@ -21833,7 +21773,7 @@
         <v>126000</v>
       </c>
     </row>
-    <row r="469" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B469" s="1">
         <v>45252</v>
       </c>
@@ -21844,7 +21784,7 @@
         <v>45600</v>
       </c>
     </row>
-    <row r="470" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B470" s="1">
         <v>45253</v>
       </c>
@@ -21855,7 +21795,7 @@
         <v>126000</v>
       </c>
     </row>
-    <row r="471" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B471" s="1">
         <v>45253</v>
       </c>
@@ -21866,7 +21806,7 @@
         <v>30400</v>
       </c>
     </row>
-    <row r="472" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B472" s="1">
         <v>45253</v>
       </c>
@@ -21877,7 +21817,7 @@
         <v>269500</v>
       </c>
     </row>
-    <row r="473" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B473" s="1">
         <v>45253</v>
       </c>
@@ -21888,7 +21828,7 @@
         <v>175000</v>
       </c>
     </row>
-    <row r="474" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B474" s="1">
         <v>45254</v>
       </c>
@@ -21899,7 +21839,7 @@
         <v>252000</v>
       </c>
     </row>
-    <row r="475" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B475" s="1">
         <v>45254</v>
       </c>
@@ -21910,7 +21850,7 @@
         <v>76000</v>
       </c>
     </row>
-    <row r="476" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B476" s="1">
         <v>45254</v>
       </c>
@@ -21921,7 +21861,7 @@
         <v>22800</v>
       </c>
     </row>
-    <row r="477" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B477" s="1">
         <v>45254</v>
       </c>
@@ -21932,7 +21872,7 @@
         <v>175000</v>
       </c>
     </row>
-    <row r="478" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B478" s="1">
         <v>45254</v>
       </c>
@@ -21943,7 +21883,7 @@
         <v>22800</v>
       </c>
     </row>
-    <row r="479" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B479" s="1">
         <v>45254</v>
       </c>
@@ -21954,7 +21894,7 @@
         <v>76000</v>
       </c>
     </row>
-    <row r="480" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B480" s="1">
         <v>45254</v>
       </c>
@@ -21965,7 +21905,7 @@
         <v>252000</v>
       </c>
     </row>
-    <row r="481" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B481" s="1">
         <v>45255</v>
       </c>
@@ -21976,7 +21916,7 @@
         <v>66400</v>
       </c>
     </row>
-    <row r="482" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B482" s="1">
         <v>45255</v>
       </c>
@@ -21987,7 +21927,7 @@
         <v>114000</v>
       </c>
     </row>
-    <row r="483" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B483" s="1">
         <v>45255</v>
       </c>
@@ -21998,7 +21938,7 @@
         <v>252000</v>
       </c>
     </row>
-    <row r="484" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B484" s="1">
         <v>45257</v>
       </c>
@@ -22009,7 +21949,7 @@
         <v>147000</v>
       </c>
     </row>
-    <row r="485" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B485" s="1">
         <v>45257</v>
       </c>
@@ -22020,7 +21960,7 @@
         <v>1050000</v>
       </c>
     </row>
-    <row r="486" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B486" s="1">
         <v>45258</v>
       </c>
@@ -22031,7 +21971,7 @@
         <v>126000</v>
       </c>
     </row>
-    <row r="487" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B487" s="1">
         <v>45258</v>
       </c>
@@ -22042,7 +21982,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="488" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B488" s="1">
         <v>45258</v>
       </c>
@@ -22053,7 +21993,7 @@
         <v>91200</v>
       </c>
     </row>
-    <row r="489" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B489" s="1">
         <v>45258</v>
       </c>
@@ -22064,7 +22004,7 @@
         <v>79800</v>
       </c>
     </row>
-    <row r="490" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B490" s="1">
         <v>45258</v>
       </c>
@@ -22075,7 +22015,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="491" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B491" s="1">
         <v>45259</v>
       </c>
@@ -22086,7 +22026,7 @@
         <v>126000</v>
       </c>
     </row>
-    <row r="492" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B492" s="1">
         <v>45259</v>
       </c>
@@ -22097,7 +22037,7 @@
         <v>45600</v>
       </c>
     </row>
-    <row r="493" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B493" s="1">
         <v>45259</v>
       </c>
@@ -22108,7 +22048,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="494" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B494" s="1">
         <v>45259</v>
       </c>
@@ -22119,7 +22059,7 @@
         <v>126000</v>
       </c>
     </row>
-    <row r="495" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B495" s="1">
         <v>45259</v>
       </c>
@@ -22130,7 +22070,7 @@
         <v>11400</v>
       </c>
     </row>
-    <row r="496" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B496" s="1">
         <v>45259</v>
       </c>
@@ -22141,7 +22081,7 @@
         <v>53200</v>
       </c>
     </row>
-    <row r="497" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B497" s="1">
         <v>45259</v>
       </c>
@@ -22152,7 +22092,7 @@
         <v>45600</v>
       </c>
     </row>
-    <row r="498" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B498" s="1">
         <v>45260</v>
       </c>
@@ -22163,7 +22103,7 @@
         <v>126000</v>
       </c>
     </row>
-    <row r="499" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B499" s="1">
         <v>45260</v>
       </c>
@@ -22174,7 +22114,7 @@
         <v>77000</v>
       </c>
     </row>
-    <row r="500" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B500" s="1">
         <v>45260</v>
       </c>
@@ -22185,7 +22125,7 @@
         <v>91200</v>
       </c>
     </row>
-    <row r="501" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B501" s="1">
         <v>45260</v>
       </c>
@@ -22196,7 +22136,7 @@
         <v>91200</v>
       </c>
     </row>
-    <row r="502" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B502" s="1">
         <v>45260</v>
       </c>
@@ -22347,6 +22287,16 @@
       <c r="F509" s="14">
         <v>175000</v>
       </c>
+      <c r="H509" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="I509" s="26"/>
+      <c r="J509" s="26"/>
+      <c r="K509" s="26"/>
+      <c r="L509" s="26"/>
+      <c r="M509" s="26"/>
+      <c r="N509" s="26"/>
+      <c r="O509" s="26"/>
     </row>
     <row r="510" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B510" s="1">
@@ -22358,6 +22308,30 @@
       <c r="F510" s="14">
         <v>378000</v>
       </c>
+      <c r="H510" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I510" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="J510" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K510" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="L510" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M510" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="N510" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O510" s="16" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="511" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B511" s="1">
@@ -22369,6 +22343,36 @@
       <c r="F511" s="14">
         <v>178500</v>
       </c>
+      <c r="H511" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I511" s="16">
+        <f>SUM($C542:$C566)</f>
+        <v>258</v>
+      </c>
+      <c r="J511" s="16">
+        <f>SUM(D542:D566)</f>
+        <v>380</v>
+      </c>
+      <c r="K511" s="16">
+        <f>SUM(E542:E566)</f>
+        <v>61</v>
+      </c>
+      <c r="L511" s="16">
+        <f>SUM(I511:K511)</f>
+        <v>699</v>
+      </c>
+      <c r="M511" s="24">
+        <f>L511*600</f>
+        <v>419400</v>
+      </c>
+      <c r="N511" s="24">
+        <v>30000</v>
+      </c>
+      <c r="O511" s="24">
+        <f>(M511-N511)/3</f>
+        <v>129800</v>
+      </c>
     </row>
     <row r="512" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B512" s="1">
@@ -22381,13 +22385,13 @@
         <v>126000</v>
       </c>
     </row>
-    <row r="513" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B513" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F513" s="14"/>
     </row>
-    <row r="514" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B514" s="1">
         <v>45264</v>
       </c>
@@ -22398,7 +22402,7 @@
         <v>26600</v>
       </c>
     </row>
-    <row r="515" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B515" s="1">
         <v>45264</v>
       </c>
@@ -22408,8 +22412,18 @@
       <c r="F515" s="14">
         <v>322000</v>
       </c>
-    </row>
-    <row r="516" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H515" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="I515" s="26"/>
+      <c r="J515" s="26"/>
+      <c r="K515" s="26"/>
+      <c r="L515" s="26"/>
+      <c r="M515" s="26"/>
+      <c r="N515" s="26"/>
+      <c r="O515" s="26"/>
+    </row>
+    <row r="516" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B516" s="1">
         <v>45264</v>
       </c>
@@ -22419,8 +22433,32 @@
       <c r="F516" s="14">
         <v>168000</v>
       </c>
-    </row>
-    <row r="517" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H516" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I516" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="J516" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K516" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="L516" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M516" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="N516" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O516" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="517" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B517" s="1">
         <v>45264</v>
       </c>
@@ -22430,8 +22468,38 @@
       <c r="F517" s="14">
         <v>101500</v>
       </c>
-    </row>
-    <row r="518" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H517" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I517" s="16">
+        <f>SUM($C567:$C608)</f>
+        <v>289</v>
+      </c>
+      <c r="J517" s="16">
+        <f>SUM(D567:D608)</f>
+        <v>1336</v>
+      </c>
+      <c r="K517" s="16">
+        <f>SUM(E567:E608)</f>
+        <v>134</v>
+      </c>
+      <c r="L517" s="16">
+        <f>SUM(I517:K517)</f>
+        <v>1759</v>
+      </c>
+      <c r="M517" s="24">
+        <f>L517*600</f>
+        <v>1055400</v>
+      </c>
+      <c r="N517" s="24">
+        <v>30000</v>
+      </c>
+      <c r="O517" s="24">
+        <f>(M517-N517)/3</f>
+        <v>341800</v>
+      </c>
+    </row>
+    <row r="518" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B518" s="1">
         <v>45265</v>
       </c>
@@ -22442,7 +22510,7 @@
         <v>24500</v>
       </c>
     </row>
-    <row r="519" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B519" s="1">
         <v>45265</v>
       </c>
@@ -22453,7 +22521,7 @@
         <v>76000</v>
       </c>
     </row>
-    <row r="520" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B520" s="1">
         <v>45265</v>
       </c>
@@ -22464,7 +22532,7 @@
         <v>91200</v>
       </c>
     </row>
-    <row r="521" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B521" s="1">
         <v>45265</v>
       </c>
@@ -22475,7 +22543,7 @@
         <v>126000</v>
       </c>
     </row>
-    <row r="522" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B522" s="1">
         <v>45265</v>
       </c>
@@ -22486,7 +22554,7 @@
         <v>129500</v>
       </c>
     </row>
-    <row r="523" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B523" s="1">
         <v>45265</v>
       </c>
@@ -22497,7 +22565,7 @@
         <v>346500</v>
       </c>
     </row>
-    <row r="524" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B524" s="1">
         <v>45265</v>
       </c>
@@ -22508,7 +22576,7 @@
         <v>252000</v>
       </c>
     </row>
-    <row r="525" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B525" s="1">
         <v>45266</v>
       </c>
@@ -22519,7 +22587,7 @@
         <v>114000</v>
       </c>
     </row>
-    <row r="526" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B526" s="1">
         <v>45267</v>
       </c>
@@ -22530,7 +22598,7 @@
         <v>59500</v>
       </c>
     </row>
-    <row r="527" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B527" s="1">
         <v>45267</v>
       </c>
@@ -22541,7 +22609,7 @@
         <v>22800</v>
       </c>
     </row>
-    <row r="528" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B528" s="1">
         <v>45267</v>
       </c>
@@ -22695,8 +22763,746 @@
         <v>106400</v>
       </c>
     </row>
+    <row r="542" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B542" s="1">
+        <v>45271</v>
+      </c>
+      <c r="D542">
+        <v>16</v>
+      </c>
+      <c r="F542" s="14">
+        <v>60800</v>
+      </c>
+    </row>
+    <row r="543" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B543" s="1">
+        <v>45271</v>
+      </c>
+      <c r="C543">
+        <v>17</v>
+      </c>
+      <c r="F543" s="14">
+        <v>64600</v>
+      </c>
+    </row>
+    <row r="544" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B544" s="1">
+        <v>45271</v>
+      </c>
+      <c r="D544">
+        <v>6</v>
+      </c>
+      <c r="F544" s="14">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="545" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B545" s="1">
+        <v>45271</v>
+      </c>
+      <c r="D545">
+        <v>9</v>
+      </c>
+      <c r="F545" s="14">
+        <v>34200</v>
+      </c>
+    </row>
+    <row r="546" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B546" s="1">
+        <v>45272</v>
+      </c>
+      <c r="D546">
+        <v>72</v>
+      </c>
+      <c r="F546" s="14">
+        <v>252000</v>
+      </c>
+    </row>
+    <row r="547" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B547" s="1">
+        <v>45272</v>
+      </c>
+      <c r="D547">
+        <v>20</v>
+      </c>
+      <c r="F547" s="14">
+        <v>76000</v>
+      </c>
+    </row>
+    <row r="548" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B548" s="1">
+        <v>45273</v>
+      </c>
+      <c r="D548">
+        <v>19</v>
+      </c>
+      <c r="F548" s="14">
+        <v>72200</v>
+      </c>
+    </row>
+    <row r="549" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B549" s="1">
+        <v>45273</v>
+      </c>
+      <c r="D549">
+        <v>10</v>
+      </c>
+      <c r="F549" s="14">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="550" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B550" s="1">
+        <v>45274</v>
+      </c>
+      <c r="D550">
+        <v>34</v>
+      </c>
+      <c r="F550" s="14">
+        <v>119000</v>
+      </c>
+    </row>
+    <row r="551" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B551" s="1">
+        <v>45274</v>
+      </c>
+      <c r="C551">
+        <v>15</v>
+      </c>
+      <c r="F551" s="14">
+        <v>52500</v>
+      </c>
+    </row>
+    <row r="552" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B552" s="1">
+        <v>45274</v>
+      </c>
+      <c r="C552">
+        <v>43</v>
+      </c>
+      <c r="F552" s="14">
+        <v>150500</v>
+      </c>
+    </row>
+    <row r="553" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B553" s="1">
+        <v>45274</v>
+      </c>
+      <c r="D553">
+        <v>40</v>
+      </c>
+      <c r="F553" s="14">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="554" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B554" s="1">
+        <v>45275</v>
+      </c>
+      <c r="C554">
+        <v>30</v>
+      </c>
+      <c r="F554" s="14">
+        <v>114000</v>
+      </c>
+    </row>
+    <row r="555" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B555" s="1">
+        <v>45275</v>
+      </c>
+      <c r="D555">
+        <v>12</v>
+      </c>
+      <c r="F555" s="14">
+        <v>45600</v>
+      </c>
+    </row>
+    <row r="556" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B556" s="1">
+        <v>45275</v>
+      </c>
+      <c r="D556">
+        <v>22</v>
+      </c>
+      <c r="F556" s="14">
+        <v>83600</v>
+      </c>
+    </row>
+    <row r="557" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B557" s="1">
+        <v>45275</v>
+      </c>
+      <c r="D557">
+        <v>6</v>
+      </c>
+      <c r="F557" s="14">
+        <v>22800</v>
+      </c>
+    </row>
+    <row r="558" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B558" s="1">
+        <v>45275</v>
+      </c>
+      <c r="D558">
+        <v>24</v>
+      </c>
+      <c r="F558" s="14">
+        <v>91200</v>
+      </c>
+    </row>
+    <row r="559" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B559" s="1">
+        <v>45275</v>
+      </c>
+      <c r="E559">
+        <v>12</v>
+      </c>
+      <c r="F559" s="14">
+        <v>64600</v>
+      </c>
+    </row>
+    <row r="560" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B560" s="1">
+        <v>45275</v>
+      </c>
+      <c r="D560">
+        <v>36</v>
+      </c>
+      <c r="F560" s="14">
+        <v>126000</v>
+      </c>
+    </row>
+    <row r="561" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B561" s="1">
+        <v>45276</v>
+      </c>
+      <c r="C561">
+        <v>100</v>
+      </c>
+      <c r="F561" s="14">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="562" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B562" s="1">
+        <v>45276</v>
+      </c>
+      <c r="D562">
+        <v>45</v>
+      </c>
+      <c r="F562" s="14">
+        <v>157500</v>
+      </c>
+    </row>
+    <row r="563" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B563" s="1">
+        <v>45276</v>
+      </c>
+      <c r="E563">
+        <v>49</v>
+      </c>
+      <c r="F563" s="14">
+        <v>171500</v>
+      </c>
+    </row>
+    <row r="564" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B564" s="1">
+        <v>45276</v>
+      </c>
+      <c r="C564">
+        <v>36</v>
+      </c>
+      <c r="F564" s="14">
+        <v>126000</v>
+      </c>
+    </row>
+    <row r="565" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B565" s="1">
+        <v>45276</v>
+      </c>
+      <c r="D565">
+        <v>9</v>
+      </c>
+      <c r="F565" s="14">
+        <v>34200</v>
+      </c>
+    </row>
+    <row r="566" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B566" s="1">
+        <v>45276</v>
+      </c>
+      <c r="C566">
+        <v>17</v>
+      </c>
+      <c r="F566" s="14">
+        <v>64600</v>
+      </c>
+    </row>
+    <row r="567" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B567" s="1">
+        <v>45278</v>
+      </c>
+      <c r="C567">
+        <v>41</v>
+      </c>
+      <c r="F567" s="14">
+        <v>143500</v>
+      </c>
+    </row>
+    <row r="568" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B568" s="1">
+        <v>45278</v>
+      </c>
+      <c r="C568">
+        <v>8</v>
+      </c>
+      <c r="F568" s="14">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="569" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B569" s="1">
+        <v>45278</v>
+      </c>
+      <c r="D569">
+        <v>60</v>
+      </c>
+      <c r="F569" s="14">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="570" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B570" s="1">
+        <v>45278</v>
+      </c>
+      <c r="D570">
+        <v>60</v>
+      </c>
+      <c r="F570" s="14">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="571" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B571" s="1">
+        <v>45278</v>
+      </c>
+      <c r="D571">
+        <v>110</v>
+      </c>
+      <c r="F571" s="14">
+        <v>385000</v>
+      </c>
+    </row>
+    <row r="572" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B572" s="1">
+        <v>45279</v>
+      </c>
+      <c r="D572">
+        <v>23</v>
+      </c>
+      <c r="F572" s="14">
+        <v>80500</v>
+      </c>
+    </row>
+    <row r="573" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B573" s="1">
+        <v>45279</v>
+      </c>
+      <c r="D573">
+        <v>100</v>
+      </c>
+      <c r="F573" s="14">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="574" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B574" s="1">
+        <v>45279</v>
+      </c>
+      <c r="D574">
+        <v>124</v>
+      </c>
+      <c r="F574" s="14">
+        <v>434000</v>
+      </c>
+    </row>
+    <row r="575" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B575" s="1">
+        <v>45279</v>
+      </c>
+      <c r="C575">
+        <v>11</v>
+      </c>
+      <c r="F575" s="14">
+        <v>55500</v>
+      </c>
+    </row>
+    <row r="576" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B576" s="1">
+        <v>45280</v>
+      </c>
+      <c r="D576">
+        <v>30</v>
+      </c>
+      <c r="F576" s="14">
+        <v>114000</v>
+      </c>
+    </row>
+    <row r="577" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B577" s="1">
+        <v>45280</v>
+      </c>
+      <c r="D577">
+        <v>40</v>
+      </c>
+      <c r="F577" s="14">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="578" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B578" s="1">
+        <v>45280</v>
+      </c>
+      <c r="D578">
+        <v>10</v>
+      </c>
+      <c r="F578" s="14">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="579" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B579" s="1">
+        <v>45280</v>
+      </c>
+      <c r="D579">
+        <v>10</v>
+      </c>
+      <c r="F579" s="14">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="580" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B580" s="1">
+        <v>45280</v>
+      </c>
+      <c r="E580">
+        <v>18</v>
+      </c>
+      <c r="F580" s="14">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="581" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B581" s="1">
+        <v>45280</v>
+      </c>
+      <c r="D581">
+        <v>216</v>
+      </c>
+      <c r="F581" s="14">
+        <v>756000</v>
+      </c>
+    </row>
+    <row r="582" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B582" s="1">
+        <v>45280</v>
+      </c>
+      <c r="C582">
+        <v>24</v>
+      </c>
+      <c r="F582" s="14">
+        <v>91200</v>
+      </c>
+    </row>
+    <row r="583" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B583" s="1">
+        <v>45281</v>
+      </c>
+      <c r="C583">
+        <v>10</v>
+      </c>
+      <c r="F583" s="14">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="584" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B584" s="1">
+        <v>45281</v>
+      </c>
+      <c r="C584">
+        <v>12</v>
+      </c>
+      <c r="F584" s="14">
+        <v>45600</v>
+      </c>
+    </row>
+    <row r="585" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B585" s="1">
+        <v>45281</v>
+      </c>
+      <c r="C585">
+        <v>10</v>
+      </c>
+      <c r="F585" s="14">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="586" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B586" s="1">
+        <v>45281</v>
+      </c>
+      <c r="E586">
+        <v>36</v>
+      </c>
+      <c r="F586" s="14">
+        <v>126000</v>
+      </c>
+    </row>
+    <row r="587" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B587" s="1">
+        <v>45281</v>
+      </c>
+      <c r="D587">
+        <v>36</v>
+      </c>
+      <c r="F587" s="14">
+        <v>126000</v>
+      </c>
+    </row>
+    <row r="588" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B588" s="1">
+        <v>45281</v>
+      </c>
+      <c r="D588">
+        <v>51</v>
+      </c>
+      <c r="F588" s="14">
+        <v>178500</v>
+      </c>
+    </row>
+    <row r="589" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B589" s="1">
+        <v>45282</v>
+      </c>
+      <c r="D589">
+        <v>4</v>
+      </c>
+      <c r="F589" s="14">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="590" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B590" s="1">
+        <v>45282</v>
+      </c>
+      <c r="E590">
+        <v>12</v>
+      </c>
+      <c r="F590" s="14">
+        <v>45600</v>
+      </c>
+    </row>
+    <row r="591" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B591" s="1">
+        <v>45282</v>
+      </c>
+      <c r="E591">
+        <v>18</v>
+      </c>
+      <c r="F591" s="14">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="592" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B592" s="1">
+        <v>45282</v>
+      </c>
+      <c r="D592">
+        <v>14</v>
+      </c>
+      <c r="F592" s="14">
+        <v>53200</v>
+      </c>
+    </row>
+    <row r="593" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B593" s="1">
+        <v>45282</v>
+      </c>
+      <c r="E593">
+        <v>50</v>
+      </c>
+      <c r="F593" s="14">
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="594" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B594" s="1">
+        <v>45282</v>
+      </c>
+      <c r="C594">
+        <v>13</v>
+      </c>
+      <c r="F594" s="14">
+        <v>49400</v>
+      </c>
+    </row>
+    <row r="595" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B595" s="1">
+        <v>45282</v>
+      </c>
+      <c r="C595">
+        <v>35</v>
+      </c>
+      <c r="F595" s="14">
+        <v>122500</v>
+      </c>
+    </row>
+    <row r="596" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B596" s="1">
+        <v>45282</v>
+      </c>
+      <c r="C596">
+        <v>41</v>
+      </c>
+      <c r="F596" s="14">
+        <v>143500</v>
+      </c>
+    </row>
+    <row r="597" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B597" s="1">
+        <v>45282</v>
+      </c>
+      <c r="D597">
+        <v>300</v>
+      </c>
+      <c r="F597" s="14">
+        <v>1050000</v>
+      </c>
+    </row>
+    <row r="598" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B598" s="1">
+        <v>45283</v>
+      </c>
+      <c r="C598">
+        <v>10</v>
+      </c>
+      <c r="F598" s="14">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="599" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B599" s="1">
+        <v>45283</v>
+      </c>
+      <c r="C599">
+        <v>8</v>
+      </c>
+      <c r="F599" s="14">
+        <v>30400</v>
+      </c>
+    </row>
+    <row r="600" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B600" s="1">
+        <v>45283</v>
+      </c>
+      <c r="D600">
+        <v>24</v>
+      </c>
+      <c r="F600" s="14">
+        <v>91200</v>
+      </c>
+    </row>
+    <row r="601" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B601" s="1">
+        <v>45283</v>
+      </c>
+      <c r="C601">
+        <v>21</v>
+      </c>
+      <c r="F601" s="14">
+        <v>73500</v>
+      </c>
+    </row>
+    <row r="602" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B602" s="1">
+        <v>45283</v>
+      </c>
+      <c r="D602">
+        <v>36</v>
+      </c>
+      <c r="F602" s="14">
+        <v>126000</v>
+      </c>
+    </row>
+    <row r="603" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B603" s="1">
+        <v>45283</v>
+      </c>
+      <c r="C603">
+        <v>21</v>
+      </c>
+      <c r="F603" s="14">
+        <v>73500</v>
+      </c>
+    </row>
+    <row r="604" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B604" s="1">
+        <v>45283</v>
+      </c>
+      <c r="D604">
+        <v>36</v>
+      </c>
+      <c r="F604" s="14">
+        <v>126000</v>
+      </c>
+    </row>
+    <row r="605" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B605" s="1">
+        <v>45283</v>
+      </c>
+      <c r="C605">
+        <v>21</v>
+      </c>
+      <c r="F605" s="14">
+        <v>79800</v>
+      </c>
+    </row>
+    <row r="606" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B606" s="1">
+        <v>45283</v>
+      </c>
+      <c r="C606">
+        <v>3</v>
+      </c>
+      <c r="F606" s="14">
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="607" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B607" s="1">
+        <v>45283</v>
+      </c>
+      <c r="D607">
+        <v>16</v>
+      </c>
+      <c r="F607" s="14">
+        <v>82000</v>
+      </c>
+    </row>
+    <row r="608" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B608" s="1">
+        <v>45283</v>
+      </c>
+      <c r="D608">
+        <v>36</v>
+      </c>
+      <c r="F608" s="14">
+        <v>126000</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="57">
+    <mergeCell ref="H515:O515"/>
     <mergeCell ref="H319:O319"/>
     <mergeCell ref="I47:M47"/>
     <mergeCell ref="H204:O204"/>
@@ -22739,25 +23545,26 @@
     <mergeCell ref="H236:O236"/>
     <mergeCell ref="H130:O130"/>
     <mergeCell ref="H90:O90"/>
+    <mergeCell ref="H392:O392"/>
+    <mergeCell ref="H449:O449"/>
+    <mergeCell ref="H454:L454"/>
+    <mergeCell ref="H444:O444"/>
     <mergeCell ref="H334:L334"/>
     <mergeCell ref="H387:O387"/>
     <mergeCell ref="H429:O429"/>
     <mergeCell ref="H407:L407"/>
     <mergeCell ref="H434:O434"/>
+    <mergeCell ref="H509:O509"/>
     <mergeCell ref="H504:O504"/>
     <mergeCell ref="H439:O439"/>
     <mergeCell ref="H402:O402"/>
     <mergeCell ref="H397:O397"/>
-    <mergeCell ref="H392:O392"/>
-    <mergeCell ref="H449:O449"/>
-    <mergeCell ref="H454:L454"/>
-    <mergeCell ref="H444:O444"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="K33 J37 K41 J45 J49:K49 M49 J8 J20 M20 J88:K88 I92 I96:J96 K92 I100:J100 J104 L104 I120:J120 J124 J128 I132 I136 L136 I196:J196 I201 K201 I206:J206 I211 I216 I222 L222" formulaRange="1"/>
+    <ignoredError sqref="K33 J37 K41 J45 J49:K49 M49 J8 J20 M20 J88:K88 I92 I96:J96 K92 I100:J100 J104 L104 I120:J120 J124 J128 I132 I136 L136 I196:J196 I201 K201 I206:J206 I211 I216 I222 L222 J506 I511:J511 I517" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <tableParts count="1">
@@ -25532,7 +26339,7 @@
         <v>292000</v>
       </c>
       <c r="G171" s="14">
-        <f t="shared" ref="G171:G202" si="5">G170+E171-F171</f>
+        <f t="shared" ref="G171:G191" si="5">G170+E171-F171</f>
         <v>478867</v>
       </c>
     </row>

--- a/reporte ventas.xlsx
+++ b/reporte ventas.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\programacion22-23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFF5677-B0F7-443D-9168-077BFA7FEC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C5A91E-C4BF-49C0-9E72-AF7639F115D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte Sublimado 2023" sheetId="1" r:id="rId1"/>
-    <sheet name="Comparativo mensual" sheetId="5" r:id="rId2"/>
-    <sheet name="contabilidad" sheetId="3" r:id="rId3"/>
-    <sheet name="Resultados" sheetId="4" r:id="rId4"/>
-    <sheet name="Ventas varias" sheetId="2" r:id="rId5"/>
+    <sheet name="Reporte Sublimado 2024" sheetId="6" r:id="rId2"/>
+    <sheet name="Comparativo mensual" sheetId="5" r:id="rId3"/>
+    <sheet name="contabilidad" sheetId="3" r:id="rId4"/>
+    <sheet name="Resultados" sheetId="4" r:id="rId5"/>
+    <sheet name="Ventas varias" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="187">
   <si>
     <t>Reporte de Ventas</t>
   </si>
@@ -566,18 +567,56 @@
   <si>
     <t>Semana 18 de Diciembre - 23 de Diciembre</t>
   </si>
+  <si>
+    <t>Total Mes Diciembre</t>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>Reporte Ventas Mugs 2024</t>
+  </si>
+  <si>
+    <t>FECHA</t>
+  </si>
+  <si>
+    <t>SEBASTIÁN</t>
+  </si>
+  <si>
+    <t>ANGELICA</t>
+  </si>
+  <si>
+    <t>ALEJANDRO</t>
+  </si>
+  <si>
+    <t>VALOR VENTA</t>
+  </si>
+  <si>
+    <t>TOTAL ANUAL</t>
+  </si>
+  <si>
+    <t>VENDEDOR</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0"/>
     <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="[$$-240A]\ #,##0"/>
+    <numFmt numFmtId="170" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,8 +651,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -698,8 +751,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -817,11 +876,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -893,11 +979,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color theme="1"/>
@@ -1188,10 +1297,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7279</c:v>
+                  <c:v>7385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11948</c:v>
+                  <c:v>12068</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1794</c:v>
@@ -1464,13 +1573,26 @@
           <c:val>
             <c:numRef>
               <c:f>'Reporte Sublimado 2023'!$I$336:$K$336</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1384</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1421</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>316</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:multiLvlStrRef>
+                  <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -1478,7 +1600,19 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:multiLvlStrRef>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Sebastian</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Angelica</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Alejandro</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
             </c:ext>
@@ -1786,13 +1920,26 @@
           <c:val>
             <c:numRef>
               <c:f>'Reporte Sublimado 2023'!$I$409:$K$409</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>517</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>136</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:multiLvlStrRef>
+                  <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -1800,7 +1947,19 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:multiLvlStrRef>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Sebastian</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Angelica</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Alejandro</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
             </c:ext>
@@ -2149,13 +2308,26 @@
           <c:val>
             <c:numRef>
               <c:f>'Reporte Sublimado 2023'!$I$456:$K$456</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1085</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2251</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>137</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:multiLvlStrRef>
+                  <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -2163,7 +2335,19 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:multiLvlStrRef>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Sebastian</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Angelica</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Alejandro</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
             </c:ext>
@@ -2391,17 +2575,481 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-399F-4A3C-BB71-40319029B6C9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-399F-4A3C-BB71-40319029B6C9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Reporte Sublimado 2024'!$I$3:$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SEBASTIÁN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ANGELICA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ALEJANDRO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Reporte Sublimado 2024'!$I$4:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-399F-4A3C-BB71-40319029B6C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="111712463"/>
+        <c:axId val="111452751"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="111712463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="111452751"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="111452751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="111712463"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2410,8 +3058,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>2023</a:t>
+              <a:rPr lang="es-CO"/>
+              <a:t>Comparacion mensual</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2429,11 +3077,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -2455,76 +3102,120 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Comparativo mensual'!$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Valor</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>2023</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:marker>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Comparativo mensual'!$D$3:$N$3</c:f>
+              <c:f>'Comparativo mensual'!$C$3:$N$3</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>Enero</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Febrero</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Marzo</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Abril</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Mayo</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Junio</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Julio</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Agosto</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Septiembre</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>Octubre</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>Noviembre</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>Diciembre</c:v>
                 </c:pt>
               </c:strCache>
@@ -2532,39 +3223,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Comparativo mensual'!$D$4:$N$4</c:f>
+              <c:f>'Comparativo mensual'!$C$4:$N$4</c:f>
               <c:numCache>
                 <c:formatCode>[$$-240A]\ #,##0</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
                   <c:v>3097900</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>7720000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>5636400</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>11604000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>4553500</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2074000</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>3966600</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>11644500</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>3472100</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>12284300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15409400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2572,7 +3266,91 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D908-4932-AFC5-E4411D2C65A5}"/>
+              <c16:uniqueId val="{00000000-1113-4AE4-89F2-716F53AE4215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2024</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Comparativo mensual'!$C$3:$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Enero</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Febrero</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Marzo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mayo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Junio</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Julio</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Agosto</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Septiembre</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Octubre</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Noviembre</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Diciembre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparativo mensual'!$C$5:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>[$$-240A]\ #,##0</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1113-4AE4-89F2-716F53AE4215}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2584,84 +3362,43 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1335490231"/>
-        <c:axId val="1335458983"/>
+        <c:axId val="1877127295"/>
+        <c:axId val="1978912255"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1335490231"/>
+        <c:axId val="1877127295"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1335458983"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1335458983"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="[$$-240A]\ #,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2679,9 +3416,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2692,7 +3428,76 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1335490231"/>
+        <c:crossAx val="1978912255"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1978912255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;\ #,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1877127295"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2705,7 +3510,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2721,9 +3526,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -2737,15 +3541,25 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -2916,13 +3730,26 @@
           <c:val>
             <c:numRef>
               <c:f>'Reporte Sublimado 2023'!$J$49:$L$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>809</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>893</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:multiLvlStrRef>
+                  <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -2930,7 +3757,19 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:multiLvlStrRef>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Sebastian</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Angelica</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Alejandro</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
             </c:ext>
@@ -3265,13 +4104,26 @@
           <c:val>
             <c:numRef>
               <c:f>'Reporte Sublimado 2023'!$J$20:$L$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>149</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:multiLvlStrRef>
+                  <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -3279,7 +4131,19 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:multiLvlStrRef>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Sebastian</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Angelica</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Alejandro</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
             </c:ext>
@@ -3658,13 +4522,26 @@
           <c:val>
             <c:numRef>
               <c:f>'Reporte Sublimado 2023'!$I$104:$K$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>806</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>172</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:multiLvlStrRef>
+                  <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -3672,7 +4549,19 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:multiLvlStrRef>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Sebastian</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Angelica</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Alejandro</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
             </c:ext>
@@ -4041,13 +4930,26 @@
           <c:val>
             <c:numRef>
               <c:f>'Reporte Sublimado 2023'!$I$136:$K$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2121</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:multiLvlStrRef>
+                  <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -4055,7 +4957,19 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:multiLvlStrRef>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Sebastian</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Angelica</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Alejandro</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
             </c:ext>
@@ -4424,13 +5338,26 @@
           <c:val>
             <c:numRef>
               <c:f>'Reporte Sublimado 2023'!$I$222:$K$222</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>655</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:multiLvlStrRef>
+                  <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -4438,7 +5365,19 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:multiLvlStrRef>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Sebastian</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Angelica</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Alejandro</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
             </c:ext>
@@ -4745,13 +5684,26 @@
           <c:val>
             <c:numRef>
               <c:f>'Reporte Sublimado 2023'!$I$259:$K$259</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:multiLvlStrRef>
+                  <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -4759,7 +5711,19 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:multiLvlStrRef>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Sebastian</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Angelica</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Alejandro</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
             </c:ext>
@@ -4910,7 +5874,7 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr rtl="0">
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -5490,13 +6454,26 @@
           <c:val>
             <c:numRef>
               <c:f>'Reporte Sublimado 2023'!$I$299:$K$299</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>306</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:multiLvlStrRef>
+                  <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -5504,7 +6481,19 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:multiLvlStrRef>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Sebastian</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Angelica</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Alejandro</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
             </c:ext>
@@ -5655,7 +6644,7 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr rtl="0">
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -5836,6 +6825,46 @@
 </file>
 
 <file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8191,62 +9220,58 @@
 </file>
 
 <file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="294">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+    <cs:spPr/>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -8255,9 +9280,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8276,14 +9300,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -8292,20 +9308,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -8314,13 +9330,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -8332,10 +9348,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -8344,16 +9360,17 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -8371,16 +9388,354 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -8389,13 +9744,27 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -8404,29 +9773,205 @@
           <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:downBar>
   <cs:dropLine>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8438,14 +9983,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8457,30 +10001,35 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -8490,16 +10039,29 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -8509,14 +10071,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8528,14 +10089,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8547,27 +10107,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -8575,9 +10134,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8587,14 +10145,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8606,12 +10163,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -8620,14 +10176,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="25400" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -8636,9 +10193,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8652,15 +10208,17 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -8669,9 +10227,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8681,14 +10238,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -13076,23 +14627,64 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
+        <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C344E7D-C4EB-FDFB-EAE4-D2AD89533251}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E2198F-484D-E01D-7997-24E6E570416C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>90486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B49F110-D10A-024E-0AD6-4683FCDCC2F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13114,26 +14706,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:F608" totalsRowShown="0">
-  <autoFilter ref="B5:F608" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B5:F620" totalsRowShown="0">
+  <autoFilter ref="B5:F620" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0">
-      <filters>
-        <dateGroupItem year="2023" month="12" dateTimeGrouping="month"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="fecha" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="fecha" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="sebastian"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="angelica"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="alejandro"/>
-    <tableColumn id="11" xr3:uid="{FB131883-0E90-4D94-A51A-8097721442E9}" name="valor venta" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{FB131883-0E90-4D94-A51A-8097721442E9}" name="valor venta" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{806C4741-71D1-4F64-AC06-DC44BC020FD6}" name="Tabla4" displayName="Tabla4" ref="B5:F6" totalsRowShown="0" tableBorderDxfId="0">
+  <autoFilter ref="B5:F6" xr:uid="{806C4741-71D1-4F64-AC06-DC44BC020FD6}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{A575072D-0AA7-4CAA-B6BC-4F5E83DD77DC}" name="FECHA"/>
+    <tableColumn id="2" xr3:uid="{920E0BB2-90A5-473B-8B0A-6EC77B3D0A72}" name="SEBASTIÁN"/>
+    <tableColumn id="3" xr3:uid="{A109DA8A-D239-4170-A9CF-4D43A00F6586}" name="ANGELICA"/>
+    <tableColumn id="4" xr3:uid="{B9CD0B56-A957-4568-BD53-A71446C45D36}" name="ALEJANDRO"/>
+    <tableColumn id="5" xr3:uid="{4EB53435-3F6D-4D8B-A54E-D3C965AF0FA6}" name="VALOR VENTA"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1120BC1B-CEBD-4C5A-8A57-36FFDB200EBB}" name="CIG" displayName="CIG" ref="C9:G191" totalsRowShown="0">
   <autoFilter ref="C9:G191" xr:uid="{1120BC1B-CEBD-4C5A-8A57-36FFDB200EBB}">
     <filterColumn colId="0">
@@ -13143,11 +14749,11 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{09CA6B04-7587-47A4-9042-38FC7B6A6233}" name="Fecha" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{09CA6B04-7587-47A4-9042-38FC7B6A6233}" name="Fecha" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{5AEA634A-678A-44EA-AC4D-F6A09EE13131}" name="Concepto"/>
-    <tableColumn id="3" xr3:uid="{6F6407BC-0FAB-4044-9562-82F01224E7CA}" name="Ingresos" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{474A0794-144C-41B9-9C1B-5ABE9DCA9FFB}" name="Gastos" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{A0D5EA6C-3BA5-4965-8B63-289DE16CF86D}" name="Saldo" dataDxfId="7">
+    <tableColumn id="3" xr3:uid="{6F6407BC-0FAB-4044-9562-82F01224E7CA}" name="Ingresos" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{474A0794-144C-41B9-9C1B-5ABE9DCA9FFB}" name="Gastos" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{A0D5EA6C-3BA5-4965-8B63-289DE16CF86D}" name="Saldo" dataDxfId="8">
       <calculatedColumnFormula>G9+E10-F10</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13155,21 +14761,21 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla2" displayName="Tabla2" ref="B4:I5" totalsRowShown="0">
   <autoFilter ref="B4:I5" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="fecha"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="producto"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="valor compra" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="valor venta" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="ganacia" dataDxfId="4">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="valor compra" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="valor venta" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="ganacia" dataDxfId="5">
       <calculatedColumnFormula>Tabla2[[#This Row],[valor venta]]-Tabla2[[#This Row],[valor compra]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{152DC3E8-99C4-4499-9827-8720DD7F6218}" name="porcentaje reinversion" dataDxfId="3">
+    <tableColumn id="8" xr3:uid="{152DC3E8-99C4-4499-9827-8720DD7F6218}" name="porcentaje reinversion" dataDxfId="4">
       <calculatedColumnFormula>(Tabla2[[#This Row],[ganacia]]*15)/100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{31848A63-FD0A-4048-BA7D-0FF1C87D6101}" name="mano de obra" dataDxfId="2">
+    <tableColumn id="9" xr3:uid="{31848A63-FD0A-4048-BA7D-0FF1C87D6101}" name="mano de obra" dataDxfId="3">
       <calculatedColumnFormula>Tabla2[[#This Row],[ganacia]]-Tabla2[[#This Row],[porcentaje reinversion]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="vendedor"/>
@@ -13475,10 +15081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AF608"/>
+  <dimension ref="B2:AF620"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O517" sqref="O517"/>
+    <sheetView topLeftCell="A614" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13594,11 +15200,11 @@
       </c>
       <c r="I4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>7279</v>
+        <v>7385</v>
       </c>
       <c r="J4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
-        <v>11948</v>
+        <v>12068</v>
       </c>
       <c r="K4" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
@@ -13606,7 +15212,7 @@
       </c>
       <c r="L4" s="12">
         <f xml:space="preserve"> SUM(Tabla1[valor venta])</f>
-        <v>80270800</v>
+        <v>81096100</v>
       </c>
       <c r="U4" s="17" t="s">
         <v>20</v>
@@ -13652,7 +15258,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>44964</v>
       </c>
@@ -13670,7 +15276,7 @@
       <c r="L6" s="27"/>
       <c r="M6" s="27"/>
     </row>
-    <row r="7" spans="2:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>44964</v>
       </c>
@@ -13696,7 +15302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>44965</v>
       </c>
@@ -13729,7 +15335,7 @@
         <v>46000</v>
       </c>
     </row>
-    <row r="9" spans="2:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>44965</v>
       </c>
@@ -13740,7 +15346,7 @@
         <v>147600</v>
       </c>
     </row>
-    <row r="10" spans="2:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>44966</v>
       </c>
@@ -13758,7 +15364,7 @@
       <c r="L10" s="27"/>
       <c r="M10" s="27"/>
     </row>
-    <row r="11" spans="2:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>44967</v>
       </c>
@@ -13784,7 +15390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>44967</v>
       </c>
@@ -13799,11 +15405,11 @@
       </c>
       <c r="J12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[sebastian])</f>
-        <v>7279</v>
+        <v>7385</v>
       </c>
       <c r="K12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[angelica])</f>
-        <v>11948</v>
+        <v>12068</v>
       </c>
       <c r="L12" s="2">
         <f xml:space="preserve"> SUM(Tabla1[alejandro])</f>
@@ -13811,10 +15417,10 @@
       </c>
       <c r="M12" s="2">
         <f>SUM(J12:L12)</f>
-        <v>21021</v>
-      </c>
-    </row>
-    <row r="13" spans="2:32" hidden="1" x14ac:dyDescent="0.25">
+        <v>21247</v>
+      </c>
+    </row>
+    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>44967</v>
       </c>
@@ -13825,7 +15431,7 @@
         <v>147600</v>
       </c>
     </row>
-    <row r="14" spans="2:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>44968</v>
       </c>
@@ -13837,7 +15443,7 @@
         <v>213200</v>
       </c>
     </row>
-    <row r="15" spans="2:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>44971</v>
       </c>
@@ -13848,7 +15454,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="16" spans="2:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>44972</v>
       </c>
@@ -13859,7 +15465,7 @@
         <v>348500</v>
       </c>
     </row>
-    <row r="17" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>44972</v>
       </c>
@@ -13870,7 +15476,7 @@
         <v>35200</v>
       </c>
     </row>
-    <row r="18" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>44973</v>
       </c>
@@ -13888,7 +15494,7 @@
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
     </row>
-    <row r="19" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>44974</v>
       </c>
@@ -13914,7 +15520,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>44974</v>
       </c>
@@ -13944,7 +15550,7 @@
         <v>3097900</v>
       </c>
     </row>
-    <row r="21" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>44975</v>
       </c>
@@ -13955,7 +15561,7 @@
         <v>26400</v>
       </c>
     </row>
-    <row r="22" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>44975</v>
       </c>
@@ -13966,7 +15572,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="23" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>44977</v>
       </c>
@@ -13977,7 +15583,7 @@
         <v>30800</v>
       </c>
     </row>
-    <row r="24" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>44977</v>
       </c>
@@ -13988,7 +15594,7 @@
         <v>147600</v>
       </c>
     </row>
-    <row r="25" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>44978</v>
       </c>
@@ -13999,7 +15605,7 @@
         <v>246000</v>
       </c>
     </row>
-    <row r="26" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>44979</v>
       </c>
@@ -14010,7 +15616,7 @@
         <v>147600</v>
       </c>
     </row>
-    <row r="27" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>44980</v>
       </c>
@@ -14021,7 +15627,7 @@
         <v>205000</v>
       </c>
     </row>
-    <row r="28" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>44980</v>
       </c>
@@ -14032,7 +15638,7 @@
         <v>57200</v>
       </c>
     </row>
-    <row r="29" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>44982</v>
       </c>
@@ -14043,7 +15649,7 @@
         <v>92400</v>
       </c>
     </row>
-    <row r="30" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>44985</v>
       </c>
@@ -14054,7 +15660,7 @@
         <v>92400</v>
       </c>
     </row>
-    <row r="31" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>44986</v>
       </c>
@@ -14075,7 +15681,7 @@
       <c r="O31" s="27"/>
       <c r="P31" s="27"/>
     </row>
-    <row r="32" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>44986</v>
       </c>
@@ -14110,7 +15716,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>44986</v>
       </c>
@@ -14155,7 +15761,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>44987</v>
       </c>
@@ -14170,7 +15776,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="35" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>44988</v>
       </c>
@@ -14195,7 +15801,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="36" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>44988</v>
       </c>
@@ -14234,7 +15840,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>44989</v>
       </c>
@@ -14279,7 +15885,7 @@
         <v>58000</v>
       </c>
     </row>
-    <row r="38" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>44989</v>
       </c>
@@ -14294,7 +15900,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="39" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>44991</v>
       </c>
@@ -14319,7 +15925,7 @@
         <v>52000</v>
       </c>
     </row>
-    <row r="40" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>44991</v>
       </c>
@@ -14358,7 +15964,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="41" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>44991</v>
       </c>
@@ -14403,7 +16009,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>44992</v>
       </c>
@@ -14414,7 +16020,7 @@
         <v>52800</v>
       </c>
     </row>
-    <row r="43" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>44992</v>
       </c>
@@ -14435,7 +16041,7 @@
       <c r="O43" s="27"/>
       <c r="P43" s="27"/>
     </row>
-    <row r="44" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>44992</v>
       </c>
@@ -14470,7 +16076,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>44992</v>
       </c>
@@ -14511,7 +16117,7 @@
         <v>66666.666666666672</v>
       </c>
     </row>
-    <row r="46" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>44992</v>
       </c>
@@ -14522,7 +16128,7 @@
         <v>213200</v>
       </c>
     </row>
-    <row r="47" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>44992</v>
       </c>
@@ -14540,7 +16146,7 @@
       <c r="L47" s="27"/>
       <c r="M47" s="27"/>
     </row>
-    <row r="48" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>44993</v>
       </c>
@@ -14566,7 +16172,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>44993</v>
       </c>
@@ -14596,7 +16202,7 @@
         <v>7720000</v>
       </c>
     </row>
-    <row r="50" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>44993</v>
       </c>
@@ -14607,7 +16213,7 @@
         <v>52800</v>
       </c>
     </row>
-    <row r="51" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>44993</v>
       </c>
@@ -14618,7 +16224,7 @@
         <v>52800</v>
       </c>
     </row>
-    <row r="52" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>44993</v>
       </c>
@@ -14629,7 +16235,7 @@
         <v>79200</v>
       </c>
     </row>
-    <row r="53" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>44994</v>
       </c>
@@ -14640,7 +16246,7 @@
         <v>172200</v>
       </c>
     </row>
-    <row r="54" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>44994</v>
       </c>
@@ -14651,7 +16257,7 @@
         <v>145200</v>
       </c>
     </row>
-    <row r="55" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>44995</v>
       </c>
@@ -14662,7 +16268,7 @@
         <v>35200</v>
       </c>
     </row>
-    <row r="56" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>44995</v>
       </c>
@@ -14673,7 +16279,7 @@
         <v>196800</v>
       </c>
     </row>
-    <row r="57" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>44995</v>
       </c>
@@ -14684,7 +16290,7 @@
         <v>196800</v>
       </c>
     </row>
-    <row r="58" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>44996</v>
       </c>
@@ -14695,7 +16301,7 @@
         <v>151700</v>
       </c>
     </row>
-    <row r="59" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>44999</v>
       </c>
@@ -14706,7 +16312,7 @@
         <v>196800</v>
       </c>
     </row>
-    <row r="60" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>44999</v>
       </c>
@@ -14717,7 +16323,7 @@
         <v>114400</v>
       </c>
     </row>
-    <row r="61" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <v>45000</v>
       </c>
@@ -14728,7 +16334,7 @@
         <v>52800</v>
       </c>
     </row>
-    <row r="62" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>45001</v>
       </c>
@@ -14739,7 +16345,7 @@
         <v>101200</v>
       </c>
     </row>
-    <row r="63" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <v>45001</v>
       </c>
@@ -14750,7 +16356,7 @@
         <v>52800</v>
       </c>
     </row>
-    <row r="64" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>45000</v>
       </c>
@@ -14761,7 +16367,7 @@
         <v>164000</v>
       </c>
     </row>
-    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>45002</v>
       </c>
@@ -14772,7 +16378,7 @@
         <v>590400</v>
       </c>
     </row>
-    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>45002</v>
       </c>
@@ -14783,7 +16389,7 @@
         <v>147600</v>
       </c>
     </row>
-    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>45003</v>
       </c>
@@ -14794,7 +16400,7 @@
         <v>233700</v>
       </c>
     </row>
-    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>45003</v>
       </c>
@@ -14805,7 +16411,7 @@
         <v>118800</v>
       </c>
     </row>
-    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>45003</v>
       </c>
@@ -14816,7 +16422,7 @@
         <v>221400</v>
       </c>
     </row>
-    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>45007</v>
       </c>
@@ -14827,7 +16433,7 @@
         <v>136400</v>
       </c>
     </row>
-    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>45007</v>
       </c>
@@ -14838,7 +16444,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>45008</v>
       </c>
@@ -14849,7 +16455,7 @@
         <v>48400</v>
       </c>
     </row>
-    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <v>45008</v>
       </c>
@@ -14860,7 +16466,7 @@
         <v>147600</v>
       </c>
     </row>
-    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <v>45009</v>
       </c>
@@ -14871,7 +16477,7 @@
         <v>61600</v>
       </c>
     </row>
-    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <v>45009</v>
       </c>
@@ -14882,7 +16488,7 @@
         <v>105600</v>
       </c>
     </row>
-    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
         <v>45009</v>
       </c>
@@ -14893,7 +16499,7 @@
         <v>147600</v>
       </c>
     </row>
-    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
         <v>45009</v>
       </c>
@@ -14904,7 +16510,7 @@
         <v>48400</v>
       </c>
     </row>
-    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
         <v>45013</v>
       </c>
@@ -14915,7 +16521,7 @@
         <v>410000</v>
       </c>
     </row>
-    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
         <v>45014</v>
       </c>
@@ -14926,7 +16532,7 @@
         <v>52800</v>
       </c>
     </row>
-    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
         <v>45014</v>
       </c>
@@ -14937,7 +16543,7 @@
         <v>184500</v>
       </c>
     </row>
-    <row r="81" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <v>45014</v>
       </c>
@@ -14948,7 +16554,7 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="82" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
         <v>45016</v>
       </c>
@@ -14959,7 +16565,7 @@
         <v>759600</v>
       </c>
     </row>
-    <row r="83" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <v>45017</v>
       </c>
@@ -14970,7 +16576,7 @@
         <v>147600</v>
       </c>
     </row>
-    <row r="84" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <v>45017</v>
       </c>
@@ -14981,7 +16587,7 @@
         <v>61500</v>
       </c>
     </row>
-    <row r="85" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>45017</v>
       </c>
@@ -14992,7 +16598,7 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="86" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>45019</v>
       </c>
@@ -15013,7 +16619,7 @@
       <c r="N86" s="27"/>
       <c r="O86" s="27"/>
     </row>
-    <row r="87" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
         <v>45021</v>
       </c>
@@ -15048,7 +16654,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
         <v>45026</v>
       </c>
@@ -15089,7 +16695,7 @@
         <v>18866.666666666668</v>
       </c>
     </row>
-    <row r="89" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B89" s="1">
         <v>45027</v>
       </c>
@@ -15100,7 +16706,7 @@
         <v>29300</v>
       </c>
     </row>
-    <row r="90" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B90" s="1">
         <v>45028</v>
       </c>
@@ -15121,7 +16727,7 @@
       <c r="N90" s="27"/>
       <c r="O90" s="27"/>
     </row>
-    <row r="91" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B91" s="1">
         <v>45029</v>
       </c>
@@ -15156,7 +16762,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B92" s="1">
         <v>45030</v>
       </c>
@@ -15197,7 +16803,7 @@
         <v>30666.666666666668</v>
       </c>
     </row>
-    <row r="93" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B93" s="1">
         <v>45031</v>
       </c>
@@ -15208,7 +16814,7 @@
         <v>100800</v>
       </c>
     </row>
-    <row r="94" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B94" s="1">
         <v>45031</v>
       </c>
@@ -15229,7 +16835,7 @@
       <c r="N94" s="27"/>
       <c r="O94" s="27"/>
     </row>
-    <row r="95" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B95" s="1">
         <v>45034</v>
       </c>
@@ -15264,7 +16870,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B96" s="1">
         <v>45035</v>
       </c>
@@ -15305,7 +16911,7 @@
         <v>52066.666666666664</v>
       </c>
     </row>
-    <row r="97" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B97" s="1">
         <v>45036</v>
       </c>
@@ -15316,7 +16922,7 @@
         <v>52800</v>
       </c>
     </row>
-    <row r="98" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B98" s="1">
         <v>45036</v>
       </c>
@@ -15337,7 +16943,7 @@
       <c r="N98" s="27"/>
       <c r="O98" s="27"/>
     </row>
-    <row r="99" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B99" s="1">
         <v>45036</v>
       </c>
@@ -15372,7 +16978,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="100" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B100" s="1">
         <v>45037</v>
       </c>
@@ -15413,7 +17019,7 @@
         <v>123066.66666666667</v>
       </c>
     </row>
-    <row r="101" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B101" s="1">
         <v>45038</v>
       </c>
@@ -15424,7 +17030,7 @@
         <v>105600</v>
       </c>
     </row>
-    <row r="102" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B102" s="1">
         <v>45038</v>
       </c>
@@ -15442,7 +17048,7 @@
       <c r="K102" s="27"/>
       <c r="L102" s="27"/>
     </row>
-    <row r="103" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B103" s="1">
         <v>45038</v>
       </c>
@@ -15468,7 +17074,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B104" s="1">
         <v>45040</v>
       </c>
@@ -15498,7 +17104,7 @@
         <v>5636400</v>
       </c>
     </row>
-    <row r="105" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B105" s="1">
         <v>45040</v>
       </c>
@@ -15509,7 +17115,7 @@
         <v>147600</v>
       </c>
     </row>
-    <row r="106" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B106" s="1">
         <v>45041</v>
       </c>
@@ -15520,7 +17126,7 @@
         <v>352600</v>
       </c>
     </row>
-    <row r="107" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B107" s="1">
         <v>45041</v>
       </c>
@@ -15531,7 +17137,7 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="108" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B108" s="1">
         <v>45042</v>
       </c>
@@ -15542,7 +17148,7 @@
         <v>114400</v>
       </c>
     </row>
-    <row r="109" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B109" s="1">
         <v>45042</v>
       </c>
@@ -15553,7 +17159,7 @@
         <v>132000</v>
       </c>
     </row>
-    <row r="110" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B110" s="1">
         <v>45043</v>
       </c>
@@ -15564,7 +17170,7 @@
         <v>70400</v>
       </c>
     </row>
-    <row r="111" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B111" s="1">
         <v>45043</v>
       </c>
@@ -15575,7 +17181,7 @@
         <v>196800</v>
       </c>
     </row>
-    <row r="112" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B112" s="1">
         <v>45044</v>
       </c>
@@ -15586,7 +17192,7 @@
         <v>229600</v>
       </c>
     </row>
-    <row r="113" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B113" s="1">
         <v>45044</v>
       </c>
@@ -15597,7 +17203,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="114" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B114" s="1">
         <v>45045</v>
       </c>
@@ -15608,7 +17214,7 @@
         <v>1088000</v>
       </c>
     </row>
-    <row r="115" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B115" s="1">
         <v>45045</v>
       </c>
@@ -15619,7 +17225,7 @@
         <v>147600</v>
       </c>
     </row>
-    <row r="116" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B116" s="1">
         <v>45045</v>
       </c>
@@ -15630,7 +17236,7 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="117" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B117" s="1">
         <v>45048</v>
       </c>
@@ -15641,7 +17247,7 @@
         <v>52800</v>
       </c>
     </row>
-    <row r="118" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B118" s="1">
         <v>45048</v>
       </c>
@@ -15662,7 +17268,7 @@
       <c r="N118" s="27"/>
       <c r="O118" s="27"/>
     </row>
-    <row r="119" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B119" s="1">
         <v>45048</v>
       </c>
@@ -15697,7 +17303,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="120" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B120" s="1">
         <v>45049</v>
       </c>
@@ -15738,7 +17344,7 @@
         <v>144933.33333333334</v>
       </c>
     </row>
-    <row r="121" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B121" s="1">
         <v>45049</v>
       </c>
@@ -15749,7 +17355,7 @@
         <v>105600</v>
       </c>
     </row>
-    <row r="122" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B122" s="1">
         <v>45049</v>
       </c>
@@ -15770,7 +17376,7 @@
       <c r="N122" s="27"/>
       <c r="O122" s="27"/>
     </row>
-    <row r="123" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B123" s="1">
         <v>45049</v>
       </c>
@@ -15805,7 +17411,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B124" s="1">
         <v>45050</v>
       </c>
@@ -15846,7 +17452,7 @@
         <v>237600</v>
       </c>
     </row>
-    <row r="125" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B125" s="1">
         <v>45050</v>
       </c>
@@ -15857,7 +17463,7 @@
         <v>254200</v>
       </c>
     </row>
-    <row r="126" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B126" s="1">
         <v>45050</v>
       </c>
@@ -15878,7 +17484,7 @@
       <c r="N126" s="27"/>
       <c r="O126" s="27"/>
     </row>
-    <row r="127" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B127" s="1">
         <v>45050</v>
       </c>
@@ -15913,7 +17519,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="128" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B128" s="1">
         <v>45050</v>
       </c>
@@ -15954,7 +17560,7 @@
         <v>50800</v>
       </c>
     </row>
-    <row r="129" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B129" s="1">
         <v>45051</v>
       </c>
@@ -15965,7 +17571,7 @@
         <v>28700</v>
       </c>
     </row>
-    <row r="130" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B130" s="1">
         <v>45051</v>
       </c>
@@ -15986,7 +17592,7 @@
       <c r="N130" s="27"/>
       <c r="O130" s="27"/>
     </row>
-    <row r="131" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B131" s="1">
         <v>45051</v>
       </c>
@@ -16021,7 +17627,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="132" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B132" s="1">
         <v>45051</v>
       </c>
@@ -16062,7 +17668,7 @@
         <v>87400</v>
       </c>
     </row>
-    <row r="133" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B133" s="1">
         <v>45051</v>
       </c>
@@ -16073,7 +17679,7 @@
         <v>147600</v>
       </c>
     </row>
-    <row r="134" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B134" s="1">
         <v>45052</v>
       </c>
@@ -16091,7 +17697,7 @@
       <c r="K134" s="27"/>
       <c r="L134" s="27"/>
     </row>
-    <row r="135" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B135" s="1">
         <v>45052</v>
       </c>
@@ -16117,7 +17723,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="136" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B136" s="1">
         <v>45052</v>
       </c>
@@ -16147,7 +17753,7 @@
         <v>11604000</v>
       </c>
     </row>
-    <row r="137" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B137" s="1">
         <v>45052</v>
       </c>
@@ -16158,7 +17764,7 @@
         <v>221400</v>
       </c>
     </row>
-    <row r="138" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B138" s="1">
         <v>45052</v>
       </c>
@@ -16169,7 +17775,7 @@
         <v>147600</v>
       </c>
     </row>
-    <row r="139" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B139" s="1">
         <v>45054</v>
       </c>
@@ -16180,7 +17786,7 @@
         <v>328000</v>
       </c>
     </row>
-    <row r="140" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B140" s="1">
         <v>45054</v>
       </c>
@@ -16191,7 +17797,7 @@
         <v>30800</v>
       </c>
     </row>
-    <row r="141" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B141" s="1">
         <v>45054</v>
       </c>
@@ -16202,7 +17808,7 @@
         <v>57200</v>
       </c>
     </row>
-    <row r="142" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B142" s="1">
         <v>45055</v>
       </c>
@@ -16213,7 +17819,7 @@
         <v>52800</v>
       </c>
     </row>
-    <row r="143" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B143" s="1">
         <v>45055</v>
       </c>
@@ -16224,7 +17830,7 @@
         <v>69700</v>
       </c>
     </row>
-    <row r="144" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B144" s="1">
         <v>45055</v>
       </c>
@@ -16235,7 +17841,7 @@
         <v>57200</v>
       </c>
     </row>
-    <row r="145" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B145" s="1">
         <v>45055</v>
       </c>
@@ -16246,7 +17852,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="146" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B146" s="1">
         <v>45056</v>
       </c>
@@ -16257,7 +17863,7 @@
         <v>151700</v>
       </c>
     </row>
-    <row r="147" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B147" s="1">
         <v>45056</v>
       </c>
@@ -16268,7 +17874,7 @@
         <v>147600</v>
       </c>
     </row>
-    <row r="148" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B148" s="1">
         <v>45056</v>
       </c>
@@ -16279,7 +17885,7 @@
         <v>147600</v>
       </c>
     </row>
-    <row r="149" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B149" s="1">
         <v>45056</v>
       </c>
@@ -16290,7 +17896,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="150" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B150" s="1">
         <v>45056</v>
       </c>
@@ -16301,7 +17907,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="151" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B151" s="1">
         <v>45057</v>
       </c>
@@ -16312,7 +17918,7 @@
         <v>1656400</v>
       </c>
     </row>
-    <row r="152" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B152" s="1">
         <v>45057</v>
       </c>
@@ -16323,7 +17929,7 @@
         <v>118800</v>
       </c>
     </row>
-    <row r="153" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B153" s="1">
         <v>45058</v>
       </c>
@@ -16334,7 +17940,7 @@
         <v>61600</v>
       </c>
     </row>
-    <row r="154" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B154" s="1">
         <v>45058</v>
       </c>
@@ -16345,7 +17951,7 @@
         <v>377200</v>
       </c>
     </row>
-    <row r="155" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B155" s="1">
         <v>45058</v>
       </c>
@@ -16356,7 +17962,7 @@
         <v>213200</v>
       </c>
     </row>
-    <row r="156" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B156" s="1">
         <v>45058</v>
       </c>
@@ -16367,7 +17973,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="157" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B157" s="1">
         <v>45058</v>
       </c>
@@ -16378,7 +17984,7 @@
         <v>52800</v>
       </c>
     </row>
-    <row r="158" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B158" s="1">
         <v>45058</v>
       </c>
@@ -16389,7 +17995,7 @@
         <v>79200</v>
       </c>
     </row>
-    <row r="159" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B159" s="1">
         <v>45058</v>
       </c>
@@ -16400,7 +18006,7 @@
         <v>79200</v>
       </c>
     </row>
-    <row r="160" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B160" s="1">
         <v>45059</v>
       </c>
@@ -16411,7 +18017,7 @@
         <v>52800</v>
       </c>
     </row>
-    <row r="161" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B161" s="1">
         <v>45059</v>
       </c>
@@ -16422,7 +18028,7 @@
         <v>66000</v>
       </c>
     </row>
-    <row r="162" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B162" s="1">
         <v>45059</v>
       </c>
@@ -16433,7 +18039,7 @@
         <v>132000</v>
       </c>
     </row>
-    <row r="163" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B163" s="1">
         <v>45059</v>
       </c>
@@ -16444,7 +18050,7 @@
         <v>61600</v>
       </c>
     </row>
-    <row r="164" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B164" s="1">
         <v>45059</v>
       </c>
@@ -16455,7 +18061,7 @@
         <v>88000</v>
       </c>
     </row>
-    <row r="165" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B165" s="1">
         <v>45059</v>
       </c>
@@ -16466,7 +18072,7 @@
         <v>52800</v>
       </c>
     </row>
-    <row r="166" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B166" s="1">
         <v>45059</v>
       </c>
@@ -16477,7 +18083,7 @@
         <v>196800</v>
       </c>
     </row>
-    <row r="167" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B167" s="1">
         <v>45059</v>
       </c>
@@ -16488,7 +18094,7 @@
         <v>127600</v>
       </c>
     </row>
-    <row r="168" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B168" s="1">
         <v>45059</v>
       </c>
@@ -16499,7 +18105,7 @@
         <v>52800</v>
       </c>
     </row>
-    <row r="169" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B169" s="1">
         <v>45059</v>
       </c>
@@ -16510,7 +18116,7 @@
         <v>30800</v>
       </c>
     </row>
-    <row r="170" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B170" s="1">
         <v>45059</v>
       </c>
@@ -16521,7 +18127,7 @@
         <v>26400</v>
       </c>
     </row>
-    <row r="171" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B171" s="1">
         <v>45059</v>
       </c>
@@ -16532,7 +18138,7 @@
         <v>145200</v>
       </c>
     </row>
-    <row r="172" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B172" s="1">
         <v>45059</v>
       </c>
@@ -16543,7 +18149,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="173" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B173" s="1">
         <v>45059</v>
       </c>
@@ -16554,7 +18160,7 @@
         <v>147600</v>
       </c>
     </row>
-    <row r="174" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B174" s="1">
         <v>45059</v>
       </c>
@@ -16565,7 +18171,7 @@
         <v>79200</v>
       </c>
     </row>
-    <row r="175" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B175" s="1">
         <v>45062</v>
       </c>
@@ -16576,7 +18182,7 @@
         <v>820000</v>
       </c>
     </row>
-    <row r="176" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B176" s="1">
         <v>45062</v>
       </c>
@@ -16587,7 +18193,7 @@
         <v>77900</v>
       </c>
     </row>
-    <row r="177" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B177" s="1">
         <v>45062</v>
       </c>
@@ -16598,7 +18204,7 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="178" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B178" s="1">
         <v>45064</v>
       </c>
@@ -16609,7 +18215,7 @@
         <v>61500</v>
       </c>
     </row>
-    <row r="179" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B179" s="1">
         <v>45064</v>
       </c>
@@ -16620,7 +18226,7 @@
         <v>74800</v>
       </c>
     </row>
-    <row r="180" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B180" s="1">
         <v>45065</v>
       </c>
@@ -16631,7 +18237,7 @@
         <v>52800</v>
       </c>
     </row>
-    <row r="181" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B181" s="1">
         <v>45065</v>
       </c>
@@ -16642,7 +18248,7 @@
         <v>135300</v>
       </c>
     </row>
-    <row r="182" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B182" s="1">
         <v>45066</v>
       </c>
@@ -16653,7 +18259,7 @@
         <v>25800</v>
       </c>
     </row>
-    <row r="183" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B183" s="1">
         <v>45069</v>
       </c>
@@ -16664,7 +18270,7 @@
         <v>147600</v>
       </c>
     </row>
-    <row r="184" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B184" s="1">
         <v>45070</v>
       </c>
@@ -16675,7 +18281,7 @@
         <v>520000</v>
       </c>
     </row>
-    <row r="185" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B185" s="1">
         <v>45071</v>
       </c>
@@ -16686,7 +18292,7 @@
         <v>520000</v>
       </c>
     </row>
-    <row r="186" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B186" s="1">
         <v>45071</v>
       </c>
@@ -16697,7 +18303,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="187" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B187" s="1">
         <v>45072</v>
       </c>
@@ -16708,7 +18314,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="188" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B188" s="1">
         <v>45073</v>
       </c>
@@ -16719,7 +18325,7 @@
         <v>164000</v>
       </c>
     </row>
-    <row r="189" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B189" s="1">
         <v>45075</v>
       </c>
@@ -16730,7 +18336,7 @@
         <v>144000</v>
       </c>
     </row>
-    <row r="190" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B190" s="1">
         <v>45075</v>
       </c>
@@ -16741,7 +18347,7 @@
         <v>103200</v>
       </c>
     </row>
-    <row r="191" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B191" s="1">
         <v>45076</v>
       </c>
@@ -16752,7 +18358,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="192" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B192" s="1">
         <v>45077</v>
       </c>
@@ -16763,7 +18369,7 @@
         <v>84000</v>
       </c>
     </row>
-    <row r="193" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B193" s="1">
         <v>45077</v>
       </c>
@@ -16774,7 +18380,7 @@
         <v>34400</v>
       </c>
     </row>
-    <row r="194" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B194" s="1">
         <v>45079</v>
       </c>
@@ -16795,7 +18401,7 @@
       <c r="N194" s="27"/>
       <c r="O194" s="27"/>
     </row>
-    <row r="195" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B195" s="1">
         <v>45080</v>
       </c>
@@ -16830,7 +18436,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="196" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B196" s="1">
         <v>45082</v>
       </c>
@@ -16871,7 +18477,7 @@
         <v>34800</v>
       </c>
     </row>
-    <row r="197" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B197" s="1">
         <v>45082</v>
       </c>
@@ -16882,7 +18488,7 @@
         <v>139400</v>
       </c>
     </row>
-    <row r="198" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B198" s="1">
         <v>45082</v>
       </c>
@@ -16893,7 +18499,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="199" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B199" s="1">
         <v>45083</v>
       </c>
@@ -16914,7 +18520,7 @@
       <c r="N199" s="27"/>
       <c r="O199" s="27"/>
     </row>
-    <row r="200" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B200" s="1">
         <v>45083</v>
       </c>
@@ -16949,7 +18555,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="201" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B201" s="1">
         <v>45084</v>
       </c>
@@ -16990,7 +18596,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="202" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B202" s="1">
         <v>45085</v>
       </c>
@@ -17001,7 +18607,7 @@
         <v>192000</v>
       </c>
     </row>
-    <row r="203" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B203" s="1">
         <v>45085</v>
       </c>
@@ -17012,7 +18618,7 @@
         <v>144000</v>
       </c>
     </row>
-    <row r="204" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B204" s="1">
         <v>45086</v>
       </c>
@@ -17033,7 +18639,7 @@
       <c r="N204" s="27"/>
       <c r="O204" s="27"/>
     </row>
-    <row r="205" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B205" s="1">
         <v>45086</v>
       </c>
@@ -17068,7 +18674,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="206" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B206" s="1">
         <v>45086</v>
       </c>
@@ -17109,7 +18715,7 @@
         <v>58000</v>
       </c>
     </row>
-    <row r="207" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B207" s="1">
         <v>45091</v>
       </c>
@@ -17120,7 +18726,7 @@
         <v>192000</v>
       </c>
     </row>
-    <row r="208" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B208" s="1">
         <v>45092</v>
       </c>
@@ -17131,7 +18737,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="209" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B209" s="1">
         <v>45092</v>
       </c>
@@ -17152,7 +18758,7 @@
       <c r="N209" s="27"/>
       <c r="O209" s="27"/>
     </row>
-    <row r="210" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B210" s="1">
         <v>45092</v>
       </c>
@@ -17187,7 +18793,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="211" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B211" s="1">
         <v>45093</v>
       </c>
@@ -17228,7 +18834,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="212" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B212" s="1">
         <v>45093</v>
       </c>
@@ -17239,7 +18845,7 @@
         <v>132000</v>
       </c>
     </row>
-    <row r="213" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B213" s="1">
         <v>45093</v>
       </c>
@@ -17250,7 +18856,7 @@
         <v>154000</v>
       </c>
     </row>
-    <row r="214" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B214" s="1">
         <v>45093</v>
       </c>
@@ -17271,7 +18877,7 @@
       <c r="N214" s="27"/>
       <c r="O214" s="27"/>
     </row>
-    <row r="215" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B215" s="1">
         <v>45093</v>
       </c>
@@ -17306,7 +18912,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="216" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B216" s="1">
         <v>45094</v>
       </c>
@@ -17347,7 +18953,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="217" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B217" s="1">
         <v>45094</v>
       </c>
@@ -17358,7 +18964,7 @@
         <v>144000</v>
       </c>
     </row>
-    <row r="218" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B218" s="1">
         <v>45094</v>
       </c>
@@ -17369,7 +18975,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="219" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B219" s="1">
         <v>45098</v>
       </c>
@@ -17380,7 +18986,7 @@
         <v>63000</v>
       </c>
     </row>
-    <row r="220" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B220" s="1">
         <v>45098</v>
       </c>
@@ -17398,7 +19004,7 @@
       <c r="K220" s="27"/>
       <c r="L220" s="27"/>
     </row>
-    <row r="221" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B221" s="1">
         <v>45099</v>
       </c>
@@ -17424,7 +19030,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="222" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B222" s="1">
         <v>45100</v>
       </c>
@@ -17454,7 +19060,7 @@
         <v>4553500</v>
       </c>
     </row>
-    <row r="223" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B223" s="1">
         <v>45101</v>
       </c>
@@ -17465,7 +19071,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="224" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B224" s="1">
         <v>45103</v>
       </c>
@@ -17476,7 +19082,7 @@
         <v>12900</v>
       </c>
     </row>
-    <row r="225" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B225" s="1">
         <v>45103</v>
       </c>
@@ -17487,7 +19093,7 @@
         <v>17200</v>
       </c>
     </row>
-    <row r="226" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B226" s="1">
         <v>45104</v>
       </c>
@@ -17498,7 +19104,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="227" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B227" s="1">
         <v>45105</v>
       </c>
@@ -17509,7 +19115,7 @@
         <v>144000</v>
       </c>
     </row>
-    <row r="228" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B228" s="1">
         <v>45106</v>
       </c>
@@ -17520,7 +19126,7 @@
         <v>103200</v>
       </c>
     </row>
-    <row r="229" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B229" s="1">
         <v>45108</v>
       </c>
@@ -17531,7 +19137,7 @@
         <v>38700</v>
       </c>
     </row>
-    <row r="230" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B230" s="1">
         <v>45111</v>
       </c>
@@ -17542,7 +19148,7 @@
         <v>116100</v>
       </c>
     </row>
-    <row r="231" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B231" s="1">
         <v>45112</v>
       </c>
@@ -17553,7 +19159,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="232" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B232" s="1">
         <v>45115</v>
       </c>
@@ -17564,7 +19170,7 @@
         <v>103200</v>
       </c>
     </row>
-    <row r="233" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B233" s="1">
         <v>45115</v>
       </c>
@@ -17575,7 +19181,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="234" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B234" s="1">
         <v>45117</v>
       </c>
@@ -17586,7 +19192,7 @@
         <v>148000</v>
       </c>
     </row>
-    <row r="235" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B235" s="1">
         <v>45119</v>
       </c>
@@ -17597,7 +19203,7 @@
         <v>55900</v>
       </c>
     </row>
-    <row r="236" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B236" s="1">
         <v>45119</v>
       </c>
@@ -17618,7 +19224,7 @@
       <c r="N236" s="27"/>
       <c r="O236" s="27"/>
     </row>
-    <row r="237" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B237" s="1">
         <v>45120</v>
       </c>
@@ -17653,7 +19259,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="238" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B238" s="1">
         <v>45120</v>
       </c>
@@ -17694,7 +19300,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="239" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B239" s="1">
         <v>45121</v>
       </c>
@@ -17705,7 +19311,7 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="240" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B240" s="1">
         <v>45121</v>
       </c>
@@ -17716,7 +19322,7 @@
         <v>103200</v>
       </c>
     </row>
-    <row r="241" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B241" s="1">
         <v>45125</v>
       </c>
@@ -17737,7 +19343,7 @@
       <c r="N241" s="27"/>
       <c r="O241" s="27"/>
     </row>
-    <row r="242" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B242" s="1">
         <v>45129</v>
       </c>
@@ -17772,7 +19378,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="243" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B243" s="1">
         <v>45129</v>
       </c>
@@ -17813,7 +19419,7 @@
         <v>17600</v>
       </c>
     </row>
-    <row r="244" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B244" s="1">
         <v>45129</v>
       </c>
@@ -17824,7 +19430,7 @@
         <v>50400</v>
       </c>
     </row>
-    <row r="245" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B245" s="1">
         <v>45135</v>
       </c>
@@ -17835,7 +19441,7 @@
         <v>134400</v>
       </c>
     </row>
-    <row r="246" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B246" s="1">
         <v>45136</v>
       </c>
@@ -17846,7 +19452,7 @@
         <v>88200</v>
       </c>
     </row>
-    <row r="247" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B247" s="1">
         <v>45136</v>
       </c>
@@ -17867,7 +19473,7 @@
       <c r="N247" s="27"/>
       <c r="O247" s="27"/>
     </row>
-    <row r="248" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B248" s="1">
         <v>45139</v>
       </c>
@@ -17902,7 +19508,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="249" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B249" s="1">
         <v>45139</v>
       </c>
@@ -17943,7 +19549,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="250" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B250" s="1">
         <v>45140</v>
       </c>
@@ -17954,7 +19560,7 @@
         <v>248000</v>
       </c>
     </row>
-    <row r="251" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B251" s="1">
         <v>45140</v>
       </c>
@@ -17965,7 +19571,7 @@
         <v>133200</v>
       </c>
     </row>
-    <row r="252" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B252" s="1">
         <v>45140</v>
       </c>
@@ -17986,7 +19592,7 @@
       <c r="N252" s="27"/>
       <c r="O252" s="27"/>
     </row>
-    <row r="253" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B253" s="1">
         <v>45143</v>
       </c>
@@ -18021,7 +19627,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="254" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B254" s="1">
         <v>45146</v>
       </c>
@@ -18062,7 +19668,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="255" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B255" s="1">
         <v>45147</v>
       </c>
@@ -18073,7 +19679,7 @@
         <v>114700</v>
       </c>
     </row>
-    <row r="256" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B256" s="1">
         <v>45148</v>
       </c>
@@ -18084,7 +19690,7 @@
         <v>98000</v>
       </c>
     </row>
-    <row r="257" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B257" s="1">
         <v>45149</v>
       </c>
@@ -18102,7 +19708,7 @@
       <c r="K257" s="27"/>
       <c r="L257" s="27"/>
     </row>
-    <row r="258" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B258" s="1">
         <v>45149</v>
       </c>
@@ -18128,7 +19734,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="259" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B259" s="1">
         <v>45149</v>
       </c>
@@ -18158,7 +19764,7 @@
         <v>2074000</v>
       </c>
     </row>
-    <row r="260" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B260" s="1">
         <v>45150</v>
       </c>
@@ -18169,7 +19775,7 @@
         <v>297600</v>
       </c>
     </row>
-    <row r="261" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B261" s="1">
         <v>45150</v>
       </c>
@@ -18180,7 +19786,7 @@
         <v>370000</v>
       </c>
     </row>
-    <row r="262" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B262" s="1">
         <v>45153</v>
       </c>
@@ -18191,7 +19797,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="263" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B263" s="1">
         <v>45153</v>
       </c>
@@ -18202,7 +19808,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="264" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B264" s="1">
         <v>45154</v>
       </c>
@@ -18213,7 +19819,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="265" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B265" s="1">
         <v>45155</v>
       </c>
@@ -18224,7 +19830,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="266" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B266" s="1">
         <v>45156</v>
       </c>
@@ -18235,7 +19841,7 @@
         <v>133200</v>
       </c>
     </row>
-    <row r="267" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B267" s="1">
         <v>45156</v>
       </c>
@@ -18246,7 +19852,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="268" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B268" s="1">
         <v>45157</v>
       </c>
@@ -18257,7 +19863,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="269" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B269" s="1">
         <v>45161</v>
       </c>
@@ -18268,7 +19874,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="270" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B270" s="1">
         <v>45161</v>
       </c>
@@ -18279,7 +19885,7 @@
         <v>133200</v>
       </c>
     </row>
-    <row r="271" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B271" s="1">
         <v>45162</v>
       </c>
@@ -18290,7 +19896,7 @@
         <v>129600</v>
       </c>
     </row>
-    <row r="272" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B272" s="1">
         <v>45162</v>
       </c>
@@ -18311,7 +19917,7 @@
       <c r="N272" s="27"/>
       <c r="O272" s="27"/>
     </row>
-    <row r="273" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B273" s="1">
         <v>45163</v>
       </c>
@@ -18346,7 +19952,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="274" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B274" s="1">
         <v>45163</v>
       </c>
@@ -18387,7 +19993,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="275" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B275" s="1">
         <v>45163</v>
       </c>
@@ -18398,7 +20004,7 @@
         <v>33400</v>
       </c>
     </row>
-    <row r="276" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B276" s="1">
         <v>45163</v>
       </c>
@@ -18409,7 +20015,7 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="277" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B277" s="1">
         <v>45164</v>
       </c>
@@ -18430,7 +20036,7 @@
       <c r="N277" s="26"/>
       <c r="O277" s="26"/>
     </row>
-    <row r="278" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B278" s="1">
         <v>45164</v>
       </c>
@@ -18465,7 +20071,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="279" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B279" s="1">
         <v>45166</v>
       </c>
@@ -18506,7 +20112,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="280" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B280" s="1">
         <v>45166</v>
       </c>
@@ -18517,7 +20123,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="281" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B281" s="1">
         <v>45166</v>
       </c>
@@ -18528,7 +20134,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="282" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B282" s="1">
         <v>45166</v>
       </c>
@@ -18549,7 +20155,7 @@
       <c r="N282" s="26"/>
       <c r="O282" s="26"/>
     </row>
-    <row r="283" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B283" s="1">
         <v>45168</v>
       </c>
@@ -18584,7 +20190,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="284" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B284" s="1">
         <v>45168</v>
       </c>
@@ -18625,7 +20231,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="285" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B285" s="1">
         <v>45168</v>
       </c>
@@ -18636,7 +20242,7 @@
         <v>126000</v>
       </c>
     </row>
-    <row r="286" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B286" s="1">
         <v>45169</v>
       </c>
@@ -18647,7 +20253,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="287" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B287" s="1">
         <v>45169</v>
       </c>
@@ -18668,7 +20274,7 @@
       <c r="N287" s="26"/>
       <c r="O287" s="26"/>
     </row>
-    <row r="288" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B288" s="1">
         <v>45170</v>
       </c>
@@ -18703,7 +20309,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="289" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B289" s="1">
         <v>45170</v>
       </c>
@@ -18744,7 +20350,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="290" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B290" s="1">
         <v>45170</v>
       </c>
@@ -18755,7 +20361,7 @@
         <v>126000</v>
       </c>
     </row>
-    <row r="291" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B291" s="1">
         <v>45171</v>
       </c>
@@ -18766,7 +20372,7 @@
         <v>114000</v>
       </c>
     </row>
-    <row r="292" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B292" s="1">
         <v>45171</v>
       </c>
@@ -18787,7 +20393,7 @@
       <c r="N292" s="26"/>
       <c r="O292" s="26"/>
     </row>
-    <row r="293" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B293" s="1">
         <v>45171</v>
       </c>
@@ -18822,7 +20428,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="294" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B294" s="1">
         <v>45173</v>
       </c>
@@ -18863,7 +20469,7 @@
         <v>69800</v>
       </c>
     </row>
-    <row r="295" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B295" s="1">
         <v>45173</v>
       </c>
@@ -18874,7 +20480,7 @@
         <v>106400</v>
       </c>
     </row>
-    <row r="296" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B296" s="1">
         <v>45173</v>
       </c>
@@ -18885,7 +20491,7 @@
         <v>57000</v>
       </c>
     </row>
-    <row r="297" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B297" s="1">
         <v>45174</v>
       </c>
@@ -18903,7 +20509,7 @@
       <c r="K297" s="27"/>
       <c r="L297" s="27"/>
     </row>
-    <row r="298" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B298" s="1">
         <v>45174</v>
       </c>
@@ -18929,7 +20535,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="299" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B299" s="1">
         <v>45175</v>
       </c>
@@ -18959,7 +20565,7 @@
         <v>3966600</v>
       </c>
     </row>
-    <row r="300" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B300" s="1">
         <v>45175</v>
       </c>
@@ -18970,7 +20576,7 @@
         <v>79800</v>
       </c>
     </row>
-    <row r="301" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B301" s="1">
         <v>45175</v>
       </c>
@@ -18981,7 +20587,7 @@
         <v>68400</v>
       </c>
     </row>
-    <row r="302" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B302" s="1">
         <v>45175</v>
       </c>
@@ -18992,7 +20598,7 @@
         <v>143500</v>
       </c>
     </row>
-    <row r="303" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B303" s="1">
         <v>45176</v>
       </c>
@@ -19003,7 +20609,7 @@
         <v>175000</v>
       </c>
     </row>
-    <row r="304" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B304" s="1">
         <v>45176</v>
       </c>
@@ -19014,7 +20620,7 @@
         <v>280000</v>
       </c>
     </row>
-    <row r="305" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B305" s="1">
         <v>45176</v>
       </c>
@@ -19025,7 +20631,7 @@
         <v>126000</v>
       </c>
     </row>
-    <row r="306" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B306" s="1">
         <v>45176</v>
       </c>
@@ -19036,7 +20642,7 @@
         <v>168000</v>
       </c>
     </row>
-    <row r="307" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B307" s="1">
         <v>45176</v>
       </c>
@@ -19047,7 +20653,7 @@
         <v>49400</v>
       </c>
     </row>
-    <row r="308" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B308" s="1">
         <v>45176</v>
       </c>
@@ -19058,7 +20664,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="309" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B309" s="1">
         <v>45177</v>
       </c>
@@ -19069,7 +20675,7 @@
         <v>102600</v>
       </c>
     </row>
-    <row r="310" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B310" s="1">
         <v>45177</v>
       </c>
@@ -19080,7 +20686,7 @@
         <v>126000</v>
       </c>
     </row>
-    <row r="311" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B311" s="1">
         <v>45177</v>
       </c>
@@ -19091,7 +20697,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="312" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B312" s="1">
         <v>45177</v>
       </c>
@@ -19102,7 +20708,7 @@
         <v>273000</v>
       </c>
     </row>
-    <row r="313" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B313" s="1">
         <v>45177</v>
       </c>
@@ -19113,7 +20719,7 @@
         <v>161000</v>
       </c>
     </row>
-    <row r="314" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B314" s="1">
         <v>45178</v>
       </c>
@@ -19134,7 +20740,7 @@
       <c r="N314" s="26"/>
       <c r="O314" s="26"/>
     </row>
-    <row r="315" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B315" s="1">
         <v>45178</v>
       </c>
@@ -19169,7 +20775,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="316" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B316" s="1">
         <v>45178</v>
       </c>
@@ -19210,7 +20816,7 @@
         <v>193000</v>
       </c>
     </row>
-    <row r="317" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B317" s="1">
         <v>45178</v>
       </c>
@@ -19221,7 +20827,7 @@
         <v>175000</v>
       </c>
     </row>
-    <row r="318" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B318" s="1">
         <v>45180</v>
       </c>
@@ -19232,7 +20838,7 @@
         <v>227500</v>
       </c>
     </row>
-    <row r="319" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B319" s="1">
         <v>45180</v>
       </c>
@@ -19253,7 +20859,7 @@
       <c r="N319" s="26"/>
       <c r="O319" s="26"/>
     </row>
-    <row r="320" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B320" s="1">
         <v>45181</v>
       </c>
@@ -19288,7 +20894,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="321" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B321" s="1">
         <v>45181</v>
       </c>
@@ -19329,7 +20935,7 @@
         <v>326600</v>
       </c>
     </row>
-    <row r="322" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B322" s="1">
         <v>45181</v>
       </c>
@@ -19340,7 +20946,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="323" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B323" s="1">
         <v>45181</v>
       </c>
@@ -19351,7 +20957,7 @@
         <v>252000</v>
       </c>
     </row>
-    <row r="324" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B324" s="1">
         <v>45181</v>
       </c>
@@ -19372,7 +20978,7 @@
       <c r="N324" s="26"/>
       <c r="O324" s="26"/>
     </row>
-    <row r="325" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B325" s="1">
         <v>45182</v>
       </c>
@@ -19407,7 +21013,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="326" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B326" s="1">
         <v>45182</v>
       </c>
@@ -19448,7 +21054,7 @@
         <v>105400</v>
       </c>
     </row>
-    <row r="327" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B327" s="1">
         <v>45182</v>
       </c>
@@ -19459,7 +21065,7 @@
         <v>76000</v>
       </c>
     </row>
-    <row r="328" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B328" s="1">
         <v>45182</v>
       </c>
@@ -19470,7 +21076,7 @@
         <v>126000</v>
       </c>
     </row>
-    <row r="329" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B329" s="1">
         <v>45182</v>
       </c>
@@ -19491,7 +21097,7 @@
       <c r="N329" s="26"/>
       <c r="O329" s="26"/>
     </row>
-    <row r="330" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B330" s="1">
         <v>45182</v>
       </c>
@@ -19526,7 +21132,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="331" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B331" s="1">
         <v>45183</v>
       </c>
@@ -19567,7 +21173,7 @@
         <v>51800</v>
       </c>
     </row>
-    <row r="332" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B332" s="1">
         <v>45183</v>
       </c>
@@ -19578,7 +21184,7 @@
         <v>252000</v>
       </c>
     </row>
-    <row r="333" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B333" s="1">
         <v>45183</v>
       </c>
@@ -19589,7 +21195,7 @@
         <v>178500</v>
       </c>
     </row>
-    <row r="334" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B334" s="1">
         <v>45183</v>
       </c>
@@ -19607,7 +21213,7 @@
       <c r="K334" s="27"/>
       <c r="L334" s="27"/>
     </row>
-    <row r="335" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B335" s="1">
         <v>45183</v>
       </c>
@@ -19633,7 +21239,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="336" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B336" s="1">
         <v>45183</v>
       </c>
@@ -19663,7 +21269,7 @@
         <v>11028900</v>
       </c>
     </row>
-    <row r="337" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B337" s="1">
         <v>45184</v>
       </c>
@@ -19674,7 +21280,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="338" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B338" s="1">
         <v>45184</v>
       </c>
@@ -19685,7 +21291,7 @@
         <v>528500</v>
       </c>
     </row>
-    <row r="339" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B339" s="1">
         <v>45184</v>
       </c>
@@ -19696,7 +21302,7 @@
         <v>49400</v>
       </c>
     </row>
-    <row r="340" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B340" s="1">
         <v>45184</v>
       </c>
@@ -19707,7 +21313,7 @@
         <v>126000</v>
       </c>
     </row>
-    <row r="341" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B341" s="1">
         <v>45184</v>
       </c>
@@ -19718,7 +21324,7 @@
         <v>53200</v>
       </c>
     </row>
-    <row r="342" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B342" s="1">
         <v>45185</v>
       </c>
@@ -19729,7 +21335,7 @@
         <v>126000</v>
       </c>
     </row>
-    <row r="343" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B343" s="1">
         <v>45185</v>
       </c>
@@ -19740,7 +21346,7 @@
         <v>126000</v>
       </c>
     </row>
-    <row r="344" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B344" s="1">
         <v>45185</v>
       </c>
@@ -19751,7 +21357,7 @@
         <v>41800</v>
       </c>
     </row>
-    <row r="345" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B345" s="1">
         <v>45185</v>
       </c>
@@ -19762,7 +21368,7 @@
         <v>129500</v>
       </c>
     </row>
-    <row r="346" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B346" s="1">
         <v>45185</v>
       </c>
@@ -19773,7 +21379,7 @@
         <v>15200</v>
       </c>
     </row>
-    <row r="347" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B347" s="1">
         <v>45185</v>
       </c>
@@ -19784,7 +21390,7 @@
         <v>164500</v>
       </c>
     </row>
-    <row r="348" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B348" s="1">
         <v>45185</v>
       </c>
@@ -19795,7 +21401,7 @@
         <v>72200</v>
       </c>
     </row>
-    <row r="349" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B349" s="1">
         <v>45185</v>
       </c>
@@ -19806,7 +21412,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="350" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B350" s="1">
         <v>45187</v>
       </c>
@@ -19817,7 +21423,7 @@
         <v>34200</v>
       </c>
     </row>
-    <row r="351" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B351" s="1">
         <v>45187</v>
       </c>
@@ -19828,7 +21434,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="352" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B352" s="1">
         <v>45187</v>
       </c>
@@ -19839,7 +21445,7 @@
         <v>61400</v>
       </c>
     </row>
-    <row r="353" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B353" s="1">
         <v>45187</v>
       </c>
@@ -19850,7 +21456,7 @@
         <v>91000</v>
       </c>
     </row>
-    <row r="354" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B354" s="1">
         <v>45188</v>
       </c>
@@ -19861,7 +21467,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="355" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B355" s="1">
         <v>45188</v>
       </c>
@@ -19872,7 +21478,7 @@
         <v>91200</v>
       </c>
     </row>
-    <row r="356" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B356" s="1">
         <v>45188</v>
       </c>
@@ -19883,7 +21489,7 @@
         <v>60800</v>
       </c>
     </row>
-    <row r="357" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B357" s="1">
         <v>45189</v>
       </c>
@@ -19894,7 +21500,7 @@
         <v>11400</v>
       </c>
     </row>
-    <row r="358" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B358" s="1">
         <v>45189</v>
       </c>
@@ -19905,7 +21511,7 @@
         <v>122500</v>
       </c>
     </row>
-    <row r="359" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B359" s="1">
         <v>45189</v>
       </c>
@@ -19916,7 +21522,7 @@
         <v>23500</v>
       </c>
     </row>
-    <row r="360" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B360" s="1">
         <v>45189</v>
       </c>
@@ -19927,7 +21533,7 @@
         <v>45600</v>
       </c>
     </row>
-    <row r="361" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B361" s="1">
         <v>45190</v>
       </c>
@@ -19938,7 +21544,7 @@
         <v>117400</v>
       </c>
     </row>
-    <row r="362" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B362" s="1">
         <v>45190</v>
       </c>
@@ -19949,7 +21555,7 @@
         <v>510000</v>
       </c>
     </row>
-    <row r="363" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B363" s="1">
         <v>45190</v>
       </c>
@@ -19960,7 +21566,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="364" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B364" s="1">
         <v>45191</v>
       </c>
@@ -19971,7 +21577,7 @@
         <v>38000</v>
       </c>
     </row>
-    <row r="365" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B365" s="1">
         <v>45191</v>
       </c>
@@ -19982,7 +21588,7 @@
         <v>106400</v>
       </c>
     </row>
-    <row r="366" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B366" s="1">
         <v>45191</v>
       </c>
@@ -19993,7 +21599,7 @@
         <v>168000</v>
       </c>
     </row>
-    <row r="367" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B367" s="1">
         <v>45193</v>
       </c>
@@ -20004,7 +21610,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="368" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B368" s="1">
         <v>45194</v>
       </c>
@@ -20015,7 +21621,7 @@
         <v>45500</v>
       </c>
     </row>
-    <row r="369" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B369" s="1">
         <v>45194</v>
       </c>
@@ -20026,7 +21632,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="370" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B370" s="1">
         <v>45196</v>
       </c>
@@ -20037,7 +21643,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="371" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B371" s="1">
         <v>45196</v>
       </c>
@@ -20048,7 +21654,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="372" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B372" s="1">
         <v>45196</v>
       </c>
@@ -20059,7 +21665,7 @@
         <v>66500</v>
       </c>
     </row>
-    <row r="373" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B373" s="1">
         <v>45196</v>
       </c>
@@ -20070,7 +21676,7 @@
         <v>49000</v>
       </c>
     </row>
-    <row r="374" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B374" s="1">
         <v>45196</v>
       </c>
@@ -20081,7 +21687,7 @@
         <v>36600</v>
       </c>
     </row>
-    <row r="375" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B375" s="1">
         <v>45197</v>
       </c>
@@ -20092,7 +21698,7 @@
         <v>38500</v>
       </c>
     </row>
-    <row r="376" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B376" s="1">
         <v>45197</v>
       </c>
@@ -20103,7 +21709,7 @@
         <v>26600</v>
       </c>
     </row>
-    <row r="377" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B377" s="1">
         <v>45198</v>
       </c>
@@ -20114,7 +21720,7 @@
         <v>115500</v>
       </c>
     </row>
-    <row r="378" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B378" s="1">
         <v>45198</v>
       </c>
@@ -20125,7 +21731,7 @@
         <v>87400</v>
       </c>
     </row>
-    <row r="379" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B379" s="1">
         <v>45198</v>
       </c>
@@ -20136,7 +21742,7 @@
         <v>126000</v>
       </c>
     </row>
-    <row r="380" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B380" s="1">
         <v>45199</v>
       </c>
@@ -20147,7 +21753,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="381" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B381" s="1">
         <v>45199</v>
       </c>
@@ -20158,7 +21764,7 @@
         <v>64600</v>
       </c>
     </row>
-    <row r="382" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B382" s="1">
         <v>45199</v>
       </c>
@@ -20169,7 +21775,7 @@
         <v>76000</v>
       </c>
     </row>
-    <row r="383" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B383" s="1">
         <v>45199</v>
       </c>
@@ -20180,7 +21786,7 @@
         <v>45600</v>
       </c>
     </row>
-    <row r="384" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B384" s="1">
         <v>45199</v>
       </c>
@@ -20191,7 +21797,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="385" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B385" s="1">
         <v>45199</v>
       </c>
@@ -20202,7 +21808,7 @@
         <v>45600</v>
       </c>
     </row>
-    <row r="386" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B386" s="1">
         <v>45201</v>
       </c>
@@ -20213,7 +21819,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="387" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B387" s="1">
         <v>45201</v>
       </c>
@@ -20234,7 +21840,7 @@
       <c r="N387" s="26"/>
       <c r="O387" s="26"/>
     </row>
-    <row r="388" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B388" s="1">
         <v>45202</v>
       </c>
@@ -20269,7 +21875,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="389" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B389" s="1">
         <v>45202</v>
       </c>
@@ -20310,7 +21916,7 @@
         <v>21200</v>
       </c>
     </row>
-    <row r="390" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B390" s="1">
         <v>45203</v>
       </c>
@@ -20321,7 +21927,7 @@
         <v>45600</v>
       </c>
     </row>
-    <row r="391" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B391" s="1">
         <v>45203</v>
       </c>
@@ -20332,7 +21938,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="392" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B392" s="1">
         <v>45203</v>
       </c>
@@ -20353,7 +21959,7 @@
       <c r="N392" s="26"/>
       <c r="O392" s="26"/>
     </row>
-    <row r="393" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B393" s="1">
         <v>45204</v>
       </c>
@@ -20388,7 +21994,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="394" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B394" s="1">
         <v>45205</v>
       </c>
@@ -20429,7 +22035,7 @@
         <v>18600</v>
       </c>
     </row>
-    <row r="395" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B395" s="1">
         <v>45205</v>
       </c>
@@ -20440,7 +22046,7 @@
         <v>15200</v>
       </c>
     </row>
-    <row r="396" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B396" s="1">
         <v>45205</v>
       </c>
@@ -20451,7 +22057,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="397" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B397" s="1">
         <v>45206</v>
       </c>
@@ -20472,7 +22078,7 @@
       <c r="N397" s="26"/>
       <c r="O397" s="26"/>
     </row>
-    <row r="398" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B398" s="1">
         <v>45206</v>
       </c>
@@ -20507,7 +22113,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="399" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B399" s="1">
         <v>45208</v>
       </c>
@@ -20548,7 +22154,7 @@
         <v>49400</v>
       </c>
     </row>
-    <row r="400" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B400" s="1">
         <v>45208</v>
       </c>
@@ -20559,7 +22165,7 @@
         <v>22800</v>
       </c>
     </row>
-    <row r="401" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B401" s="1">
         <v>45208</v>
       </c>
@@ -20570,7 +22176,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="402" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B402" s="1">
         <v>45211</v>
       </c>
@@ -20591,7 +22197,7 @@
       <c r="N402" s="26"/>
       <c r="O402" s="26"/>
     </row>
-    <row r="403" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B403" s="1">
         <v>45211</v>
       </c>
@@ -20626,7 +22232,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="404" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B404" s="1">
         <v>45211</v>
       </c>
@@ -20667,7 +22273,7 @@
         <v>35800</v>
       </c>
     </row>
-    <row r="405" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B405" s="1">
         <v>45212</v>
       </c>
@@ -20678,7 +22284,7 @@
         <v>150500</v>
       </c>
     </row>
-    <row r="406" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B406" s="1">
         <v>45212</v>
       </c>
@@ -20689,7 +22295,7 @@
         <v>150500</v>
       </c>
     </row>
-    <row r="407" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B407" s="1">
         <v>45217</v>
       </c>
@@ -20707,7 +22313,7 @@
       <c r="K407" s="27"/>
       <c r="L407" s="27"/>
     </row>
-    <row r="408" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B408" s="1">
         <v>45217</v>
       </c>
@@ -20733,7 +22339,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="409" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B409" s="1">
         <v>45219</v>
       </c>
@@ -20763,7 +22369,7 @@
         <v>3472100</v>
       </c>
     </row>
-    <row r="410" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B410" s="1">
         <v>45219</v>
       </c>
@@ -20774,7 +22380,7 @@
         <v>102600</v>
       </c>
     </row>
-    <row r="411" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B411" s="1">
         <v>45219</v>
       </c>
@@ -20785,7 +22391,7 @@
         <v>315000</v>
       </c>
     </row>
-    <row r="412" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B412" s="1">
         <v>45220</v>
       </c>
@@ -20796,7 +22402,7 @@
         <v>378000</v>
       </c>
     </row>
-    <row r="413" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B413" s="1">
         <v>45223</v>
       </c>
@@ -20807,7 +22413,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="414" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B414" s="1">
         <v>45223</v>
       </c>
@@ -20818,7 +22424,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="415" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B415" s="1">
         <v>45223</v>
       </c>
@@ -20829,7 +22435,7 @@
         <v>60800</v>
       </c>
     </row>
-    <row r="416" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B416" s="1">
         <v>45224</v>
       </c>
@@ -20840,7 +22446,7 @@
         <v>41800</v>
       </c>
     </row>
-    <row r="417" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B417" s="1">
         <v>45224</v>
       </c>
@@ -20851,7 +22457,7 @@
         <v>30400</v>
       </c>
     </row>
-    <row r="418" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B418" s="1">
         <v>45224</v>
       </c>
@@ -20862,7 +22468,7 @@
         <v>157500</v>
       </c>
     </row>
-    <row r="419" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B419" s="1">
         <v>45225</v>
       </c>
@@ -20873,7 +22479,7 @@
         <v>252000</v>
       </c>
     </row>
-    <row r="420" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B420" s="1">
         <v>45225</v>
       </c>
@@ -20884,7 +22490,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="421" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B421" s="1">
         <v>45226</v>
       </c>
@@ -20895,7 +22501,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="422" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B422" s="1">
         <v>45226</v>
       </c>
@@ -20906,7 +22512,7 @@
         <v>17600</v>
       </c>
     </row>
-    <row r="423" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B423" s="1">
         <v>45226</v>
       </c>
@@ -20917,7 +22523,7 @@
         <v>76000</v>
       </c>
     </row>
-    <row r="424" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B424" s="1">
         <v>45227</v>
       </c>
@@ -20928,7 +22534,7 @@
         <v>147000</v>
       </c>
     </row>
-    <row r="425" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B425" s="1">
         <v>45227</v>
       </c>
@@ -20939,7 +22545,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="426" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B426" s="1">
         <v>45230</v>
       </c>
@@ -20950,7 +22556,7 @@
         <v>102600</v>
       </c>
     </row>
-    <row r="427" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B427" s="1">
         <v>45230</v>
       </c>
@@ -20961,7 +22567,7 @@
         <v>91200</v>
       </c>
     </row>
-    <row r="428" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B428" s="1">
         <v>45230</v>
       </c>
@@ -20972,7 +22578,7 @@
         <v>231000</v>
       </c>
     </row>
-    <row r="429" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B429" s="1">
         <v>45231</v>
       </c>
@@ -20993,7 +22599,7 @@
       <c r="N429" s="26"/>
       <c r="O429" s="26"/>
     </row>
-    <row r="430" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B430" s="1">
         <v>45231</v>
       </c>
@@ -21028,7 +22634,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="431" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B431" s="1">
         <v>45232</v>
       </c>
@@ -21069,7 +22675,7 @@
         <v>80200</v>
       </c>
     </row>
-    <row r="432" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B432" s="1">
         <v>45233</v>
       </c>
@@ -21080,7 +22686,7 @@
         <v>45600</v>
       </c>
     </row>
-    <row r="433" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B433" s="1">
         <v>45234</v>
       </c>
@@ -21091,7 +22697,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="434" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B434" s="1">
         <v>45234</v>
       </c>
@@ -21112,7 +22718,7 @@
       <c r="N434" s="26"/>
       <c r="O434" s="26"/>
     </row>
-    <row r="435" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B435" s="1">
         <v>45234</v>
       </c>
@@ -21147,7 +22753,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="436" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B436" s="1">
         <v>45238</v>
       </c>
@@ -21188,7 +22794,7 @@
         <v>106600</v>
       </c>
     </row>
-    <row r="437" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B437" s="1">
         <v>45238</v>
       </c>
@@ -21199,7 +22805,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="438" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B438" s="1">
         <v>45238</v>
       </c>
@@ -21210,7 +22816,7 @@
         <v>98800</v>
       </c>
     </row>
-    <row r="439" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B439" s="1">
         <v>45238</v>
       </c>
@@ -21231,7 +22837,7 @@
       <c r="N439" s="26"/>
       <c r="O439" s="26"/>
     </row>
-    <row r="440" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B440" s="1">
         <v>45238</v>
       </c>
@@ -21266,7 +22872,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="441" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B441" s="1">
         <v>45240</v>
       </c>
@@ -21307,7 +22913,7 @@
         <v>171400</v>
       </c>
     </row>
-    <row r="442" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B442" s="1">
         <v>45240</v>
       </c>
@@ -21318,7 +22924,7 @@
         <v>168000</v>
       </c>
     </row>
-    <row r="443" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B443" s="1">
         <v>45240</v>
       </c>
@@ -21329,7 +22935,7 @@
         <v>57000</v>
       </c>
     </row>
-    <row r="444" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B444" s="1">
         <v>45240</v>
       </c>
@@ -21350,7 +22956,7 @@
       <c r="N444" s="26"/>
       <c r="O444" s="26"/>
     </row>
-    <row r="445" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B445" s="1">
         <v>45240</v>
       </c>
@@ -21385,7 +22991,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="446" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B446" s="1">
         <v>45240</v>
       </c>
@@ -21426,7 +23032,7 @@
         <v>140400</v>
       </c>
     </row>
-    <row r="447" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B447" s="1">
         <v>45241</v>
       </c>
@@ -21437,7 +23043,7 @@
         <v>510000</v>
       </c>
     </row>
-    <row r="448" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B448" s="1">
         <v>45241</v>
       </c>
@@ -21448,7 +23054,7 @@
         <v>532000</v>
       </c>
     </row>
-    <row r="449" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B449" s="1">
         <v>45241</v>
       </c>
@@ -21469,7 +23075,7 @@
       <c r="N449" s="26"/>
       <c r="O449" s="26"/>
     </row>
-    <row r="450" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B450" s="1">
         <v>45241</v>
       </c>
@@ -21504,7 +23110,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="451" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B451" s="1">
         <v>45244</v>
       </c>
@@ -21545,7 +23151,7 @@
         <v>276200</v>
       </c>
     </row>
-    <row r="452" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B452" s="1">
         <v>45245</v>
       </c>
@@ -21556,7 +23162,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="453" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B453" s="1">
         <v>45245</v>
       </c>
@@ -21567,7 +23173,7 @@
         <v>98800</v>
       </c>
     </row>
-    <row r="454" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B454" s="1">
         <v>45245</v>
       </c>
@@ -21585,7 +23191,7 @@
       <c r="K454" s="27"/>
       <c r="L454" s="27"/>
     </row>
-    <row r="455" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B455" s="1">
         <v>45247</v>
       </c>
@@ -21611,7 +23217,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="456" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B456" s="1">
         <v>45247</v>
       </c>
@@ -21641,7 +23247,7 @@
         <v>12284300</v>
       </c>
     </row>
-    <row r="457" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B457" s="1">
         <v>45248</v>
       </c>
@@ -21652,7 +23258,7 @@
         <v>49400</v>
       </c>
     </row>
-    <row r="458" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B458" s="1">
         <v>45248</v>
       </c>
@@ -21663,7 +23269,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="459" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B459" s="1">
         <v>45248</v>
       </c>
@@ -21674,7 +23280,7 @@
         <v>15200</v>
       </c>
     </row>
-    <row r="460" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B460" s="1">
         <v>45250</v>
       </c>
@@ -21685,7 +23291,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="461" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B461" s="1">
         <v>45250</v>
       </c>
@@ -21696,7 +23302,7 @@
         <v>52500</v>
       </c>
     </row>
-    <row r="462" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B462" s="1">
         <v>45250</v>
       </c>
@@ -21707,7 +23313,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="463" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B463" s="1">
         <v>45250</v>
       </c>
@@ -21718,7 +23324,7 @@
         <v>126000</v>
       </c>
     </row>
-    <row r="464" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B464" s="1">
         <v>45251</v>
       </c>
@@ -21729,7 +23335,7 @@
         <v>168000</v>
       </c>
     </row>
-    <row r="465" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B465" s="1">
         <v>45251</v>
       </c>
@@ -21740,7 +23346,7 @@
         <v>60800</v>
       </c>
     </row>
-    <row r="466" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B466" s="1">
         <v>45252</v>
       </c>
@@ -21751,7 +23357,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="467" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B467" s="1">
         <v>45252</v>
       </c>
@@ -21762,7 +23368,7 @@
         <v>49400</v>
       </c>
     </row>
-    <row r="468" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B468" s="1">
         <v>45252</v>
       </c>
@@ -21773,7 +23379,7 @@
         <v>126000</v>
       </c>
     </row>
-    <row r="469" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B469" s="1">
         <v>45252</v>
       </c>
@@ -21784,7 +23390,7 @@
         <v>45600</v>
       </c>
     </row>
-    <row r="470" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B470" s="1">
         <v>45253</v>
       </c>
@@ -21795,7 +23401,7 @@
         <v>126000</v>
       </c>
     </row>
-    <row r="471" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B471" s="1">
         <v>45253</v>
       </c>
@@ -21806,7 +23412,7 @@
         <v>30400</v>
       </c>
     </row>
-    <row r="472" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B472" s="1">
         <v>45253</v>
       </c>
@@ -21817,7 +23423,7 @@
         <v>269500</v>
       </c>
     </row>
-    <row r="473" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B473" s="1">
         <v>45253</v>
       </c>
@@ -21828,7 +23434,7 @@
         <v>175000</v>
       </c>
     </row>
-    <row r="474" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B474" s="1">
         <v>45254</v>
       </c>
@@ -21839,7 +23445,7 @@
         <v>252000</v>
       </c>
     </row>
-    <row r="475" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B475" s="1">
         <v>45254</v>
       </c>
@@ -21850,7 +23456,7 @@
         <v>76000</v>
       </c>
     </row>
-    <row r="476" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B476" s="1">
         <v>45254</v>
       </c>
@@ -21861,7 +23467,7 @@
         <v>22800</v>
       </c>
     </row>
-    <row r="477" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B477" s="1">
         <v>45254</v>
       </c>
@@ -21872,7 +23478,7 @@
         <v>175000</v>
       </c>
     </row>
-    <row r="478" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B478" s="1">
         <v>45254</v>
       </c>
@@ -21883,7 +23489,7 @@
         <v>22800</v>
       </c>
     </row>
-    <row r="479" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B479" s="1">
         <v>45254</v>
       </c>
@@ -21894,7 +23500,7 @@
         <v>76000</v>
       </c>
     </row>
-    <row r="480" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B480" s="1">
         <v>45254</v>
       </c>
@@ -21905,7 +23511,7 @@
         <v>252000</v>
       </c>
     </row>
-    <row r="481" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B481" s="1">
         <v>45255</v>
       </c>
@@ -21916,7 +23522,7 @@
         <v>66400</v>
       </c>
     </row>
-    <row r="482" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B482" s="1">
         <v>45255</v>
       </c>
@@ -21927,7 +23533,7 @@
         <v>114000</v>
       </c>
     </row>
-    <row r="483" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B483" s="1">
         <v>45255</v>
       </c>
@@ -21938,7 +23544,7 @@
         <v>252000</v>
       </c>
     </row>
-    <row r="484" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B484" s="1">
         <v>45257</v>
       </c>
@@ -21949,7 +23555,7 @@
         <v>147000</v>
       </c>
     </row>
-    <row r="485" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B485" s="1">
         <v>45257</v>
       </c>
@@ -21960,7 +23566,7 @@
         <v>1050000</v>
       </c>
     </row>
-    <row r="486" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B486" s="1">
         <v>45258</v>
       </c>
@@ -21971,7 +23577,7 @@
         <v>126000</v>
       </c>
     </row>
-    <row r="487" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B487" s="1">
         <v>45258</v>
       </c>
@@ -21982,7 +23588,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="488" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B488" s="1">
         <v>45258</v>
       </c>
@@ -21993,7 +23599,7 @@
         <v>91200</v>
       </c>
     </row>
-    <row r="489" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B489" s="1">
         <v>45258</v>
       </c>
@@ -22004,7 +23610,7 @@
         <v>79800</v>
       </c>
     </row>
-    <row r="490" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B490" s="1">
         <v>45258</v>
       </c>
@@ -22015,7 +23621,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="491" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B491" s="1">
         <v>45259</v>
       </c>
@@ -22026,7 +23632,7 @@
         <v>126000</v>
       </c>
     </row>
-    <row r="492" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B492" s="1">
         <v>45259</v>
       </c>
@@ -22037,7 +23643,7 @@
         <v>45600</v>
       </c>
     </row>
-    <row r="493" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B493" s="1">
         <v>45259</v>
       </c>
@@ -22048,7 +23654,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="494" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B494" s="1">
         <v>45259</v>
       </c>
@@ -22059,7 +23665,7 @@
         <v>126000</v>
       </c>
     </row>
-    <row r="495" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B495" s="1">
         <v>45259</v>
       </c>
@@ -22070,7 +23676,7 @@
         <v>11400</v>
       </c>
     </row>
-    <row r="496" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B496" s="1">
         <v>45259</v>
       </c>
@@ -22081,7 +23687,7 @@
         <v>53200</v>
       </c>
     </row>
-    <row r="497" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B497" s="1">
         <v>45259</v>
       </c>
@@ -22092,7 +23698,7 @@
         <v>45600</v>
       </c>
     </row>
-    <row r="498" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B498" s="1">
         <v>45260</v>
       </c>
@@ -22103,7 +23709,7 @@
         <v>126000</v>
       </c>
     </row>
-    <row r="499" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B499" s="1">
         <v>45260</v>
       </c>
@@ -22114,7 +23720,7 @@
         <v>77000</v>
       </c>
     </row>
-    <row r="500" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B500" s="1">
         <v>45260</v>
       </c>
@@ -22125,7 +23731,7 @@
         <v>91200</v>
       </c>
     </row>
-    <row r="501" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B501" s="1">
         <v>45260</v>
       </c>
@@ -22136,7 +23742,7 @@
         <v>91200</v>
       </c>
     </row>
-    <row r="502" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B502" s="1">
         <v>45260</v>
       </c>
@@ -22520,6 +24126,16 @@
       <c r="F519" s="14">
         <v>76000</v>
       </c>
+      <c r="H519" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="I519" s="26"/>
+      <c r="J519" s="26"/>
+      <c r="K519" s="26"/>
+      <c r="L519" s="26"/>
+      <c r="M519" s="26"/>
+      <c r="N519" s="26"/>
+      <c r="O519" s="26"/>
     </row>
     <row r="520" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B520" s="1">
@@ -22531,6 +24147,30 @@
       <c r="F520" s="14">
         <v>91200</v>
       </c>
+      <c r="H520" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I520" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="J520" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K520" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="L520" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M520" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="N520" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O520" s="16" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="521" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B521" s="1">
@@ -22542,6 +24182,33 @@
       <c r="F521" s="14">
         <v>126000</v>
       </c>
+      <c r="H521" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I521" s="16">
+        <f>SUM($C609:$C620)</f>
+        <v>106</v>
+      </c>
+      <c r="J521" s="16">
+        <f>SUM(D609:D620)</f>
+        <v>120</v>
+      </c>
+      <c r="K521" s="16">
+        <f>SUM(E609:E620)</f>
+        <v>0</v>
+      </c>
+      <c r="L521" s="16">
+        <f>SUM(I521:K521)</f>
+        <v>226</v>
+      </c>
+      <c r="M521" s="24">
+        <f>L521*600</f>
+        <v>135600</v>
+      </c>
+      <c r="N521" s="24">
+        <v>30000</v>
+      </c>
+      <c r="O521" s="24"/>
     </row>
     <row r="522" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B522" s="1">
@@ -22575,6 +24242,13 @@
       <c r="F524" s="14">
         <v>252000</v>
       </c>
+      <c r="H524" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="I524" s="27"/>
+      <c r="J524" s="27"/>
+      <c r="K524" s="27"/>
+      <c r="L524" s="27"/>
     </row>
     <row r="525" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B525" s="1">
@@ -22586,6 +24260,21 @@
       <c r="F525" s="14">
         <v>114000</v>
       </c>
+      <c r="H525" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I525" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J525" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K525" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L525" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="526" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B526" s="1">
@@ -22597,6 +24286,25 @@
       <c r="F526" s="14">
         <v>59500</v>
       </c>
+      <c r="H526" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I526" s="2">
+        <f>SUM(C503:C620)</f>
+        <v>904</v>
+      </c>
+      <c r="J526" s="2">
+        <f>SUM(D503:D620)</f>
+        <v>3133</v>
+      </c>
+      <c r="K526" s="2">
+        <f>SUM(E503:E620)</f>
+        <v>241</v>
+      </c>
+      <c r="L526" s="12">
+        <f>SUM(F503:F620)</f>
+        <v>15409400</v>
+      </c>
     </row>
     <row r="527" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B527" s="1">
@@ -23500,9 +25208,141 @@
         <v>126000</v>
       </c>
     </row>
+    <row r="609" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B609" s="1">
+        <v>45286</v>
+      </c>
+      <c r="C609">
+        <v>7</v>
+      </c>
+      <c r="F609" s="14">
+        <v>24500</v>
+      </c>
+    </row>
+    <row r="610" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B610" s="1">
+        <v>45286</v>
+      </c>
+      <c r="D610">
+        <v>30</v>
+      </c>
+      <c r="F610" s="14">
+        <v>114000</v>
+      </c>
+    </row>
+    <row r="611" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B611" s="1">
+        <v>45286</v>
+      </c>
+      <c r="C611">
+        <v>24</v>
+      </c>
+      <c r="F611" s="14">
+        <v>88800</v>
+      </c>
+    </row>
+    <row r="612" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B612" s="1">
+        <v>45286</v>
+      </c>
+      <c r="C612">
+        <v>19</v>
+      </c>
+      <c r="F612" s="14">
+        <v>72200</v>
+      </c>
+    </row>
+    <row r="613" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B613" s="1">
+        <v>45288</v>
+      </c>
+      <c r="C613">
+        <v>17</v>
+      </c>
+      <c r="F613" s="14">
+        <v>59500</v>
+      </c>
+    </row>
+    <row r="614" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B614" s="1">
+        <v>45288</v>
+      </c>
+      <c r="D614">
+        <v>6</v>
+      </c>
+      <c r="F614" s="14">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="615" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B615" s="1">
+        <v>45288</v>
+      </c>
+      <c r="D615">
+        <v>20</v>
+      </c>
+      <c r="F615" s="14">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="616" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B616" s="1">
+        <v>45288</v>
+      </c>
+      <c r="C616">
+        <v>2</v>
+      </c>
+      <c r="F616" s="14">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="617" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B617" s="1">
+        <v>45288</v>
+      </c>
+      <c r="D617">
+        <v>28</v>
+      </c>
+      <c r="F617" s="14">
+        <v>98000</v>
+      </c>
+    </row>
+    <row r="618" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B618" s="1">
+        <v>45288</v>
+      </c>
+      <c r="D618">
+        <v>36</v>
+      </c>
+      <c r="F618" s="14">
+        <v>126000</v>
+      </c>
+    </row>
+    <row r="619" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B619" s="1">
+        <v>45289</v>
+      </c>
+      <c r="C619">
+        <v>4</v>
+      </c>
+      <c r="F619" s="14">
+        <v>15200</v>
+      </c>
+    </row>
+    <row r="620" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B620" s="1">
+        <v>45289</v>
+      </c>
+      <c r="C620">
+        <v>33</v>
+      </c>
+      <c r="F620" s="14">
+        <v>128500</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="H515:O515"/>
+  <mergeCells count="59">
+    <mergeCell ref="H524:L524"/>
     <mergeCell ref="H319:O319"/>
     <mergeCell ref="I47:M47"/>
     <mergeCell ref="H204:O204"/>
@@ -23545,20 +25385,22 @@
     <mergeCell ref="H236:O236"/>
     <mergeCell ref="H130:O130"/>
     <mergeCell ref="H90:O90"/>
-    <mergeCell ref="H392:O392"/>
-    <mergeCell ref="H449:O449"/>
-    <mergeCell ref="H454:L454"/>
-    <mergeCell ref="H444:O444"/>
     <mergeCell ref="H334:L334"/>
     <mergeCell ref="H387:O387"/>
     <mergeCell ref="H429:O429"/>
     <mergeCell ref="H407:L407"/>
     <mergeCell ref="H434:O434"/>
+    <mergeCell ref="H397:O397"/>
+    <mergeCell ref="H392:O392"/>
+    <mergeCell ref="H449:O449"/>
+    <mergeCell ref="H454:L454"/>
+    <mergeCell ref="H444:O444"/>
+    <mergeCell ref="H519:O519"/>
     <mergeCell ref="H509:O509"/>
     <mergeCell ref="H504:O504"/>
     <mergeCell ref="H439:O439"/>
     <mergeCell ref="H402:O402"/>
-    <mergeCell ref="H397:O397"/>
+    <mergeCell ref="H515:O515"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23574,22 +25416,133 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{737E33FE-FA4A-4B36-8A12-8DCA5EC89294}">
+  <dimension ref="B2:L5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="H2" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="H3" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="J3" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="K3" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="L3" s="46" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2">
+        <f>SUM(Tabla4[SEBASTIÁN])</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <f>SUM(Tabla4[ANGELICA])</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <f>SUM(Tabla4[ALEJANDRO])</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <f>SUM(Tabla4[VALOR VENTA])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:F4"/>
+    <mergeCell ref="H2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177C65E7-ABAF-478A-B722-1D61D68893B9}">
-  <dimension ref="B3:O5"/>
+  <dimension ref="B3:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
@@ -23671,26 +25624,85 @@
       <c r="M4" s="25">
         <v>12284300</v>
       </c>
-      <c r="N4" s="25"/>
+      <c r="N4" s="25">
+        <v>15409400</v>
+      </c>
       <c r="O4" s="16">
         <v>2023</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
+      <c r="B5" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="43">
+        <f>((D4/100)*10)+D4</f>
+        <v>3407690</v>
+      </c>
+      <c r="E6" s="43">
+        <f t="shared" ref="E6:N6" si="0">((E4/100)*10)+E4</f>
+        <v>8492000</v>
+      </c>
+      <c r="F6" s="43">
+        <f t="shared" si="0"/>
+        <v>6200040</v>
+      </c>
+      <c r="G6" s="43">
+        <f t="shared" si="0"/>
+        <v>12764400</v>
+      </c>
+      <c r="H6" s="43">
+        <f t="shared" si="0"/>
+        <v>5008850</v>
+      </c>
+      <c r="I6" s="43">
+        <f t="shared" si="0"/>
+        <v>2281400</v>
+      </c>
+      <c r="J6" s="43">
+        <f t="shared" si="0"/>
+        <v>4363260</v>
+      </c>
+      <c r="K6" s="43">
+        <f t="shared" si="0"/>
+        <v>12808950</v>
+      </c>
+      <c r="L6" s="43">
+        <f t="shared" si="0"/>
+        <v>3819310</v>
+      </c>
+      <c r="M6" s="43">
+        <f t="shared" si="0"/>
+        <v>13512730</v>
+      </c>
+      <c r="N6" s="43">
+        <f t="shared" si="0"/>
+        <v>16950340</v>
+      </c>
+      <c r="O6" s="47">
+        <v>0.1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23698,7 +25710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA25A09-945B-4466-8A96-FEE072070DC9}">
   <dimension ref="C6:G191"/>
   <sheetViews>
@@ -26674,7 +28686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{966E5A06-10F1-4906-9A3C-BAFEC413B32A}">
   <dimension ref="B3:D5"/>
   <sheetViews>
@@ -26726,10 +28738,10 @@
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26737,7 +28749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B4:I5"/>
   <sheetViews>
